--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8C110E-0D75-8F4A-A374-98853D739A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02690407-3720-B440-9729-CB4C522385EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="9" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Welcome" sheetId="13" r:id="rId1"/>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="503">
   <si>
     <t>bit</t>
   </si>
@@ -1312,9 +1312,6 @@
   </si>
   <si>
     <t>## 8 Contributors</t>
-  </si>
-  <si>
-    <t>Thanks to my friends encouraging me to share our "like-py.xlsx" with you</t>
   </si>
   <si>
     <t>1 Welcome</t>
@@ -1371,9 +1368,6 @@
   </si>
   <si>
     <t>with a Search that finds</t>
-  </si>
-  <si>
-    <t>the LAMBDA and LET functions explained (poorly) inside</t>
   </si>
   <si>
     <t>to launch the Microsoft AutoUpdate app, and then</t>
@@ -1553,12 +1547,6 @@
     </r>
   </si>
   <si>
-    <t>You no longer have to type your code all out over again</t>
-  </si>
-  <si>
-    <t>as often you need your code to come work with you again,</t>
-  </si>
-  <si>
     <t>Excel &gt; Tab Formulas &gt; Define Name</t>
   </si>
   <si>
@@ -1574,9 +1562,6 @@
     <t>=LAMBDA(chars,
     LEFT(chars,FIND(" ",chars))
 )</t>
-  </si>
-  <si>
-    <t>Name it and call it</t>
   </si>
   <si>
     <t>=str.word("Hello Xlsx Like Py")</t>
@@ -1643,9 +1628,6 @@
     <t>These are our early days, not much here yet</t>
   </si>
   <si>
-    <t xml:space="preserve"> If you look for something difficult, you won't find here</t>
-  </si>
-  <si>
     <t>If you surprise this code with new test cases, it will betray you today</t>
   </si>
   <si>
@@ -1656,9 +1638,6 @@
   </si>
   <si>
     <t>for speaking the lyric line "do you love me like that",</t>
-  </si>
-  <si>
-    <t>such that I misheard the line as "do you love me like Pie?", which is a line I like lots : -)</t>
   </si>
   <si>
     <t>TL;DR: Call Python from inside Msft Beta Channel Office 365 Excel - Small Quick Xlsx Download - All Source No Binary</t>
@@ -1693,9 +1672,6 @@
   </si>
   <si>
     <t>1.4 Me personally,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I launched "pelavarre/like-py-xlsx" when they sold me </t>
   </si>
   <si>
     <t># We raise CalcError, where Excel raises ValueError, to reject negative lengths</t>
@@ -1999,6 +1975,33 @@
             IFERROR(MID(chars, last, LEN(sep)), ""),
             IFERROR(MID(chars, last + LEN(sep), LEN(chars)), "")
 )))</t>
+  </si>
+  <si>
+    <t>the LAMBDA and LET functions explained poorly inside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I launched "pelavarre/like-py-xlsx" back when they sold me </t>
+  </si>
+  <si>
+    <t>You no longer have to type your code all out over again,</t>
+  </si>
+  <si>
+    <t>as often you need your own code to come work with you again,</t>
+  </si>
+  <si>
+    <t>You can name it and you can call it by name</t>
+  </si>
+  <si>
+    <t>(or has Microsoft even opened up web spaces somewhere, as welcoming as Google Sheets?)</t>
+  </si>
+  <si>
+    <t>If you look for something difficult, you won't find here</t>
+  </si>
+  <si>
+    <t>Thanks to my friends for encouraging me to share our "like-py.xlsx" with you</t>
+  </si>
+  <si>
+    <t>such that I misheard this line as "do you love me like Pie?", which is a line I like lots : -)</t>
   </si>
 </sst>
 </file>
@@ -2597,9 +2600,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{517CFC20-DDAA-7A41-A85E-ED9D5B318B48}">
-  <dimension ref="B3:G164"/>
+  <dimension ref="B3:G165"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2621,7 +2624,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -2631,43 +2634,43 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G17" s="36"/>
     </row>
@@ -2677,7 +2680,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -2687,84 +2690,84 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="35" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>359</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2772,37 +2775,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>425</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -2812,7 +2815,7 @@
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="38" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2829,7 +2832,7 @@
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2853,27 +2856,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="38" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2888,22 +2891,22 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
       <c r="E81" s="38" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -2921,24 +2924,24 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="36" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D85" s="36"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="36" t="s">
-        <v>385</v>
+        <v>496</v>
       </c>
       <c r="D86" s="36"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="36" t="s">
-        <v>386</v>
+        <v>497</v>
       </c>
       <c r="D87" s="36"/>
     </row>
@@ -2948,7 +2951,7 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
@@ -2958,32 +2961,32 @@
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="E97" s="38" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>392</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="27" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -2994,22 +2997,22 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -3024,12 +3027,12 @@
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
@@ -3037,138 +3040,143 @@
         <v>338</v>
       </c>
     </row>
-    <row r="120" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C120" t="s">
-        <v>400</v>
+    <row r="119" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="123" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C123" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="125" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="27" t="s">
-        <v>404</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="124" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E126" t="str" cm="1">
-        <f t="array" ref="E126">list.item(str.rpartition("C:\My Documents\like-py.xlsx", "\"), -1)</f>
+      <c r="E126" s="27" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="127" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E127" t="str" cm="1">
+        <f t="array" ref="E127">list.item(str.rpartition("C:\My Documents\like-py.xlsx", "\"), -1)</f>
         <v>C:\My Documents</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" t="s">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C131" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="35" t="s">
-        <v>408</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="35"/>
+      <c r="C135" s="35" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D136" t="s">
-        <v>409</v>
-      </c>
+      <c r="C136" s="35"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D139" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C151" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C153" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>416</v>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D852BB-57DF-6140-815D-350948B01B5D}">
   <dimension ref="B3:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4272,22 +4280,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4321,7 +4329,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4334,7 +4342,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4368,7 +4376,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4534,7 +4542,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -4542,17 +4550,17 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4563,7 +4571,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4571,10 +4579,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -4586,7 +4594,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4598,7 +4606,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -4640,7 +4648,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4714,7 +4722,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -4808,7 +4816,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -4884,7 +4892,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="E48" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4892,10 +4900,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4907,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -4977,10 +4985,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -4992,12 +5000,12 @@
         <v>0</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="22" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -5070,7 +5078,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -5208,7 +5216,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -5342,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -5366,7 +5374,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -5378,7 +5386,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
@@ -5464,7 +5472,7 @@
         <v>-0.4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -5558,7 +5566,7 @@
         <v>0.5</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -5579,7 +5587,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E152" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5587,10 +5595,10 @@
         <v>40</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -5604,12 +5612,12 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E157" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E158" s="2" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -5617,7 +5625,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -5631,17 +5639,17 @@
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="10" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="10" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5667,22 +5675,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5716,7 +5724,7 @@
         <v>89</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5728,7 +5736,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5740,7 +5748,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -5845,7 +5853,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5857,7 +5865,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5869,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -5894,7 +5902,7 @@
         <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5913,7 +5921,7 @@
     </row>
     <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E45" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -5956,17 +5964,17 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" s="8" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -6003,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -6015,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -6047,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6148,7 +6156,7 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
@@ -6172,7 +6180,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -6199,7 +6207,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E38" s="3" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -6211,7 +6219,7 @@
         <v/>
       </c>
       <c r="E39" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -6271,7 +6279,7 @@
         <v>ab'cd</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -6295,7 +6303,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -6386,7 +6394,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -6398,7 +6406,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -6407,24 +6415,24 @@
         <v>#NUM!</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E63" s="10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
       <c r="E64" s="10" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
@@ -6494,7 +6502,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -6547,7 +6555,7 @@
         <v>512</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -6563,7 +6571,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -6572,7 +6580,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -6582,7 +6590,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E93" s="10" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -6592,7 +6600,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E96" s="10" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
@@ -6602,12 +6610,12 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E99" s="10" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="15" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>156</v>
@@ -6626,18 +6634,18 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="15" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C105" s="10"/>
       <c r="E105" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="E106" s="22" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
@@ -6707,7 +6715,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="15" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>289</v>
@@ -6728,7 +6736,7 @@
     </row>
     <row r="123" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E123" s="2" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
@@ -6875,7 +6883,7 @@
     </row>
     <row r="148" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E148" s="2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -6937,7 +6945,7 @@
     </row>
     <row r="167" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E167" s="10" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -7432,14 +7440,14 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -8211,7 +8219,7 @@
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="5" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
@@ -8467,7 +8475,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -8596,7 +8604,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02690407-3720-B440-9729-CB4C522385EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F3659-4FC9-2B45-8FC2-FD1B41550F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
@@ -71,7 +71,7 @@
     <definedName name="str.partition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
     <definedName name="str.repr">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, 1),          _xlpm.slashes, IF(_xlpm.picks = "\", "\\", _xlpm.picks),          _xlpm.ticks, IF(_xlpm.picks = "'", "\'", _xlpm.slashes),          _xlpm.doubles, IF(_xlpm.picks = """", "\""", _xlpm.ticks),          _xlpm.ignore_empty, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty, _xlpm.doubles),          _xlpm.quoted, "'" &amp; _xlpm.joined &amp; "'",          _xlpm.quoted  ))</definedName>
     <definedName name="str.rpartition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.reverse, -1,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact, _xlpm.reverse),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
-    <definedName name="str.word">_xlfn.LAMBDA(_xlpm.chars,      LEFT(_xlpm.chars,FIND(" ",_xlpm.chars))  )</definedName>
+    <definedName name="str.word">_xlfn.LAMBDA(_xlpm.chars,      LEFT(_xlpm.chars, FIND(" ",_xlpm.chars) - 1)  )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="518">
   <si>
     <t>bit</t>
   </si>
@@ -375,21 +375,6 @@
     <t>bool.str(bit)</t>
   </si>
   <si>
-    <t>one object obj</t>
-  </si>
-  <si>
-    <t>or float,</t>
-  </si>
-  <si>
-    <t>bool,</t>
-  </si>
-  <si>
-    <t>or str of chars,</t>
-  </si>
-  <si>
-    <t>or list of numbered items</t>
-  </si>
-  <si>
     <t>def bool.str(bit)</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
   </si>
   <si>
     <t># Bool of lists of &gt;= 2 items would be always True</t>
-  </si>
-  <si>
-    <t>may be</t>
   </si>
   <si>
     <t>SEQUENCE(3)</t>
@@ -575,12 +557,6 @@
   </si>
   <si>
     <t>list.repr(items)</t>
-  </si>
-  <si>
-    <t>one list</t>
-  </si>
-  <si>
-    <t>of numbered items</t>
   </si>
   <si>
     <t>def str.bool(chars)</t>
@@ -847,9 +823,6 @@
   </si>
   <si>
     <t>def float.as_integer_ratio(f)</t>
-  </si>
-  <si>
-    <t>for when you got</t>
   </si>
   <si>
     <t>@</t>
@@ -1559,14 +1532,6 @@
     <t>Select the range of cells:</t>
   </si>
   <si>
-    <t>=LAMBDA(chars,
-    LEFT(chars,FIND(" ",chars))
-)</t>
-  </si>
-  <si>
-    <t>=str.word("Hello Xlsx Like Py")</t>
-  </si>
-  <si>
     <t>Beware the placement of spaces</t>
   </si>
   <si>
@@ -1643,34 +1608,6 @@
     <t>TL;DR: Call Python from inside Msft Beta Channel Office 365 Excel - Small Quick Xlsx Download - All Source No Binary</t>
   </si>
   <si>
-    <t>=LEFT(
-    "Hello Xlsx Like Py",
-    FIND(" ", "Hello Xlsx Like Py")
-)</t>
-  </si>
-  <si>
-    <t>=LET(
-    chars, "Hello Xlsx Like Py",
-    LEFT(
-        chars,
-        FIND(" ", chars))
-)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(chars,
-    LEFT(
-        chars,
-        FIND(" ", chars))
-)("Hello Xlsx Like Py")</t>
-  </si>
-  <si>
-    <t>=LAMBDA(chars,
-    LEFT(
-        chars,
-        FIND(" ", chars))
-)</t>
-  </si>
-  <si>
     <t>1.4 Me personally,</t>
   </si>
   <si>
@@ -1782,22 +1719,6 @@
     <t># Excel does Not distinguish Floats of integers from Ints of integers</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">for when you have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one str of chars</t>
-    </r>
-  </si>
-  <si>
     <t>but you want Str, Float, or Int</t>
   </si>
   <si>
@@ -1808,38 +1729,6 @@
   </si>
   <si>
     <t>except do remember Excel lets you call Bool and Float methods on Ints</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">for when you have one </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Float named "f"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>for when you have one</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Int named "i"</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1864,9 +1753,6 @@
     <t>except do remember Excel lets you call Bool and Int methods on Floats</t>
   </si>
   <si>
-    <t>but you want Bool, Int, Float, List, or other Str's of Chars</t>
-  </si>
-  <si>
     <t># same code for:  def bool.ascii/ .repr/ .str</t>
   </si>
   <si>
@@ -1980,9 +1866,6 @@
     <t>the LAMBDA and LET functions explained poorly inside</t>
   </si>
   <si>
-    <t xml:space="preserve">I launched "pelavarre/like-py-xlsx" back when they sold me </t>
-  </si>
-  <si>
     <t>You no longer have to type your code all out over again,</t>
   </si>
   <si>
@@ -2002,6 +1885,194 @@
   </si>
   <si>
     <t>such that I misheard this line as "do you love me like Pie?", which is a line I like lots : -)</t>
+  </si>
+  <si>
+    <t>I launched "pelavarre/like-py-xlsx" back when they sold me</t>
+  </si>
+  <si>
+    <t>=LEFT(
+    "Hello Xlsx Like Py",
+    FIND(" ", "Hello Xlsx Like Py") - 1
+)</t>
+  </si>
+  <si>
+    <t>=LET(
+    chars, "Hello Xlsx Like Py",
+    LEFT(
+        chars,
+        FIND(" ", chars) - 1)
+)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LEFT(
+        chars,
+        FIND(" ", chars) - 1)
+)("Hello Xlsx Like Py")</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LEFT(
+        chars,
+        FIND(" ", chars) - 1)
+)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LEFT(chars, FIND(" ",chars) - 1)
+)</t>
+  </si>
+  <si>
+    <t>= "'" &amp; str.word("Hello Xlsx Like Py") &amp; "'"</t>
+  </si>
+  <si>
+    <t>Str</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <r>
+      <t>for when you have one</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I of Int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for when you have one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F of Float</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one Str of Chars</t>
+    </r>
+  </si>
+  <si>
+    <t>but you want Bool, Int, Float, List, or more Str's of Chars</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one List of Item's</t>
+    </r>
+  </si>
+  <si>
+    <t>but you want Bool, Int, Str, or more List's of Item's</t>
+  </si>
+  <si>
+    <t>def list.len(items)</t>
+  </si>
+  <si>
+    <t># TODO: implement list.len</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one Object</t>
+    </r>
+  </si>
+  <si>
+    <t>tagged by some Excel Type Code such as 4 Bool, 1 Int or Float, 16 Exception, 64 List, or 2 Str</t>
+  </si>
+  <si>
+    <t>(and probably not tagged by the poorly doc'ed Excel Type Codes of 0, 8, 32, and 128)</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Next Sheet</t>
+  </si>
+  <si>
+    <t>⌥ →</t>
+  </si>
+  <si>
+    <t>⌥ ←</t>
+  </si>
+  <si>
+    <t>Previous Sheet</t>
+  </si>
+  <si>
+    <t>⌃ ⌘ Space</t>
+  </si>
+  <si>
+    <t>macOS Character Viewer Favorites</t>
+  </si>
+  <si>
+    <t>⌘ ↑</t>
+  </si>
+  <si>
+    <t>Move cursor to home left of line</t>
+  </si>
+  <si>
+    <t>⌘ ↓</t>
+  </si>
+  <si>
+    <t>Move cursor to right end of line</t>
+  </si>
+  <si>
+    <t>⇧ ⌘ ↑</t>
+  </si>
+  <si>
+    <t>⇧ ⌘ ↓</t>
+  </si>
+  <si>
+    <t>Extend selection to home left of line</t>
+  </si>
+  <si>
+    <t>Extend selection to right end of line</t>
   </si>
 </sst>
 </file>
@@ -2611,12 +2682,12 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -2624,53 +2695,53 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G17" s="36"/>
     </row>
@@ -2680,94 +2751,94 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="35" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="35" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2775,37 +2846,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -2815,16 +2886,16 @@
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="38" t="s">
-        <v>413</v>
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E60" s="2" t="str">
         <f>LEFT(
     "Hello Xlsx Like Py",
-    FIND(" ", "Hello Xlsx Like Py")
+    FIND(" ", "Hello Xlsx Like Py") - 1
 )</f>
-        <v xml:space="preserve">Hello </v>
+        <v>Hello</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -2832,7 +2903,7 @@
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
-        <v>414</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2841,9 +2912,9 @@
     _xlpm.chars, "Hello Xlsx Like Py",
     LEFT(
         _xlpm.chars,
-        FIND(" ", _xlpm.chars))
+        FIND(" ", _xlpm.chars) - 1)
 )</f>
-        <v xml:space="preserve">Hello </v>
+        <v>Hello</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -2856,27 +2927,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="38" t="s">
-        <v>415</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2884,29 +2955,29 @@
         <f t="array" ref="E73">_xlfn.LAMBDA(_xlpm.chars,
     LEFT(
         _xlpm.chars,
-        FIND(" ", _xlpm.chars))
+        FIND(" ", _xlpm.chars) - 1)
 )("Hello Xlsx Like Py")</f>
-        <v xml:space="preserve">Hello </v>
+        <v>Hello</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
       <c r="E81" s="38" t="s">
-        <v>416</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -2914,7 +2985,7 @@
         <f t="array" ref="E82">_xlfn.LAMBDA(_xlpm.chars,
     LEFT(
         _xlpm.chars,
-        FIND(" ", _xlpm.chars))
+        FIND(" ", _xlpm.chars) - 1)
 )</f>
         <v>#VALUE!</v>
       </c>
@@ -2924,24 +2995,24 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="36" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D85" s="36"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="36" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D86" s="36"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="36" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="D87" s="36"/>
     </row>
@@ -2951,118 +3022,118 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="E97" s="38" t="s">
-        <v>387</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="27" t="s">
-        <v>388</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E102" t="str" cm="1">
-        <f t="array" ref="E102">str.word("Hello Xlsx Like Py")</f>
-        <v xml:space="preserve">Hello </v>
+      <c r="E102" s="27" t="str" cm="1">
+        <f t="array" ref="E102" xml:space="preserve"> "'" &amp; str.word("Hello Xlsx Like Py") &amp; "'"</f>
+        <v>'Hello'</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" s="27" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -3073,22 +3144,22 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" s="35" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
@@ -3096,87 +3167,87 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3272,7 @@
       <c r="C3" s="16"/>
       <c r="D3" s="10"/>
       <c r="E3" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -3209,7 +3280,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -3223,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="22"/>
@@ -3291,7 +3362,7 @@
       <c r="C15" s="16"/>
       <c r="D15" s="10"/>
       <c r="E15" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="51" x14ac:dyDescent="0.2">
@@ -3299,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="2" t="s">
@@ -3317,7 +3388,7 @@
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -3336,7 +3407,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="22" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E23" s="10"/>
     </row>
@@ -4280,22 +4351,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4313,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>49</v>
@@ -4329,7 +4400,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4342,7 +4413,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4350,7 +4421,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4358,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6" t="s">
@@ -4376,7 +4447,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4455,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>66</v>
@@ -4485,7 +4556,7 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="E34" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4542,7 +4613,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -4550,17 +4621,17 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4571,7 +4642,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4579,10 +4650,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -4594,7 +4665,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4606,7 +4677,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -4648,7 +4719,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4660,7 +4731,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -4668,10 +4739,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -4695,7 +4766,7 @@
         <v>0b1011010</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -4707,7 +4778,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -4722,7 +4793,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -4748,7 +4819,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -4760,7 +4831,7 @@
         <v>0b1000000000</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -4772,7 +4843,7 @@
         <v>0b111111111</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -4785,7 +4856,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -4793,7 +4864,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -4801,10 +4872,10 @@
         <v>23</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -4816,7 +4887,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -4828,7 +4899,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -4892,7 +4963,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="E48" s="1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4900,10 +4971,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4915,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -4931,7 +5002,7 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="E54" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -4939,10 +5010,10 @@
         <v>23</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -4977,7 +5048,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -4985,10 +5056,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -5000,12 +5071,12 @@
         <v>0</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="22" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -5016,7 +5087,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -5024,10 +5095,10 @@
         <v>23</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -5062,7 +5133,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -5078,7 +5149,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -5104,7 +5175,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -5117,7 +5188,7 @@
         <v>0x8000000000</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -5130,7 +5201,7 @@
         <v>0x7FFFFFFFFF</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -5143,7 +5214,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -5154,7 +5225,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E84" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -5162,10 +5233,10 @@
         <v>23</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -5200,7 +5271,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -5216,7 +5287,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -5242,7 +5313,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -5254,7 +5325,7 @@
         <v>0x4000000000</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -5266,7 +5337,7 @@
         <v>0x3777777777</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -5279,23 +5350,23 @@
         <v>#NUM!</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E100" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -5350,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -5374,7 +5445,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -5386,23 +5457,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E117" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -5472,7 +5543,7 @@
         <v>-0.4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -5490,18 +5561,18 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E136" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -5566,7 +5637,7 @@
         <v>0.5</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -5587,7 +5658,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E152" s="1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5595,10 +5666,10 @@
         <v>40</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -5612,12 +5683,12 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E157" s="1" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E158" s="2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -5625,7 +5696,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -5639,17 +5710,17 @@
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="1" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="10" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="10" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -5675,22 +5746,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5702,13 +5773,13 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="E11" s="10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -5721,10 +5792,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5736,7 +5807,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5748,7 +5819,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -5806,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>69</v>
@@ -5853,7 +5924,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5865,7 +5936,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5877,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -5891,7 +5962,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5899,10 +5970,10 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5921,7 +5992,7 @@
     </row>
     <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E45" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -5948,7 +6019,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E11CDF-3AD4-2A4F-915A-FBF9AA82D6D4}">
-  <dimension ref="B1:E167"/>
+  <dimension ref="B3:E169"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -5962,414 +6033,386 @@
     <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
-        <v>464</v>
+      <c r="B3" s="8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
+      <c r="B5" s="11" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="16" t="b" cm="1">
+        <f t="array" ref="C12">str.bool(B12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="21" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="9" t="s">
+      <c r="C13" s="16" t="b" cm="1">
+        <f t="array" ref="C13">str.bool(B13)</f>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="8"/>
+      <c r="E16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="C17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="21" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="b" cm="1">
-        <f t="array" ref="C10">str.bool(B10)</f>
+      <c r="C18" s="16" t="b" cm="1">
+        <f t="array" ref="C18">str.bool(B18)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="16" t="b" cm="1">
-        <f t="array" ref="C11">str.bool(B11)</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
-      <c r="E14" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="16" t="b" cm="1">
-        <f t="array" ref="C16">str.bool(B16)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="C17" s="16" t="b" cm="1">
-        <f t="array" ref="C17">str.bool(B17)</f>
-        <v>1</v>
+      <c r="E18" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="21"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="E20" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="B19" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="16" t="b" cm="1">
+        <f t="array" ref="C19">str.bool(B19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="21"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="E22" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="26"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B23" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="26" t="b" cm="1">
-        <f t="array" ref="C23">str.endswith(B23,B24)</f>
-        <v>1</v>
+      <c r="C23" s="25" t="s">
+        <v>205</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="21" t="s">
-        <v>218</v>
-      </c>
       <c r="C24" s="26"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="21"/>
-      <c r="C25" s="26"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B25" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="26" t="b" cm="1">
+        <f t="array" ref="C25">str.endswith(B25,B26)</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="26" t="b" cm="1">
-        <f t="array" ref="C26">str.endswith(B26,B27)</f>
+        <v>209</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="26"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="26" t="b" cm="1">
+        <f t="array" ref="C28">str.endswith(B28,B29)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="21"/>
-      <c r="C28" s="26"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C29" s="26" t="b" cm="1">
-        <f t="array" ref="C29">str.endswith(B29,B30)</f>
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>220</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="21"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="21"/>
+      <c r="C30" s="26"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="26" t="b" cm="1">
+        <f t="array" ref="C31">str.endswith(B31,B32)</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="26" t="b" cm="1">
-        <f t="array" ref="C32">str.endswith(B32,B33)</f>
-        <v>1</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>219</v>
+      <c r="E32" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="21"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
+      <c r="C34" s="26" t="b" cm="1">
+        <f t="array" ref="C34">str.endswith(B34,B35)</f>
+        <v>1</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="21"/>
+      <c r="B35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="1" t="s">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="9" t="s">
+    <row r="39" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="C39" s="16" t="str" cm="1">
-        <f t="array" ref="C39">str.eval(B39)</f>
-        <v/>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="16" t="str" cm="1">
-        <f t="array" ref="C40">str.eval(B40)</f>
-        <v>abc</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="C41" s="16" t="str" cm="1">
         <f t="array" ref="C41">str.eval(B41)</f>
-        <v>ab\cd</v>
+        <v/>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42" s="16" t="str" cm="1">
         <f t="array" ref="C42">str.eval(B42)</f>
-        <v>ab'cd</v>
+        <v>abc</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="21" t="s">
-        <v>85</v>
+      <c r="B43" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C43" s="16" t="str" cm="1">
         <f t="array" ref="C43">str.eval(B43)</f>
-        <v>ab"cd</v>
+        <v>ab\cd</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="16" t="str" cm="1">
         <f t="array" ref="C44">str.eval(B44)</f>
-        <v>⌃⌥⇧⌘⎋⇥⋮</v>
+        <v>ab'cd</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="16" t="str" cm="1">
+        <f t="array" ref="C45">str.eval(B45)</f>
+        <v>ab"cd</v>
+      </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="15" t="s">
-        <v>87</v>
+      <c r="B46" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C46" s="16" t="str" cm="1">
         <f t="array" ref="C46">str.eval(B46)</f>
-        <v>ab'cd</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>476</v>
-      </c>
+        <v>⌃⌥⇧⌘⎋⇥⋮</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="21"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="21" t="s">
-        <v>203</v>
+      <c r="B48" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C48" s="16" t="str" cm="1">
         <f t="array" ref="C48">str.eval(B48)</f>
+        <v>ab'cd</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="16" t="str" cm="1">
+        <f t="array" ref="C50">str.eval(B50)</f>
         <v>bcde</v>
       </c>
-      <c r="E48" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" s="16" t="e" cm="1">
-        <f t="array" ref="C49">str.eval(B49)</f>
+      <c r="E50" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="16" t="e" cm="1">
+        <f t="array" ref="C51">str.eval(B51)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E49" s="10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="15" t="s">
+      <c r="E51" s="10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E54" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C55" s="16" cm="1">
-        <f t="array" ref="C55">str.int(B55)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="10">
-        <f>VALUE(B55)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="1"/>
+      <c r="C55" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="16" cm="1">
-        <f t="array" ref="C56">str.int(B56)</f>
-        <v>123</v>
-      </c>
-      <c r="D56" s="10">
-        <f>VALUE(B56)</f>
-        <v>123</v>
-      </c>
-      <c r="E56" s="1"/>
+      <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C57" s="16" cm="1">
         <f t="array" ref="C57">str.int(B57)</f>
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="D57" s="10">
         <f>VALUE(B57)</f>
-        <v>-123</v>
+        <v>0</v>
       </c>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C58" s="16" cm="1">
         <f t="array" ref="C58">str.int(B58)</f>
@@ -6382,152 +6425,160 @@
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="16" cm="1">
+        <f t="array" ref="C59">str.int(B59)</f>
+        <v>-123</v>
+      </c>
+      <c r="D59" s="10">
+        <f>VALUE(B59)</f>
+        <v>-123</v>
+      </c>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" s="16" t="e" cm="1">
+        <v>151</v>
+      </c>
+      <c r="C60" s="16" cm="1">
         <f t="array" ref="C60">str.int(B60)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>444</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D60" s="10">
+        <f>VALUE(B60)</f>
+        <v>123</v>
+      </c>
+      <c r="E60" s="1"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="16" t="e" cm="1">
-        <f t="array" ref="C61">str.int(B61)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>443</v>
-      </c>
+      <c r="B61" s="21"/>
+      <c r="E61" s="1"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="21" t="s">
+        <v>173</v>
+      </c>
       <c r="C62" s="16" t="e" cm="1">
         <f t="array" ref="C62">str.int(B62)</f>
         <v>#NUM!</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>491</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="16" t="e" cm="1">
+        <f t="array" ref="C63">str.int(B63)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="E63" s="10" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
+      <c r="C64" s="16" t="e" cm="1">
+        <f t="array" ref="C64">str.int(B64)</f>
+        <v>#NUM!</v>
+      </c>
       <c r="E64" s="10" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E69" s="10" t="s">
-        <v>174</v>
+      <c r="E65" s="10" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E72" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E73" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="E71" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="15" t="s">
+      <c r="E74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C77" s="16" cm="1">
-        <f t="array" ref="C77">str.int_base_2(B77)</f>
+      <c r="C77" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="16" cm="1">
+        <f t="array" ref="C79">str.int_base_2(B79)</f>
         <v>0</v>
       </c>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="16" cm="1">
-        <f t="array" ref="C78">str.int_base_2(B78)</f>
-        <v>15</v>
-      </c>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="21"/>
       <c r="E79" s="1"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C80" s="16" cm="1">
         <f t="array" ref="C80">str.int_base_2(B80)</f>
         <v>15</v>
       </c>
-      <c r="E80" s="10" t="s">
-        <v>478</v>
-      </c>
+      <c r="E80" s="1"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="16" cm="1">
-        <f t="array" ref="C81">str.int_base_2(B81)</f>
-        <v>-15</v>
-      </c>
+      <c r="B81" s="21"/>
       <c r="E81" s="1"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="21" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C82" s="16" cm="1">
         <f t="array" ref="C82">str.int_base_2(B82)</f>
         <v>15</v>
       </c>
-      <c r="E82" s="1"/>
+      <c r="E82" s="10" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C83" s="16" cm="1">
         <f t="array" ref="C83">str.int_base_2(B83)</f>
@@ -6536,416 +6587,436 @@
       <c r="E83" s="1"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="16" cm="1">
+        <f t="array" ref="C84">str.int_base_2(B84)</f>
+        <v>15</v>
+      </c>
       <c r="E84" s="1"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
-        <v>177</v>
+        <v>160</v>
+      </c>
+      <c r="C85" s="16" cm="1">
+        <f t="array" ref="C85">str.int_base_2(B85)</f>
+        <v>-15</v>
       </c>
       <c r="E85" s="1"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="21" t="str">
+      <c r="B86" s="21"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="21" t="str">
         <f>"0b10"&amp;"0000"&amp;"0000"</f>
         <v>0b1000000000</v>
       </c>
-      <c r="C86" s="16" cm="1">
-        <f t="array" ref="C86">str.int_base_2(B86)</f>
+      <c r="C88" s="16" cm="1">
+        <f t="array" ref="C88">str.int_base_2(B88)</f>
         <v>512</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="21"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" s="16" t="e" cm="1">
-        <f t="array" ref="C88">str.int_base_2(B88)</f>
+      <c r="E88" s="10" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="21"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C90" s="16" t="e" cm="1">
+        <f t="array" ref="C90">str.int_base_2(B90)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C89" s="16" t="e" cm="1">
-        <f t="array" ref="C89">str.int_base_2(B89)</f>
+      <c r="E90" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C91" s="16" t="e" cm="1">
+        <f t="array" ref="C91">str.int_base_2(B91)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E92" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E93" s="10" t="s">
-        <v>481</v>
+      <c r="E91" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E95" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E96" s="10" t="s">
-        <v>482</v>
+      <c r="E95" s="10" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E97" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E99" s="10" t="s">
-        <v>483</v>
+      <c r="E98" s="10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E100" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="E102" s="2" t="s">
-        <v>171</v>
+      <c r="E101" s="10" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E103" s="2"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="1"/>
+      <c r="B103" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E104" s="2" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="E105" s="1" t="s">
-        <v>484</v>
-      </c>
+      <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="E106" s="22" t="s">
-        <v>485</v>
-      </c>
+      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="10"/>
+      <c r="B107" s="15" t="s">
+        <v>467</v>
+      </c>
       <c r="C107" s="10"/>
-      <c r="E107" s="22"/>
+      <c r="E107" s="1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
-      <c r="E108" s="1"/>
+      <c r="E108" s="22" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E109" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E110" s="22" t="s">
-        <v>273</v>
-      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="E110" s="1"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="15" t="s">
+      <c r="E111" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E112" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E111" s="22"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E112" s="22"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" s="16" cm="1">
-        <f t="array" ref="C113">str.ord(B113)</f>
+      <c r="C113" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E113" s="22"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E114" s="22"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="16" cm="1">
+        <f t="array" ref="C115">str.ord(B115)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C114" s="16" cm="1">
-        <f t="array" ref="C114">str.ord(B114)</f>
-        <v>8984</v>
-      </c>
-    </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="21" t="s">
-        <v>274</v>
+      <c r="B116" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="C116" s="16" cm="1">
         <f t="array" ref="C116">str.ord(B116)</f>
+        <v>8984</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="C118" s="16" cm="1">
+        <f t="array" ref="C118">str.ord(B118)</f>
         <v>97</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="21"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="21"/>
-    </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="B119" s="21"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="21"/>
-      <c r="E120" s="1"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="21"/>
-      <c r="E121" s="1"/>
+      <c r="B121" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E122" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E123" s="2" t="s">
-        <v>492</v>
-      </c>
+      <c r="B122" s="21"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="21"/>
+      <c r="E123" s="1"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E124" s="2"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="22" t="s">
-        <v>332</v>
+      <c r="E124" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="10"/>
+      <c r="E126" s="2"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="22" t="str" cm="1">
-        <f t="array" ref="B127:B129">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
+      <c r="B127" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="10"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="22" t="str" cm="1">
+        <f t="array" ref="B129:B131">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
         <v>C:</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="22" t="str">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="22" t="str">
         <v>\</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="15" t="str">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="15" t="str">
         <v>My Documents\like-py.xlsx</v>
       </c>
-      <c r="E129" s="22"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="21"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="21"/>
-      <c r="E131" s="1"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E132" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E133" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="B132" s="21"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="21"/>
+      <c r="E133" s="1"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="15" t="s">
+      <c r="E134" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C134" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E134" s="2"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E135" s="2"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="21" t="s">
+      <c r="C136" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E136" s="2"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="2"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="C136" s="16" t="str" cm="1">
-        <f t="array" ref="C136">str.repr(B136)</f>
-        <v>''</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C137" s="16" t="str" cm="1">
-        <f t="array" ref="C137">str.repr(B137)</f>
-        <v>'abc'</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="15" t="s">
-        <v>84</v>
       </c>
       <c r="C138" s="16" t="str" cm="1">
         <f t="array" ref="C138">str.repr(B138)</f>
-        <v>'ab\\cd'</v>
+        <v>''</v>
+      </c>
+      <c r="E138" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C139" s="16" t="str" cm="1">
         <f t="array" ref="C139">str.repr(B139)</f>
-        <v>'ab\'cd'</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>179</v>
+        <v>'abc'</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C140" s="16" t="str" cm="1">
         <f t="array" ref="C140">str.repr(B140)</f>
-        <v>'ab\"cd'</v>
+        <v>'ab\\cd'</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C141" s="16" t="str" cm="1">
         <f t="array" ref="C141">str.repr(B141)</f>
+        <v>'ab\'cd'</v>
+      </c>
+      <c r="E141" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142" s="16" t="str" cm="1">
+        <f t="array" ref="C142">str.repr(B142)</f>
+        <v>'ab\"cd'</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143" s="16" t="str" cm="1">
+        <f t="array" ref="C143">str.repr(B143)</f>
         <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="17"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E143" s="22"/>
-    </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E144" s="4" t="s">
-        <v>288</v>
-      </c>
+      <c r="B144" s="17"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E145" s="22" t="s">
-        <v>285</v>
-      </c>
+      <c r="E145" s="22"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E146" s="22"/>
+      <c r="E146" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E147" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E148" s="2" t="s">
-        <v>493</v>
-      </c>
+      <c r="E147" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E148" s="22"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E149" s="2"/>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="22" t="s">
-        <v>330</v>
+      <c r="E149" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="2" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="10"/>
+      <c r="E151" s="2"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="22" t="str" cm="1">
-        <f t="array" ref="B152:B154">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
+      <c r="B152" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="10"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="22" t="str" cm="1">
+        <f t="array" ref="B154:B156">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
         <v>C:\My Documents</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="22" t="str">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="22" t="str">
         <v>\</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="15" t="str">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="15" t="str">
         <v>like-py.xlsx</v>
       </c>
-      <c r="E154" s="22"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E155" s="22"/>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E156" s="22"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E157" s="4" t="s">
-        <v>287</v>
-      </c>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E158" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="E158" s="22"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E159" s="22"/>
+      <c r="E159" s="4" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E160" s="4" t="s">
-        <v>286</v>
+      <c r="E160" s="22" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E167" s="10" t="s">
-        <v>487</v>
+      <c r="E161" s="22"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="10" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6956,7 +7027,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9AEAAA-FB17-324F-AABB-3625663F090B}">
-  <dimension ref="B3:E98"/>
+  <dimension ref="B3:E102"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -6971,18 +7042,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
-        <v>201</v>
+      <c r="B3" s="8" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>136</v>
+      <c r="B5" s="11" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>137</v>
+      <c r="B6" s="11" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -7009,7 +7080,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E12" s="22"/>
     </row>
@@ -7098,7 +7169,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -7171,7 +7242,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -7179,11 +7250,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="6" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -7194,7 +7265,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C46" s="13" t="e" cm="1">
         <f t="array" ref="C46">list.bool(B46)</f>
@@ -7202,7 +7273,7 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -7213,7 +7284,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="3"/>
       <c r="E47" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -7232,17 +7303,17 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="3"/>
@@ -7255,14 +7326,14 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -7284,10 +7355,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="18" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -7311,10 +7382,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7348,7 +7419,7 @@
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="C64" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -7374,7 +7445,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -7382,10 +7453,10 @@
         <v>54</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -7395,7 +7466,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C71" s="13"/>
       <c r="E71" s="3"/>
@@ -7440,14 +7511,14 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -7467,15 +7538,15 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E81" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C82" s="32" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -7530,53 +7601,69 @@
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="11"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="3"/>
       <c r="E91" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="11"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="6" t="s">
-        <v>134</v>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E92" s="3" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="30" t="s">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="11"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="11"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" cm="1">
-        <f t="array" ref="B96:B98">_xlfn.SEQUENCE(3)</f>
-        <v>1</v>
-      </c>
-      <c r="C96" s="13" t="str" cm="1">
-        <f t="array" ref="C96">list.repr(_xlfn.ANCHORARRAY(B96))</f>
+      <c r="C97" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="18" cm="1">
+        <f t="array" ref="B100:B102">_xlfn.SEQUENCE(3)</f>
+        <v>1</v>
+      </c>
+      <c r="C100" s="13" t="str" cm="1">
+        <f t="array" ref="C100">list.repr(_xlfn.ANCHORARRAY(B100))</f>
         <v>[1, 2, 3]</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="15">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="15">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="15">
         <v>3</v>
       </c>
     </row>
@@ -7587,7 +7674,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48772323-2A75-4E43-BEC6-FC16F253F8C0}">
-  <dimension ref="B3:E125"/>
+  <dimension ref="B3:E121"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -7602,60 +7689,62 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
-        <v>201</v>
+      <c r="B3" s="8" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>71</v>
+      <c r="B5" s="11" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>131</v>
+      <c r="B7" s="15" t="s">
+        <v>502</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="8" t="s">
-        <v>74</v>
+      <c r="C10" s="19"/>
+      <c r="E10" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
-        <v>75</v>
+      <c r="C11" s="19"/>
+      <c r="E11" s="14" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C12" s="19"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C13" s="19"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="19"/>
       <c r="E14" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19"/>
-      <c r="E15" s="14" t="s">
-        <v>254</v>
+      <c r="E15" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -7669,130 +7758,146 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="19"/>
       <c r="E18" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="19"/>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="102" x14ac:dyDescent="0.2">
       <c r="E19" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="19"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="19"/>
-      <c r="E21" s="14"/>
+      <c r="B21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="16" t="b" cm="1">
+        <f t="array" ref="C21">_any(B21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="19"/>
-      <c r="E22" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="E23" s="6" t="s">
-        <v>191</v>
-      </c>
+      <c r="B22" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="16" t="b" cm="1">
+        <f t="array" ref="C22">_any(B22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="16" t="b" cm="1">
-        <f t="array" ref="C25">_any(B25)</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="4" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C26" s="16" t="b" cm="1">
-        <f t="array" ref="C26">_any(B26)</f>
-        <v>1</v>
-      </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="6"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="6"/>
+      <c r="E28" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E32" s="4" t="s">
-        <v>258</v>
+      <c r="E31" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="E32" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="3"/>
+      <c r="B33" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="3"/>
+      <c r="B34" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13" t="b" cm="1">
+        <f t="array" ref="C34">_bool(B34)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="E36" s="6" t="s">
-        <v>259</v>
+      <c r="B35" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="13" t="b" cm="1">
+        <f t="array" ref="C35">_bool(B35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="11">
+        <v>-1.23</v>
+      </c>
+      <c r="C36" s="13" t="b" cm="1">
+        <f t="array" ref="C36">_bool(B36)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>123</v>
+      <c r="B37" s="11">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13" t="b" cm="1">
+        <f t="array" ref="C37">_bool(B37)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="11" t="b">
-        <v>0</v>
+      <c r="B38" s="11">
+        <v>1.23</v>
       </c>
       <c r="C38" s="13" t="b" cm="1">
         <f t="array" ref="C38">_bool(B38)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="b">
-        <v>1</v>
+      <c r="B39" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C39" s="13" t="b" cm="1">
         <f t="array" ref="C39">_bool(B39)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="11">
-        <v>-1.23</v>
+      <c r="B40" s="18" t="s">
+        <v>119</v>
       </c>
       <c r="C40" s="13" t="b" cm="1">
         <f t="array" ref="C40">_bool(B40)</f>
@@ -7800,116 +7905,102 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="11">
+      <c r="B41" s="18"/>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="13"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="18" t="e" cm="1" vm="2">
+        <f t="array" ref="B43">_xlfn.SEQUENCE(0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="E43" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="18"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" cm="1">
+        <f t="array" ref="B46">{0}</f>
         <v>0</v>
       </c>
-      <c r="C41" s="13" t="b" cm="1">
-        <f t="array" ref="C41">_bool(B41)</f>
+      <c r="C46" s="13" t="b" cm="1">
+        <f t="array" ref="C46">_bool(B46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="11">
-        <v>1.23</v>
-      </c>
-      <c r="C42" s="13" t="b" cm="1">
-        <f t="array" ref="C42">_bool(B42)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="13" t="b" cm="1">
-        <f t="array" ref="C43">_bool(B43)</f>
+      <c r="E46" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="18"/>
+      <c r="C47" s="13"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="13"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="18" cm="1">
+        <f t="array" ref="B49:B50">{0;0}</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="13" t="b" cm="1">
-        <f t="array" ref="C44">_bool(B44)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="e" cm="1" vm="2">
-        <f t="array" ref="B47">_xlfn.SEQUENCE(0)</f>
+      <c r="C49" s="13" t="e" cm="1">
+        <f t="array" ref="C49">_bool(_xlfn.ANCHORARRAY(B49))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="E47" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
+      <c r="E49" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="13"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" cm="1">
-        <f t="array" ref="B50">{0}</f>
+      <c r="B50" s="18">
         <v>0</v>
       </c>
-      <c r="C50" s="13" t="b" cm="1">
-        <f t="array" ref="C50">_bool(B50)</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="C50" s="13"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="18"/>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="18" t="s">
-        <v>126</v>
-      </c>
+      <c r="B52" s="18"/>
       <c r="C52" s="13"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" cm="1">
-        <f t="array" ref="B53:B54">{0;0}</f>
-        <v>0</v>
-      </c>
-      <c r="C53" s="13" t="e" cm="1">
-        <f t="array" ref="C53">_bool(_xlfn.ANCHORARRAY(B53))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>130</v>
-      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="18">
-        <v>0</v>
-      </c>
+      <c r="B54" s="18"/>
       <c r="C54" s="13"/>
+      <c r="E54" s="4" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="C55" s="13"/>
+      <c r="E55" s="10" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="18"/>
@@ -7918,19 +8009,20 @@
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="18"/>
       <c r="C57" s="13"/>
+      <c r="E57" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="18"/>
       <c r="C58" s="13"/>
-      <c r="E58" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="18"/>
       <c r="C59" s="13"/>
-      <c r="E59" s="10" t="s">
-        <v>185</v>
+      <c r="E59" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
@@ -7941,91 +8033,92 @@
       <c r="B61" s="18"/>
       <c r="C61" s="13"/>
       <c r="E61" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="C62" s="13"/>
-      <c r="E62" s="3"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="13"/>
       <c r="E63" s="4" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="C64" s="13"/>
+      <c r="E64" s="10" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="C65" s="13"/>
-      <c r="E65" s="4" t="s">
-        <v>260</v>
-      </c>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="18"/>
       <c r="C66" s="13"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="C67" s="13"/>
-      <c r="E67" s="4" t="s">
-        <v>184</v>
-      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="C68" s="13"/>
-      <c r="E68" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="C69" s="13"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="6" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="18"/>
       <c r="C70" s="13"/>
-      <c r="E70" s="4" t="s">
-        <v>264</v>
-      </c>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="18"/>
       <c r="C71" s="13"/>
+      <c r="E71" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="C72" s="13"/>
-      <c r="E72" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="C73" s="13"/>
-      <c r="E73" s="6" t="s">
-        <v>183</v>
+      <c r="E73" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="13"/>
-      <c r="E74" s="6"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="C75" s="13"/>
       <c r="E75" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -8037,7 +8130,7 @@
       <c r="B77" s="18"/>
       <c r="C77" s="13"/>
       <c r="E77" s="4" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -8049,7 +8142,7 @@
       <c r="B79" s="18"/>
       <c r="C79" s="13"/>
       <c r="E79" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -8061,7 +8154,7 @@
       <c r="B81" s="18"/>
       <c r="C81" s="13"/>
       <c r="E81" s="4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -8073,7 +8166,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="13"/>
       <c r="E83" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -8085,7 +8178,7 @@
       <c r="B85" s="18"/>
       <c r="C85" s="13"/>
       <c r="E85" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -8097,7 +8190,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="13"/>
       <c r="E87" s="4" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -8109,240 +8202,216 @@
       <c r="B89" s="18"/>
       <c r="C89" s="13"/>
       <c r="E89" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
       <c r="C90" s="13"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="C91" s="13"/>
       <c r="E91" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="C92" s="13"/>
-      <c r="E92" s="4"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="18"/>
+      <c r="B93" s="11"/>
       <c r="C93" s="13"/>
+      <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="18"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="B94" s="11"/>
       <c r="C94" s="13"/>
-      <c r="E94" s="4" t="s">
-        <v>278</v>
+      <c r="D94" s="3"/>
+      <c r="E94" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="18"/>
-      <c r="C95" s="13"/>
-      <c r="E95" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="B95" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="5"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="18"/>
+      <c r="B96" s="11"/>
       <c r="C96" s="13"/>
-      <c r="E96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="5"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="11"/>
-      <c r="C97" s="13"/>
+      <c r="B97" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C97" s="13" t="str" cm="1">
+        <f t="array" ref="C97">_repr(B97)</f>
+        <v>False</v>
+      </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="B98" s="11"/>
-      <c r="C98" s="13"/>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="11">
+        <v>-1.23</v>
+      </c>
+      <c r="C98" s="13" t="str" cm="1">
+        <f t="array" ref="C98">_repr(B98)</f>
+        <v>-1.23</v>
+      </c>
       <c r="D98" s="3"/>
-      <c r="E98" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>46</v>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B99" s="11">
+        <v>9</v>
+      </c>
+      <c r="C99" s="13" t="str" cm="1">
+        <f t="array" ref="C99">_repr(B99)</f>
+        <v>9</v>
       </c>
       <c r="D99" s="3"/>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="11"/>
-      <c r="C100" s="13"/>
+      <c r="B100" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="13" t="str" cm="1">
+        <f t="array" ref="C100">_repr(B100)</f>
+        <v>'\"'</v>
+      </c>
       <c r="D100" s="3"/>
-      <c r="E100" s="5"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="11" t="b">
-        <v>0</v>
+      <c r="B101" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C101" s="13" t="str" cm="1">
         <f t="array" ref="C101">_repr(B101)</f>
-        <v>False</v>
+        <v>'abc'</v>
       </c>
       <c r="D101" s="3"/>
-      <c r="E101" s="5"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="11">
-        <v>-1.23</v>
+      <c r="B102" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C102" s="13" t="str" cm="1">
         <f t="array" ref="C102">_repr(B102)</f>
-        <v>-1.23</v>
+        <v>'ab\'cd'</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B103" s="11">
-        <v>9</v>
+      <c r="E102" s="3"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="C103" s="13" t="str" cm="1">
         <f t="array" ref="C103">_repr(B103)</f>
-        <v>9</v>
+        <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C104" s="13" t="str" cm="1">
-        <f t="array" ref="C104">_repr(B104)</f>
-        <v>'\"'</v>
-      </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C105" s="13" t="str" cm="1">
-        <f t="array" ref="C105">_repr(B105)</f>
-        <v>'abc'</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="B105" s="18" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="11" t="s">
-        <v>31</v>
+      <c r="B106" s="18" cm="1">
+        <f t="array" ref="B106:B108">_xlfn.SEQUENCE(3)</f>
+        <v>1</v>
       </c>
       <c r="C106" s="13" t="str" cm="1">
-        <f t="array" ref="C106">_repr(B106)</f>
-        <v>'ab\'cd'</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+        <f t="array" ref="C106">_repr(_xlfn.ANCHORARRAY(B106))</f>
+        <v>[1, 2, 3]</v>
+      </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C107" s="13" t="str" cm="1">
-        <f t="array" ref="C107">_repr(B107)</f>
-        <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
+      <c r="B107" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="18" t="s">
-        <v>132</v>
+      <c r="E109" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="18" cm="1">
-        <f t="array" ref="B110:B112">_xlfn.SEQUENCE(3)</f>
-        <v>1</v>
-      </c>
-      <c r="C110" s="13" t="str" cm="1">
-        <f t="array" ref="C110">_repr(_xlfn.ANCHORARRAY(B110))</f>
-        <v>[1, 2, 3]</v>
+      <c r="E110" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="15">
-        <v>2</v>
-      </c>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="15">
-        <v>3</v>
+      <c r="E112" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" s="4" t="s">
-        <v>279</v>
+      <c r="E113" s="22" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="22" t="s">
-        <v>280</v>
-      </c>
+      <c r="E114" s="22"/>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" s="22"/>
+      <c r="E115" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="4" t="s">
-        <v>282</v>
+      <c r="E116" s="22" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" s="22" t="s">
-        <v>283</v>
-      </c>
+      <c r="E117" s="22"/>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" s="22"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E119" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E120" s="22" t="s">
-        <v>280</v>
+      <c r="E118" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E119" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E121" s="22"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E122" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="E123" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="4" t="s">
-        <v>284</v>
+      <c r="E121" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -8352,7 +8421,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3CC38D-1A04-5A44-816A-B71E8DC635D6}">
-  <dimension ref="B3:C24"/>
+  <dimension ref="B3:C29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -8396,59 +8465,91 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>8</v>
+        <v>512</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>9</v>
+        <v>513</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>10</v>
+        <v>515</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>11</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8458,6 +8559,30 @@
       </c>
       <c r="C24" s="10" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -8475,7 +8600,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
@@ -8483,7 +8608,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
@@ -8491,109 +8616,109 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
@@ -8604,7 +8729,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -8613,23 +8738,23 @@
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="9" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -8650,11 +8775,11 @@
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -8668,11 +8793,11 @@
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="34" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -8685,7 +8810,7 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="34" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
@@ -8704,11 +8829,11 @@
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="34" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
@@ -8721,11 +8846,11 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="34" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="33"/>
@@ -8745,11 +8870,11 @@
         <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -8762,7 +8887,7 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="34" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C35" s="33">
         <f>TYPE(B35)</f>
@@ -8770,11 +8895,11 @@
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -8795,11 +8920,11 @@
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="33" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -8824,7 +8949,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -8843,7 +8968,7 @@
         <v>2</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -8861,7 +8986,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -8880,7 +9005,7 @@
         <v>4</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -8899,7 +9024,7 @@
         <v>5</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -8918,7 +9043,7 @@
         <v>6</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -8937,7 +9062,7 @@
         <v>7</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -8966,7 +9091,7 @@
         <v>9</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -9015,7 +9140,7 @@
         <v>13</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -9034,14 +9159,14 @@
         <v>14</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="34" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C53" s="33">
         <v>16</v>
@@ -9051,7 +9176,7 @@
         <v>#N/A</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -9071,11 +9196,11 @@
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="33" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -9100,7 +9225,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -9130,7 +9255,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -9139,7 +9264,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -9157,7 +9282,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -9166,7 +9291,7 @@
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -9175,7 +9300,7 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -9184,7 +9309,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -9193,7 +9318,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -9202,7 +9327,7 @@
         <v>11</v>
       </c>
       <c r="B72" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -9211,7 +9336,7 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86F3659-4FC9-2B45-8FC2-FD1B41550F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3E1FC-6508-964C-801A-EB2984F59D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
@@ -20,9 +20,9 @@
     <sheet name="4 Str" sheetId="5" r:id="rId5"/>
     <sheet name="5 List" sheetId="9" r:id="rId6"/>
     <sheet name="6 Object" sheetId="7" r:id="rId7"/>
-    <sheet name="7 - Keystrokes" sheetId="2" r:id="rId8"/>
-    <sheet name="8 - Etc" sheetId="8" r:id="rId9"/>
-    <sheet name="9 - Scraps" sheetId="14" r:id="rId10"/>
+    <sheet name="7 Keystrokes" sheetId="2" r:id="rId8"/>
+    <sheet name="8 Etc" sheetId="8" r:id="rId9"/>
+    <sheet name="9 Scraps" sheetId="14" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_any">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.any(_xlpm.obj),              64, list.any(_xlpm.obj),              #VALUE!  ))</definedName>
@@ -1254,9 +1254,6 @@
     <t>Lisp in Excel is a thing</t>
   </si>
   <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
     <t>## 5 As smooth as Python</t>
   </si>
   <si>
@@ -2073,6 +2070,9 @@
   </si>
   <si>
     <t>Extend selection to right end of line</t>
+  </si>
+  <si>
+    <t>Collect Trash</t>
   </si>
 </sst>
 </file>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -2705,43 +2705,43 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G17" s="36"/>
     </row>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -2761,84 +2761,84 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2846,37 +2846,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2903,7 +2903,7 @@
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2927,27 +2927,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2962,22 +2962,22 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
       <c r="E81" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -2995,24 +2995,24 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="36" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D85" s="36"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D86" s="36"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D87" s="36"/>
     </row>
@@ -3022,42 +3022,37 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="E97" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -3068,72 +3063,72 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -3144,22 +3139,22 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
@@ -3167,87 +3162,87 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3261,83 +3256,73 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D852BB-57DF-6140-815D-350948B01B5D}">
-  <dimension ref="B3:E74"/>
+  <dimension ref="B3:E76"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="22" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="22" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="b">
+      <c r="D8" s="10"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C8" s="16" cm="1">
-        <f t="array" ref="C8:C9">bool.as_integer_ratio(B8)</f>
+      <c r="C10" s="16" cm="1">
+        <f t="array" ref="C10:C11">bool.as_integer_ratio(B10)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C11" s="16" cm="1">
-        <f t="array" ref="C11:C12">bool.as_integer_ratio(B11)</f>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16">
         <v>1</v>
       </c>
       <c r="D11" s="10"/>
@@ -3345,137 +3330,119 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
-      <c r="C12" s="16">
-        <v>1</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="15" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="16" cm="1">
+        <f t="array" ref="C13:C14">bool.as_integer_ratio(B13)</f>
+        <v>1</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="C15" s="16"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B16" s="9" t="s">
+    <row r="18" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="2" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="b">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="C17" s="13" cm="1">
-        <f t="array" ref="C17">bool.bit_length(B17)</f>
+      <c r="C19" s="13" cm="1">
+        <f t="array" ref="C19">bool.bit_length(B19)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="b">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="C18" s="13" cm="1">
-        <f t="array" ref="C18">bool.bit_length(B18)</f>
-        <v>1</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="22" t="s">
+      <c r="C20" s="13" cm="1">
+        <f t="array" ref="C20">bool.bit_length(B20)</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10">
-        <f t="shared" ref="C24:C55" si="0">2^B24-1</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="22" cm="1">
-        <f t="array" ref="D24">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="b">
-        <f t="shared" ref="E24:E55" si="1">D24=B24</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
-        <f t="shared" ref="B25:B56" si="2">B24+1</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D25" s="22" cm="1">
-        <f t="array" ref="D25">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C25)</f>
-        <v>1</v>
-      </c>
-      <c r="E25" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="E25" s="10"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" ref="C26:C57" si="0">2^B26-1</f>
+        <v>0</v>
       </c>
       <c r="D26" s="22" cm="1">
         <f t="array" ref="D26">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C26)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="10" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E26:E57" si="1">D26=B26</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" ref="B27:B58" si="2">B26+1</f>
+        <v>1</v>
       </c>
       <c r="C27" s="10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" s="22" cm="1">
         <f t="array" ref="D27">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C27)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3485,15 +3452,15 @@
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="10">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D28" s="22" cm="1">
         <f t="array" ref="D28">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C28)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3503,15 +3470,15 @@
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="10">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D29" s="22" cm="1">
         <f t="array" ref="D29">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C29)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3521,15 +3488,15 @@
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="10">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D30" s="22" cm="1">
         <f t="array" ref="D30">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C30)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E30" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3539,15 +3506,15 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="10">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="D31" s="22" cm="1">
         <f t="array" ref="D31">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C31)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E31" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3557,15 +3524,15 @@
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="10">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="10">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="D32" s="22" cm="1">
         <f t="array" ref="D32">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C32)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E32" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3575,15 +3542,15 @@
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="10">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="10">
         <f t="shared" si="0"/>
-        <v>511</v>
+        <v>127</v>
       </c>
       <c r="D33" s="22" cm="1">
         <f t="array" ref="D33">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C33)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E33" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3593,15 +3560,15 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="10">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="10">
         <f t="shared" si="0"/>
-        <v>1023</v>
+        <v>255</v>
       </c>
       <c r="D34" s="22" cm="1">
         <f t="array" ref="D34">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C34)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3611,15 +3578,15 @@
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="10">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" s="10">
         <f t="shared" si="0"/>
-        <v>2047</v>
+        <v>511</v>
       </c>
       <c r="D35" s="22" cm="1">
         <f t="array" ref="D35">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C35)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3629,15 +3596,15 @@
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" s="10">
         <f t="shared" si="0"/>
-        <v>4095</v>
+        <v>1023</v>
       </c>
       <c r="D36" s="22" cm="1">
         <f t="array" ref="D36">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C36)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3647,15 +3614,15 @@
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="10">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C37" s="10">
         <f t="shared" si="0"/>
-        <v>8191</v>
+        <v>2047</v>
       </c>
       <c r="D37" s="22" cm="1">
         <f t="array" ref="D37">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C37)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E37" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3665,15 +3632,15 @@
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C38" s="10">
         <f t="shared" si="0"/>
-        <v>16383</v>
+        <v>4095</v>
       </c>
       <c r="D38" s="22" cm="1">
         <f t="array" ref="D38">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C38)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3683,15 +3650,15 @@
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="10">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C39" s="10">
         <f t="shared" si="0"/>
-        <v>32767</v>
+        <v>8191</v>
       </c>
       <c r="D39" s="22" cm="1">
         <f t="array" ref="D39">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C39)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3701,15 +3668,15 @@
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="10">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" s="10">
         <f t="shared" si="0"/>
-        <v>65535</v>
+        <v>16383</v>
       </c>
       <c r="D40" s="22" cm="1">
         <f t="array" ref="D40">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C40)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3719,15 +3686,15 @@
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="10">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" s="10">
         <f t="shared" si="0"/>
-        <v>131071</v>
+        <v>32767</v>
       </c>
       <c r="D41" s="22" cm="1">
         <f t="array" ref="D41">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C41)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E41" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3737,15 +3704,15 @@
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="10">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C42" s="10">
         <f t="shared" si="0"/>
-        <v>262143</v>
+        <v>65535</v>
       </c>
       <c r="D42" s="22" cm="1">
         <f t="array" ref="D42">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C42)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E42" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3755,15 +3722,15 @@
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="10">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C43" s="10">
         <f t="shared" si="0"/>
-        <v>524287</v>
+        <v>131071</v>
       </c>
       <c r="D43" s="22" cm="1">
         <f t="array" ref="D43">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C43)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E43" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3773,15 +3740,15 @@
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="10">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C44" s="10">
         <f t="shared" si="0"/>
-        <v>1048575</v>
+        <v>262143</v>
       </c>
       <c r="D44" s="22" cm="1">
         <f t="array" ref="D44">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C44)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E44" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3791,15 +3758,15 @@
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="10">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C45" s="10">
         <f t="shared" si="0"/>
-        <v>2097151</v>
+        <v>524287</v>
       </c>
       <c r="D45" s="22" cm="1">
         <f t="array" ref="D45">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C45)</f>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E45" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3809,15 +3776,15 @@
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="10">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C46" s="10">
         <f t="shared" si="0"/>
-        <v>4194303</v>
+        <v>1048575</v>
       </c>
       <c r="D46" s="22" cm="1">
         <f t="array" ref="D46">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C46)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E46" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3827,15 +3794,15 @@
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="10">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="10">
         <f t="shared" si="0"/>
-        <v>8388607</v>
+        <v>2097151</v>
       </c>
       <c r="D47" s="22" cm="1">
         <f t="array" ref="D47">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C47)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3845,15 +3812,15 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="10">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C48" s="10">
         <f t="shared" si="0"/>
-        <v>16777215</v>
+        <v>4194303</v>
       </c>
       <c r="D48" s="22" cm="1">
         <f t="array" ref="D48">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C48)</f>
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E48" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3863,15 +3830,15 @@
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="10">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="10">
         <f t="shared" si="0"/>
-        <v>33554431</v>
+        <v>8388607</v>
       </c>
       <c r="D49" s="22" cm="1">
         <f t="array" ref="D49">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C49)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E49" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3881,15 +3848,15 @@
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="10">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="10">
         <f t="shared" si="0"/>
-        <v>67108863</v>
+        <v>16777215</v>
       </c>
       <c r="D50" s="22" cm="1">
         <f t="array" ref="D50">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C50)</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E50" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3899,15 +3866,15 @@
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="10">
         <f t="shared" si="2"/>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51" s="10">
         <f t="shared" si="0"/>
-        <v>134217727</v>
+        <v>33554431</v>
       </c>
       <c r="D51" s="22" cm="1">
         <f t="array" ref="D51">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C51)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E51" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3917,15 +3884,15 @@
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="10">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C52" s="10">
         <f t="shared" si="0"/>
-        <v>268435455</v>
+        <v>67108863</v>
       </c>
       <c r="D52" s="22" cm="1">
         <f t="array" ref="D52">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C52)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E52" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3935,15 +3902,15 @@
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="10">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C53" s="10">
         <f t="shared" si="0"/>
-        <v>536870911</v>
+        <v>134217727</v>
       </c>
       <c r="D53" s="22" cm="1">
         <f t="array" ref="D53">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C53)</f>
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E53" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3953,15 +3920,15 @@
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="10">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C54" s="10">
         <f t="shared" si="0"/>
-        <v>1073741823</v>
+        <v>268435455</v>
       </c>
       <c r="D54" s="22" cm="1">
         <f t="array" ref="D54">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C54)</f>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E54" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3971,15 +3938,15 @@
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="10">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C55" s="10">
         <f t="shared" si="0"/>
-        <v>2147483647</v>
+        <v>536870911</v>
       </c>
       <c r="D55" s="22" cm="1">
         <f t="array" ref="D55">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C55)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E55" s="10" t="b">
         <f t="shared" si="1"/>
@@ -3989,69 +3956,69 @@
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" ref="C56:C74" si="3">2^B56-1</f>
-        <v>4294967295</v>
+        <f t="shared" si="0"/>
+        <v>1073741823</v>
       </c>
       <c r="D56" s="22" cm="1">
         <f t="array" ref="D56">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C56)</f>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E56" s="10" t="b">
-        <f t="shared" ref="E56:E74" si="4">D56=B56</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="10">
-        <f t="shared" ref="B57:B74" si="5">B56+1</f>
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C57" s="10">
+        <f t="shared" si="0"/>
+        <v>2147483647</v>
+      </c>
+      <c r="D57" s="22" cm="1">
+        <f t="array" ref="D57">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C57)</f>
+        <v>31</v>
+      </c>
+      <c r="E57" s="10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="10">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C58" s="10">
+        <f t="shared" ref="C58:C76" si="3">2^B58-1</f>
+        <v>4294967295</v>
+      </c>
+      <c r="D58" s="22" cm="1">
+        <f t="array" ref="D58">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C58)</f>
+        <v>32</v>
+      </c>
+      <c r="E58" s="10" t="b">
+        <f t="shared" ref="E58:E76" si="4">D58=B58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="10">
+        <f t="shared" ref="B59:B76" si="5">B58+1</f>
         <v>33</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C59" s="10">
         <f t="shared" si="3"/>
         <v>8589934591</v>
       </c>
-      <c r="D57" s="22" cm="1">
-        <f t="array" ref="D57">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C57)</f>
-        <v>33</v>
-      </c>
-      <c r="E57" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="10">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="C58" s="10">
-        <f t="shared" si="3"/>
-        <v>17179869183</v>
-      </c>
-      <c r="D58" s="22" cm="1">
-        <f t="array" ref="D58">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C58)</f>
-        <v>34</v>
-      </c>
-      <c r="E58" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="10">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="C59" s="10">
-        <f t="shared" si="3"/>
-        <v>34359738367</v>
-      </c>
       <c r="D59" s="22" cm="1">
         <f t="array" ref="D59">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C59)</f>
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E59" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4061,15 +4028,15 @@
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="10">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C60" s="10">
         <f t="shared" si="3"/>
-        <v>68719476735</v>
+        <v>17179869183</v>
       </c>
       <c r="D60" s="22" cm="1">
         <f t="array" ref="D60">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C60)</f>
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E60" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4079,15 +4046,15 @@
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="10">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C61" s="10">
         <f t="shared" si="3"/>
-        <v>137438953471</v>
+        <v>34359738367</v>
       </c>
       <c r="D61" s="22" cm="1">
         <f t="array" ref="D61">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C61)</f>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E61" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4097,15 +4064,15 @@
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="10">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C62" s="10">
         <f t="shared" si="3"/>
-        <v>274877906943</v>
+        <v>68719476735</v>
       </c>
       <c r="D62" s="22" cm="1">
         <f t="array" ref="D62">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C62)</f>
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E62" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4115,15 +4082,15 @@
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="10">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" s="10">
         <f t="shared" si="3"/>
-        <v>549755813887</v>
+        <v>137438953471</v>
       </c>
       <c r="D63" s="22" cm="1">
         <f t="array" ref="D63">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C63)</f>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E63" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4133,15 +4100,15 @@
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="10">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C64" s="10">
         <f t="shared" si="3"/>
-        <v>1099511627775</v>
+        <v>274877906943</v>
       </c>
       <c r="D64" s="22" cm="1">
         <f t="array" ref="D64">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C64)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E64" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4151,15 +4118,15 @@
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="10">
         <f t="shared" si="5"/>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C65" s="10">
         <f t="shared" si="3"/>
-        <v>2199023255551</v>
+        <v>549755813887</v>
       </c>
       <c r="D65" s="22" cm="1">
         <f t="array" ref="D65">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C65)</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E65" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4169,15 +4136,15 @@
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="10">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C66" s="10">
         <f t="shared" si="3"/>
-        <v>4398046511103</v>
+        <v>1099511627775</v>
       </c>
       <c r="D66" s="22" cm="1">
         <f t="array" ref="D66">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C66)</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E66" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4187,15 +4154,15 @@
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="10">
         <f t="shared" si="5"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C67" s="10">
         <f t="shared" si="3"/>
-        <v>8796093022207</v>
+        <v>2199023255551</v>
       </c>
       <c r="D67" s="22" cm="1">
         <f t="array" ref="D67">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C67)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E67" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4205,15 +4172,15 @@
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="10">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68" s="10">
         <f t="shared" si="3"/>
-        <v>17592186044415</v>
+        <v>4398046511103</v>
       </c>
       <c r="D68" s="22" cm="1">
         <f t="array" ref="D68">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C68)</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E68" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4221,53 +4188,53 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="1">
+      <c r="B69" s="10">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="C69" s="1">
+        <v>43</v>
+      </c>
+      <c r="C69" s="10">
         <f t="shared" si="3"/>
-        <v>35184372088831</v>
-      </c>
-      <c r="D69" s="27" cm="1">
+        <v>8796093022207</v>
+      </c>
+      <c r="D69" s="22" cm="1">
         <f t="array" ref="D69">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C69)</f>
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E69" s="10" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="10">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C70" s="10">
         <f t="shared" si="3"/>
-        <v>70368744177663</v>
+        <v>17592186044415</v>
       </c>
       <c r="D70" s="22" cm="1">
         <f t="array" ref="D70">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C70)</f>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E70" s="10" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="10">
+      <c r="B71" s="1">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="C71" s="10">
+        <v>45</v>
+      </c>
+      <c r="C71" s="1">
         <f t="shared" si="3"/>
-        <v>140737488355327</v>
-      </c>
-      <c r="D71" s="22" cm="1">
+        <v>35184372088831</v>
+      </c>
+      <c r="D71" s="27" cm="1">
         <f t="array" ref="D71">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C71)</f>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E71" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4277,15 +4244,15 @@
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="10">
         <f t="shared" si="5"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C72" s="10">
         <f t="shared" si="3"/>
-        <v>281474976710655</v>
+        <v>70368744177663</v>
       </c>
       <c r="D72" s="22" cm="1">
         <f t="array" ref="D72">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C72)</f>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E72" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4295,15 +4262,15 @@
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="10">
         <f t="shared" si="5"/>
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" s="10">
         <f t="shared" si="3"/>
-        <v>562949953421311</v>
+        <v>140737488355327</v>
       </c>
       <c r="D73" s="22" cm="1">
         <f t="array" ref="D73">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C73)</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E73" s="10" t="b">
         <f t="shared" si="4"/>
@@ -4313,17 +4280,53 @@
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="10">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C74" s="10">
         <f t="shared" si="3"/>
-        <v>1125899906842623</v>
+        <v>281474976710655</v>
       </c>
       <c r="D74" s="22" cm="1">
         <f t="array" ref="D74">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C74)</f>
+        <v>49</v>
+      </c>
+      <c r="E74" s="10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="10">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="C75" s="10">
+        <f t="shared" si="3"/>
+        <v>562949953421311</v>
+      </c>
+      <c r="D75" s="22" cm="1">
+        <f t="array" ref="D75">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C75)</f>
+        <v>50</v>
+      </c>
+      <c r="E75" s="10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="10">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="C76" s="10">
+        <f t="shared" si="3"/>
+        <v>1125899906842623</v>
+      </c>
+      <c r="D76" s="22" cm="1">
+        <f t="array" ref="D76">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C76)</f>
         <v>51</v>
       </c>
-      <c r="E74" s="10" t="b">
+      <c r="E76" s="10" t="b">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4351,22 +4354,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4400,7 +4403,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4413,7 +4416,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4447,7 +4450,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4613,7 +4616,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -4621,17 +4624,17 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4642,7 +4645,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4650,10 +4653,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -4665,7 +4668,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4677,7 +4680,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -4719,7 +4722,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4793,7 +4796,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -4887,7 +4890,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -4963,7 +4966,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="E48" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4971,10 +4974,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4986,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -5056,10 +5059,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -5071,12 +5074,12 @@
         <v>0</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -5149,7 +5152,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -5287,7 +5290,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -5421,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -5445,7 +5448,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -5457,7 +5460,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
@@ -5543,7 +5546,7 @@
         <v>-0.4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -5637,7 +5640,7 @@
         <v>0.5</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -5658,7 +5661,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E152" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5666,10 +5669,10 @@
         <v>40</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -5683,12 +5686,12 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E157" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E158" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -5696,7 +5699,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -5710,17 +5713,17 @@
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5746,22 +5749,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5795,7 +5798,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5807,7 +5810,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5819,7 +5822,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -5924,7 +5927,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5936,7 +5939,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5948,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -5973,7 +5976,7 @@
         <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5992,7 +5995,7 @@
     </row>
     <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E45" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -6035,17 +6038,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6082,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -6094,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6126,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -6227,7 +6230,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -6251,7 +6254,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -6278,7 +6281,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -6290,7 +6293,7 @@
         <v/>
       </c>
       <c r="E41" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -6350,7 +6353,7 @@
         <v>ab'cd</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -6374,7 +6377,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -6465,7 +6468,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -6477,7 +6480,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -6486,24 +6489,24 @@
         <v>#NUM!</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E67" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -6573,7 +6576,7 @@
         <v>15</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
@@ -6626,7 +6629,7 @@
         <v>512</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -6642,7 +6645,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -6651,7 +6654,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
@@ -6661,7 +6664,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E95" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -6671,7 +6674,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E98" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
@@ -6681,12 +6684,12 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>148</v>
@@ -6705,18 +6708,18 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C107" s="10"/>
       <c r="E107" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="E108" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -6786,7 +6789,7 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>280</v>
@@ -6807,7 +6810,7 @@
     </row>
     <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -6954,7 +6957,7 @@
     </row>
     <row r="150" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E150" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -7016,7 +7019,7 @@
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E169" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -7043,17 +7046,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -7222,9 +7225,9 @@
         <f t="array" ref="B38:B40">{0;0;0}</f>
         <v>0</v>
       </c>
-      <c r="C38" s="16" t="e" cm="1">
-        <f t="array" aca="1" ref="C38" ca="1">bool.any(_xlfn.ANCHORARRAY(B38))</f>
-        <v>#NAME?</v>
+      <c r="C38" s="16" t="b" cm="1">
+        <f t="array" ref="C38">list.any(_xlfn.ANCHORARRAY(B38))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -7511,14 +7514,14 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -7602,12 +7605,12 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E91" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E92" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -7690,22 +7693,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C7" s="19"/>
     </row>
@@ -8288,7 +8291,7 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
@@ -8475,34 +8478,34 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>510</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -8563,26 +8566,26 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>506</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>508</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -8592,200 +8595,182 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355B7662-A6AF-4E4B-A8A9-10FF81599954}">
-  <dimension ref="A2:G73"/>
+  <dimension ref="A3:G74"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-    </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>308</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>470</v>
-      </c>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C25" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="9" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="33">
-        <v>0</v>
-      </c>
-      <c r="C26" s="33">
-        <f>TYPE(B26)</f>
-        <v>1</v>
-      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="33"/>
-      <c r="E26" s="34" t="s">
-        <v>284</v>
-      </c>
+      <c r="E26" s="33"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="33" t="s">
-        <v>301</v>
-      </c>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="33">
-        <f>1.00000001</f>
-        <v>1.0000000099999999</v>
+        <v>0</v>
       </c>
       <c r="C27" s="33">
         <f>TYPE(B27)</f>
@@ -8797,21 +8782,29 @@
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="33">
+        <f>1.00000001</f>
+        <v>1.0000000099999999</v>
+      </c>
+      <c r="C28" s="33">
+        <f>TYPE(B28)</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-    </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="34" t="s">
-        <v>302</v>
-      </c>
+      <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="34"/>
@@ -8819,163 +8812,155 @@
       <c r="G29" s="33"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="33">
+      <c r="B30" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="33">
         <f>1.000000001</f>
         <v>1.0000000010000001</v>
       </c>
-      <c r="C30" s="33">
-        <f>TYPE(B30)</f>
-        <v>1</v>
-      </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34" t="s">
+      <c r="C31" s="33">
+        <f>TYPE(B31)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34" t="s">
         <v>284</v>
       </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="34" t="s">
-        <v>135</v>
-      </c>
+      <c r="D32" s="33"/>
       <c r="E32" s="34"/>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" cm="1">
-        <f t="array" ref="B33">{0}</f>
+      <c r="B33" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" cm="1">
+        <f t="array" ref="B34">{0}</f>
         <v>0</v>
       </c>
-      <c r="C33" s="33">
-        <f>TYPE(B33)</f>
-        <v>1</v>
-      </c>
-      <c r="D33" s="34">
+      <c r="C34" s="33">
+        <f>TYPE(B34)</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="34">
         <f>TYPE({0})</f>
         <v>64</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>295</v>
       </c>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33" t="s">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-    </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="C35" s="33">
-        <f>TYPE(B35)</f>
+      <c r="C36" s="33">
+        <f>TYPE(B36)</f>
         <v>2</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33" t="s">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="33" t="b">
+      <c r="B37" s="34"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="33" t="b">
         <v>0</v>
       </c>
-      <c r="C37" s="33">
-        <f>TYPE(B37)</f>
+      <c r="C38" s="33">
+        <f>TYPE(B38)</f>
         <v>4</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33" t="s">
+      <c r="D38" s="33"/>
+      <c r="E38" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33" t="s">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="33" t="e">
-        <f>SUM(A924 A925)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="C39" s="33">
-        <f t="shared" ref="C39:C45" si="0">TYPE(B39)</f>
-        <v>16</v>
-      </c>
-      <c r="D39" s="33">
-        <f t="shared" ref="D39:D45" si="1">ERROR.TYPE(B39)</f>
-        <v>1</v>
-      </c>
-      <c r="E39" s="33" t="s">
-        <v>290</v>
-      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="33" t="e">
+        <f>SUM(A925 A926)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="C40" s="33">
+        <f t="shared" ref="C40:C46" si="0">TYPE(B40)</f>
+        <v>16</v>
+      </c>
+      <c r="D40" s="33">
+        <f t="shared" ref="D40:D46" si="1">ERROR.TYPE(B40)</f>
+        <v>1</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="33" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
-      </c>
-      <c r="C40" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D40" s="33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="e">
-        <v>#VALUE!</v>
       </c>
       <c r="C41" s="33">
         <f t="shared" si="0"/>
@@ -8983,7 +8968,7 @@
       </c>
       <c r="D41" s="33">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>290</v>
@@ -8993,8 +8978,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C42" s="33">
         <f t="shared" si="0"/>
@@ -9002,7 +8986,7 @@
       </c>
       <c r="D42" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>290</v>
@@ -9011,9 +8995,9 @@
       <c r="G42" s="33"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="33" t="e" cm="1">
-        <f t="array" ref="B43">TYPES</f>
-        <v>#NAME?</v>
+      <c r="B43" s="33" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C43" s="33">
         <f t="shared" si="0"/>
@@ -9021,7 +9005,7 @@
       </c>
       <c r="D43" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>290</v>
@@ -9030,9 +9014,9 @@
       <c r="G43" s="33"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="33" t="e">
-        <f>SQRT(-1)</f>
-        <v>#NUM!</v>
+      <c r="B44" s="33" t="e" cm="1">
+        <f t="array" ref="B44">TYPES</f>
+        <v>#NAME?</v>
       </c>
       <c r="C44" s="33">
         <f t="shared" si="0"/>
@@ -9040,7 +9024,7 @@
       </c>
       <c r="D44" s="33">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>290</v>
@@ -9050,8 +9034,8 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="33" t="e">
-        <f>LOOKUP(0, _xlfn.SEQUENCE(3))</f>
-        <v>#N/A</v>
+        <f>SQRT(-1)</f>
+        <v>#NUM!</v>
       </c>
       <c r="C45" s="33">
         <f t="shared" si="0"/>
@@ -9059,7 +9043,7 @@
       </c>
       <c r="D45" s="33">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>290</v>
@@ -9068,41 +9052,50 @@
       <c r="G45" s="33"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
+      <c r="B46" s="33" t="e">
+        <f>LOOKUP(0, _xlfn.SEQUENCE(3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C46" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="D46" s="33">
-        <v>8</v>
-      </c>
-      <c r="E46" s="33"/>
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>290</v>
+      </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="33" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="B47" ca="1">_xlfn.SEQUENCE(999)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" s="33">
-        <f ca="1">TYPE(B47)</f>
-        <v>16</v>
-      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="33">
-        <f ca="1">ERROR.TYPE(B47)</f>
-        <v>9</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E47" s="33"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
+      <c r="B48" s="33" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="B48" ca="1">_xlfn.SEQUENCE(999)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" s="33">
+        <f ca="1">TYPE(B48)</f>
+        <v>16</v>
+      </c>
       <c r="D48" s="33">
-        <v>10</v>
-      </c>
-      <c r="E48" s="33"/>
+        <f ca="1">ERROR.TYPE(B48)</f>
+        <v>9</v>
+      </c>
+      <c r="E48" s="33" t="s">
+        <v>290</v>
+      </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
     </row>
@@ -9110,7 +9103,7 @@
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
@@ -9120,34 +9113,25 @@
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="33" t="e" cm="1" vm="4">
-        <f t="array" ref="B51">_FV(#REF!,"Attribute")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" s="33">
-        <f>TYPE(B51)</f>
-        <v>16</v>
-      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="33">
-        <f>ERROR.TYPE(B51)</f>
-        <v>13</v>
-      </c>
-      <c r="E51" s="33" t="s">
-        <v>290</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E51" s="33"/>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="33" t="e" cm="1" vm="2">
-        <f t="array" ref="B52">_xlfn.SEQUENCE(0)</f>
+      <c r="B52" s="33" t="e" cm="1" vm="4">
+        <f t="array" ref="B52">_FV(#REF!,"Attribute")</f>
         <v>#VALUE!</v>
       </c>
       <c r="C52" s="33">
@@ -9156,7 +9140,7 @@
       </c>
       <c r="D52" s="33">
         <f>ERROR.TYPE(B52)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>290</v>
@@ -9165,15 +9149,17 @@
       <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="34" t="s">
-        <v>291</v>
+      <c r="B53" s="33" t="e" cm="1" vm="2">
+        <f t="array" ref="B53">_xlfn.SEQUENCE(0)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="C53" s="33">
+        <f>TYPE(B53)</f>
         <v>16</v>
       </c>
-      <c r="D53" s="33" t="e">
+      <c r="D53" s="33">
         <f>ERROR.TYPE(B53)</f>
-        <v>#N/A</v>
+        <v>14</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>290</v>
@@ -9182,40 +9168,47 @@
       <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" s="33">
+        <v>16</v>
+      </c>
+      <c r="D54" s="33" t="e">
+        <f>ERROR.TYPE(B54)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>290</v>
+      </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="33" cm="1">
-        <f t="array" ref="B55:B57">_xlfn.SEQUENCE(3)</f>
-        <v>1</v>
-      </c>
-      <c r="C55" s="33">
-        <f>TYPE(_xlfn.ANCHORARRAY(B55))</f>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="33" cm="1">
+        <f t="array" ref="B56:B58">_xlfn.SEQUENCE(3)</f>
+        <v>1</v>
+      </c>
+      <c r="C56" s="33">
+        <f>TYPE(_xlfn.ANCHORARRAY(B56))</f>
         <v>64</v>
       </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33" t="s">
+      <c r="D56" s="33"/>
+      <c r="E56" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33" t="s">
+      <c r="F56" s="33"/>
+      <c r="G56" s="33" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="33">
-        <v>2</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
@@ -9223,119 +9216,129 @@
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B58" s="33">
+        <v>3</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-    </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f>A61+1</f>
-        <v>1</v>
-      </c>
-      <c r="B62" t="s">
-        <v>60</v>
-      </c>
+      <c r="B62" s="1"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
-        <f t="shared" ref="A63:A73" si="2">A62+1</f>
-        <v>2</v>
+        <f>A62+1</f>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" ref="A64:A74" si="2">A63+1</f>
+        <v>2</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>221</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="B73" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>305</v>
       </c>
     </row>

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F3E1FC-6508-964C-801A-EB2984F59D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B9A86-7E14-1E4B-9DF5-74CC921A8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
@@ -63,13 +63,13 @@
     <definedName name="str.any">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.bool">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.endswith">_xlfn.LAMBDA(_xlpm.chars,_xlpm.suffix,      IF(LEN(_xlpm.suffix) &lt;= LEN(_xlpm.chars),          MID(_xlpm.chars, LEN(_xlpm.chars) - LEN(_xlpm.suffix) + 1, LEN(_xlpm.suffix)) = _xlpm.suffix,          FALSE))</definedName>
-    <definedName name="str.eval">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.body, MID(_xlpm.chars, 2, LEN(_xlpm.chars) - 2),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.body))),          _xlpm.picks, MID(_xlpm.body, _xlpm.stops, 1),          _xlpm.pairs, MID(_xlpm.body, _xlpm.stops, 2),          _xlpm.cuts, IF(_xlpm.picks = "\", "", _xlpm.picks),          _xlpm.patches, IF(_xlpm.pairs = "\\", "\", _xlpm.cuts),          _xlpm.ignore_empty, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty, _xlpm.patches),          _xlpm.joined  ))</definedName>
+    <definedName name="str.eval">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.body, MID(_xlpm.chars, 2, LEN(_xlpm.chars) - 2),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.body))),          _xlpm.picks, MID(_xlpm.body, _xlpm.stops, 1),          _xlpm.pairs, MID(_xlpm.body, _xlpm.stops, 2),          _xlpm.cuts, IF(_xlpm.picks = "\", "", _xlpm.picks),          _xlpm.patches, IF(_xlpm.pairs = "\\", "\", _xlpm.cuts),          _xlpm.ignore_empty_eq_true, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty_eq_true, _xlpm.patches),          _xlpm.joined  ))</definedName>
     <definedName name="str.int">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.IFS(          LEN(_xlpm.chars) = 0,              #NUM!,          LEFT(_xlpm.chars, 1) = "+",              _xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          LEFT(_xlpm.chars, 1) = "-",              -_xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          TRUE,              _xlfn.DECIMAL(_xlpm.chars, 10)  ))</definedName>
     <definedName name="str.int_base">_xlfn.LAMBDA(_xlpm.chars,_xlpm.base,      _xlfn.LET(          _xlpm.ch, LEFT(_xlpm.chars, 1),          _xlpm.signed, IF(_xlpm.ch = "-", TRUE, IF(_xlpm.ch = "+", TRUE)),          _xlpm.digits, IF(_xlpm.signed,              MID(_xlpm.chars, 2, LEN(_xlpm.chars)),              _xlpm.chars),          _xlpm.eval1, IF(_xlpm.base &lt;&gt; 0,              _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),              _xlfn.LET(                  _xlpm.lows, LOWER(_xlpm.digits),                  _xlfn.IFS(                      MID(_xlpm.lows, 1, 2) = "0b",                          BIN2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0o",                          OCT2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0x",                          HEX2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      TRUE,                          _xlfn.DECIMAL(_xlpm.digits, 10)              ))),          _xlpm.sign, IF(_xlpm.ch = "-", -1, 1),          _xlpm.eval2, _xlpm.sign * _xlpm.eval1,          _xlpm.eval2  ))</definedName>
     <definedName name="str.int_base_2">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.head, LEFT(_xlpm.chars, 1),          _xlpm.signed, OR(_xlpm.head = "-", _xlpm.head = "+"),          _xlpm.unsigned, RIGHT(_xlpm.chars, LEN(_xlpm.chars) - 1),          _xlpm.tail, IF(_xlpm.signed, _xlpm.unsigned, _xlpm.chars),          _xlpm.based, LEFT(_xlpm.tail, 2) = "0b",          _xlpm.unbased, RIGHT(_xlpm.tail, LEN(_xlpm.tail) - 2),          _xlpm.digits, IF(_xlpm.based, _xlpm.unbased, _xlpm.tail),          _xlpm.sign, IF(_xlpm.head = "-", -1, 1),          _xlpm.base, IF(_xlpm.head = "", 0, 2),          _xlpm.evalled, _xlpm.sign * _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),          _xlpm.evalled  ))</definedName>
     <definedName name="str.ord">_xlfn.LAMBDA(_xlpm.chars, _xlfn.UNICODE(_xlpm.chars))</definedName>
     <definedName name="str.partition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
-    <definedName name="str.repr">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, 1),          _xlpm.slashes, IF(_xlpm.picks = "\", "\\", _xlpm.picks),          _xlpm.ticks, IF(_xlpm.picks = "'", "\'", _xlpm.slashes),          _xlpm.doubles, IF(_xlpm.picks = """", "\""", _xlpm.ticks),          _xlpm.ignore_empty, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty, _xlpm.doubles),          _xlpm.quoted, "'" &amp; _xlpm.joined &amp; "'",          _xlpm.quoted  ))</definedName>
+    <definedName name="str.repr">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, 1),          _xlpm.slashes, IF(_xlpm.picks = "\", "\\", _xlpm.picks),          _xlpm.ticks, IF(_xlpm.picks = "'", "\'", _xlpm.slashes),          _xlpm.doubles, IF(_xlpm.picks = """", "\""", _xlpm.ticks),          _xlpm.ignore_empty_eq_true, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty_eq_true, _xlpm.doubles),          _xlpm.quoted, "'" &amp; _xlpm.joined &amp; "'",          _xlpm.quoted  ))</definedName>
     <definedName name="str.rpartition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.reverse, -1,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact, _xlpm.reverse),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
     <definedName name="str.word">_xlfn.LAMBDA(_xlpm.chars,      LEFT(_xlpm.chars, FIND(" ",_xlpm.chars) - 1)  )</definedName>
   </definedNames>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="515">
   <si>
     <t>bit</t>
   </si>
@@ -544,16 +544,6 @@
   </si>
   <si>
     <t>def list.repr(items)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(items,
-    LET(
-        ignore_empty, FALSE,
-        "[" &amp; TEXTJOIN(
-            ", ",
-            ignore_empty,
-            items) &amp; "]"
-))</t>
   </si>
   <si>
     <t>list.repr(items)</t>
@@ -685,20 +675,6 @@
   </si>
   <si>
     <t>switch on basehint past + -: 0b 0o 0x else str.int</t>
-  </si>
-  <si>
-    <t>=LAMBDA(chars,
-    LET(
-        body, MID(chars, 2, LEN(chars) - 2),
-        stops, SEQUENCE(MAX(1, LEN(body))),
-        picks, MID(body, stops, 1),
-        pairs, MID(body, stops, 2),
-        cuts, IF(picks = "\", "", picks),
-        patches, IF(pairs = "\\", "\", cuts),
-        ignore_empty, TRUE,
-        joined, TEXTJOIN("", ignore_empty, patches),
-        joined
-))("'abc\\def\""ghi\'kjl'")</t>
   </si>
   <si>
     <t>=LAMBDA(chars,
@@ -720,20 +696,6 @@
     <t>="0b10"&amp;"0000"&amp;"0000"</t>
   </si>
   <si>
-    <t>=LAMBDA(chars,
-    LET(
-        stops, SEQUENCE(MAX(1, LEN(chars))),
-        picks, MID(chars, stops, 1),
-        slashes, IF(picks = "\", "\\", picks),
-        ticks, IF(picks = "'", "\'", slashes),
-        doubles, IF(picks = """", "\""", ticks),
-        ignore_empty, TRUE,
-        joined, TEXTJOIN("", ignore_empty, doubles),
-        quoted, "'" &amp; joined &amp; "'",
-        quoted
-))</t>
-  </si>
-  <si>
     <t># Python "repr" encloses even single quotes in single quotes</t>
   </si>
   <si>
@@ -846,24 +808,6 @@
     <t>def str.endswith(chars, suffix)</t>
   </si>
   <si>
-    <t>def bool.as_integer_ratio(bit)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(bit, IF(bit, {1;1}, {0;1}))</t>
-  </si>
-  <si>
-    <t>bool.as_integer_ratio(bit)</t>
-  </si>
-  <si>
-    <t>def bool.bit_length(bit)</t>
-  </si>
-  <si>
-    <t># same code for def bool.bit_length/ .float/ .int</t>
-  </si>
-  <si>
-    <t>bool.bit_length(bit)</t>
-  </si>
-  <si>
     <t>str.endswith(
 chars, suffix
 )</t>
@@ -897,9 +841,6 @@
   </si>
   <si>
     <t>int.bit_length(i)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(I, INT(IF(i, LOG(ABS(i), 2) + 1)))</t>
   </si>
   <si>
     <t>=LAMBDA(i, INT(IF(i, LOG(ABS(i), 2) + 1)))</t>
@@ -2073,6 +2014,56 @@
   </si>
   <si>
     <t>Collect Trash</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        body, MID(chars, 2, LEN(chars) - 2),
+        stops, SEQUENCE(MAX(1, LEN(body))),
+        picks, MID(body, stops, 1),
+        pairs, MID(body, stops, 2),
+        cuts, IF(picks = "\", "", picks),
+        patches, IF(pairs = "\\", "\", cuts),
+        ignore_empty_eq_true, TRUE,
+        joined, TEXTJOIN("", ignore_empty_eq_true, patches),
+        joined
+))("'abc\\def\""ghi\'kjl'")</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        stops, SEQUENCE(MAX(1, LEN(chars))),
+        picks, MID(chars, stops, 1),
+        slashes, IF(picks = "\", "\\", picks),
+        ticks, IF(picks = "'", "\'", slashes),
+        doubles, IF(picks = """", "\""", ticks),
+        ignore_empty_eq_true, TRUE,
+        joined, TEXTJOIN("", ignore_empty_eq_true, doubles),
+        quoted, "'" &amp; joined &amp; "'",
+        quoted
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items,
+    LET(
+        ignore_empty_eq_false, FALSE,
+        "[" &amp; TEXTJOIN(
+            ", ",
+            ignore_empty_eq_false,
+            items) &amp; "]"
+))</t>
+  </si>
+  <si>
+    <t>=CHOOSE({1;2;3},"aa","bb","cc")</t>
+  </si>
+  <si>
+    <t>str.repr(items)</t>
+  </si>
+  <si>
+    <t># TODO: wrong answer</t>
+  </si>
+  <si>
+    <t># TODO: #N/A is a fair answer here, but can we solve list.repr?</t>
   </si>
 </sst>
 </file>
@@ -2682,12 +2673,12 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -2695,53 +2686,53 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G17" s="36"/>
     </row>
@@ -2751,94 +2742,94 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="35" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="35" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2846,37 +2837,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -2886,7 +2877,7 @@
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="38" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2903,7 +2894,7 @@
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2927,27 +2918,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="38" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2962,22 +2953,22 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
       <c r="E81" s="38" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -2995,24 +2986,24 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="36" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D85" s="36"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="36" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="D86" s="36"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="36" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="D87" s="36"/>
     </row>
@@ -3022,37 +3013,37 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="E97" s="38" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="27" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -3063,72 +3054,72 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" s="27" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -3139,22 +3130,22 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" s="35" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
@@ -3162,87 +3153,87 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -3256,1079 +3247,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D852BB-57DF-6140-815D-350948B01B5D}">
-  <dimension ref="B3:E76"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="16" cm="1">
-        <f t="array" ref="C10:C11">bool.as_integer_ratio(B10)</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="16" cm="1">
-        <f t="array" ref="C13:C14">bool.as_integer_ratio(B13)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="13" cm="1">
-        <f t="array" ref="C19">bool.bit_length(B19)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="b">
-        <f>TRUE</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="13" cm="1">
-        <f t="array" ref="C20">bool.bit_length(B20)</f>
-        <v>1</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:C57" si="0">2^B26-1</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="22" cm="1">
-        <f t="array" ref="D26">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C26)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="10" t="b">
-        <f t="shared" ref="E26:E57" si="1">D26=B26</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
-        <f t="shared" ref="B27:B58" si="2">B26+1</f>
-        <v>1</v>
-      </c>
-      <c r="C27" s="10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D27" s="22" cm="1">
-        <f t="array" ref="D27">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C27)</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="C28" s="10">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D28" s="22" cm="1">
-        <f t="array" ref="D28">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C28)</f>
-        <v>2</v>
-      </c>
-      <c r="E28" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="C29" s="10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D29" s="22" cm="1">
-        <f t="array" ref="D29">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C29)</f>
-        <v>3</v>
-      </c>
-      <c r="E29" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="C30" s="10">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D30" s="22" cm="1">
-        <f t="array" ref="D30">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C30)</f>
-        <v>4</v>
-      </c>
-      <c r="E30" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="C31" s="10">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D31" s="22" cm="1">
-        <f t="array" ref="D31">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C31)</f>
-        <v>5</v>
-      </c>
-      <c r="E31" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="10">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="C32" s="10">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="D32" s="22" cm="1">
-        <f t="array" ref="D32">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C32)</f>
-        <v>6</v>
-      </c>
-      <c r="E32" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="10">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="C33" s="10">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="D33" s="22" cm="1">
-        <f t="array" ref="D33">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C33)</f>
-        <v>7</v>
-      </c>
-      <c r="E33" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="10">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="C34" s="10">
-        <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="D34" s="22" cm="1">
-        <f t="array" ref="D34">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C34)</f>
-        <v>8</v>
-      </c>
-      <c r="E34" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="10">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="C35" s="10">
-        <f t="shared" si="0"/>
-        <v>511</v>
-      </c>
-      <c r="D35" s="22" cm="1">
-        <f t="array" ref="D35">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C35)</f>
-        <v>9</v>
-      </c>
-      <c r="E35" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="C36" s="10">
-        <f t="shared" si="0"/>
-        <v>1023</v>
-      </c>
-      <c r="D36" s="22" cm="1">
-        <f t="array" ref="D36">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C36)</f>
-        <v>10</v>
-      </c>
-      <c r="E36" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="10">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="C37" s="10">
-        <f t="shared" si="0"/>
-        <v>2047</v>
-      </c>
-      <c r="D37" s="22" cm="1">
-        <f t="array" ref="D37">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C37)</f>
-        <v>11</v>
-      </c>
-      <c r="E37" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="10">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="C38" s="10">
-        <f t="shared" si="0"/>
-        <v>4095</v>
-      </c>
-      <c r="D38" s="22" cm="1">
-        <f t="array" ref="D38">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C38)</f>
-        <v>12</v>
-      </c>
-      <c r="E38" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="10">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="C39" s="10">
-        <f t="shared" si="0"/>
-        <v>8191</v>
-      </c>
-      <c r="D39" s="22" cm="1">
-        <f t="array" ref="D39">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C39)</f>
-        <v>13</v>
-      </c>
-      <c r="E39" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="10">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="C40" s="10">
-        <f t="shared" si="0"/>
-        <v>16383</v>
-      </c>
-      <c r="D40" s="22" cm="1">
-        <f t="array" ref="D40">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C40)</f>
-        <v>14</v>
-      </c>
-      <c r="E40" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="10">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="C41" s="10">
-        <f t="shared" si="0"/>
-        <v>32767</v>
-      </c>
-      <c r="D41" s="22" cm="1">
-        <f t="array" ref="D41">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C41)</f>
-        <v>15</v>
-      </c>
-      <c r="E41" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="10">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="C42" s="10">
-        <f t="shared" si="0"/>
-        <v>65535</v>
-      </c>
-      <c r="D42" s="22" cm="1">
-        <f t="array" ref="D42">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C42)</f>
-        <v>16</v>
-      </c>
-      <c r="E42" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="10">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="C43" s="10">
-        <f t="shared" si="0"/>
-        <v>131071</v>
-      </c>
-      <c r="D43" s="22" cm="1">
-        <f t="array" ref="D43">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C43)</f>
-        <v>17</v>
-      </c>
-      <c r="E43" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="10">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="C44" s="10">
-        <f t="shared" si="0"/>
-        <v>262143</v>
-      </c>
-      <c r="D44" s="22" cm="1">
-        <f t="array" ref="D44">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C44)</f>
-        <v>18</v>
-      </c>
-      <c r="E44" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="10">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="C45" s="10">
-        <f t="shared" si="0"/>
-        <v>524287</v>
-      </c>
-      <c r="D45" s="22" cm="1">
-        <f t="array" ref="D45">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C45)</f>
-        <v>19</v>
-      </c>
-      <c r="E45" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="10">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="C46" s="10">
-        <f t="shared" si="0"/>
-        <v>1048575</v>
-      </c>
-      <c r="D46" s="22" cm="1">
-        <f t="array" ref="D46">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C46)</f>
-        <v>20</v>
-      </c>
-      <c r="E46" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="10">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="C47" s="10">
-        <f t="shared" si="0"/>
-        <v>2097151</v>
-      </c>
-      <c r="D47" s="22" cm="1">
-        <f t="array" ref="D47">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C47)</f>
-        <v>21</v>
-      </c>
-      <c r="E47" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="10">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="C48" s="10">
-        <f t="shared" si="0"/>
-        <v>4194303</v>
-      </c>
-      <c r="D48" s="22" cm="1">
-        <f t="array" ref="D48">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C48)</f>
-        <v>22</v>
-      </c>
-      <c r="E48" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="10">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="C49" s="10">
-        <f t="shared" si="0"/>
-        <v>8388607</v>
-      </c>
-      <c r="D49" s="22" cm="1">
-        <f t="array" ref="D49">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C49)</f>
-        <v>23</v>
-      </c>
-      <c r="E49" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="10">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="C50" s="10">
-        <f t="shared" si="0"/>
-        <v>16777215</v>
-      </c>
-      <c r="D50" s="22" cm="1">
-        <f t="array" ref="D50">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C50)</f>
-        <v>24</v>
-      </c>
-      <c r="E50" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="10">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="C51" s="10">
-        <f t="shared" si="0"/>
-        <v>33554431</v>
-      </c>
-      <c r="D51" s="22" cm="1">
-        <f t="array" ref="D51">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C51)</f>
-        <v>25</v>
-      </c>
-      <c r="E51" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="10">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="C52" s="10">
-        <f t="shared" si="0"/>
-        <v>67108863</v>
-      </c>
-      <c r="D52" s="22" cm="1">
-        <f t="array" ref="D52">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C52)</f>
-        <v>26</v>
-      </c>
-      <c r="E52" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="10">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="C53" s="10">
-        <f t="shared" si="0"/>
-        <v>134217727</v>
-      </c>
-      <c r="D53" s="22" cm="1">
-        <f t="array" ref="D53">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C53)</f>
-        <v>27</v>
-      </c>
-      <c r="E53" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="10">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="C54" s="10">
-        <f t="shared" si="0"/>
-        <v>268435455</v>
-      </c>
-      <c r="D54" s="22" cm="1">
-        <f t="array" ref="D54">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C54)</f>
-        <v>28</v>
-      </c>
-      <c r="E54" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="10">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="C55" s="10">
-        <f t="shared" si="0"/>
-        <v>536870911</v>
-      </c>
-      <c r="D55" s="22" cm="1">
-        <f t="array" ref="D55">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C55)</f>
-        <v>29</v>
-      </c>
-      <c r="E55" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="10">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="C56" s="10">
-        <f t="shared" si="0"/>
-        <v>1073741823</v>
-      </c>
-      <c r="D56" s="22" cm="1">
-        <f t="array" ref="D56">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C56)</f>
-        <v>30</v>
-      </c>
-      <c r="E56" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="10">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
-      <c r="C57" s="10">
-        <f t="shared" si="0"/>
-        <v>2147483647</v>
-      </c>
-      <c r="D57" s="22" cm="1">
-        <f t="array" ref="D57">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C57)</f>
-        <v>31</v>
-      </c>
-      <c r="E57" s="10" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="10">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="C58" s="10">
-        <f t="shared" ref="C58:C76" si="3">2^B58-1</f>
-        <v>4294967295</v>
-      </c>
-      <c r="D58" s="22" cm="1">
-        <f t="array" ref="D58">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C58)</f>
-        <v>32</v>
-      </c>
-      <c r="E58" s="10" t="b">
-        <f t="shared" ref="E58:E76" si="4">D58=B58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="10">
-        <f t="shared" ref="B59:B76" si="5">B58+1</f>
-        <v>33</v>
-      </c>
-      <c r="C59" s="10">
-        <f t="shared" si="3"/>
-        <v>8589934591</v>
-      </c>
-      <c r="D59" s="22" cm="1">
-        <f t="array" ref="D59">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C59)</f>
-        <v>33</v>
-      </c>
-      <c r="E59" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="10">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="C60" s="10">
-        <f t="shared" si="3"/>
-        <v>17179869183</v>
-      </c>
-      <c r="D60" s="22" cm="1">
-        <f t="array" ref="D60">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C60)</f>
-        <v>34</v>
-      </c>
-      <c r="E60" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="10">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="C61" s="10">
-        <f t="shared" si="3"/>
-        <v>34359738367</v>
-      </c>
-      <c r="D61" s="22" cm="1">
-        <f t="array" ref="D61">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C61)</f>
-        <v>35</v>
-      </c>
-      <c r="E61" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="10">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="C62" s="10">
-        <f t="shared" si="3"/>
-        <v>68719476735</v>
-      </c>
-      <c r="D62" s="22" cm="1">
-        <f t="array" ref="D62">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C62)</f>
-        <v>36</v>
-      </c>
-      <c r="E62" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="10">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="C63" s="10">
-        <f t="shared" si="3"/>
-        <v>137438953471</v>
-      </c>
-      <c r="D63" s="22" cm="1">
-        <f t="array" ref="D63">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C63)</f>
-        <v>37</v>
-      </c>
-      <c r="E63" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="10">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="C64" s="10">
-        <f t="shared" si="3"/>
-        <v>274877906943</v>
-      </c>
-      <c r="D64" s="22" cm="1">
-        <f t="array" ref="D64">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C64)</f>
-        <v>38</v>
-      </c>
-      <c r="E64" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="10">
-        <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="C65" s="10">
-        <f t="shared" si="3"/>
-        <v>549755813887</v>
-      </c>
-      <c r="D65" s="22" cm="1">
-        <f t="array" ref="D65">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C65)</f>
-        <v>39</v>
-      </c>
-      <c r="E65" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="10">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="C66" s="10">
-        <f t="shared" si="3"/>
-        <v>1099511627775</v>
-      </c>
-      <c r="D66" s="22" cm="1">
-        <f t="array" ref="D66">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C66)</f>
-        <v>40</v>
-      </c>
-      <c r="E66" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="10">
-        <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="C67" s="10">
-        <f t="shared" si="3"/>
-        <v>2199023255551</v>
-      </c>
-      <c r="D67" s="22" cm="1">
-        <f t="array" ref="D67">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C67)</f>
-        <v>41</v>
-      </c>
-      <c r="E67" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="10">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="C68" s="10">
-        <f t="shared" si="3"/>
-        <v>4398046511103</v>
-      </c>
-      <c r="D68" s="22" cm="1">
-        <f t="array" ref="D68">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C68)</f>
-        <v>42</v>
-      </c>
-      <c r="E68" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="10">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="C69" s="10">
-        <f t="shared" si="3"/>
-        <v>8796093022207</v>
-      </c>
-      <c r="D69" s="22" cm="1">
-        <f t="array" ref="D69">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C69)</f>
-        <v>43</v>
-      </c>
-      <c r="E69" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="10">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="C70" s="10">
-        <f t="shared" si="3"/>
-        <v>17592186044415</v>
-      </c>
-      <c r="D70" s="22" cm="1">
-        <f t="array" ref="D70">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C70)</f>
-        <v>44</v>
-      </c>
-      <c r="E70" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="1">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="C71" s="1">
-        <f t="shared" si="3"/>
-        <v>35184372088831</v>
-      </c>
-      <c r="D71" s="27" cm="1">
-        <f t="array" ref="D71">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C71)</f>
-        <v>46</v>
-      </c>
-      <c r="E71" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="10">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="C72" s="10">
-        <f t="shared" si="3"/>
-        <v>70368744177663</v>
-      </c>
-      <c r="D72" s="22" cm="1">
-        <f t="array" ref="D72">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C72)</f>
-        <v>47</v>
-      </c>
-      <c r="E72" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="10">
-        <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="C73" s="10">
-        <f t="shared" si="3"/>
-        <v>140737488355327</v>
-      </c>
-      <c r="D73" s="22" cm="1">
-        <f t="array" ref="D73">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C73)</f>
-        <v>48</v>
-      </c>
-      <c r="E73" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="10">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="C74" s="10">
-        <f t="shared" si="3"/>
-        <v>281474976710655</v>
-      </c>
-      <c r="D74" s="22" cm="1">
-        <f t="array" ref="D74">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C74)</f>
-        <v>49</v>
-      </c>
-      <c r="E74" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="10">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="C75" s="10">
-        <f t="shared" si="3"/>
-        <v>562949953421311</v>
-      </c>
-      <c r="D75" s="22" cm="1">
-        <f t="array" ref="D75">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C75)</f>
-        <v>50</v>
-      </c>
-      <c r="E75" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="10">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="C76" s="10">
-        <f t="shared" si="3"/>
-        <v>1125899906842623</v>
-      </c>
-      <c r="D76" s="22" cm="1">
-        <f t="array" ref="D76">_xlfn.LAMBDA(_xlpm.I, INT(IF(_xlpm.I, LOG(ABS(_xlpm.I), 2) + 1)))(C76)</f>
-        <v>51</v>
-      </c>
-      <c r="E76" s="10" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4354,22 +3281,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4403,7 +3330,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4416,7 +3343,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4450,7 +3377,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4616,7 +3543,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -4624,17 +3551,17 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4645,7 +3572,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4653,10 +3580,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -4668,7 +3595,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4680,7 +3607,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -4722,7 +3649,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4742,7 +3669,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>97</v>
@@ -4796,7 +3723,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -4867,7 +3794,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -4875,10 +3802,10 @@
         <v>23</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -4890,7 +3817,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -4902,7 +3829,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -4966,7 +3893,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="E48" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4974,10 +3901,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4989,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -5059,10 +3986,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -5074,12 +4001,12 @@
         <v>0</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="22" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -5098,7 +4025,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E69" s="22" t="s">
         <v>103</v>
@@ -5152,7 +4079,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -5236,7 +4163,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>111</v>
@@ -5290,7 +4217,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -5358,18 +4285,18 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E100" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -5424,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -5448,7 +4375,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -5460,23 +4387,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E117" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -5546,7 +4473,7 @@
         <v>-0.4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -5564,18 +4491,18 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E136" s="1" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -5640,7 +4567,7 @@
         <v>0.5</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -5661,7 +4588,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E152" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5669,10 +4596,10 @@
         <v>40</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -5686,12 +4613,12 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E157" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E158" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -5699,7 +4626,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -5713,17 +4640,17 @@
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="1" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="10" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="10" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -5749,22 +4676,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5776,13 +4703,13 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="E11" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -5798,7 +4725,7 @@
         <v>84</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5810,7 +4737,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5822,7 +4749,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -5927,7 +4854,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5939,7 +4866,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5951,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -5976,7 +4903,7 @@
         <v>87</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5995,7 +4922,7 @@
     </row>
     <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E45" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -6038,17 +4965,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6062,7 +4989,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -6070,7 +4997,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>37</v>
@@ -6085,19 +5012,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13" s="16" t="b" cm="1">
         <f t="array" ref="C13">str.bool(B13)</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6106,7 +5033,7 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="E16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6114,7 +5041,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>37</v>
@@ -6129,12 +5056,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C19" s="16" t="b" cm="1">
         <f t="array" ref="C19">str.bool(B19)</f>
@@ -6148,18 +5075,18 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="E22" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -6168,19 +5095,19 @@
     </row>
     <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C25" s="26" t="b" cm="1">
         <f t="array" ref="C25">str.endswith(B25,B26)</f>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C26" s="26"/>
       <c r="E26" s="2"/>
@@ -6192,19 +5119,19 @@
     </row>
     <row r="28" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C28" s="26" t="b" cm="1">
         <f t="array" ref="C28">str.endswith(B28,B29)</f>
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -6215,14 +5142,14 @@
     </row>
     <row r="31" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C31" s="26" t="b" cm="1">
         <f t="array" ref="C31">str.endswith(B31,B32)</f>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -6230,7 +5157,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -6246,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -6254,7 +5181,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -6276,12 +5203,12 @@
         <v>74</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -6293,7 +5220,7 @@
         <v/>
       </c>
       <c r="E41" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -6353,36 +5280,36 @@
         <v>ab'cd</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C50" s="16" t="str" cm="1">
         <f t="array" ref="C50">str.eval(B50)</f>
         <v>bcde</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C51" s="16" t="e" cm="1">
         <f t="array" ref="C51">str.eval(B51)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
@@ -6390,10 +5317,10 @@
         <v>27</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -6401,7 +5328,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C57" s="16" cm="1">
         <f t="array" ref="C57">str.int(B57)</f>
@@ -6415,7 +5342,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="16" cm="1">
         <f t="array" ref="C58">str.int(B58)</f>
@@ -6429,7 +5356,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C59" s="16" cm="1">
         <f t="array" ref="C59">str.int(B59)</f>
@@ -6443,7 +5370,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C60" s="16" cm="1">
         <f t="array" ref="C60">str.int(B60)</f>
@@ -6461,26 +5388,26 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C62" s="16" t="e" cm="1">
         <f t="array" ref="C62">str.int(B62)</f>
         <v>#NUM!</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C63" s="16" t="e" cm="1">
         <f t="array" ref="C63">str.int(B63)</f>
         <v>#NUM!</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -6489,34 +5416,34 @@
         <v>#NUM!</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="10" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E67" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E71" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -6524,12 +5451,12 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E75" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -6540,12 +5467,12 @@
         <v>27</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="16" cm="1">
         <f t="array" ref="C79">str.int_base_2(B79)</f>
@@ -6555,7 +5482,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C80" s="16" cm="1">
         <f t="array" ref="C80">str.int_base_2(B80)</f>
@@ -6569,19 +5496,19 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C82" s="16" cm="1">
         <f t="array" ref="C82">str.int_base_2(B82)</f>
         <v>15</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C83" s="16" cm="1">
         <f t="array" ref="C83">str.int_base_2(B83)</f>
@@ -6591,7 +5518,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C84" s="16" cm="1">
         <f t="array" ref="C84">str.int_base_2(B84)</f>
@@ -6601,7 +5528,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C85" s="16" cm="1">
         <f t="array" ref="C85">str.int_base_2(B85)</f>
@@ -6615,7 +5542,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -6629,7 +5556,7 @@
         <v>512</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -6638,14 +5565,14 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90" s="16" t="e" cm="1">
         <f t="array" ref="C90">str.int_base_2(B90)</f>
         <v>#NUM!</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -6654,50 +5581,50 @@
         <v>#NUM!</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E94" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E95" s="10" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E97" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E98" s="10" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E100" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="10" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="136" x14ac:dyDescent="0.2">
       <c r="E104" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
@@ -6708,18 +5635,18 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="C107" s="10"/>
       <c r="E107" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="E108" s="22" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -6734,12 +5661,12 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E111" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E112" s="22" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -6747,7 +5674,7 @@
         <v>28</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E113" s="22"/>
     </row>
@@ -6774,7 +5701,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="21" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C118" s="16" cm="1">
         <f t="array" ref="C118">str.ord(B118)</f>
@@ -6789,10 +5716,10 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
@@ -6805,12 +5732,12 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E124" s="4" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E125" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -6818,7 +5745,7 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="22" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
@@ -6856,7 +5783,7 @@
     </row>
     <row r="135" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E135" s="2" t="s">
-        <v>170</v>
+        <v>509</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
@@ -6910,7 +5837,7 @@
         <v>'ab\'cd'</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -6939,12 +5866,12 @@
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E146" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E147" s="22" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -6952,12 +5879,12 @@
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E149" s="4" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E150" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -6965,7 +5892,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="22" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
@@ -6996,12 +5923,12 @@
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E159" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E160" s="22" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="161" spans="5:5" x14ac:dyDescent="0.2">
@@ -7009,17 +5936,17 @@
     </row>
     <row r="162" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E162" s="4" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="169" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E169" s="10" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +5957,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9AEAAA-FB17-324F-AABB-3625663F090B}">
-  <dimension ref="B3:E102"/>
+  <dimension ref="B3:E113"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -7046,17 +5973,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -7172,7 +6099,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -7245,7 +6172,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -7253,11 +6180,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -7268,7 +6195,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C46" s="13" t="e" cm="1">
         <f t="array" ref="C46">list.bool(B46)</f>
@@ -7276,7 +6203,7 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -7287,7 +6214,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="3"/>
       <c r="E47" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -7316,7 +6243,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="3"/>
@@ -7329,14 +6256,14 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -7358,10 +6285,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="18" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -7388,7 +6315,7 @@
         <v>120</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7422,7 +6349,7 @@
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="C64" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -7448,7 +6375,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -7456,10 +6383,10 @@
         <v>54</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -7469,7 +6396,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C71" s="13"/>
       <c r="E71" s="3"/>
@@ -7514,14 +6441,14 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -7541,15 +6468,15 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E81" s="4" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="C82" s="32" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -7605,12 +6532,12 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E91" s="4" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E92" s="3" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -7632,7 +6559,7 @@
       <c r="C96" s="13"/>
       <c r="D96" s="3"/>
       <c r="E96" s="6" t="s">
-        <v>128</v>
+        <v>510</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -7640,7 +6567,7 @@
         <v>54</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="5"/>
@@ -7668,6 +6595,67 @@
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="15">
         <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="15" t="str" cm="1">
+        <f t="array" ref="B105:B107">CHOOSE({1;2;3},"aa","bb","cc")</f>
+        <v>aa</v>
+      </c>
+      <c r="C105" s="13" t="str" cm="1">
+        <f t="array" ref="C105">list.repr(_xlfn.ANCHORARRAY(B105))</f>
+        <v>[aa, bb, cc]</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="15" t="str">
+        <v>bb</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="15" t="str">
+        <v>cc</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C109" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="15" t="str" cm="1">
+        <f t="array" ref="B111:B113">CHOOSE({1;2;3},"aa","bb","cc")</f>
+        <v>aa</v>
+      </c>
+      <c r="C111" s="13" t="e" cm="1">
+        <f t="array" ref="C111">str.repr(_xlfn.ANCHORARRAY(B111))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="15" t="str">
+        <v>bb</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="15" t="str">
+        <v>cc</v>
       </c>
     </row>
   </sheetData>
@@ -7693,22 +6681,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="C7" s="19"/>
     </row>
@@ -7721,13 +6709,13 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" s="19"/>
       <c r="E10" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" s="19"/>
       <c r="E11" s="14" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -7741,13 +6729,13 @@
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="19"/>
       <c r="E14" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19"/>
       <c r="E15" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -7761,12 +6749,12 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="19"/>
       <c r="E18" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="102" x14ac:dyDescent="0.2">
       <c r="E19" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -7774,7 +6762,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -7790,7 +6778,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C22" s="16" t="b" cm="1">
         <f t="array" ref="C22">_any(B22)</f>
@@ -7806,7 +6794,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E25" s="4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -7817,7 +6805,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" s="4" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -7833,7 +6821,7 @@
     </row>
     <row r="32" spans="2:5" ht="119" x14ac:dyDescent="0.2">
       <c r="E32" s="6" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -7995,14 +6983,14 @@
       <c r="B54" s="18"/>
       <c r="C54" s="13"/>
       <c r="E54" s="4" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="C55" s="13"/>
       <c r="E55" s="10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -8013,7 +7001,7 @@
       <c r="B57" s="18"/>
       <c r="C57" s="13"/>
       <c r="E57" s="4" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
@@ -8025,7 +7013,7 @@
       <c r="B59" s="18"/>
       <c r="C59" s="13"/>
       <c r="E59" s="4" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
@@ -8036,7 +7024,7 @@
       <c r="B61" s="18"/>
       <c r="C61" s="13"/>
       <c r="E61" s="4" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -8048,14 +7036,14 @@
       <c r="B63" s="18"/>
       <c r="C63" s="13"/>
       <c r="E63" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="C64" s="13"/>
       <c r="E64" s="10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -8067,7 +7055,7 @@
       <c r="B66" s="18"/>
       <c r="C66" s="13"/>
       <c r="E66" s="4" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
@@ -8078,14 +7066,14 @@
       <c r="B68" s="18"/>
       <c r="C68" s="13"/>
       <c r="E68" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="C69" s="13"/>
       <c r="E69" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -8097,7 +7085,7 @@
       <c r="B71" s="18"/>
       <c r="C71" s="13"/>
       <c r="E71" s="4" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -8109,7 +7097,7 @@
       <c r="B73" s="18"/>
       <c r="C73" s="13"/>
       <c r="E73" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -8121,7 +7109,7 @@
       <c r="B75" s="18"/>
       <c r="C75" s="13"/>
       <c r="E75" s="4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -8133,7 +7121,7 @@
       <c r="B77" s="18"/>
       <c r="C77" s="13"/>
       <c r="E77" s="4" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -8145,7 +7133,7 @@
       <c r="B79" s="18"/>
       <c r="C79" s="13"/>
       <c r="E79" s="4" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -8157,7 +7145,7 @@
       <c r="B81" s="18"/>
       <c r="C81" s="13"/>
       <c r="E81" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -8169,7 +7157,7 @@
       <c r="B83" s="18"/>
       <c r="C83" s="13"/>
       <c r="E83" s="4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
@@ -8181,7 +7169,7 @@
       <c r="B85" s="18"/>
       <c r="C85" s="13"/>
       <c r="E85" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -8193,7 +7181,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="13"/>
       <c r="E87" s="4" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -8205,21 +7193,21 @@
       <c r="B89" s="18"/>
       <c r="C89" s="13"/>
       <c r="E89" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
       <c r="C90" s="13"/>
       <c r="E90" s="4" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="C91" s="13"/>
       <c r="E91" s="4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -8240,7 +7228,7 @@
       <c r="C94" s="13"/>
       <c r="D94" s="3"/>
       <c r="E94" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -8291,7 +7279,7 @@
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
@@ -8365,12 +7353,12 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E109" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E110" s="22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -8378,12 +7366,12 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E112" s="4" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E113" s="22" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.2">
@@ -8391,12 +7379,12 @@
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E115" s="4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E116" s="22" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.2">
@@ -8404,17 +7392,17 @@
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E118" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="5:5" ht="102" x14ac:dyDescent="0.2">
       <c r="E119" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E121" s="4" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -8478,34 +7466,34 @@
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -8566,26 +7554,26 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -8603,7 +7591,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -8611,7 +7599,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -8619,109 +7607,109 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -8732,7 +7720,7 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -8741,23 +7729,23 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
       <c r="G25" s="9" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -8778,11 +7766,11 @@
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="34" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -8796,11 +7784,11 @@
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="34" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -8813,7 +7801,7 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="34" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -8832,11 +7820,11 @@
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="34" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
@@ -8853,7 +7841,7 @@
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="33"/>
@@ -8873,11 +7861,11 @@
         <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -8890,7 +7878,7 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="34" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C36" s="33">
         <f>TYPE(B36)</f>
@@ -8898,11 +7886,11 @@
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="33" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -8923,11 +7911,11 @@
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="33" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
@@ -8952,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -8971,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -8989,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -9008,7 +7996,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -9027,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -9046,7 +8034,7 @@
         <v>6</v>
       </c>
       <c r="E45" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -9065,7 +8053,7 @@
         <v>7</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -9094,7 +8082,7 @@
         <v>9</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -9143,7 +8131,7 @@
         <v>13</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -9162,14 +8150,14 @@
         <v>14</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="34" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C54" s="33">
         <v>16</v>
@@ -9179,7 +8167,7 @@
         <v>#N/A</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -9199,11 +8187,11 @@
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -9228,7 +8216,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -9258,7 +8246,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -9267,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -9285,7 +8273,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -9294,7 +8282,7 @@
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -9303,7 +8291,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -9312,7 +8300,7 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -9321,7 +8309,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -9330,7 +8318,7 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -9339,7 +8327,7 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B9A86-7E14-1E4B-9DF5-74CC921A8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF32B10-197E-7C4D-8095-4D8AFE8C7F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
+    <workbookView xWindow="-7900" yWindow="-22000" windowWidth="34040" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Welcome" sheetId="13" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="3 Float" sheetId="3" r:id="rId4"/>
     <sheet name="4 Str" sheetId="5" r:id="rId5"/>
     <sheet name="5 List" sheetId="9" r:id="rId6"/>
-    <sheet name="6 Object" sheetId="7" r:id="rId7"/>
-    <sheet name="7 Keystrokes" sheetId="2" r:id="rId8"/>
-    <sheet name="8 Etc" sheetId="8" r:id="rId9"/>
-    <sheet name="9 Scraps" sheetId="14" r:id="rId10"/>
+    <sheet name="6 Function" sheetId="15" r:id="rId7"/>
+    <sheet name="7 Object" sheetId="7" r:id="rId8"/>
+    <sheet name="8 Keystrokes" sheetId="2" r:id="rId9"/>
+    <sheet name="9 Etc" sheetId="8" r:id="rId10"/>
+    <sheet name="10 Scraps" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_any">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.any(_xlpm.obj),              64, list.any(_xlpm.obj),              #VALUE!  ))</definedName>
     <definedName name="_bool">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.bool(_xlpm.obj),              64, list.bool(_xlpm.obj),              IF(_xlpm.obj, TRUE)  ))</definedName>
-    <definedName name="_repr">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.repr(_xlpm.obj),              4, bool.repr(_xlpm.obj),              64, list.repr(_xlpm.obj),              "" &amp; _xlpm.obj  ))</definedName>
+    <definedName name="_repr">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, int.repr(_xlpm.obj),              2, str.repr(_xlpm.obj),              4, bool.repr(_xlpm.obj),              64, list.repr(_xlpm.obj),              128, function.repr(_xlpm.obj),              "&lt;" &amp; _xlpm.obj &amp; "&gt;"  ))</definedName>
     <definedName name="bool.as_integer_ratio">_xlfn.LAMBDA(_xlpm.bit, IF(_xlpm.bit, {1;1}, {0;1}))</definedName>
     <definedName name="bool.ascii">_xlfn.LAMBDA(_xlpm.bit, IF(_xlpm.bit, "True", "False"))</definedName>
     <definedName name="bool.bit_length">_xlfn.LAMBDA(_xlpm.bit, INT(_xlpm.bit))</definedName>
@@ -40,6 +41,9 @@
     <definedName name="float.int">_xlfn.LAMBDA(_xlpm.f, TRUNC(_xlpm.f))</definedName>
     <definedName name="float.repr">_xlfn.LAMBDA(_xlpm.f, IF(_xlpm.f = INT(_xlpm.f), "" &amp; _xlpm.f &amp; ".0", "" &amp; _xlpm.f))</definedName>
     <definedName name="float.str">_xlfn.LAMBDA(_xlpm.f, IF(_xlpm.f = INT(_xlpm.f), "" &amp; _xlpm.f &amp; ".0", "" &amp; _xlpm.f))</definedName>
+    <definedName name="function.filter">_xlfn.LAMBDA(_xlpm.func,_xlpm.items,      _xlfn._xlws.FILTER(_xlpm.items, _xlpm.func(_xlpm.items), _xlfn.SEQUENCE(0))  )</definedName>
+    <definedName name="function.map">_xlfn.LAMBDA(_xlpm.func,_xlpm.items,      _xlfn.LET(          _xlpm.head, INDEX(_xlpm.items, 1),          _xlpm.stops, _xlfn.SEQUENCE(ROWS(_xlpm.items)),          IF(_xlpm.stops = 1,              _xlpm.func(_xlpm.head),              _xlfn.LET(                  _xlpm.tail_stops, 1 + _xlfn.SEQUENCE(ROWS(_xlpm.items) - 1),                  _xlpm.tails, INDEX(_xlpm.items, _xlpm.tail_stops),                  INDEX(function.map(_xlpm.func, _xlpm.tails), _xlpm.stops - 1)  ))))</definedName>
+    <definedName name="function.repr">_xlfn.LAMBDA(_xlpm.func, "&lt;function&gt;")</definedName>
     <definedName name="int.ascii">_xlfn.LAMBDA(_xlpm.i, "" &amp; _xlpm.i)</definedName>
     <definedName name="int.bin">_xlfn.LAMBDA(_xlpm.i, "0b" &amp; DEC2BIN(_xlpm.i))</definedName>
     <definedName name="int.bit_length">_xlfn.LAMBDA(_xlpm.i, INT(IF(_xlpm.i, LOG(ABS(_xlpm.i), 2) + 1)))</definedName>
@@ -57,9 +61,11 @@
     <definedName name="list.any">_xlfn.LAMBDA(_xlpm.items, OR(_xlpm.items))</definedName>
     <definedName name="list.bool">_xlfn.LAMBDA(_xlpm.items,#VALUE!)</definedName>
     <definedName name="list.enumerate">_xlfn.LAMBDA(_xlpm.items,      CHOOSE({1,2},          _xlfn.SEQUENCE(ROWS(_xlpm.items)) - 1,          _xlpm.items  ))</definedName>
-    <definedName name="list.filter">_xlfn.LAMBDA(_xlpm.func,_xlpm.items,      _xlfn._xlws.FILTER(_xlpm.items, _xlpm.func(_xlpm.items), _xlfn.SEQUENCE(0))  )</definedName>
-    <definedName name="list.item">_xlfn.LAMBDA(_xlpm.items,_xlpm.which,      IF(_xlpm.which &lt; 0,          INDEX(_xlpm.items, COLUMNS(_xlpm.items) + 1 + _xlpm.which),          INDEX(_xlpm.items, 1 + _xlpm.which)  ))</definedName>
-    <definedName name="list.repr">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.ignore_empty, FALSE,          "[" &amp; _xlfn.TEXTJOIN(              ", ",              _xlpm.ignore_empty,              _xlpm.items) &amp; "]"  ))</definedName>
+    <definedName name="list.item">_xlfn.LAMBDA(_xlpm.items,_xlpm.which,      IF(_xlpm.which &lt; 0,          INDEX(_xlpm.items, ROWS(_xlpm.items) + 1 + _xlpm.which),          INDEX(_xlpm.items, 1 + _xlpm.which)  ))</definedName>
+    <definedName name="list.len">_xlfn.LAMBDA(_xlpm.items, ROWS(_xlpm.items))</definedName>
+    <definedName name="list.repr">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.ignore_empty_eq_false, FALSE,          "[" &amp; _xlfn.TEXTJOIN(              ", ",              _xlpm.ignore_empty_eq_false,              list.repr.map(_xlpm.items)) &amp; "]"  ))</definedName>
+    <definedName name="list.repr.item">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, int.repr(_xlpm.obj),              2, str.repr(_xlpm.obj),              4, bool.repr(_xlpm.obj),              128, function.repr(_xlpm.obj),              "&lt;" &amp; _xlpm.obj &amp; "&gt;"  ))</definedName>
+    <definedName name="list.repr.map">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.head, INDEX(_xlpm.items, 1, 1),          _xlpm.stops, _xlfn.SEQUENCE(ROWS(_xlpm.items)),          IF(_xlpm.stops = 1,              list.repr.item(_xlpm.head),              _xlfn.LET(                  _xlpm.tail_stops, 1 + _xlfn.SEQUENCE(ROWS(_xlpm.items) - 1),                  _xlpm.tails, INDEX(_xlpm.items, _xlpm.tail_stops),                  _xlpm.tail_reprs, list.repr.map(_xlpm.tails),                  INDEX(_xlpm.tail_reprs, _xlpm.stops - 1)  ))))</definedName>
     <definedName name="str.any">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.bool">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.endswith">_xlfn.LAMBDA(_xlpm.chars,_xlpm.suffix,      IF(LEN(_xlpm.suffix) &lt;= LEN(_xlpm.chars),          MID(_xlpm.chars, LEN(_xlpm.chars) - LEN(_xlpm.suffix) + 1, LEN(_xlpm.suffix)) = _xlpm.suffix,          FALSE))</definedName>
@@ -67,10 +73,12 @@
     <definedName name="str.int">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.IFS(          LEN(_xlpm.chars) = 0,              #NUM!,          LEFT(_xlpm.chars, 1) = "+",              _xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          LEFT(_xlpm.chars, 1) = "-",              -_xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          TRUE,              _xlfn.DECIMAL(_xlpm.chars, 10)  ))</definedName>
     <definedName name="str.int_base">_xlfn.LAMBDA(_xlpm.chars,_xlpm.base,      _xlfn.LET(          _xlpm.ch, LEFT(_xlpm.chars, 1),          _xlpm.signed, IF(_xlpm.ch = "-", TRUE, IF(_xlpm.ch = "+", TRUE)),          _xlpm.digits, IF(_xlpm.signed,              MID(_xlpm.chars, 2, LEN(_xlpm.chars)),              _xlpm.chars),          _xlpm.eval1, IF(_xlpm.base &lt;&gt; 0,              _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),              _xlfn.LET(                  _xlpm.lows, LOWER(_xlpm.digits),                  _xlfn.IFS(                      MID(_xlpm.lows, 1, 2) = "0b",                          BIN2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0o",                          OCT2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0x",                          HEX2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      TRUE,                          _xlfn.DECIMAL(_xlpm.digits, 10)              ))),          _xlpm.sign, IF(_xlpm.ch = "-", -1, 1),          _xlpm.eval2, _xlpm.sign * _xlpm.eval1,          _xlpm.eval2  ))</definedName>
     <definedName name="str.int_base_2">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.head, LEFT(_xlpm.chars, 1),          _xlpm.signed, OR(_xlpm.head = "-", _xlpm.head = "+"),          _xlpm.unsigned, RIGHT(_xlpm.chars, LEN(_xlpm.chars) - 1),          _xlpm.tail, IF(_xlpm.signed, _xlpm.unsigned, _xlpm.chars),          _xlpm.based, LEFT(_xlpm.tail, 2) = "0b",          _xlpm.unbased, RIGHT(_xlpm.tail, LEN(_xlpm.tail) - 2),          _xlpm.digits, IF(_xlpm.based, _xlpm.unbased, _xlpm.tail),          _xlpm.sign, IF(_xlpm.head = "-", -1, 1),          _xlpm.base, IF(_xlpm.head = "", 0, 2),          _xlpm.evalled, _xlpm.sign * _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),          _xlpm.evalled  ))</definedName>
+    <definedName name="str.lower">_xlfn.LAMBDA(_xlpm.chars, LOWER(_xlpm.chars))</definedName>
     <definedName name="str.ord">_xlfn.LAMBDA(_xlpm.chars, _xlfn.UNICODE(_xlpm.chars))</definedName>
     <definedName name="str.partition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
     <definedName name="str.repr">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, 1),          _xlpm.slashes, IF(_xlpm.picks = "\", "\\", _xlpm.picks),          _xlpm.ticks, IF(_xlpm.picks = "'", "\'", _xlpm.slashes),          _xlpm.doubles, IF(_xlpm.picks = """", "\""", _xlpm.ticks),          _xlpm.ignore_empty_eq_true, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty_eq_true, _xlpm.doubles),          _xlpm.quoted, "'" &amp; _xlpm.joined &amp; "'",          _xlpm.quoted  ))</definedName>
     <definedName name="str.rpartition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.reverse, -1,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact, _xlpm.reverse),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
+    <definedName name="str.upper">_xlfn.LAMBDA(_xlpm.chars, UPPER(_xlpm.chars))</definedName>
     <definedName name="str.word">_xlfn.LAMBDA(_xlpm.chars,      LEFT(_xlpm.chars, FIND(" ",_xlpm.chars) - 1)  )</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -160,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="578">
   <si>
     <t>bit</t>
   </si>
@@ -342,12 +350,6 @@
     <t>={1.23;TRUE;"abc"}</t>
   </si>
   <si>
-    <t>left justify inputs</t>
-  </si>
-  <si>
-    <t>right justify outputs</t>
-  </si>
-  <si>
     <t>one or more source lines per name</t>
   </si>
   <si>
@@ -538,9 +540,6 @@
   </si>
   <si>
     <t># Bool of lists of &gt;= 2 items would be always True</t>
-  </si>
-  <si>
-    <t>SEQUENCE(3)</t>
   </si>
   <si>
     <t>def list.repr(items)</t>
@@ -727,17 +726,6 @@
     <t>def _str(obj)</t>
   </si>
   <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            2, bool.str(obj),
-            64, list.str(obj),
-            ""&amp;obj
-))</t>
-  </si>
-  <si>
-    <t>chr.int(ch)</t>
-  </si>
-  <si>
     <t>def str.ord(chars)</t>
   </si>
   <si>
@@ -766,15 +754,6 @@
     <t>={1}</t>
   </si>
   <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            2, str.repr(obj),
-            4, bool.repr(obj),
-            64, list.repr(obj),
-            "" &amp; obj
-))</t>
-  </si>
-  <si>
     <t>https://github.com/pelavarre/like-py-xlsx/</t>
   </si>
   <si>
@@ -852,9 +831,6 @@
     <t>same columns across sheets</t>
   </si>
   <si>
-    <t>independent column widths</t>
-  </si>
-  <si>
     <t>end with a line of one or more closing parentheses</t>
   </si>
   <si>
@@ -865,12 +841,6 @@
   </si>
   <si>
     <t>test column names in same row as code</t>
-  </si>
-  <si>
-    <t>test column names in same paragraph when just 1 paragraph of test data rows</t>
-  </si>
-  <si>
-    <t>yes polymorphic dispatch, but no type checking</t>
   </si>
   <si>
     <t>def int.range_stop(start, stop)</t>
@@ -888,9 +858,6 @@
     <t>int.range_stop(
 start, stop
 )</t>
-  </si>
-  <si>
-    <t>sixteen row height units per source line</t>
   </si>
   <si>
     <t>start, stop, step</t>
@@ -970,18 +937,11 @@
     <t>def _filter(func, items)</t>
   </si>
   <si>
-    <t>def list.filter(func, items)</t>
-  </si>
-  <si>
     <t>=LAMBDA(func, items,
     FILTER(items, func(items), SEQUENCE(0))
 )</t>
   </si>
   <si>
-    <t>=list.filter(LAMBDA(x, str.endswith(x, "a")),
-items)</t>
-  </si>
-  <si>
     <t>def _format(obj)</t>
   </si>
   <si>
@@ -994,9 +954,6 @@
     <t>def _list(items)</t>
   </si>
   <si>
-    <t>def _map(items)</t>
-  </si>
-  <si>
     <t>def _max(items)</t>
   </si>
   <si>
@@ -1124,9 +1081,6 @@
   </si>
   <si>
     <t>=1.000000001</t>
-  </si>
-  <si>
-    <t>Notes on the consistencies found in the styling of Excel code near here</t>
   </si>
   <si>
     <t>don't yield to Excel cutting spaces out of Lambda argument lists</t>
@@ -1503,13 +1457,6 @@
     <t>=list.item(str.rpartition("C:\My Documents\like-py.xlsx", "\"), -1)</t>
   </si>
   <si>
-    <t>=LAMBDA(items, which,
-    IF(which &lt; 0,
-        INDEX(items, COLUMNS(items) + 1 + which),
-        INDEX(items, 1 + which)
-))</t>
-  </si>
-  <si>
     <t>As you glance through our Excel Lisp source here,</t>
   </si>
   <si>
@@ -1757,9 +1704,6 @@
     <t># TODO</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Default Xlsx Imports</t>
   </si>
   <si>
@@ -1921,29 +1865,10 @@
     <t>but you want Bool, Int, Float, List, or more Str's of Chars</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">for when you have </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>one List of Item's</t>
-    </r>
-  </si>
-  <si>
     <t>but you want Bool, Int, Str, or more List's of Item's</t>
   </si>
   <si>
     <t>def list.len(items)</t>
-  </si>
-  <si>
-    <t># TODO: implement list.len</t>
   </si>
   <si>
     <r>
@@ -2013,9 +1938,6 @@
     <t>Extend selection to right end of line</t>
   </si>
   <si>
-    <t>Collect Trash</t>
-  </si>
-  <si>
     <t>=LAMBDA(chars,
     LET(
         body, MID(chars, 2, LEN(chars) - 2),
@@ -2044,26 +1966,344 @@
 ))</t>
   </si>
   <si>
+    <t>def str.upper(chars)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, UPPER(chars))</t>
+  </si>
+  <si>
+    <t>def str.lower(chars)</t>
+  </si>
+  <si>
+    <t>str.upper(chars)</t>
+  </si>
+  <si>
+    <t>AbcdEfghIj</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, LOWER(chars))</t>
+  </si>
+  <si>
+    <t>str.lower(chars)</t>
+  </si>
+  <si>
+    <t>str.ord(ch)</t>
+  </si>
+  <si>
+    <t>def _map(func, items)</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one Function here spoken of as Func</t>
+    </r>
+  </si>
+  <si>
+    <t>def function.map(func, items)</t>
+  </si>
+  <si>
+    <t>function.map.(str.ord, items)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(func, items,
+    LET(
+        head, INDEX(items, 1),
+        stops, SEQUENCE(ROWS(items)),
+        IF(stops = 1,
+            func(head),
+            LET(
+                tail_stops, 1 + SEQUENCE(ROWS(items) - 1),
+                tails, INDEX(items, tail_stops),
+                INDEX(function.map(func, tails), stops - 1)
+))))</t>
+  </si>
+  <si>
+    <t>list.enumerate</t>
+  </si>
+  <si>
+    <t>str.eval</t>
+  </si>
+  <si>
+    <t>function.filter</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, bool.str(obj),
+            64, list.str(obj),
+            "" &amp; obj
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items, ROWS(items))</t>
+  </si>
+  <si>
+    <t>={"abc";"acb";"bac";"bca";"cab";"cba"}</t>
+  </si>
+  <si>
+    <t>=list.len(items)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for when you have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>one List of 1 or more Item's</t>
+    </r>
+  </si>
+  <si>
+    <t>={"A";"b";"c"}</t>
+  </si>
+  <si>
+    <t>={"aa";"bb";"cc"}</t>
+  </si>
+  <si>
+    <t>={TRUE;1;2.34;"Abc"}</t>
+  </si>
+  <si>
+    <t>=SEQUENCE(4)</t>
+  </si>
+  <si>
+    <t>={"aa";"bb";"cc"; "dd"}</t>
+  </si>
+  <si>
+    <t>=SEQUENCE(3)</t>
+  </si>
+  <si>
+    <t>int.range</t>
+  </si>
+  <si>
+    <t>str.ord</t>
+  </si>
+  <si>
+    <t>int.oct</t>
+  </si>
+  <si>
+    <t>function.map</t>
+  </si>
+  <si>
+    <t>list.len or str.len</t>
+  </si>
+  <si>
+    <t>int.hex</t>
+  </si>
+  <si>
+    <t>def _int_base(obj, base)</t>
+  </si>
+  <si>
+    <t>str.int_base</t>
+  </si>
+  <si>
+    <t>Compound Data</t>
+  </si>
+  <si>
+    <t>=TYPE(int.hex)</t>
+  </si>
+  <si>
+    <t>such as a Lambda named by Tab Formulas &gt; Define Name</t>
+  </si>
+  <si>
+    <t>=_repr(_repr)</t>
+  </si>
+  <si>
+    <t>def function.repr(func)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(func, "&lt;function&gt;")</t>
+  </si>
+  <si>
+    <t>=function.repr(function.repr)</t>
+  </si>
+  <si>
+    <t>=list.item(items,-1)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items, which,
+    IF(which &lt; 0,
+        INDEX(items, ROWS(items) + 1 + which),
+        INDEX(items, 1 + which)
+))</t>
+  </si>
+  <si>
+    <t>=list.item(items, 2)</t>
+  </si>
+  <si>
+    <t>=list.item(items,-2)</t>
+  </si>
+  <si>
+    <t>=list.item(items, 0)</t>
+  </si>
+  <si>
+    <t>={11;22;33}</t>
+  </si>
+  <si>
+    <t>=SEQUENCE(3, 2)</t>
+  </si>
+  <si>
+    <t>=TRANSPOSE(INDEX(items, 2, 0))</t>
+  </si>
+  <si>
+    <t># Excel takes code 0 to mean talk of whole rows or whole columns</t>
+  </si>
+  <si>
+    <t>=UNIQUE(MID("Abracadabra", SEQUENCE(LEN("Abracadabra")), 1))</t>
+  </si>
+  <si>
+    <t>="A"="a"</t>
+  </si>
+  <si>
+    <t>def list.repr.map(items)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, int.repr(obj),
+            2, str.repr(obj),
+            4, bool.repr(obj),
+            64, list.repr(obj),
+            128, function.repr(obj),
+            "&lt;" &amp; obj &amp; "&gt;"
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, int.repr(obj),
+            2, str.repr(obj),
+            4, bool.repr(obj),
+            128, function.repr(obj),
+            "&lt;" &amp; obj &amp; "&gt;"
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items,
+    LET(
+        head, INDEX(items, 1, 1),
+        stops, SEQUENCE(ROWS(items)),
+        IF(stops = 1,
+            list.repr.item(head),
+            LET(
+                tail_stops, 1 + SEQUENCE(ROWS(items) - 1),
+                tails, INDEX(items, tail_stops),
+                tail_reprs, list.repr.map(tails),
+                INDEX(tail_reprs, stops - 1)
+))))</t>
+  </si>
+  <si>
     <t>=LAMBDA(items,
     LET(
         ignore_empty_eq_false, FALSE,
         "[" &amp; TEXTJOIN(
             ", ",
             ignore_empty_eq_false,
-            items) &amp; "]"
+            list.repr.map(items)) &amp; "]"
 ))</t>
   </si>
   <si>
-    <t>=CHOOSE({1;2;3},"aa","bb","cc")</t>
-  </si>
-  <si>
-    <t>str.repr(items)</t>
-  </si>
-  <si>
-    <t># TODO: wrong answer</t>
-  </si>
-  <si>
-    <t># TODO: #N/A is a fair answer here, but can we solve list.repr?</t>
+    <t>def list.repr.item(obj)</t>
+  </si>
+  <si>
+    <t>list.repr.item(obj)</t>
+  </si>
+  <si>
+    <t>Aa</t>
+  </si>
+  <si>
+    <t>list.repr.map(items)</t>
+  </si>
+  <si>
+    <t># differs from _repr by having no clause of:  64, list.repr(obj),</t>
+  </si>
+  <si>
+    <t># injecting that clause somehow raises NumError</t>
+  </si>
+  <si>
+    <t>=LAMBDA(func, "&lt;" &amp; func &amp; "&gt;")(function.repr)</t>
+  </si>
+  <si>
+    <t># Excel raises ValueError to refuse to print Function Names</t>
+  </si>
+  <si>
+    <t>def function.filter(func, items)</t>
+  </si>
+  <si>
+    <t>=function.filter(LAMBDA(x, str.endswith(x, "a")),
+items)</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>default column widths, else 24 for results and 56 for code</t>
+  </si>
+  <si>
+    <t>test column names in same paragraph when just 1 paragraph of one test per row</t>
+  </si>
+  <si>
+    <t>no type checking, except for polymorphic dispatch of Python Built-In's</t>
+  </si>
+  <si>
+    <t>right justify single cell outputs, but spill multiple output cells right</t>
+  </si>
+  <si>
+    <t>left justify single cell inputs, but spill multiple input cells left</t>
+  </si>
+  <si>
+    <t>one column of left margin, two rows of top margin</t>
+  </si>
+  <si>
+    <t>Thirteen Rules of Excel Style pull these sheets together</t>
+  </si>
+  <si>
+    <t>sixteen row height units per source line, rounded down from Format &gt; AutoFit Row Height</t>
+  </si>
+  <si>
+    <t>Keystrokes</t>
+  </si>
+  <si>
+    <t>Etc</t>
+  </si>
+  <si>
+    <t>Scraps</t>
+  </si>
+  <si>
+    <t>First Cell</t>
+  </si>
+  <si>
+    <t>First Row</t>
+  </si>
+  <si>
+    <t>⌘ ←</t>
+  </si>
+  <si>
+    <t># TODO: our code raises RefError for Repr of List of Lists</t>
+  </si>
+  <si>
+    <t>=shuffled sort uniq of items or chars</t>
+  </si>
+  <si>
+    <t>def random.sample(items)</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2262,6 +2502,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2668,17 +2919,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="5" max="5" width="56.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="37" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -2686,53 +2937,53 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G14" s="36"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="G15" s="36"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="G17" s="36"/>
     </row>
@@ -2742,94 +2993,94 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D28" s="35" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D31" s="35" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -2837,37 +3088,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -2877,7 +3128,7 @@
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E59" s="38" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2894,7 +3145,7 @@
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2918,27 +3169,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E72" s="38" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -2953,22 +3204,22 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
       <c r="E81" s="38" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -2986,24 +3237,24 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C85" s="36" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D85" s="36"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C86" s="36" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D86" s="36"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C87" s="36" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="D87" s="36"/>
     </row>
@@ -3013,37 +3264,37 @@
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
       <c r="E97" s="38" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="27" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -3054,98 +3305,98 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" s="27" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E127" t="str" cm="1">
         <f t="array" ref="E127">list.item(str.rpartition("C:\My Documents\like-py.xlsx", "\"), -1)</f>
-        <v>C:\My Documents</v>
+        <v>like-py.xlsx</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C135" s="35" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
@@ -3153,87 +3404,87 @@
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3246,16 +3497,841 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355B7662-A6AF-4E4B-A8A9-10FF81599954}">
+  <dimension ref="A3:G80"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="33">
+        <v>0</v>
+      </c>
+      <c r="C11" s="33">
+        <f>TYPE(B11)</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="33">
+        <f>1.00000001</f>
+        <v>1.0000000099999999</v>
+      </c>
+      <c r="C12" s="33">
+        <f>TYPE(B12)</f>
+        <v>1</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="33">
+        <f>1.000000001</f>
+        <v>1.0000000010000001</v>
+      </c>
+      <c r="C15" s="33">
+        <f>TYPE(B15)</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="34" cm="1">
+        <f t="array" ref="B18">{0}</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="33">
+        <f>TYPE(B18)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="34">
+        <f>TYPE({0})</f>
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="33">
+        <f>TYPE(B20)</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="33">
+        <f>TYPE(B22)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33" t="s">
+        <v>265</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="33" t="e">
+        <f>SUM(A896 A897)</f>
+        <v>#NULL!</v>
+      </c>
+      <c r="C24" s="33">
+        <f t="shared" ref="C24:C30" si="0">TYPE(B24)</f>
+        <v>16</v>
+      </c>
+      <c r="D24" s="33">
+        <f t="shared" ref="D24:D30" si="1">ERROR.TYPE(B24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B25" s="33" t="e">
+        <f>1/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D25" s="33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B26" s="33" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D26" s="33">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="33" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C27" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="33">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="33" t="e" cm="1">
+        <f t="array" ref="B28">TYPES</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C28" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D28" s="33">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="33" t="e">
+        <f>SQRT(-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C29" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D29" s="33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="33" t="e">
+        <f>LOOKUP(0, _xlfn.SEQUENCE(3))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C30" s="33">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D30" s="33">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33">
+        <v>8</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="33" t="e" cm="1" vm="3">
+        <f t="array" aca="1" ref="B32" ca="1">_xlfn.SEQUENCE(999)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="33">
+        <f ca="1">TYPE(B32)</f>
+        <v>16</v>
+      </c>
+      <c r="D32" s="33">
+        <f ca="1">ERROR.TYPE(B32)</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33">
+        <v>10</v>
+      </c>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33">
+        <v>11</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33">
+        <v>12</v>
+      </c>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="33" t="e" cm="1" vm="4">
+        <f t="array" ref="B36">_FV(#REF!,"Attribute")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="33">
+        <f>TYPE(B36)</f>
+        <v>16</v>
+      </c>
+      <c r="D36" s="33">
+        <f>ERROR.TYPE(B36)</f>
+        <v>13</v>
+      </c>
+      <c r="E36" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="33" t="e" cm="1" vm="2">
+        <f t="array" ref="B37">_xlfn.SEQUENCE(0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="33">
+        <f>TYPE(B37)</f>
+        <v>16</v>
+      </c>
+      <c r="D37" s="33">
+        <f>ERROR.TYPE(B37)</f>
+        <v>14</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="33">
+        <v>16</v>
+      </c>
+      <c r="D38" s="33" t="e">
+        <f>ERROR.TYPE(B38)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="33" cm="1">
+        <f t="array" ref="B40:B42">_xlfn.SEQUENCE(3)</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="33">
+        <f>TYPE(_xlfn.ANCHORARRAY(B40))</f>
+        <v>64</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B41" s="33">
+        <v>2</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="33">
+        <v>3</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" s="34" t="s">
+        <v>528</v>
+      </c>
+      <c r="C44" s="33" cm="1">
+        <f t="array" ref="C44">TYPE(int.hex)</f>
+        <v>128</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33" t="s">
+        <v>527</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B63" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="1"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="1"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D852BB-57DF-6140-815D-350948B01B5D}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:C14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>507</v>
+        <v>571</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="35" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="35" t="str" cm="1">
+        <f t="array" ref="C7:C11">_xlfn.UNIQUE(MID("Abracadabra", _xlfn.SEQUENCE(LEN("Abracadabra")), 1))</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="str">
+        <v>b</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="str">
+        <v>r</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="str">
+        <v>c</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="str">
+        <v>d</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="35" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="b">
+        <f>"A"="a"</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3273,30 +4349,30 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="10.83203125" style="15"/>
-    <col min="3" max="3" width="22.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="35.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="56.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -3314,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>49</v>
@@ -3330,7 +4406,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -3343,7 +4419,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -3351,7 +4427,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3359,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="6" t="s">
@@ -3377,7 +4453,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3456,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
@@ -3486,7 +4562,7 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3494,10 +4570,10 @@
         <v>0</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -3535,15 +4611,15 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="56.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="56.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -3551,17 +4627,17 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -3572,7 +4648,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3580,10 +4656,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -3595,7 +4671,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -3607,7 +4683,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -3649,7 +4725,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -3661,7 +4737,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -3669,10 +4745,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -3696,7 +4772,7 @@
         <v>0b1011010</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -3708,7 +4784,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -3723,7 +4799,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -3749,7 +4825,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -3761,7 +4837,7 @@
         <v>0b1000000000</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -3773,7 +4849,7 @@
         <v>0b111111111</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -3786,7 +4862,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -3794,7 +4870,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -3802,10 +4878,10 @@
         <v>23</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -3817,7 +4893,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -3829,7 +4905,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -3893,7 +4969,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="E48" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3901,10 +4977,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -3916,7 +4992,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -3932,7 +5008,7 @@
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="E54" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -3940,10 +5016,10 @@
         <v>23</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="E55" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -3978,7 +5054,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -3986,10 +5062,10 @@
         <v>23</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -4001,12 +5077,12 @@
         <v>0</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="22" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -4017,7 +5093,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -4025,10 +5101,10 @@
         <v>23</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -4063,7 +5139,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -4079,7 +5155,7 @@
         <v>0xFFFFFFFFFF</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
@@ -4105,7 +5181,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -4118,7 +5194,7 @@
         <v>0x8000000000</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
@@ -4131,7 +5207,7 @@
         <v>0x7FFFFFFFFF</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
@@ -4144,7 +5220,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
@@ -4155,7 +5231,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E84" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -4163,10 +5239,10 @@
         <v>23</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -4201,7 +5277,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
@@ -4217,7 +5293,7 @@
         <v>0x7777777777</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
@@ -4243,7 +5319,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
@@ -4255,7 +5331,7 @@
         <v>0x4000000000</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
@@ -4267,7 +5343,7 @@
         <v>0x3777777777</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -4280,23 +5356,23 @@
         <v>#NUM!</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E100" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B101" s="9" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -4351,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
@@ -4375,7 +5451,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -4387,23 +5463,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E117" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="9" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -4473,7 +5549,7 @@
         <v>-0.4</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -4491,18 +5567,18 @@
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E136" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
@@ -4567,7 +5643,7 @@
         <v>0.5</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
@@ -4588,7 +5664,7 @@
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E152" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4596,10 +5672,10 @@
         <v>40</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
@@ -4613,12 +5689,12 @@
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E157" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E158" s="2" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
@@ -4626,7 +5702,7 @@
         <v>40</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -4640,17 +5716,17 @@
     </row>
     <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="10" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -4670,28 +5746,28 @@
     <col min="2" max="2" width="10.83203125" style="15"/>
     <col min="3" max="3" width="15.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="49.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="56.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4703,18 +5779,18 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="E11" s="10" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4722,10 +5798,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4737,7 +5813,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -4749,7 +5825,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -4799,7 +5875,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E25" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4807,10 +5883,10 @@
         <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -4854,7 +5930,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4866,7 +5942,7 @@
         <v>-1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4878,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -4892,7 +5968,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4900,10 +5976,10 @@
         <v>40</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -4922,7 +5998,7 @@
     </row>
     <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E45" s="2" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -4949,7 +6025,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E11CDF-3AD4-2A4F-915A-FBF9AA82D6D4}">
-  <dimension ref="B3:E169"/>
+  <dimension ref="B3:E170"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -4959,23 +6035,23 @@
     <col min="2" max="2" width="13.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="54.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="56.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -4989,7 +6065,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -4997,7 +6073,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>37</v>
@@ -5012,19 +6088,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C13" s="16" t="b" cm="1">
         <f t="array" ref="C13">str.bool(B13)</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -5033,7 +6109,7 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="E16" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5041,7 +6117,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>37</v>
@@ -5056,12 +6132,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C19" s="16" t="b" cm="1">
         <f t="array" ref="C19">str.bool(B19)</f>
@@ -5075,18 +6151,18 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="E22" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -5095,19 +6171,19 @@
     </row>
     <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C25" s="26" t="b" cm="1">
         <f t="array" ref="C25">str.endswith(B25,B26)</f>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C26" s="26"/>
       <c r="E26" s="2"/>
@@ -5119,19 +6195,19 @@
     </row>
     <row r="28" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C28" s="26" t="b" cm="1">
         <f t="array" ref="C28">str.endswith(B28,B29)</f>
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -5142,14 +6218,14 @@
     </row>
     <row r="31" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C31" s="26" t="b" cm="1">
         <f t="array" ref="C31">str.endswith(B31,B32)</f>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -5157,7 +6233,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -5173,7 +6249,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -5181,7 +6257,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -5200,15 +6276,15 @@
         <v>27</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5220,7 +6296,7 @@
         <v/>
       </c>
       <c r="E41" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -5234,7 +6310,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C43" s="16" t="str" cm="1">
         <f t="array" ref="C43">str.eval(B43)</f>
@@ -5252,7 +6328,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="16" t="str" cm="1">
         <f t="array" ref="C45">str.eval(B45)</f>
@@ -5273,54 +6349,54 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="16" t="str" cm="1">
         <f t="array" ref="C48">str.eval(B48)</f>
         <v>ab'cd</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C50" s="16" t="str" cm="1">
         <f t="array" ref="C50">str.eval(B50)</f>
         <v>bcde</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C51" s="16" t="e" cm="1">
         <f t="array" ref="C51">str.eval(B51)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>145</v>
+      <c r="C55" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -5328,7 +6404,7 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C57" s="16" cm="1">
         <f t="array" ref="C57">str.int(B57)</f>
@@ -5342,7 +6418,7 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C58" s="16" cm="1">
         <f t="array" ref="C58">str.int(B58)</f>
@@ -5356,7 +6432,7 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C59" s="16" cm="1">
         <f t="array" ref="C59">str.int(B59)</f>
@@ -5370,7 +6446,7 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C60" s="16" cm="1">
         <f t="array" ref="C60">str.int(B60)</f>
@@ -5388,26 +6464,26 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C62" s="16" t="e" cm="1">
         <f t="array" ref="C62">str.int(B62)</f>
         <v>#NUM!</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C63" s="16" t="e" cm="1">
         <f t="array" ref="C63">str.int(B63)</f>
         <v>#NUM!</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -5416,34 +6492,34 @@
         <v>#NUM!</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E65" s="10" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E67" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E70" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E71" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -5451,28 +6527,28 @@
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E74" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E75" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="16" t="s">
-        <v>153</v>
+      <c r="C77" s="7" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C79" s="16" cm="1">
         <f t="array" ref="C79">str.int_base_2(B79)</f>
@@ -5482,7 +6558,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80" s="16" cm="1">
         <f t="array" ref="C80">str.int_base_2(B80)</f>
@@ -5496,19 +6572,19 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" s="16" cm="1">
         <f t="array" ref="C82">str.int_base_2(B82)</f>
         <v>15</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C83" s="16" cm="1">
         <f t="array" ref="C83">str.int_base_2(B83)</f>
@@ -5518,7 +6594,7 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C84" s="16" cm="1">
         <f t="array" ref="C84">str.int_base_2(B84)</f>
@@ -5528,7 +6604,7 @@
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C85" s="16" cm="1">
         <f t="array" ref="C85">str.int_base_2(B85)</f>
@@ -5542,7 +6618,7 @@
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E87" s="1"/>
     </row>
@@ -5556,7 +6632,7 @@
         <v>512</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
@@ -5565,14 +6641,14 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C90" s="16" t="e" cm="1">
         <f t="array" ref="C90">str.int_base_2(B90)</f>
         <v>#NUM!</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
@@ -5581,50 +6657,50 @@
         <v>#NUM!</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E94" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E95" s="10" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E97" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E98" s="10" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E100" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="10" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="15" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="136" x14ac:dyDescent="0.2">
       <c r="E104" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
@@ -5635,18 +6711,18 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="15" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C107" s="10"/>
       <c r="E107" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
       <c r="E108" s="22" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -5660,293 +6736,334 @@
       <c r="E110" s="1"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>497</v>
+      </c>
       <c r="E111" s="1" t="s">
-        <v>179</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C112" s="16" t="str" cm="1">
+        <f t="array" ref="C112">str.lower(B112)</f>
+        <v>abcdefghij</v>
+      </c>
       <c r="E112" s="22" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="15" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E115" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E116" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="E113" s="22"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="22"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C115" s="16" cm="1">
-        <f t="array" ref="C115">str.ord(B115)</f>
+      <c r="C117" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="E117" s="22"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="22"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" s="16" cm="1">
+        <f t="array" ref="C119">str.ord(B119)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C116" s="16" cm="1">
-        <f t="array" ref="C116">str.ord(B116)</f>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C120" s="16" cm="1">
+        <f t="array" ref="C120">str.ord(B120)</f>
         <v>8984</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C118" s="16" cm="1">
-        <f t="array" ref="C118">str.ord(B118)</f>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C122" s="16" cm="1">
+        <f t="array" ref="C122">str.ord(B122)</f>
         <v>97</v>
       </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="21"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="21"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="21"/>
-      <c r="E122" s="1"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B123" s="21"/>
-      <c r="E123" s="1"/>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E124" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E125" s="2" t="s">
-        <v>462</v>
+      <c r="B124" s="21"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E126" s="2"/>
+      <c r="B126" s="21"/>
+      <c r="E126" s="1"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="22" t="s">
-        <v>313</v>
-      </c>
+      <c r="B127" s="21"/>
+      <c r="E127" s="1"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="10"/>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="22" t="str" cm="1">
-        <f t="array" ref="B129:B131">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
+      <c r="E128" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="2"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="40" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="22" t="str" cm="1">
+        <f t="array" ref="B132:B134">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
         <v>C:</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="22" t="str">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="15" t="str">
         <v>\</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="15" t="str">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="22" t="str">
         <v>My Documents\like-py.xlsx</v>
       </c>
-      <c r="E131" s="22"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="21"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="21"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E134" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E135" s="2" t="s">
-        <v>509</v>
-      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="21"/>
+      <c r="E135" s="1"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="15" t="s">
+      <c r="B136" s="21"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C136" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E136" s="2"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="2"/>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="21" t="s">
+      <c r="C139" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E139" s="2"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="2"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="C138" s="16" t="str" cm="1">
-        <f t="array" ref="C138">str.repr(B138)</f>
-        <v>''</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C139" s="16" t="str" cm="1">
-        <f t="array" ref="C139">str.repr(B139)</f>
-        <v>'abc'</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C140" s="16" t="str" cm="1">
-        <f t="array" ref="C140">str.repr(B140)</f>
-        <v>'ab\\cd'</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="C141" s="16" t="str" cm="1">
         <f t="array" ref="C141">str.repr(B141)</f>
-        <v>'ab\'cd'</v>
+        <v>''</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="15" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C142" s="16" t="str" cm="1">
         <f t="array" ref="C142">str.repr(B142)</f>
-        <v>'ab\"cd'</v>
+        <v>'abc'</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="15" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C143" s="16" t="str" cm="1">
         <f t="array" ref="C143">str.repr(B143)</f>
+        <v>'ab\\cd'</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" s="16" t="str" cm="1">
+        <f t="array" ref="C144">str.repr(B144)</f>
+        <v>'ab\'cd'</v>
+      </c>
+      <c r="E144" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="16" t="str" cm="1">
+        <f t="array" ref="C145">str.repr(B145)</f>
+        <v>'ab\"cd'</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" s="16" t="str" cm="1">
+        <f t="array" ref="C146">str.repr(B146)</f>
         <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="17"/>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E145" s="22"/>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E146" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E147" s="22" t="s">
-        <v>266</v>
-      </c>
+      <c r="B147" s="17"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E148" s="22"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E149" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E150" s="2" t="s">
-        <v>463</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E150" s="22" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E151" s="2"/>
+      <c r="E151" s="22"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="10"/>
+      <c r="E152" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="2" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="22" t="str" cm="1">
-        <f t="array" ref="B154:B156">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="40" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="22" t="str" cm="1">
+        <f t="array" ref="B156:B158">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
         <v>C:\My Documents</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="22" t="str">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="15" t="str">
         <v>\</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="15" t="str">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="22" t="str">
         <v>like-py.xlsx</v>
       </c>
-      <c r="E156" s="22"/>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E157" s="22"/>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E158" s="22"/>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E159" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="E159" s="22"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E160" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="22"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E162" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E163" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E169" s="10" t="s">
-        <v>457</v>
+      <c r="E160" s="22"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E161" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E162" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E163" s="22"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="22"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E165" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E166" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="C170" s="16" t="str" cm="1">
+        <f t="array" ref="C170">str.upper(B170)</f>
+        <v>ABCDEFGHIJ</v>
+      </c>
+      <c r="E170" s="22" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5957,7 +7074,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9AEAAA-FB17-324F-AABB-3625663F090B}">
-  <dimension ref="B3:E113"/>
+  <dimension ref="A3:E165"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -5965,25 +7082,25 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="17.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="51.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="56.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>485</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6010,7 +7127,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E12" s="22"/>
     </row>
@@ -6099,7 +7216,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -6172,7 +7289,7 @@
       <c r="C43" s="13"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -6180,11 +7297,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -6195,7 +7312,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C46" s="13" t="e" cm="1">
         <f t="array" ref="C46">list.bool(B46)</f>
@@ -6203,7 +7320,7 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -6214,7 +7331,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="3"/>
       <c r="E47" s="10" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -6233,17 +7350,17 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="3"/>
@@ -6256,14 +7373,14 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -6285,10 +7402,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="18" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -6312,10 +7429,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6349,7 +7466,7 @@
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="C64" s="20" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -6375,7 +7492,7 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="4" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
@@ -6383,10 +7500,10 @@
         <v>54</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -6396,7 +7513,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C71" s="13"/>
       <c r="E71" s="3"/>
@@ -6441,221 +7558,626 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>378</v>
+        <v>535</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="11"/>
-      <c r="C78" s="13"/>
-      <c r="E78" s="3"/>
+      <c r="B78" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="12"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="11"/>
-      <c r="C79" s="13"/>
-      <c r="E79" s="3"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="12"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="30"/>
-      <c r="C80" s="12"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E81" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="C82" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B83" s="15" t="str" cm="1">
-        <f t="array" ref="B83:B88">{"abc";"acb";"bac";"bca";"cab";"cba"}</f>
+      <c r="B80" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="11" cm="1">
+        <f t="array" ref="B81:B83">{11;22;33}</f>
+        <v>11</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="11">
+        <v>22</v>
+      </c>
+      <c r="C82" s="13" cm="1">
+        <f t="array" ref="C82">list.item(_xlfn.ANCHORARRAY(B81),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="11">
+        <v>33</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="11"/>
+      <c r="C84" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="11"/>
+      <c r="C85" s="13" cm="1">
+        <f t="array" ref="C85">list.item(_xlfn.ANCHORARRAY(B81),2)</f>
+        <v>33</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="11"/>
+      <c r="C86" s="13"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="11"/>
+      <c r="C87" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="11"/>
+      <c r="C88" s="13" cm="1">
+        <f t="array" ref="C88">list.item(_xlfn.ANCHORARRAY(B81),-2)</f>
+        <v>22</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="11"/>
+      <c r="C89" s="13"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="11"/>
+      <c r="C90" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="11"/>
+      <c r="C91" s="13" cm="1">
+        <f t="array" ref="C91">list.item(_xlfn.ANCHORARRAY(B81),-1)</f>
+        <v>33</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="11"/>
+      <c r="C92" s="13"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="15"/>
+      <c r="B93" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>541</v>
+      </c>
+      <c r="E93" s="42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" cm="1">
+        <f t="array" ref="A94:B96">_xlfn.SEQUENCE(3, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="B94" s="15">
+        <v>2</v>
+      </c>
+      <c r="C94" s="13" cm="1">
+        <f t="array" ref="C94:C95">TRANSPOSE(INDEX(_xlfn.ANCHORARRAY(A94), 2, 0))</f>
+        <v>3</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>3</v>
+      </c>
+      <c r="B95" s="11">
+        <v>4</v>
+      </c>
+      <c r="C95" s="13">
+        <v>4</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="15">
+        <v>5</v>
+      </c>
+      <c r="B96" s="11">
+        <v>6</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="11"/>
+      <c r="C97" s="13"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E99" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="30"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="18" t="str" cm="1">
+        <f t="array" ref="B103:B104">{"abc";"def"}</f>
         <v>abc</v>
       </c>
-      <c r="C83" s="31" t="str" cm="1">
-        <f t="array" ref="C83:C84">list.filter(_xlfn.LAMBDA(_xlpm.x, str.endswith(_xlpm.x, "a")),_xlfn.ANCHORARRAY(
-B83))</f>
-        <v>bca</v>
-      </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="15" t="str">
-        <v>acb</v>
-      </c>
-      <c r="C84" s="16" t="str">
-        <v>cba</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="15" t="str">
-        <v>bac</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="15" t="str">
-        <v>bca</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="15" t="str">
-        <v>cab</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="15" t="str">
-        <v>cba</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E91" s="4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E92" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="11"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="11"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="6" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="30" t="s">
+      <c r="C103" s="10" cm="1">
+        <f t="array" ref="C103">list.len(_xlfn.ANCHORARRAY(B103))</f>
+        <v>2</v>
+      </c>
+      <c r="E103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="10" t="str">
+        <v>def</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="E104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" cm="1">
+        <f t="array" ref="A106:B108">_xlfn.SEQUENCE(3,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B106" s="15">
+        <v>2</v>
+      </c>
+      <c r="C106" s="10" cm="1">
+        <f t="array" ref="C106">list.len(_xlfn.ANCHORARRAY(A106))</f>
+        <v>3</v>
+      </c>
+      <c r="E106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="15">
+        <v>3</v>
+      </c>
+      <c r="B107" s="15">
+        <v>4</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="E107" s="3"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="15">
+        <v>5</v>
+      </c>
+      <c r="B108" s="15">
+        <v>6</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E110" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="E112" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="15">
+        <v>1</v>
+      </c>
+      <c r="C113" s="16" t="str" cm="1">
+        <f t="array" ref="C113">list.repr.item(B113)</f>
+        <v>1</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="C115" s="16" t="str" cm="1">
+        <f t="array" ref="C115">list.repr.item(B115)</f>
+        <v>'Aa'</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="21"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="18" cm="1">
+        <f t="array" ref="B118:B121">_xlfn.SEQUENCE(4)</f>
+        <v>1</v>
+      </c>
+      <c r="C118" s="16" t="str" cm="1">
+        <f t="array" ref="C118:C121">list.repr.item(_xlfn.ANCHORARRAY(B118))</f>
+        <v>&lt;1&gt;</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="18">
+        <v>2</v>
+      </c>
+      <c r="C119" s="16" t="str">
+        <v>&lt;2&gt;</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="18">
+        <v>3</v>
+      </c>
+      <c r="C120" s="16" t="str">
+        <v>&lt;3&gt;</v>
+      </c>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="15">
+        <v>4</v>
+      </c>
+      <c r="C121" s="16" t="str">
+        <v>&lt;4&gt;</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="4"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E124" s="4" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="18" cm="1">
-        <f t="array" ref="B100:B102">_xlfn.SEQUENCE(3)</f>
+      <c r="C125" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="3"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="18" cm="1">
+        <f t="array" ref="B128:B131">_xlfn.SEQUENCE(4)</f>
         <v>1</v>
       </c>
-      <c r="C100" s="13" t="str" cm="1">
-        <f t="array" ref="C100">list.repr(_xlfn.ANCHORARRAY(B100))</f>
+      <c r="C128" s="13" t="str" cm="1">
+        <f t="array" ref="C128:C131">list.repr.map(_xlfn.ANCHORARRAY(B128))</f>
+        <v>1</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="15">
+        <v>2</v>
+      </c>
+      <c r="C129" s="16" t="str">
+        <v>2</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="15">
+        <v>3</v>
+      </c>
+      <c r="C130" s="16" t="str">
+        <v>3</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="15">
+        <v>4</v>
+      </c>
+      <c r="C131" s="16" t="str">
+        <v>4</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="21" t="str" cm="1">
+        <f t="array" ref="B134:B137">{"aa";"bb";"cc";"dd"}</f>
+        <v>aa</v>
+      </c>
+      <c r="C134" s="13" t="str" cm="1">
+        <f t="array" ref="C134:C137">list.repr.map(_xlfn.ANCHORARRAY(B134))</f>
+        <v>'aa'</v>
+      </c>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="15" t="str">
+        <v>bb</v>
+      </c>
+      <c r="C135" s="16" t="str">
+        <v>'bb'</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="15" t="str">
+        <v>cc</v>
+      </c>
+      <c r="C136" s="16" t="str">
+        <v>'cc'</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="10" t="str">
+        <v>dd</v>
+      </c>
+      <c r="C137" s="16" t="str">
+        <v>'dd'</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="11"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D141" s="3"/>
+      <c r="E141" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D142" s="3"/>
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="18" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="18" cm="1">
+        <f t="array" ref="B144:B146">_xlfn.SEQUENCE(3)</f>
+        <v>1</v>
+      </c>
+      <c r="C144" s="13" t="str" cm="1">
+        <f t="array" ref="C144">list.repr(_xlfn.ANCHORARRAY(B144))</f>
         <v>[1, 2, 3]</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="15">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="15">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="15" t="str" cm="1">
-        <f t="array" ref="B105:B107">CHOOSE({1;2;3},"aa","bb","cc")</f>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="21" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="15" t="str" cm="1">
+        <f t="array" ref="B149:B151">{"aa";"bb";"cc"}</f>
         <v>aa</v>
       </c>
-      <c r="C105" s="13" t="str" cm="1">
-        <f t="array" ref="C105">list.repr(_xlfn.ANCHORARRAY(B105))</f>
-        <v>[aa, bb, cc]</v>
-      </c>
-      <c r="E105" s="10" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="15" t="str">
+      <c r="C149" s="13" t="str" cm="1">
+        <f t="array" ref="C149">list.repr(_xlfn.ANCHORARRAY(B149))</f>
+        <v>['aa', 'bb', 'cc']</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="15" t="str">
         <v>bb</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="15" t="str">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="15" t="str">
         <v>cc</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C109" s="16" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="21" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="15" t="str" cm="1">
-        <f t="array" ref="B111:B113">CHOOSE({1;2;3},"aa","bb","cc")</f>
-        <v>aa</v>
-      </c>
-      <c r="C111" s="13" t="e" cm="1">
-        <f t="array" ref="C111">str.repr(_xlfn.ANCHORARRAY(B111))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="15" t="str">
-        <v>bb</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="15" t="str">
-        <v>cc</v>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="21" t="b" cm="1">
+        <f t="array" ref="B154:B157">{TRUE;1;2.34;"Abc"}</f>
+        <v>1</v>
+      </c>
+      <c r="C154" s="11" t="str" cm="1">
+        <f t="array" ref="C154">list.repr(_xlfn.ANCHORARRAY(B154))</f>
+        <v>[True, 1, 2.34, 'Abc']</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="15">
+        <v>2.34</v>
+      </c>
+      <c r="C156" s="13"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="15" t="str">
+        <v>Abc</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B159" s="21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="21" cm="1">
+        <f t="array" ref="A160:B162">_xlfn.SEQUENCE(3, 2)</f>
+        <v>1</v>
+      </c>
+      <c r="B160" s="15">
+        <v>2</v>
+      </c>
+      <c r="C160" s="11" t="e" cm="1">
+        <f t="array" ref="C160">list.repr(_xlfn.ANCHORARRAY(A160))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E160" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="15">
+        <v>3</v>
+      </c>
+      <c r="B161" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="15">
+        <v>5</v>
+      </c>
+      <c r="B162" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E165" s="4" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6664,8 +8186,299 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D0BB19-60E5-E14D-A2CF-48A043562222}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="5" max="6" width="56.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="15" t="str" cm="1">
+        <f t="array" ref="B14:B19">{"abc";"acb";"bac";"bca";"cab";"cba"}</f>
+        <v>abc</v>
+      </c>
+      <c r="C14" s="31" t="str" cm="1">
+        <f t="array" ref="C14:C15">function.filter(_xlfn.LAMBDA(_xlpm.x, str.endswith(_xlpm.x, "a")),_xlfn.ANCHORARRAY(
+B14))</f>
+        <v>bca</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="15" t="str">
+        <v>acb</v>
+      </c>
+      <c r="C15" s="16" t="str">
+        <v>cba</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="15" t="str">
+        <v>bac</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="15" t="str">
+        <v>bca</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="15" t="str">
+        <v>cab</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="15" t="str">
+        <v>cba</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="35" t="s">
+        <v>513</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" t="str" cm="1">
+        <f t="array" ref="B28:B30">{"A";"b";"c"}</f>
+        <v>A</v>
+      </c>
+      <c r="C28" s="13" cm="1">
+        <f t="array" ref="C28:C30">function.map(str.ord,_xlfn.ANCHORARRAY(B28))</f>
+        <v>65</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="18" t="str">
+        <v>b</v>
+      </c>
+      <c r="C29">
+        <v>98</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="str">
+        <v>c</v>
+      </c>
+      <c r="C30" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E33" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="35" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="35" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C37" t="str" cm="1">
+        <f t="array" ref="C37">function.repr(function.repr)</f>
+        <v>&lt;function&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="35" t="e" cm="1">
+        <f t="array" ref="C40">_xlfn.LAMBDA(_xlpm.func, "&lt;" &amp; _xlpm.func &amp; "&gt;")(function.repr)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" t="s">
+        <v>557</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48772323-2A75-4E43-BEC6-FC16F253F8C0}">
-  <dimension ref="B3:E121"/>
+  <dimension ref="B3:E137"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -6673,30 +8486,30 @@
   <cols>
     <col min="1" max="1" width="10.83203125" style="10"/>
     <col min="2" max="2" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="16"/>
+    <col min="3" max="3" width="24.83203125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="10"/>
-    <col min="5" max="5" width="44.1640625" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="10"/>
+    <col min="5" max="6" width="56.83203125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C7" s="19"/>
     </row>
@@ -6709,13 +8522,13 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" s="19"/>
       <c r="E10" s="4" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C11" s="19"/>
       <c r="E11" s="14" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -6729,13 +8542,13 @@
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C14" s="19"/>
       <c r="E14" s="4" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="19"/>
       <c r="E15" s="6" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -6749,12 +8562,12 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="19"/>
       <c r="E18" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="102" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E19" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -6762,7 +8575,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E20" s="6"/>
     </row>
@@ -6778,7 +8591,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C22" s="16" t="b" cm="1">
         <f t="array" ref="C22">_any(B22)</f>
@@ -6794,7 +8607,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E25" s="4" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
@@ -6805,7 +8618,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" s="4" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -6816,12 +8629,12 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E31" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:5" ht="119" x14ac:dyDescent="0.2">
       <c r="E32" s="6" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -6829,7 +8642,7 @@
         <v>45</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -6888,7 +8701,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C40" s="13" t="b" cm="1">
         <f t="array" ref="C40">_bool(B40)</f>
@@ -6901,7 +8714,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" s="13"/>
     </row>
@@ -6912,7 +8725,7 @@
       </c>
       <c r="C43" s="13"/>
       <c r="E43" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -6921,7 +8734,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C45" s="13"/>
     </row>
@@ -6935,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -6944,7 +8757,7 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="13"/>
     </row>
@@ -6958,7 +8771,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -6978,30 +8791,33 @@
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
       <c r="C53" s="13"/>
+      <c r="E53" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="18"/>
       <c r="C54" s="13"/>
-      <c r="E54" s="4" t="s">
-        <v>234</v>
+      <c r="E54" s="10" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="C55" s="13"/>
-      <c r="E55" s="10" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="18"/>
       <c r="C56" s="13"/>
+      <c r="E56" s="4" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="18"/>
       <c r="C57" s="13"/>
-      <c r="E57" s="4" t="s">
-        <v>233</v>
+      <c r="E57" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
@@ -7013,115 +8829,120 @@
       <c r="B59" s="18"/>
       <c r="C59" s="13"/>
       <c r="E59" s="4" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="18"/>
       <c r="C60" s="13"/>
+      <c r="E60" s="10" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="18"/>
       <c r="C61" s="13"/>
-      <c r="E61" s="4" t="s">
-        <v>241</v>
-      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="C62" s="13"/>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="13"/>
-      <c r="E63" s="4" t="s">
-        <v>173</v>
+      <c r="E63" s="3" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="C64" s="13"/>
-      <c r="E64" s="10" t="s">
-        <v>175</v>
-      </c>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="C65" s="13"/>
-      <c r="E65" s="3"/>
+      <c r="E65" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="18"/>
       <c r="C66" s="13"/>
-      <c r="E66" s="4" t="s">
-        <v>245</v>
+      <c r="E66" s="10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="C67" s="13"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="C68" s="13"/>
       <c r="E68" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="C69" s="13"/>
-      <c r="E69" s="6" t="s">
-        <v>172</v>
-      </c>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B70" s="18"/>
       <c r="C70" s="13"/>
-      <c r="E70" s="6"/>
+      <c r="E70" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="18"/>
       <c r="C71" s="13"/>
-      <c r="E71" s="4" t="s">
-        <v>246</v>
+      <c r="E71" s="3" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="C72" s="13"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="C73" s="13"/>
       <c r="E73" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="13"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="6" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="C75" s="13"/>
-      <c r="E75" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="C76" s="13"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="18"/>
       <c r="C77" s="13"/>
-      <c r="E77" s="4" t="s">
-        <v>248</v>
+      <c r="E77" s="10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
@@ -7133,43 +8954,45 @@
       <c r="B79" s="18"/>
       <c r="C79" s="13"/>
       <c r="E79" s="4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="C80" s="13"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="3" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="18"/>
       <c r="C81" s="13"/>
-      <c r="E81" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="18"/>
       <c r="C82" s="13"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="18"/>
       <c r="C83" s="13"/>
-      <c r="E83" s="4" t="s">
-        <v>251</v>
-      </c>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
       <c r="C84" s="13"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="18"/>
       <c r="C85" s="13"/>
-      <c r="E85" s="4" t="s">
-        <v>252</v>
+      <c r="E85" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
@@ -7181,7 +9004,7 @@
       <c r="B87" s="18"/>
       <c r="C87" s="13"/>
       <c r="E87" s="4" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -7193,216 +9016,301 @@
       <c r="B89" s="18"/>
       <c r="C89" s="13"/>
       <c r="E89" s="4" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
       <c r="C90" s="13"/>
-      <c r="E90" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="C91" s="13"/>
       <c r="E91" s="4" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="C92" s="13"/>
-      <c r="E92" s="3"/>
+      <c r="E92" s="3" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="11"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="4" t="s">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="18"/>
+      <c r="C94" s="13"/>
+      <c r="E94" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="18"/>
+      <c r="C95" s="13"/>
+      <c r="E95" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="18"/>
+      <c r="C96" s="13"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="18"/>
+      <c r="C97" s="13"/>
+      <c r="E97" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="18"/>
+      <c r="C98" s="13"/>
+      <c r="E98" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="18"/>
+      <c r="C99" s="13"/>
+      <c r="E99" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="18"/>
+      <c r="C100" s="13"/>
+      <c r="E100" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="18"/>
+      <c r="C101" s="13"/>
+      <c r="E101" s="3"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="11"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="B94" s="11"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="11" t="s">
+    <row r="103" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="11"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="11"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C105" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="11"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="11" t="b">
+      <c r="D105" s="3"/>
+      <c r="E105" s="5"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="11"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="5"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C97" s="13" t="str" cm="1">
-        <f t="array" ref="C97">_repr(B97)</f>
+      <c r="C107" s="13" t="str" cm="1">
+        <f t="array" ref="C107">_repr(B107)</f>
         <v>False</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="11">
+      <c r="D107" s="3"/>
+      <c r="E107" s="5"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="11">
         <v>-1.23</v>
       </c>
-      <c r="C98" s="13" t="str" cm="1">
-        <f t="array" ref="C98">_repr(B98)</f>
+      <c r="C108" s="13" t="str" cm="1">
+        <f t="array" ref="C108">_repr(B108)</f>
         <v>-1.23</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B99" s="11">
+      <c r="D108" s="3"/>
+      <c r="E108" s="5"/>
+    </row>
+    <row r="109" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B109" s="11">
         <v>9</v>
       </c>
-      <c r="C99" s="13" t="str" cm="1">
-        <f t="array" ref="C99">_repr(B99)</f>
+      <c r="C109" s="13" t="str" cm="1">
+        <f t="array" ref="C109">_repr(B109)</f>
         <v>9</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="5" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="11" t="s">
+      <c r="D109" s="3"/>
+      <c r="E109" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C100" s="13" t="str" cm="1">
-        <f t="array" ref="C100">_repr(B100)</f>
+      <c r="C110" s="13" t="str" cm="1">
+        <f t="array" ref="C110">_repr(B110)</f>
         <v>'\"'</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="11" t="s">
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="13" t="str" cm="1">
-        <f t="array" ref="C101">_repr(B101)</f>
+      <c r="C111" s="13" t="str" cm="1">
+        <f t="array" ref="C111">_repr(B111)</f>
         <v>'abc'</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="11" t="s">
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C102" s="13" t="str" cm="1">
-        <f t="array" ref="C102">_repr(B102)</f>
+      <c r="C112" s="13" t="str" cm="1">
+        <f t="array" ref="C112">_repr(B112)</f>
         <v>'ab\'cd'</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="17" t="s">
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C103" s="13" t="str" cm="1">
-        <f t="array" ref="C103">_repr(B103)</f>
+      <c r="C113" s="13" t="str" cm="1">
+        <f t="array" ref="C113">_repr(B113)</f>
         <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="18" cm="1">
-        <f t="array" ref="B106:B108">_xlfn.SEQUENCE(3)</f>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="21" t="b" cm="1">
+        <f t="array" ref="B116:B119">{TRUE;1;2.34;"Abc"}</f>
         <v>1</v>
       </c>
-      <c r="C106" s="13" t="str" cm="1">
-        <f t="array" ref="C106">_repr(_xlfn.ANCHORARRAY(B106))</f>
-        <v>[1, 2, 3]</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E109" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E110" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E111" s="22"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E112" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E113" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E114" s="22"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E115" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="22" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E117" s="22"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E118" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="E119" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E121" s="4" t="s">
-        <v>265</v>
+      <c r="C116" s="11" t="str" cm="1">
+        <f t="array" ref="C116">_repr(_xlfn.ANCHORARRAY(B116))</f>
+        <v>[True, 1, 2.34, 'Abc']</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="15">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="15" t="str">
+        <v>Abc</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="21" t="str" cm="1">
+        <f t="array" ref="B122">_repr(_repr)</f>
+        <v>&lt;function&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="21"/>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="21"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E127" s="22"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E128" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E129" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E131" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E134" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="E135" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="4" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -7410,9 +9318,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3CC38D-1A04-5A44-816A-B71E8DC635D6}">
-  <dimension ref="B3:C29"/>
+  <dimension ref="B3:C35"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -7425,909 +9333,182 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="29"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="29"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>499</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>500</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>505</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>504</v>
+        <v>574</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>10</v>
+        <v>481</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>11</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>12</v>
+        <v>485</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>13</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>14</v>
+        <v>486</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>15</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
-        <v>494</v>
+        <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>496</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>497</v>
+        <v>18</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355B7662-A6AF-4E4B-A8A9-10FF81599954}">
-  <dimension ref="A3:G74"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="33">
-        <v>0</v>
-      </c>
-      <c r="C27" s="33">
-        <f>TYPE(B27)</f>
-        <v>1</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="33">
-        <f>1.00000001</f>
-        <v>1.0000000099999999</v>
-      </c>
-      <c r="C28" s="33">
-        <f>TYPE(B28)</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="33">
-        <f>1.000000001</f>
-        <v>1.0000000010000001</v>
-      </c>
-      <c r="C31" s="33">
-        <f>TYPE(B31)</f>
-        <v>1</v>
-      </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="34" cm="1">
-        <f t="array" ref="B34">{0}</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="33">
-        <f>TYPE(B34)</f>
-        <v>1</v>
-      </c>
-      <c r="D34" s="34">
-        <f>TYPE({0})</f>
-        <v>64</v>
-      </c>
-      <c r="E34" t="s">
-        <v>285</v>
-      </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="34" t="s">
-        <v>275</v>
-      </c>
-      <c r="C36" s="33">
-        <f>TYPE(B36)</f>
-        <v>2</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="33" t="b">
-        <v>0</v>
-      </c>
-      <c r="C38" s="33">
-        <f>TYPE(B38)</f>
-        <v>4</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" t="e">
-        <f>SUM(A925 A926)</f>
-        <v>#NULL!</v>
-      </c>
-      <c r="C40" s="33">
-        <f t="shared" ref="C40:C46" si="0">TYPE(B40)</f>
-        <v>16</v>
-      </c>
-      <c r="D40" s="33">
-        <f t="shared" ref="D40:D46" si="1">ERROR.TYPE(B40)</f>
-        <v>1</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="33" t="e">
-        <f>1/0</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C41" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D41" s="33">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="33" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D42" s="33">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C43" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D43" s="33">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="33" t="e" cm="1">
-        <f t="array" ref="B44">TYPES</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C44" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D44" s="33">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E44" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B45" s="33" t="e">
-        <f>SQRT(-1)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C45" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D45" s="33">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B46" s="33" t="e">
-        <f>LOOKUP(0, _xlfn.SEQUENCE(3))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C46" s="33">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D46" s="33">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33">
-        <v>8</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B48" s="33" t="e" cm="1" vm="3">
-        <f t="array" aca="1" ref="B48" ca="1">_xlfn.SEQUENCE(999)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" s="33">
-        <f ca="1">TYPE(B48)</f>
-        <v>16</v>
-      </c>
-      <c r="D48" s="33">
-        <f ca="1">ERROR.TYPE(B48)</f>
-        <v>9</v>
-      </c>
-      <c r="E48" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33">
-        <v>10</v>
-      </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33">
-        <v>11</v>
-      </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33">
-        <v>12</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B52" s="33" t="e" cm="1" vm="4">
-        <f t="array" ref="B52">_FV(#REF!,"Attribute")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" s="33">
-        <f>TYPE(B52)</f>
-        <v>16</v>
-      </c>
-      <c r="D52" s="33">
-        <f>ERROR.TYPE(B52)</f>
-        <v>13</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="33" t="e" cm="1" vm="2">
-        <f t="array" ref="B53">_xlfn.SEQUENCE(0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" s="33">
-        <f>TYPE(B53)</f>
-        <v>16</v>
-      </c>
-      <c r="D53" s="33">
-        <f>ERROR.TYPE(B53)</f>
-        <v>14</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="34" t="s">
-        <v>281</v>
-      </c>
-      <c r="C54" s="33">
-        <v>16</v>
-      </c>
-      <c r="D54" s="33" t="e">
-        <f>ERROR.TYPE(B54)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B56" s="33" cm="1">
-        <f t="array" ref="B56:B58">_xlfn.SEQUENCE(3)</f>
-        <v>1</v>
-      </c>
-      <c r="C56" s="33">
-        <f>TYPE(_xlfn.ANCHORARRAY(B56))</f>
-        <v>64</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="33">
-        <v>2</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" s="33">
-        <v>3</v>
-      </c>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f>A62+1</f>
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" ref="A64:A74" si="2">A63+1</f>
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="B68" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="B70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="B73" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="B74" t="s">
-        <v>295</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E18C194-E6B2-744F-9689-966A858DFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33E278-C812-234A-998B-09A800A8563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7900" yWindow="-22000" windowWidth="34040" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
+    <workbookView xWindow="-8280" yWindow="-22000" windowWidth="34040" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Welcome" sheetId="13" r:id="rId1"/>
@@ -26,9 +26,26 @@
     <sheet name="10 Scraps" sheetId="14" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_any">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.any(_xlpm.obj),              64, list.any(_xlpm.obj),              #VALUE!  ))</definedName>
+    <definedName name="_abs">_xlfn.LAMBDA(_xlpm.obj,      _xlfn.SWITCH(TYPE(_xlpm.obj),           1, IF(_xlpm.obj &lt;&gt; "", ABS(_xlpm.obj), ABS("")),           4, ABS(_xlpm.obj),           ABS("")  ))</definedName>
+    <definedName name="_all">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, TRUE,              64, list.all(_xlpm.obj),              AND("")  ))</definedName>
+    <definedName name="_any">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.any(_xlpm.obj),              64, list.any(_xlpm.obj),              OR("")  ))</definedName>
+    <definedName name="_bin">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, IF(AND(_xlpm.obj &lt;&gt; "", _xlpm.obj = INT(_xlpm.obj)), int.bin(_xlpm.obj), DEC2BIN("")),              4, DEC2BIN(INT(_xlpm.obj)),              DEC2BIN("")  ))</definedName>
     <definedName name="_bool">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.bool(_xlpm.obj),              64, list.bool(_xlpm.obj),              IF(_xlpm.obj, TRUE)  ))</definedName>
-    <definedName name="_repr">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, int.repr(_xlpm.obj),              2, str.repr(_xlpm.obj),              4, bool.repr(_xlpm.obj),              64, list.repr(_xlpm.obj),              128, function.repr(_xlpm.obj),              "&lt;" &amp; _xlpm.obj &amp; "&gt;"  ))</definedName>
+    <definedName name="_chr">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, IF(AND(_xlpm.obj &lt;&gt; "", _xlpm.obj = INT(_xlpm.obj)), int.chr(_xlpm.obj), _xlfn.UNICHAR(0)),              4, _xlfn.UNICHAR(INT(_xlpm.obj)),              _xlfn.UNICHAR(0)  ))</definedName>
+    <definedName name="_filter">_xlfn.LAMBDA(_xlpm.func,_xlpm.items, function.filter(_xlpm.func, _xlpm.items))</definedName>
+    <definedName name="_float">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, IF(_xlpm.obj &lt;&gt; "", _xlpm.obj, 0 + ""),              2,  0 + _xlpm.obj,              4,  0 + _xlpm.obj,              0 + ""  ))</definedName>
+    <definedName name="_hex">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, IF(AND(_xlpm.obj &lt;&gt; "", _xlpm.obj = INT(_xlpm.obj)), int.hex(_xlpm.obj), DEC2HEX("")),              4, DEC2HEX(INT(_xlpm.obj)),              DEC2HEX("")  ))</definedName>
+    <definedName name="_int">_xlfn.LAMBDA(_xlpm.obj,      _xlfn.SWITCH(TYPE(_xlpm.obj),          1, IF(_xlpm.obj &lt;&gt; "", INT(_xlpm.obj), INT("")),          2, str.int(_xlpm.obj),          4, INT(_xlpm.obj),          INT("")  ))</definedName>
+    <definedName name="_isinstance.int">_xlfn.LAMBDA(_xlpm.obj,      _xlfn.SWITCH(TYPE(_xlpm.obj),          1, IF(AND(_xlpm.obj &lt;&gt; "", _xlpm.obj = INT(_xlpm.obj)), TRUE, 0),          4, TRUE,          0  ))</definedName>
+    <definedName name="_len">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.len(_xlpm.obj),              64, list.len(_xlpm.obj),              _xlfn.SEQUENCE(-1)  ))</definedName>
+    <definedName name="_list">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, str.list(_xlpm.obj),              64, _xlpm.obj,              _xlfn.SEQUENCE(-1)  ))</definedName>
+    <definedName name="_oct">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, IF(AND(_xlpm.obj &lt;&gt; "", _xlpm.obj = INT(_xlpm.obj)), int.oct(_xlpm.obj), DEC2OCT("")),              4, DEC2OCT(INT(_xlpm.obj)),              DEC2OCT("")  ))</definedName>
+    <definedName name="_ord">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, IF(LEN(_xlpm.obj) = 1, str.ord(_xlpm.obj), _xlfn.UNICODE("")),              _xlfn.UNICODE("")  ))</definedName>
+    <definedName name="_range">_xlfn.LAMBDA(_xlpm.stop,      IF(_isinstance.int(_xlpm.stop),          int.range(INT(_xlpm.stop)),           _xlfn.SEQUENCE(0)  ))</definedName>
+    <definedName name="_range_step">_xlfn.LAMBDA(_xlpm.start,_xlpm.stop,_xlpm.step,      IF(AND(              _isinstance.int(_xlpm.start), _isinstance.int(_xlpm.stop), _isinstance.int(_xlpm.step)          ),          int.range_step(INT(_xlpm.start), INT(_xlpm.stop), INT(_xlpm.step)),           _xlfn.SEQUENCE(0)  ))</definedName>
+    <definedName name="_range_stop">_xlfn.LAMBDA(_xlpm.start,_xlpm.stop,      IF(AND(_isinstance.int(_xlpm.start), _isinstance.int(_xlpm.stop)),          int.range_stop(INT(_xlpm.start), INT(_xlpm.stop)),           _xlfn.SEQUENCE(0)  ))</definedName>
+    <definedName name="_repr">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, IF(_xlpm.obj = "", "None", int.repr(_xlpm.obj)),              2, str.repr(_xlpm.obj),              4, bool.repr(_xlpm.obj),              64, list.repr(_xlpm.obj),              128, function.repr(_xlpm.obj),              "&lt;" &amp; _xlpm.obj &amp; "&gt;"  ))</definedName>
+    <definedName name="_str">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              2, _xlpm.obj,              _repr(_xlpm.obj)  ))</definedName>
     <definedName name="bool.as_integer_ratio">_xlfn.LAMBDA(_xlpm.bit, IF(_xlpm.bit, {1;1}, {0;1}))</definedName>
     <definedName name="bool.ascii">_xlfn.LAMBDA(_xlpm.bit, IF(_xlpm.bit, "True", "False"))</definedName>
     <definedName name="bool.bit_length">_xlfn.LAMBDA(_xlpm.bit, INT(_xlpm.bit))</definedName>
@@ -50,11 +67,11 @@
     <definedName name="int.bool">_xlfn.LAMBDA(_xlpm.i, IF(_xlpm.i, TRUE))</definedName>
     <definedName name="int.chr">_xlfn.LAMBDA(_xlpm.i, _xlfn.UNICHAR(_xlpm.i))</definedName>
     <definedName name="int.float">_xlfn.LAMBDA(_xlpm.i, _xlpm.i)</definedName>
-    <definedName name="int.hex">_xlfn.LAMBDA(_xlpm.i, "0x" &amp; DEC2HEX(_xlpm.i))</definedName>
-    <definedName name="int.oct">_xlfn.LAMBDA(_xlpm.i, "0x" &amp; DEC2OCT(_xlpm.i))</definedName>
+    <definedName name="int.hex">_xlfn.LAMBDA(_xlpm.i, "0x" &amp; LOWER(DEC2HEX(_xlpm.i)))</definedName>
+    <definedName name="int.oct">_xlfn.LAMBDA(_xlpm.i, "0o" &amp; DEC2OCT(_xlpm.i))</definedName>
     <definedName name="int.range">_xlfn.LAMBDA(_xlpm.stop, _xlfn.SEQUENCE(IF(_xlpm.stop &gt;= 0, _xlpm.stop)) - 1)</definedName>
+    <definedName name="int.range_step">_xlfn.LAMBDA(_xlpm.start,_xlpm.stop,_xlpm.step,      IF(AND(_xlpm.start &lt; _xlpm.stop, _xlpm.step),          _xlpm.start + _xlpm.step * _xlfn.SEQUENCE((_xlpm.stop - _xlpm.start + _xlpm.step - 1) / _xlpm.step),          _xlfn.SEQUENCE(0)  ))</definedName>
     <definedName name="int.range_stop">_xlfn.LAMBDA(_xlpm.start,_xlpm.stop,      IF(_xlpm.start &lt; _xlpm.stop,          _xlpm.start + _xlfn.SEQUENCE(_xlpm.stop - _xlpm.start) - 1,          _xlfn.SEQUENCE(0)  ))</definedName>
-    <definedName name="int.range_stop_step">_xlfn.LAMBDA(_xlpm.start,_xlpm.stop,_xlpm.step,      IF(AND(_xlpm.start &lt; _xlpm.stop, _xlpm.step),          _xlpm.start + _xlpm.step * _xlfn.SEQUENCE((_xlpm.stop - _xlpm.start + _xlpm.step - 1) / _xlpm.step),          _xlfn.SEQUENCE(0)  ))</definedName>
     <definedName name="int.repr">_xlfn.LAMBDA(_xlpm.i, "" &amp; _xlpm.i)</definedName>
     <definedName name="int.str">_xlfn.LAMBDA(_xlpm.i, "" &amp; _xlpm.i)</definedName>
     <definedName name="list.all">_xlfn.LAMBDA(_xlpm.items, AND(_xlpm.items))</definedName>
@@ -69,10 +86,14 @@
     <definedName name="str.any">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.bool">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.endswith">_xlfn.LAMBDA(_xlpm.chars,_xlpm.suffix,      IF(LEN(_xlpm.suffix) &lt;= LEN(_xlpm.chars),          MID(_xlpm.chars, LEN(_xlpm.chars) - LEN(_xlpm.suffix) + 1, LEN(_xlpm.suffix)) = _xlpm.suffix,          FALSE))</definedName>
+    <definedName name="str.enumerate">_xlfn.LAMBDA(_xlpm.chars,      CHOOSE({1,2},          _xlfn.SEQUENCE(LEN(_xlpm.chars)) - 1,          MID(_xlpm.chars, _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1)  ))</definedName>
     <definedName name="str.eval">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.body, MID(_xlpm.chars, 2, LEN(_xlpm.chars) - 2),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.body))),          _xlpm.picks, MID(_xlpm.body, _xlpm.stops, 1),          _xlpm.pairs, MID(_xlpm.body, _xlpm.stops, 2),          _xlpm.cuts, IF(_xlpm.picks = "\", "", _xlpm.picks),          _xlpm.patches, IF(_xlpm.pairs = "\\", "\", _xlpm.cuts),          _xlpm.ignore_empty_eq_true, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty_eq_true, _xlpm.patches),          _xlpm.joined  ))</definedName>
+    <definedName name="str.float">_xlfn.LAMBDA(_xlpm.chars, 0 + _xlpm.chars)</definedName>
     <definedName name="str.int">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.IFS(          LEN(_xlpm.chars) = 0,              #NUM!,          LEFT(_xlpm.chars, 1) = "+",              _xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          LEFT(_xlpm.chars, 1) = "-",              -_xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          TRUE,              _xlfn.DECIMAL(_xlpm.chars, 10)  ))</definedName>
     <definedName name="str.int_base">_xlfn.LAMBDA(_xlpm.chars,_xlpm.base,      _xlfn.LET(          _xlpm.ch, LEFT(_xlpm.chars, 1),          _xlpm.signed, IF(_xlpm.ch = "-", TRUE, IF(_xlpm.ch = "+", TRUE)),          _xlpm.digits, IF(_xlpm.signed,              MID(_xlpm.chars, 2, LEN(_xlpm.chars)),              _xlpm.chars),          _xlpm.eval1, IF(_xlpm.base &lt;&gt; 0,              _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),              _xlfn.LET(                  _xlpm.lows, LOWER(_xlpm.digits),                  _xlfn.IFS(                      MID(_xlpm.lows, 1, 2) = "0b",                          BIN2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0o",                          OCT2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0x",                          HEX2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      TRUE,                          _xlfn.DECIMAL(_xlpm.digits, 10)              ))),          _xlpm.sign, IF(_xlpm.ch = "-", -1, 1),          _xlpm.eval2, _xlpm.sign * _xlpm.eval1,          _xlpm.eval2  ))</definedName>
     <definedName name="str.int_base_2">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.head, LEFT(_xlpm.chars, 1),          _xlpm.signed, OR(_xlpm.head = "-", _xlpm.head = "+"),          _xlpm.unsigned, RIGHT(_xlpm.chars, LEN(_xlpm.chars) - 1),          _xlpm.tail, IF(_xlpm.signed, _xlpm.unsigned, _xlpm.chars),          _xlpm.based, LEFT(_xlpm.tail, 2) = "0b",          _xlpm.unbased, RIGHT(_xlpm.tail, LEN(_xlpm.tail) - 2),          _xlpm.digits, IF(_xlpm.based, _xlpm.unbased, _xlpm.tail),          _xlpm.sign, IF(_xlpm.head = "-", -1, 1),          _xlpm.base, IF(_xlpm.head = "", 0, 2),          _xlpm.evalled, _xlpm.sign * _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),          _xlpm.evalled  ))</definedName>
+    <definedName name="str.len">_xlfn.LAMBDA(_xlpm.chars, LEN(_xlpm.chars))</definedName>
+    <definedName name="str.list">_xlfn.LAMBDA(_xlpm.chars, MID(_xlpm.chars, _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1))</definedName>
     <definedName name="str.lower">_xlfn.LAMBDA(_xlpm.chars, LOWER(_xlpm.chars))</definedName>
     <definedName name="str.ord">_xlfn.LAMBDA(_xlpm.chars, _xlfn.UNICODE(_xlpm.chars))</definedName>
     <definedName name="str.partition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
@@ -168,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="652">
   <si>
     <t>bit</t>
   </si>
@@ -473,9 +494,6 @@
     <t># aka 0b_101_1010</t>
   </si>
   <si>
-    <t>=LAMBDA(i, "0x" &amp; DEC2HEX(i))</t>
-  </si>
-  <si>
     <t># aka 0x7F_FFFF_FFFF</t>
   </si>
   <si>
@@ -497,9 +515,6 @@
     <t>def int.oct(i)</t>
   </si>
   <si>
-    <t>=LAMBDA(i, "0x" &amp; DEC2OCT(i))</t>
-  </si>
-  <si>
     <t># aka 0o3_777_777_777</t>
   </si>
   <si>
@@ -570,9 +585,6 @@
   </si>
   <si>
     <t># Our Bool of List is ValueError</t>
-  </si>
-  <si>
-    <t>{0;0}</t>
   </si>
   <si>
     <t>={0;1}</t>
@@ -655,19 +667,6 @@
   </si>
   <si>
     <t>def str.int_base_16(chars)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(chars, base,
-    SWITCH(base,
-        0, str.int_base_0(chars),
-        2, str.int_base_2(chars),
-        8, str.int_base_8(chars),
-        16, str.int_base_16(chars),
-        str.int_base_base(chars, base),
-))</t>
-  </si>
-  <si>
-    <t>def str.int_base_base(chars, base)</t>
   </si>
   <si>
     <t>def str.int_base_0(chars)</t>
@@ -707,42 +706,13 @@
     <t>def _int(obj)</t>
   </si>
   <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            2, str.int(obj),
-            INT(obj)
-))</t>
-  </si>
-  <si>
     <t>def _float(obj)</t>
   </si>
   <si>
-    <t>int.chr</t>
-  </si>
-  <si>
-    <t>str.float</t>
-  </si>
-  <si>
     <t>def _str(obj)</t>
   </si>
   <si>
     <t>def str.ord(chars)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            2, str.any(obj),
-            64, list.any(obj),
-            #VALUE!
-))</t>
-  </si>
-  <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            2, TRUE,
-            64, list.all(obj),
-            #VALUE!
-))</t>
   </si>
   <si>
     <t>def str.any(chars)</t>
@@ -904,25 +874,10 @@
     <t>def _ascii(obj)</t>
   </si>
   <si>
-    <t>def _enumerate(items)</t>
-  </si>
-  <si>
-    <t>def _chr(int)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(f, ABS(f))</t>
-  </si>
-  <si>
-    <t>def _abs(f)</t>
-  </si>
-  <si>
     <t>def _all(items)</t>
   </si>
   <si>
     <t>def _any(items)</t>
-  </si>
-  <si>
-    <t>def _bin(i)</t>
   </si>
   <si>
     <t>=LAMBDA(obj,
@@ -943,9 +898,6 @@
   </si>
   <si>
     <t>def _format(obj)</t>
-  </si>
-  <si>
-    <t>def _hex(i)</t>
   </si>
   <si>
     <t>def _len(obj)</t>
@@ -1698,9 +1650,6 @@
     <t>def str.list(chars)</t>
   </si>
   <si>
-    <t>=LAMBDA(chars, MID(1, SEQUENCE(LEN(chars)), 1))</t>
-  </si>
-  <si>
     <t># TODO</t>
   </si>
   <si>
@@ -2031,21 +1980,7 @@
 ))))</t>
   </si>
   <si>
-    <t>list.enumerate</t>
-  </si>
-  <si>
     <t>str.eval</t>
-  </si>
-  <si>
-    <t>function.filter</t>
-  </si>
-  <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            2, bool.str(obj),
-            64, list.str(obj),
-            "" &amp; obj
-))</t>
   </si>
   <si>
     <t>=LAMBDA(items, ROWS(items))</t>
@@ -2091,22 +2026,7 @@
     <t>=SEQUENCE(3)</t>
   </si>
   <si>
-    <t>int.range</t>
-  </si>
-  <si>
-    <t>str.ord</t>
-  </si>
-  <si>
-    <t>int.oct</t>
-  </si>
-  <si>
     <t>function.map</t>
-  </si>
-  <si>
-    <t>list.len or str.len</t>
-  </si>
-  <si>
-    <t>int.hex</t>
   </si>
   <si>
     <t>def _int_base(obj, base)</t>
@@ -2174,17 +2094,6 @@
   </si>
   <si>
     <t>def list.repr.map(items)</t>
-  </si>
-  <si>
-    <t>=LAMBDA(obj,
-        SWITCH(TYPE(obj),
-            1, int.repr(obj),
-            2, str.repr(obj),
-            4, bool.repr(obj),
-            64, list.repr(obj),
-            128, function.repr(obj),
-            "&lt;" &amp; obj &amp; "&gt;"
-))</t>
   </si>
   <si>
     <t>=LAMBDA(obj,
@@ -2306,7 +2215,412 @@
     <t>def random.sample(items)</t>
   </si>
   <si>
+    <t>_len(obj)</t>
+  </si>
+  <si>
+    <t>def str.len(chars)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, LEN(chars))</t>
+  </si>
+  <si>
+    <t>str.len(chars)</t>
+  </si>
+  <si>
+    <t>={4.56;"Abc"}</t>
+  </si>
+  <si>
+    <t># unlike Excel formatting as Chars to count off Len</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, MID(chars, SEQUENCE(LEN(chars)), 1))</t>
+  </si>
+  <si>
+    <t>str.list(chars)</t>
+  </si>
+  <si>
+    <t>_list(items)</t>
+  </si>
+  <si>
+    <t>={"A";"a"}</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Run cell and step down</t>
+  </si>
+  <si>
+    <t>⇧ Return</t>
+  </si>
+  <si>
+    <t>_hex(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(i, "0x" &amp; LOWER(DEC2HEX(i)))</t>
+  </si>
+  <si>
+    <t># Excel renders Empty Cell same as Empty Str</t>
+  </si>
+  <si>
+    <t># Excel guesses Int or Float Type and Value Zero for Empty Cell</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, IF(obj = "", "None", int.repr(obj)),
+            2, str.repr(obj),
+            4, bool.repr(obj),
+            64, list.repr(obj),
+            128, function.repr(obj),
+            "&lt;" &amp; obj &amp; "&gt;"
+))</t>
+  </si>
+  <si>
+    <t># TODO: solve eval("None")</t>
+  </si>
+  <si>
+    <t>_abs(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, TRUE,
+            64, list.all(obj),
+            AND("")
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, str.any(obj),
+            64, list.any(obj),
+            OR("")
+))</t>
+  </si>
+  <si>
+    <t>_all(obj)</t>
+  </si>
+  <si>
+    <t>={1;1}</t>
+  </si>
+  <si>
+    <t># Excel guesses Int or Float Zero for Empty Cell</t>
+  </si>
+  <si>
+    <t># TODO: escape the non-Ascii chars of Str</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, IF(AND(obj &lt;&gt; "", obj = INT(obj)), int.hex(obj), DEC2HEX("")),
+            4, DEC2HEX(INT(obj)),
+            DEC2HEX("")
+))</t>
+  </si>
+  <si>
+    <t>def _bin(obj)</t>
+  </si>
+  <si>
+    <t>def _hex(obj)</t>
+  </si>
+  <si>
+    <t>def _abs(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+    SWITCH(TYPE(obj),
+         1, IF(obj &lt;&gt; "", ABS(obj), ABS("")),
+         4, ABS(obj),
+         ABS("")
+))</t>
+  </si>
+  <si>
+    <t>_bin(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, IF(AND(obj &lt;&gt; "", obj = INT(obj)), int.bin(obj), DEC2BIN("")),
+            4, DEC2BIN(INT(obj)),
+            DEC2BIN("")
+))</t>
+  </si>
+  <si>
+    <t>def _chr(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, IF(AND(obj &lt;&gt; "", obj = INT(obj)), int.chr(obj), UNICHAR(0)),
+            4, UNICHAR(INT(obj)),
+            UNICHAR(0)
+))</t>
+  </si>
+  <si>
+    <t>_chr(obj)</t>
+  </si>
+  <si>
+    <t>=str.ord(_chr(TRUE))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, str.list(obj),
+            64, obj,
+            SEQUENCE(-1)
+))</t>
+  </si>
+  <si>
+    <t>_ord(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, IF(LEN(obj) = 1, str.ord(obj), UNICODE("")),
+            UNICODE("")
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, IF(AND(obj &lt;&gt; "", obj = INT(obj)), int.oct(obj), DEC2OCT("")),
+            4, DEC2OCT(INT(obj)),
+            DEC2OCT("")
+))</t>
+  </si>
+  <si>
+    <t>_=oct(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(i, "0o" &amp; DEC2OCT(i))</t>
+  </si>
+  <si>
     <t>Excel Source of Error Instance</t>
+  </si>
+  <si>
+    <t>=SUM(A1 A2)</t>
+  </si>
+  <si>
+    <t>=1/0</t>
+  </si>
+  <si>
+    <t>=SEQUENCE(-1)</t>
+  </si>
+  <si>
+    <t>=#REF!</t>
+  </si>
+  <si>
+    <t>=TYPES</t>
+  </si>
+  <si>
+    <t>=SQRT(-1)</t>
+  </si>
+  <si>
+    <t>=SWITCH(0, 1, 2)</t>
+  </si>
+  <si>
+    <t>=SEQUENCE(999)</t>
+  </si>
+  <si>
+    <t>=#REF!.Attribute</t>
+  </si>
+  <si>
+    <t># doc'ed as Getting Data</t>
+  </si>
+  <si>
+    <t># faked ( dunno how to test )</t>
+  </si>
+  <si>
+    <t>def _isinstance.int(obj)</t>
+  </si>
+  <si>
+    <t>_isinstance.int(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+    SWITCH(TYPE(obj),
+        1, IF(AND(obj &lt;&gt; "", obj = INT(obj)), TRUE, 0),
+        4, TRUE,
+        0
+))</t>
+  </si>
+  <si>
+    <t># same as arcane obscure Python:  isinstance(False, int)</t>
+  </si>
+  <si>
+    <t>_range(obj)</t>
+  </si>
+  <si>
+    <t>objs</t>
+  </si>
+  <si>
+    <t>_range_stop(*objs)</t>
+  </si>
+  <si>
+    <t>_range_step(*objs)</t>
+  </si>
+  <si>
+    <t>def str.enumerate(chars)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    CHOOSE({1,2},
+        SEQUENCE(LEN(chars)) - 1,
+        MID(chars, SEQUENCE(LEN(chars)), 1)
+))</t>
+  </si>
+  <si>
+    <t>str.enumerate(items)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, str.enumerate(obj),
+            64, list.enumerate(obj),
+            SEQUENCE(-1)
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, str.len(obj),
+            64, list.len(obj),
+            SEQUENCE(-1)
+))</t>
+  </si>
+  <si>
+    <t>_enumerate(obj)</t>
+  </si>
+  <si>
+    <t>def _enumerate(obj)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(func, items, function.filter(func, items))</t>
+  </si>
+  <si>
+    <t>_filter(_len, obj)</t>
+  </si>
+  <si>
+    <t>={11;0;33}</t>
+  </si>
+  <si>
+    <t>=function.filter(LAMBDA(x, x), items)</t>
+  </si>
+  <si>
+    <t>=function.filter(_bool, items)</t>
+  </si>
+  <si>
+    <t># TODO: some bug raises ValueError here</t>
+  </si>
+  <si>
+    <t>str.float(chars)</t>
+  </si>
+  <si>
+    <t>def str.float(chars)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, 0 + chars)</t>
+  </si>
+  <si>
+    <t>-1.23</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            1, IF(obj &lt;&gt; "", obj, 0 + ""),
+            2,  0 + obj,
+            4,  0 + obj,
+            0 + ""
+))</t>
+  </si>
+  <si>
+    <t>_float(obj)</t>
+  </si>
+  <si>
+    <t>0xabc</t>
+  </si>
+  <si>
+    <t># Excel render Str of Digit Chars same as Int</t>
+  </si>
+  <si>
+    <t>_int(obj)</t>
+  </si>
+  <si>
+    <t># renders as '123   …'</t>
+  </si>
+  <si>
+    <t># renders as '…   123'</t>
+  </si>
+  <si>
+    <t># TODO: in Xlsx, we might should more conform to the Excel convention of right-justify numbers, left-justify text</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+    SWITCH(TYPE(obj),
+        1, IF(obj &lt;&gt; "", INT(obj), INT("")),
+        2, str.int(obj),
+        4, INT(obj),
+        INT("")
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, base,
+    SWITCH(base,
+        0, str.int_base_0(chars),
+        2, str.int_base_2(chars),
+        8, str.int_base_8(chars),
+        16, str.int_base_16(chars),
+        str.int_base_n(chars, base),
+))</t>
+  </si>
+  <si>
+    <t>def str.int_base_n(chars, n)</t>
+  </si>
+  <si>
+    <t>#FIELD!</t>
+  </si>
+  <si>
+    <t>#SPILL!</t>
+  </si>
+  <si>
+    <t>Run cell and step up</t>
+  </si>
+  <si>
+    <t>=LAMBDA(stop,
+    IF(_isinstance.int(stop),
+        int.range(INT(stop)),
+        SEQUENCE(0)
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(start, stop,
+    IF(AND(_isinstance.int(start), _isinstance.int(stop)),
+        int.range_stop(INT(start), INT(stop)),
+        SEQUENCE(0)
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(start, stop, step,
+    IF(AND(
+            _isinstance.int(start), _isinstance.int(stop), _isinstance.int(step)
+        ),
+        int.range_step(INT(start), INT(stop), INT(step)),
+        SEQUENCE(0)
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(obj,
+        SWITCH(TYPE(obj),
+            2, obj,
+            _repr(obj)
+))</t>
+  </si>
+  <si>
+    <t>_str(obj)</t>
+  </si>
+  <si>
+    <t>=_str(_str)</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2728,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2484,7 +2798,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2517,7 +2830,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2928,163 +3243,163 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
-        <v>180</v>
+      <c r="B4" s="36" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="37"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="G11" s="36"/>
+        <v>296</v>
+      </c>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" s="36"/>
+        <v>297</v>
+      </c>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" s="36"/>
+        <v>298</v>
+      </c>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G14" s="36"/>
+        <v>299</v>
+      </c>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G15" s="36"/>
+        <v>300</v>
+      </c>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" s="36"/>
+        <v>301</v>
+      </c>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G17" s="36"/>
+        <v>302</v>
+      </c>
+      <c r="G17" s="35"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="G18" s="36"/>
+      <c r="G18" s="35"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="35" t="s">
-        <v>347</v>
+      <c r="D28" s="34" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="35" t="s">
-        <v>348</v>
+      <c r="D31" s="34" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -3092,37 +3407,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -3131,8 +3446,8 @@
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="38" t="s">
-        <v>457</v>
+      <c r="E59" s="37" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3148,8 +3463,8 @@
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="38" t="s">
-        <v>458</v>
+      <c r="E62" s="37" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3173,27 +3488,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E72" s="38" t="s">
-        <v>459</v>
+      <c r="E72" s="37" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3208,22 +3523,22 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="E81" s="38" t="s">
-        <v>460</v>
+      <c r="E81" s="37" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -3241,64 +3556,64 @@
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="36" t="s">
-        <v>346</v>
-      </c>
-      <c r="D85" s="36"/>
+      <c r="C85" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D85" s="35"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C86" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="D86" s="36"/>
+      <c r="C86" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="D86" s="35"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C87" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="D87" s="36"/>
+      <c r="C87" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="D87" s="35"/>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C88" s="36"/>
-      <c r="D88" s="36"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="E97" s="38" t="s">
-        <v>461</v>
+      <c r="E97" s="37" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E101" s="27" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
@@ -3309,72 +3624,72 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="126" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E126" s="27" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -3385,110 +3700,110 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="35" t="s">
-        <v>366</v>
+      <c r="C135" s="34" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="35"/>
+      <c r="C136" s="34"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3817,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355B7662-A6AF-4E4B-A8A9-10FF81599954}">
-  <dimension ref="A3:H80"/>
+  <dimension ref="A3:H84"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -3513,12 +3828,12 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -3527,530 +3842,568 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+        <v>243</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>578</v>
+        <v>244</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>0</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <f>TYPE(B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33" t="s">
-        <v>278</v>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <f>1.00000001</f>
         <v>1.0000000099999999</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
         <f>TYPE(B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
+      <c r="B14" s="33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="33">
+      <c r="B15" s="32">
         <f>1.000000001</f>
         <v>1.0000000010000001</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
         <f>TYPE(B15)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33" t="s">
-        <v>277</v>
-      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" cm="1">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="33" cm="1">
         <f t="array" ref="B18">{0}</f>
         <v>0</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <f>TYPE(B18)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <f>TYPE({0})</f>
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>272</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" s="33">
+        <v>256</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="32">
         <f>TYPE(B20)</f>
         <v>2</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" s="33" t="b">
+      <c r="D20" s="32"/>
+      <c r="E20" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="33"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="32" t="b">
         <v>0</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="32">
         <f>TYPE(B22)</f>
         <v>4</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" s="33" t="e">
-        <f>SUM(A896 A897)</f>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="32" t="e">
+        <f>SUM(A1 A2)</f>
         <v>#NULL!</v>
       </c>
-      <c r="C24" s="33">
-        <f t="shared" ref="C24:C30" si="0">TYPE(B24)</f>
+      <c r="C24" s="32">
+        <f t="shared" ref="C24:C29" si="0">TYPE(B24)</f>
         <v>16</v>
       </c>
-      <c r="D24" s="33">
-        <f t="shared" ref="D24:D30" si="1">ERROR.TYPE(B24)</f>
+      <c r="D24" s="32">
+        <f t="shared" ref="D24:D29" si="1">ERROR.TYPE(B24)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B25" s="33" t="e">
+      <c r="E24" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="32" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="32">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="33" t="e">
+      <c r="E25" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="34" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="32" t="e" cm="1">
+        <f t="array" ref="B26">_xlfn.SEQUENCE(-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="33" t="e">
+      <c r="E26" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="34" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="32">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="33" t="e" cm="1">
+      <c r="E27" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="32" t="e" cm="1">
         <f t="array" ref="B28">TYPES</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="32">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="33" t="e">
+      <c r="E28" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="32" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="32">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="32">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="33" t="e">
-        <f>LOOKUP(0, _xlfn.SEQUENCE(3))</f>
+      <c r="E29" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="34" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="e" cm="1">
+        <f t="array" ref="B30">_xlfn.SWITCH(0, 1, 2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C30" s="33">
-        <f t="shared" si="0"/>
+      <c r="C30" s="11">
         <v>16</v>
       </c>
-      <c r="D30" s="33">
-        <f t="shared" si="1"/>
+      <c r="D30" s="11">
         <v>7</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33">
+      <c r="E30" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="34" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32">
         <v>8</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="33" t="e" cm="1" vm="3">
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="32" t="e" cm="1" vm="3">
         <f t="array" aca="1" ref="B32" ca="1">_xlfn.SEQUENCE(999)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="32">
         <f ca="1">TYPE(B32)</f>
         <v>16</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D32" s="32">
         <f ca="1">ERROR.TYPE(B32)</f>
         <v>9</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33">
+      <c r="E32" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>644</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="34" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32">
         <v>10</v>
       </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33">
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32">
         <v>11</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33">
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32">
         <v>12</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B36" s="33" t="e" cm="1" vm="4">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="32" t="e" cm="1" vm="4">
         <f t="array" ref="B36">_FV(#REF!,"Attribute")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="32">
         <f>TYPE(B36)</f>
         <v>16</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="32">
         <f>ERROR.TYPE(B36)</f>
         <v>13</v>
       </c>
-      <c r="E36" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B37" s="33" t="e" cm="1" vm="2">
+      <c r="E36" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>643</v>
+      </c>
+      <c r="G36" s="32"/>
+      <c r="H36" s="34" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="32" t="e" cm="1" vm="2">
         <f t="array" ref="B37">_xlfn.SEQUENCE(0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="32">
         <f>TYPE(B37)</f>
         <v>16</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="32">
         <f>ERROR.TYPE(B37)</f>
         <v>14</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="33">
+      <c r="E37" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="32">
         <v>16</v>
       </c>
-      <c r="D38" s="33" t="e">
-        <f>ERROR.TYPE(B38)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B40" s="33" cm="1">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="34" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="32" cm="1">
         <f t="array" ref="B40:B42">_xlfn.SEQUENCE(3)</f>
         <v>1</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="32">
         <f>TYPE(_xlfn.ANCHORARRAY(B40))</f>
         <v>64</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B41" s="33">
+      <c r="D40" s="32"/>
+      <c r="E40" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" s="32">
         <v>2</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="33">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="32">
         <v>3</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B44" s="34" t="s">
-        <v>528</v>
-      </c>
-      <c r="C44" s="33" cm="1">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C44" s="32" cm="1">
         <f t="array" ref="C44">TYPE(int.hex)</f>
         <v>128</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33" t="s">
-        <v>527</v>
-      </c>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D44" s="32"/>
+      <c r="E44" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4058,109 +4411,109 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>295</v>
+        <v>267</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>279</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -4171,7 +4524,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4182,7 +4535,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4190,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4198,7 +4551,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4206,7 +4559,7 @@
         <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -4214,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4230,7 +4583,7 @@
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -4238,7 +4591,7 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -4246,7 +4599,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4254,7 +4607,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4262,7 +4615,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4270,7 +4623,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4278,7 +4631,29 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D83" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C84">
+        <f>123</f>
+        <v>123</v>
+      </c>
+      <c r="D84" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -4296,16 +4671,16 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="35" t="s">
-        <v>543</v>
+      <c r="C6" s="34" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="35" t="str" cm="1">
+      <c r="C7" s="34" t="str" cm="1">
         <f t="array" ref="C7:C11">_xlfn.UNIQUE(MID("Abracadabra", _xlfn.SEQUENCE(LEN("Abracadabra")), 1))</f>
         <v>A</v>
       </c>
@@ -4331,8 +4706,8 @@
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="35" t="s">
-        <v>544</v>
+      <c r="C13" s="34" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
@@ -4364,22 +4739,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4413,7 +4788,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4426,7 +4801,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4460,7 +4835,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4610,7 +4985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F750C58B-BB82-B347-A1BA-A0B6EE0A14B2}">
-  <dimension ref="B3:E165"/>
+  <dimension ref="B3:E166"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -4626,7 +5001,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -4634,17 +5009,17 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="21" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -4655,7 +5030,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4663,10 +5038,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -4678,7 +5053,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4690,7 +5065,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -4732,7 +5107,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -4752,7 +5127,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E22" s="22" t="s">
         <v>95</v>
@@ -4791,7 +5166,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -4806,7 +5181,7 @@
         <v>0b1111111111</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -4877,7 +5252,7 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
@@ -4885,10 +5260,10 @@
         <v>23</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -4900,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -4912,7 +5287,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -4976,7 +5351,7 @@
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C48" s="22"/>
       <c r="E48" s="1" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -4984,10 +5359,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4999,7 +5374,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -5065,675 +5440,687 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="E63" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="15">
+      <c r="C64" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="9"/>
+      <c r="C65" s="16" cm="1">
+        <f t="array" ref="C65">int.float(B65)</f>
         <v>0</v>
       </c>
-      <c r="C64" s="16" cm="1">
-        <f t="array" ref="C64">int.float(B64)</f>
-        <v>0</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="22" t="s">
-        <v>412</v>
+      <c r="E65" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E66" s="22"/>
+      <c r="B66" s="15">
+        <v>123</v>
+      </c>
+      <c r="C66" s="16" cm="1">
+        <f t="array" ref="C66">int.float(B66)</f>
+        <v>123</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="1"/>
+      <c r="E67" s="22"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="9" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E70" s="22"/>
+      <c r="C70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="23">
-        <v>0</v>
-      </c>
-      <c r="C71" s="16" t="str" cm="1">
-        <f t="array" ref="C71">int.hex(B71)</f>
-        <v>0x0</v>
-      </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="22"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C72" s="16" t="str" cm="1">
         <f t="array" ref="C72">int.hex(B72)</f>
-        <v>0x5A</v>
+        <v>0x0</v>
       </c>
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="23">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="C73" s="16" t="str" cm="1">
         <f t="array" ref="C73">int.hex(B73)</f>
-        <v>0xFFFFFFFFFF</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>106</v>
-      </c>
+        <v>0x5a</v>
+      </c>
+      <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="23"/>
-      <c r="E74" s="22"/>
+      <c r="B74" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C74" s="16" t="str" cm="1">
+        <f t="array" ref="C74">int.hex(B74)</f>
+        <v>0xffffffffff</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="15">
-        <v>-1.9</v>
-      </c>
-      <c r="C75" s="16" t="str" cm="1">
-        <f t="array" ref="C75">int.hex(B75)</f>
-        <v>0xFFFFFFFFFF</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>381</v>
-      </c>
+      <c r="B75" s="23"/>
+      <c r="E75" s="22"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="15">
-        <v>16.899999999999999</v>
+        <v>-1.9</v>
       </c>
       <c r="C76" s="16" t="str" cm="1">
         <f t="array" ref="C76">int.hex(B76)</f>
+        <v>0xffffffffff</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="15">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="C77" s="16" t="str" cm="1">
+        <f t="array" ref="C77">int.hex(B77)</f>
         <v>0x10</v>
       </c>
-      <c r="E76" s="22"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E77" s="1"/>
+      <c r="E77" s="22"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="23">
-        <f>B79-1</f>
-        <v>-549755813889</v>
-      </c>
-      <c r="C78" s="16" t="e" cm="1">
-        <f t="array" ref="C78">int.hex(B78)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>104</v>
-      </c>
+      <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B79" s="23">
+        <f>B80-1</f>
+        <v>-549755813889</v>
+      </c>
+      <c r="C79" s="16" t="e" cm="1">
+        <f t="array" ref="C79">int.hex(B79)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="23">
         <f>HEX2DEC("8000000000")</f>
         <v>-549755813888</v>
       </c>
-      <c r="C79" s="16" t="str" cm="1">
-        <f t="array" ref="C79">int.hex(B79)</f>
+      <c r="C80" s="16" t="str" cm="1">
+        <f t="array" ref="C80">int.hex(B80)</f>
         <v>0x8000000000</v>
       </c>
-      <c r="E79" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="23">
+      <c r="E80" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="23">
         <f>HEX2DEC("7FFFFFFFFF")</f>
         <v>549755813887</v>
       </c>
-      <c r="C80" s="16" t="str" cm="1">
-        <f t="array" ref="C80">int.hex(B80)</f>
-        <v>0x7FFFFFFFFF</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="23">
-        <f>B80+1</f>
+      <c r="C81" s="16" t="str" cm="1">
+        <f t="array" ref="C81">int.hex(B81)</f>
+        <v>0x7fffffffff</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="23">
+        <f>B81+1</f>
         <v>549755813888</v>
       </c>
-      <c r="C81" s="16" t="e" cm="1">
-        <f t="array" ref="C81">int.hex(B81)</f>
+      <c r="C82" s="16" t="e" cm="1">
+        <f t="array" ref="C82">int.hex(B82)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="23"/>
+      <c r="E82" s="10" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="23"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E84" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="B84" s="23"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="9" t="s">
+      <c r="E85" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E86" s="22"/>
+      <c r="C86" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="23">
-        <v>0</v>
-      </c>
-      <c r="C87" s="16" t="str" cm="1">
-        <f t="array" ref="C87">int.oct(B87)</f>
-        <v>0x0</v>
-      </c>
       <c r="E87" s="22"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="23">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C88" s="16" t="str" cm="1">
         <f t="array" ref="C88">int.oct(B88)</f>
-        <v>0x132</v>
+        <v>0o0</v>
       </c>
       <c r="E88" s="22"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="23">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="C89" s="16" t="str" cm="1">
         <f t="array" ref="C89">int.oct(B89)</f>
-        <v>0x7777777777</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>114</v>
-      </c>
+        <v>0o132</v>
+      </c>
+      <c r="E89" s="22"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="23"/>
-      <c r="E90" s="22"/>
+      <c r="B90" s="23">
+        <v>-1</v>
+      </c>
+      <c r="C90" s="16" t="str" cm="1">
+        <f t="array" ref="C90">int.oct(B90)</f>
+        <v>0o7777777777</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="15">
-        <v>-1.9</v>
-      </c>
-      <c r="C91" s="16" t="str" cm="1">
-        <f t="array" ref="C91">int.oct(B91)</f>
-        <v>0x7777777777</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>381</v>
-      </c>
+      <c r="B91" s="23"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="15">
-        <v>8.9</v>
+        <v>-1.9</v>
       </c>
       <c r="C92" s="16" t="str" cm="1">
         <f t="array" ref="C92">int.oct(B92)</f>
-        <v>0x10</v>
-      </c>
-      <c r="E92" s="22"/>
+        <v>0o7777777777</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B93" s="15">
+        <v>8.9</v>
+      </c>
+      <c r="C93" s="16" t="str" cm="1">
+        <f t="array" ref="C93">int.oct(B93)</f>
+        <v>0o10</v>
+      </c>
       <c r="E93" s="22"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="23">
-        <f>B95-1</f>
+      <c r="E94" s="22"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="23">
+        <f>B96-1</f>
         <v>-536870913</v>
       </c>
-      <c r="C94" s="16" t="e" cm="1">
-        <f t="array" ref="C94">int.oct(B94)</f>
+      <c r="C95" s="16" t="e" cm="1">
+        <f t="array" ref="C95">int.oct(B95)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="15">
-        <v>-536870912</v>
-      </c>
-      <c r="C95" s="16" t="str" cm="1">
-        <f t="array" ref="C95">int.oct(B95)</f>
-        <v>0x4000000000</v>
-      </c>
-      <c r="E95" s="22" t="s">
-        <v>111</v>
+      <c r="E95" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="15">
-        <v>536870911</v>
+        <v>-536870912</v>
       </c>
       <c r="C96" s="16" t="str" cm="1">
         <f t="array" ref="C96">int.oct(B96)</f>
-        <v>0x3777777777</v>
+        <v>0o4000000000</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="15">
-        <f>B96+1</f>
+        <v>536870911</v>
+      </c>
+      <c r="C97" s="16" t="str" cm="1">
+        <f t="array" ref="C97">int.oct(B97)</f>
+        <v>0o3777777777</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="15">
+        <f>B97+1</f>
         <v>536870912</v>
       </c>
-      <c r="C97" s="16" t="e" cm="1">
-        <f t="array" ref="C97">int.oct(B97)</f>
+      <c r="C98" s="16" t="e" cm="1">
+        <f t="array" ref="C98">int.oct(B98)</f>
         <v>#NUM!</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E100" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B101" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="2"/>
+      <c r="E98" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B102" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="15">
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="15">
         <v>1</v>
       </c>
-      <c r="C103" s="16" cm="1">
-        <f t="array" ref="C103">int.range(B103)</f>
+      <c r="C104" s="16" cm="1">
+        <f t="array" ref="C104">int.range(B104)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E104" s="2"/>
-    </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="15">
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="15">
         <v>3</v>
       </c>
-      <c r="C105" s="16" cm="1">
-        <f t="array" ref="C105:C107">int.range(B105)</f>
+      <c r="C106" s="16" cm="1">
+        <f t="array" ref="C106:C108">int.range(B106)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="10"/>
-      <c r="C106" s="10">
-        <v>1</v>
-      </c>
-      <c r="E106" s="1"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B107" s="10"/>
       <c r="C107" s="10">
-        <v>2</v>
-      </c>
-      <c r="E107" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E107" s="1"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
+      <c r="C108" s="10">
+        <v>2</v>
+      </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="15">
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="15">
         <v>2.9</v>
       </c>
-      <c r="C109" s="16" cm="1">
-        <f t="array" ref="C109:C110">int.range(B109)</f>
+      <c r="C110" s="16" cm="1">
+        <f t="array" ref="C110:C111">int.range(B110)</f>
         <v>0</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10">
-        <v>1</v>
-      </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="3" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
+      <c r="C111" s="10">
+        <v>1</v>
+      </c>
       <c r="E111" s="2"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="15">
-        <v>0</v>
-      </c>
-      <c r="C113" s="16" t="e" cm="1" vm="2">
-        <f t="array" ref="C113">int.range(B113)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>378</v>
-      </c>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="E112" s="2"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B114" s="15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C114" s="16" t="e" cm="1" vm="2">
         <f t="array" ref="C114">int.range(B114)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E117" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="15">
-        <v>3</v>
-      </c>
-      <c r="C120" s="16" cm="1">
-        <f t="array" ref="C120">int.range_stop(B120,B121)</f>
-        <v>3</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C115" s="16" t="e" cm="1" vm="2">
+        <f t="array" ref="C115">int.range(B115)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E118" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B121" s="15">
+        <v>3</v>
+      </c>
+      <c r="C121" s="16" cm="1">
+        <f t="array" ref="C121">int.range_stop(B121,B122)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="15">
         <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="15">
-        <v>3</v>
-      </c>
-      <c r="C123" s="16" cm="1">
-        <f t="array" ref="C123:C125">int.range_stop(B123,B124)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B124" s="15">
+        <v>3</v>
+      </c>
+      <c r="C124" s="16" cm="1">
+        <f t="array" ref="C124:C126">int.range_stop(B124,B125)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="15">
         <v>6</v>
       </c>
-      <c r="C124" s="16">
+      <c r="C125" s="16">
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C125" s="16">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C126" s="16">
         <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="15">
-        <v>-1</v>
-      </c>
-      <c r="C127" s="16" cm="1">
-        <f t="array" ref="C127:C129">int.range_stop(B127,B128)</f>
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="15">
+        <v>-1</v>
+      </c>
+      <c r="C128" s="16" cm="1">
+        <f t="array" ref="C128:C130">int.range_stop(B128,B129)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="15">
         <v>2</v>
       </c>
-      <c r="C128" s="16">
+      <c r="C129" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C129" s="16">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C130" s="16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="15">
-        <v>-0.4</v>
-      </c>
-      <c r="C132" s="16" cm="1">
-        <f t="array" ref="C132:C134">int.range_stop(B132,B133)</f>
-        <v>-0.4</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="C133" s="16" cm="1">
+        <f t="array" ref="C133:C135">int.range_stop(B133,B134)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="15">
         <v>2.7</v>
       </c>
-      <c r="C133" s="16">
+      <c r="C134" s="16">
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C134" s="16">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C135" s="16">
         <v>1.6</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E136" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C137" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E138" s="2"/>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E137" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="15">
-        <v>-2</v>
-      </c>
-      <c r="C139" s="16" cm="1">
-        <f t="array" ref="C139:C141">int.range_stop_step(B139,B140,B141)</f>
-        <v>0</v>
-      </c>
+      <c r="E139" s="2"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="15">
-        <v>4</v>
-      </c>
-      <c r="C140" s="16">
-        <v>2</v>
+        <v>-2</v>
+      </c>
+      <c r="C140" s="16" cm="1">
+        <f t="array" ref="C140:C142">int.range_step(B140,B141,B142)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B141" s="15">
+        <v>4</v>
+      </c>
+      <c r="C141" s="16">
         <v>2</v>
       </c>
-      <c r="C141" s="16">
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="15">
+        <v>2</v>
+      </c>
+      <c r="C142" s="16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="15">
-        <v>-2</v>
-      </c>
-      <c r="C143" s="16" cm="1">
-        <f t="array" ref="C143:C145">int.range_stop_step(B143,B144,B145)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="15">
-        <v>3</v>
-      </c>
-      <c r="C144" s="16">
-        <v>2</v>
+        <v>-2</v>
+      </c>
+      <c r="C144" s="16" cm="1">
+        <f t="array" ref="C144:C146">int.range_step(B144,B145,B146)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="15">
+        <v>3</v>
+      </c>
+      <c r="C145" s="16">
         <v>2</v>
       </c>
-      <c r="C145" s="16">
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="15">
+        <v>2</v>
+      </c>
+      <c r="C146" s="16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="15">
-        <v>-0.4</v>
-      </c>
-      <c r="C147" s="16" cm="1">
-        <f t="array" ref="C147:C149">int.range_stop_step(B147,B148,B149)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="15">
-        <v>2.7</v>
-      </c>
-      <c r="C148" s="16">
-        <v>1.4</v>
+        <v>-0.4</v>
+      </c>
+      <c r="C148" s="16" cm="1">
+        <f t="array" ref="C148:C150">int.range_step(B148,B149,B150)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="C149" s="16">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="15">
         <v>0.9</v>
       </c>
-      <c r="C149" s="16">
+      <c r="C150" s="16">
         <v>2.3000000000000003</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E152" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B153" s="9" t="s">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E153" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B154" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C153" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="15">
+      <c r="C154" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="15">
         <v>-12</v>
       </c>
-      <c r="C154" s="16" t="str" cm="1">
-        <f t="array" ref="C154">_repr(int.repr(B154))</f>
+      <c r="C155" s="16" t="str" cm="1">
+        <f t="array" ref="C155">_repr(int.repr(B155))</f>
         <v>'-12'</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E157" s="1" t="s">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E158" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E159" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="15">
+        <v>-34</v>
+      </c>
+      <c r="C161" s="16" t="str" cm="1">
+        <f t="array" ref="C161">int.str(B161)</f>
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E165" s="10" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E158" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="15">
-        <v>-34</v>
-      </c>
-      <c r="C160" s="16" t="str" cm="1">
-        <f t="array" ref="C160">int.str(B160)</f>
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E163" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E164" s="10" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E165" s="10" t="s">
-        <v>444</v>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E166" s="10" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -5743,7 +6130,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565AA85F-506B-6B41-A58B-4F41C35CF9A9}">
-  <dimension ref="B3:E47"/>
+  <dimension ref="B3:E48"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -5759,22 +6146,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -5786,13 +6173,13 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="E11" s="10" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -5808,7 +6195,7 @@
         <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -5820,7 +6207,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -5832,7 +6219,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -5937,91 +6324,101 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="15">
-        <v>-1.23</v>
-      </c>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="9"/>
       <c r="C34" s="16" cm="1">
         <f t="array" ref="C34">float.int(B34)</f>
-        <v>-1</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>386</v>
+        <v>0</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="15">
-        <v>0</v>
+        <v>-1.23</v>
       </c>
       <c r="C35" s="16" cm="1">
         <f t="array" ref="C35">float.int(B35)</f>
+        <v>-1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B36" s="15">
         <v>0</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="15">
-        <v>1.23</v>
       </c>
       <c r="C36" s="16" cm="1">
         <f t="array" ref="C36">float.int(B36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="15">
+        <v>1.23</v>
+      </c>
+      <c r="C37" s="16" cm="1">
+        <f t="array" ref="C37">float.int(B37)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E39" s="1" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B40" s="9" t="s">
+    <row r="41" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="15">
+      <c r="E41" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="15">
         <v>-12</v>
       </c>
-      <c r="C41" s="16" t="str" cm="1">
-        <f t="array" ref="C41">_repr(float.repr(B41))</f>
+      <c r="C42" s="16" t="str" cm="1">
+        <f t="array" ref="C42">_repr(float.repr(B42))</f>
         <v>'-12.0'</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="1" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="E45" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="9" t="s">
+    <row r="46" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E46" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="15">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="15">
         <v>-34</v>
       </c>
-      <c r="C47" s="16" t="str" cm="1">
-        <f t="array" ref="C47">float.str(B47)</f>
+      <c r="C48" s="16" t="str" cm="1">
+        <f t="array" ref="C48">float.str(B48)</f>
         <v>-34.0</v>
       </c>
     </row>
@@ -6032,7 +6429,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E11CDF-3AD4-2A4F-915A-FBF9AA82D6D4}">
-  <dimension ref="B3:E170"/>
+  <dimension ref="B3:E194"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -6048,17 +6445,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6072,7 +6469,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
@@ -6080,7 +6477,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>37</v>
@@ -6095,19 +6492,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C13" s="16" t="b" cm="1">
         <f t="array" ref="C13">str.bool(B13)</f>
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6116,7 +6513,7 @@
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6124,7 +6521,7 @@
         <v>27</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>37</v>
@@ -6139,12 +6536,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="21" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C19" s="16" t="b" cm="1">
         <f t="array" ref="C19">str.bool(B19)</f>
@@ -6158,18 +6555,18 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="E22" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -6178,19 +6575,19 @@
     </row>
     <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C25" s="26" t="b" cm="1">
         <f t="array" ref="C25">str.endswith(B25,B26)</f>
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C26" s="26"/>
       <c r="E26" s="2"/>
@@ -6202,19 +6599,19 @@
     </row>
     <row r="28" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C28" s="26" t="b" cm="1">
         <f t="array" ref="C28">str.endswith(B28,B29)</f>
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -6225,14 +6622,14 @@
     </row>
     <row r="31" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="21" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C31" s="26" t="b" cm="1">
         <f t="array" ref="C31">str.endswith(B31,B32)</f>
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
@@ -6240,7 +6637,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
@@ -6256,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
@@ -6264,7 +6661,7 @@
         <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
@@ -6272,740 +6669,777 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="21"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="13" cm="1">
+        <f t="array" ref="C40:D42">str.enumerate(B40)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="10" t="str">
+        <v>a</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="str">
+        <v>b</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+      <c r="C42" s="13">
+        <v>2</v>
+      </c>
+      <c r="D42" s="10" t="str">
+        <v>c</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="9" t="s">
+    <row r="46" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="3" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="21" t="s">
+      <c r="E46" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E47" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="C41" s="16" t="str" cm="1">
-        <f t="array" ref="C41">str.eval(B41)</f>
-        <v/>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="16" t="str" cm="1">
-        <f t="array" ref="C42">str.eval(B42)</f>
-        <v>abc</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="16" t="str" cm="1">
-        <f t="array" ref="C43">str.eval(B43)</f>
-        <v>ab\cd</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="16" t="str" cm="1">
-        <f t="array" ref="C44">str.eval(B44)</f>
-        <v>ab'cd</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="16" t="str" cm="1">
-        <f t="array" ref="C45">str.eval(B45)</f>
-        <v>ab"cd</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="16" t="str" cm="1">
-        <f t="array" ref="C46">str.eval(B46)</f>
-        <v>⌃⌥⇧⌘⎋⇥⋮</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="C48" s="16" t="str" cm="1">
         <f t="array" ref="C48">str.eval(B48)</f>
-        <v>ab'cd</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>431</v>
+        <v/>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="16" t="str" cm="1">
+        <f t="array" ref="C49">str.eval(B49)</f>
+        <v>abc</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="21" t="s">
-        <v>185</v>
+      <c r="B50" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="C50" s="16" t="str" cm="1">
         <f t="array" ref="C50">str.eval(B50)</f>
-        <v>bcde</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>187</v>
+        <v>ab\cd</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C51" s="16" t="e" cm="1">
+        <v>36</v>
+      </c>
+      <c r="C51" s="16" t="str" cm="1">
         <f t="array" ref="C51">str.eval(B51)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>432</v>
+        <v>ab'cd</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B52" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="16" t="str" cm="1">
+        <f t="array" ref="C52">str.eval(B52)</f>
+        <v>ab"cd</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="16" t="str" cm="1">
+        <f t="array" ref="C53">str.eval(B53)</f>
+        <v>⌃⌥⇧⌘⎋⇥⋮</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E54" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E56" s="2"/>
+      <c r="B54" s="21"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="16" t="str" cm="1">
+        <f t="array" ref="C55">str.eval(B55)</f>
+        <v>ab'cd</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="16" cm="1">
-        <f t="array" ref="C57">str.int(B57)</f>
-        <v>0</v>
-      </c>
-      <c r="D57" s="10">
-        <f>VALUE(B57)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="C57" s="16" t="str" cm="1">
+        <f t="array" ref="C57">str.eval(B57)</f>
+        <v>bcde</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="16" t="e" cm="1">
+        <f t="array" ref="C58">str.eval(B58)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B62" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="16" cm="1">
+        <f t="array" ref="C63">str.float(B63)</f>
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B64" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="16" t="e" cm="1">
+        <f t="array" ref="C64">str.float(B64)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B65" s="21">
+        <v>-4</v>
+      </c>
+      <c r="C65" s="16" cm="1">
+        <f t="array" ref="C65">str.float(B65)</f>
+        <v>-4</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B66" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="C66" s="16" cm="1">
+        <f t="array" ref="C66">str.float(B66)</f>
+        <v>-1.23</v>
+      </c>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B67" s="21"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B68" s="21"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B72" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="16" cm="1">
+        <f t="array" ref="C72">str.int(B72)</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="10">
+        <f>VALUE(B72)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="16" cm="1">
+        <f t="array" ref="C73">str.int(B73)</f>
+        <v>123</v>
+      </c>
+      <c r="D73" s="10">
+        <f>VALUE(B73)</f>
+        <v>123</v>
+      </c>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C58" s="16" cm="1">
-        <f t="array" ref="C58">str.int(B58)</f>
+      <c r="C74" s="16" cm="1">
+        <f t="array" ref="C74">str.int(B74)</f>
+        <v>-123</v>
+      </c>
+      <c r="D74" s="10">
+        <f>VALUE(B74)</f>
+        <v>-123</v>
+      </c>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="16" cm="1">
+        <f t="array" ref="C75">str.int(B75)</f>
         <v>123</v>
       </c>
-      <c r="D58" s="10">
-        <f>VALUE(B58)</f>
+      <c r="D75" s="10">
+        <f>VALUE(B75)</f>
         <v>123</v>
       </c>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="21" t="s">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="21"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="16" t="e" cm="1">
+        <f t="array" ref="C77">str.int(B77)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B78" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="16" t="e" cm="1">
+        <f t="array" ref="C78">str.int(B78)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C79" s="16" t="e" cm="1">
+        <f t="array" ref="C79">str.int(B79)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E80" s="10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E82" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E85" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E86" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E89" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="16" cm="1">
-        <f t="array" ref="C59">str.int(B59)</f>
-        <v>-123</v>
-      </c>
-      <c r="D59" s="10">
-        <f>VALUE(B59)</f>
-        <v>-123</v>
-      </c>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="21" t="s">
+    </row>
+    <row r="90" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B92" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="16" cm="1">
-        <f t="array" ref="C60">str.int(B60)</f>
-        <v>123</v>
-      </c>
-      <c r="D60" s="10">
-        <f>VALUE(B60)</f>
-        <v>123</v>
-      </c>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="21"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C62" s="16" t="e" cm="1">
-        <f t="array" ref="C62">str.int(B62)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="16" t="e" cm="1">
-        <f t="array" ref="C63">str.int(B63)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C64" s="16" t="e" cm="1">
-        <f t="array" ref="C64">str.int(B64)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E65" s="10" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="E66" s="10" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E70" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E74" s="1" t="s">
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C94" s="16" cm="1">
+        <f t="array" ref="C94">str.int_base_2(B94)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="16" cm="1">
+        <f t="array" ref="C95">str.int_base_2(B95)</f>
+        <v>15</v>
+      </c>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="21"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B97" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C97" s="16" cm="1">
+        <f t="array" ref="C97">str.int_base_2(B97)</f>
+        <v>15</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="21" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E75" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="16" cm="1">
-        <f t="array" ref="C79">str.int_base_2(B79)</f>
-        <v>0</v>
-      </c>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="21" t="s">
+      <c r="C98" s="16" cm="1">
+        <f t="array" ref="C98">str.int_base_2(B98)</f>
+        <v>-15</v>
+      </c>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B99" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="16" cm="1">
+        <f t="array" ref="C99">str.int_base_2(B99)</f>
+        <v>15</v>
+      </c>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B100" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="C80" s="16" cm="1">
-        <f t="array" ref="C80">str.int_base_2(B80)</f>
-        <v>15</v>
-      </c>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="21"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="16" cm="1">
-        <f t="array" ref="C82">str.int_base_2(B82)</f>
-        <v>15</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C83" s="16" cm="1">
-        <f t="array" ref="C83">str.int_base_2(B83)</f>
+      <c r="C100" s="16" cm="1">
+        <f t="array" ref="C100">str.int_base_2(B100)</f>
         <v>-15</v>
       </c>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C84" s="16" cm="1">
-        <f t="array" ref="C84">str.int_base_2(B84)</f>
-        <v>15</v>
-      </c>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="16" cm="1">
-        <f t="array" ref="C85">str.int_base_2(B85)</f>
-        <v>-15</v>
-      </c>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="21"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="21" t="str">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B101" s="21"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B102" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="21" t="str">
         <f>"0b10"&amp;"0000"&amp;"0000"</f>
         <v>0b1000000000</v>
       </c>
-      <c r="C88" s="16" cm="1">
-        <f t="array" ref="C88">str.int_base_2(B88)</f>
+      <c r="C103" s="16" cm="1">
+        <f t="array" ref="C103">str.int_base_2(B103)</f>
         <v>512</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="21"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="21" t="s">
+      <c r="E103" s="10" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="21"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="16" t="e" cm="1">
+        <f t="array" ref="C105">str.int_base_2(B105)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C106" s="16" t="e" cm="1">
+        <f t="array" ref="C106">str.int_base_2(B106)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E109" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="16" t="e" cm="1">
-        <f t="array" ref="C90">str.int_base_2(B90)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C91" s="16" t="e" cm="1">
-        <f t="array" ref="C91">str.int_base_2(B91)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E94" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E95" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E97" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E98" s="10" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E100" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E101" s="10" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="E104" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E105" s="2"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="C107" s="10"/>
-      <c r="E107" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="E108" s="22" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="E109" s="22"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>493</v>
+      <c r="E110" s="10" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C112" s="16" t="str" cm="1">
-        <f t="array" ref="C112">str.lower(B112)</f>
-        <v>abcdefghij</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="E114" s="1"/>
+      <c r="E112" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E113" s="10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E115" s="1" t="s">
-        <v>174</v>
+        <v>642</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E116" s="22" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="9" t="s">
+      <c r="E116" s="10" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="E119" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E120" s="2"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E121" s="2"/>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E122" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E123" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C124" s="16" cm="1">
+        <f t="array" ref="C124">str.len(B124)</f>
+        <v>2</v>
+      </c>
+      <c r="E124" s="22"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E125" s="22"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C127" s="10"/>
+      <c r="E127" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="E128" s="22" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="9"/>
+      <c r="C129" s="7"/>
+      <c r="E129" s="22"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C130" s="16" t="str" cm="1">
+        <f t="array" ref="C130:C131">str.list(B130)</f>
+        <v>A</v>
+      </c>
+      <c r="E130" s="22"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C131" s="16" t="str">
+        <v>a</v>
+      </c>
+      <c r="E131" s="22"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="22"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E133" s="22"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C136" s="16" t="str" cm="1">
+        <f t="array" ref="C136">str.lower(B136)</f>
+        <v>abcdefghij</v>
+      </c>
+      <c r="E136" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E139" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E140" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C117" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="E117" s="22"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E118" s="22"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="21" t="s">
+      <c r="C141" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E141" s="22"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="22"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B143" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C119" s="16" cm="1">
-        <f t="array" ref="C119">str.ord(B119)</f>
+      <c r="C143" s="16" cm="1">
+        <f t="array" ref="C143">str.ord(B143)</f>
         <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C120" s="16" cm="1">
-        <f t="array" ref="C120">str.ord(B120)</f>
-        <v>8984</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="16" cm="1">
-        <f t="array" ref="C122">str.ord(B122)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="21"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="21"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="21"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="21"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E128" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E129" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="22" t="str" cm="1">
-        <f t="array" ref="B132:B134">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
-        <v>C:</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="15" t="str">
-        <v>\</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="22" t="str">
-        <v>My Documents\like-py.xlsx</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="21"/>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="21"/>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E138" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E139" s="2"/>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E140" s="2"/>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C141" s="16" t="str" cm="1">
-        <f t="array" ref="C141">str.repr(B141)</f>
-        <v>''</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C142" s="16" t="str" cm="1">
-        <f t="array" ref="C142">str.repr(B142)</f>
-        <v>'abc'</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C143" s="16" t="str" cm="1">
-        <f t="array" ref="C143">str.repr(B143)</f>
-        <v>'ab\\cd'</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B144" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C144" s="16" t="str" cm="1">
-        <f t="array" ref="C144">str.repr(B144)</f>
-        <v>'ab\'cd'</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C145" s="16" t="str" cm="1">
-        <f t="array" ref="C145">str.repr(B145)</f>
-        <v>'ab\"cd'</v>
+        <v>87</v>
+      </c>
+      <c r="C144" s="16" cm="1">
+        <f t="array" ref="C144">str.ord(B144)</f>
+        <v>8984</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C146" s="16" t="str" cm="1">
-        <f t="array" ref="C146">str.repr(B146)</f>
-        <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
+      <c r="B146" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C146" s="16" cm="1">
+        <f t="array" ref="C146">str.ord(B146)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="17"/>
+      <c r="B147" s="21"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E148" s="22"/>
+      <c r="B148" s="21"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E149" s="4" t="s">
-        <v>256</v>
+      <c r="B149" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E150" s="22" t="s">
-        <v>253</v>
-      </c>
+      <c r="B150" s="21"/>
+      <c r="E150" s="1"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E151" s="22"/>
+      <c r="B151" s="21"/>
+      <c r="E151" s="1"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E152" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E153" s="2" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E154" s="2"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="40" t="s">
-        <v>297</v>
+      <c r="B155" s="39" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="22" t="str" cm="1">
-        <f t="array" ref="B156:B158">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
-        <v>C:\My Documents</v>
+        <f t="array" ref="B156:B158">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
+        <v>C:</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
@@ -7015,62 +7449,205 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="22" t="str">
-        <v>like-py.xlsx</v>
+        <v>My Documents\like-py.xlsx</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E159" s="22"/>
+      <c r="B159" s="21"/>
+      <c r="E159" s="1"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E160" s="22"/>
+      <c r="B160" s="21"/>
+      <c r="E160" s="1"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E162" s="22" t="s">
-        <v>251</v>
+      <c r="E161" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E162" s="2" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E163" s="22"/>
+      <c r="B163" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E163" s="2"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E164" s="22"/>
+      <c r="E164" s="2"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E165" s="4" t="s">
-        <v>254</v>
+      <c r="B165" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C165" s="16" t="str" cm="1">
+        <f t="array" ref="C165">str.repr(B165)</f>
+        <v>''</v>
+      </c>
+      <c r="E165" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E166" s="22" t="s">
-        <v>248</v>
+      <c r="B166" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C166" s="16" t="str" cm="1">
+        <f t="array" ref="C166">str.repr(B166)</f>
+        <v>'abc'</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C167" s="16" t="str" cm="1">
+        <f t="array" ref="C167">str.repr(B167)</f>
+        <v>'ab\\cd'</v>
+      </c>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C168" s="16" t="str" cm="1">
+        <f t="array" ref="C168">str.repr(B168)</f>
+        <v>'ab\'cd'</v>
+      </c>
+      <c r="E168" s="10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>491</v>
+      <c r="B169" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C169" s="16" t="str" cm="1">
+        <f t="array" ref="C169">str.repr(B169)</f>
+        <v>'ab\"cd'</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B170" s="15" t="s">
-        <v>495</v>
+        <v>38</v>
       </c>
       <c r="C170" s="16" t="str" cm="1">
-        <f t="array" ref="C170">str.upper(B170)</f>
+        <f t="array" ref="C170">str.repr(B170)</f>
+        <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="17"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E172" s="22"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E173" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E174" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E175" s="22"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E176" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E178" s="2"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="39" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="22" t="str" cm="1">
+        <f t="array" ref="B180:B182">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
+        <v>C:\My Documents</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="15" t="str">
+        <v>\</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="22" t="str">
+        <v>like-py.xlsx</v>
+      </c>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E183" s="22"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E184" s="22"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E185" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E186" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E187" s="22"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E188" s="22"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E189" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E190" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B194" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C194" s="16" t="str" cm="1">
+        <f t="array" ref="C194">str.upper(B194)</f>
         <v>ABCDEFGHIJ</v>
       </c>
-      <c r="E170" s="22" t="s">
-        <v>492</v>
+      <c r="E194" s="22" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -7097,17 +7674,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -7134,7 +7711,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E12" s="22"/>
     </row>
@@ -7223,7 +7800,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="21" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E29" s="22"/>
     </row>
@@ -7296,19 +7873,19 @@
       <c r="C43" s="13"/>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -7319,7 +7896,7 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" s="13" t="e" cm="1">
         <f t="array" ref="C46">list.bool(B46)</f>
@@ -7327,7 +7904,7 @@
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -7338,7 +7915,7 @@
       <c r="C47" s="13"/>
       <c r="D47" s="3"/>
       <c r="E47" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -7357,17 +7934,17 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="3"/>
@@ -7380,14 +7957,14 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="18" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
@@ -7409,10 +7986,10 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="18" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -7436,10 +8013,10 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7473,7 +8050,7 @@
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
       <c r="C64" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -7499,18 +8076,18 @@
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -7520,7 +8097,7 @@
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B71" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C71" s="13"/>
       <c r="E71" s="3"/>
@@ -7565,31 +8142,31 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="12"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="30"/>
+      <c r="B79" s="29"/>
       <c r="C79" s="12"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="18" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="C80" s="10"/>
       <c r="E80" s="6"/>
@@ -7600,7 +8177,7 @@
         <v>11</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="E81" s="6"/>
     </row>
@@ -7624,7 +8201,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
       <c r="C84" s="20" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="E84" s="6"/>
     </row>
@@ -7644,7 +8221,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
       <c r="C87" s="20" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="E87" s="6"/>
     </row>
@@ -7664,7 +8241,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
       <c r="C90" s="20" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="E90" s="6"/>
     </row>
@@ -7684,13 +8261,13 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="18" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>541</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>542</v>
+        <v>516</v>
+      </c>
+      <c r="E93" s="41" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -7736,27 +8313,27 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E99" s="4" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="30" t="s">
+      <c r="B100" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="41" t="s">
-        <v>511</v>
+      <c r="C100" s="40" t="s">
+        <v>491</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="30"/>
+      <c r="B101" s="29"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B102" s="18" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C102" s="10"/>
     </row>
@@ -7824,25 +8401,25 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E110" s="4" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="30" t="s">
+      <c r="B111" s="29" t="s">
         <v>45</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="E112" s="3" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -7854,7 +8431,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
@@ -7862,7 +8439,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B115" s="21" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
       <c r="C115" s="16" t="str" cm="1">
         <f t="array" ref="C115">list.repr.item(B115)</f>
@@ -7876,7 +8453,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B117" s="18" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="E117" s="4"/>
     </row>
@@ -7923,18 +8500,18 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E124" s="4" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="30" t="s">
+      <c r="B125" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -7943,7 +8520,7 @@
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="18" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="E127" s="4"/>
     </row>
@@ -7990,7 +8567,7 @@
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B133" s="21" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E133" s="4"/>
     </row>
@@ -8045,19 +8622,19 @@
       <c r="C140" s="13"/>
       <c r="D140" s="3"/>
       <c r="E140" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="30" t="s">
+      <c r="B141" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="6" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -8066,7 +8643,7 @@
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B143" s="18" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
@@ -8091,7 +8668,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B148" s="21" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -8116,7 +8693,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B153" s="21" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -8147,7 +8724,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B159" s="21" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -8163,7 +8740,7 @@
         <v>#REF!</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -8184,7 +8761,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E165" s="4" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -8194,7 +8771,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D0BB19-60E5-E14D-A2CF-48A043562222}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -8215,7 +8792,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8225,7 +8802,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8242,35 +8819,35 @@
       <c r="C8" s="16"/>
       <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>560</v>
+      <c r="C9" s="29" t="s">
+        <v>534</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="6" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="32"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="10"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="C11" s="32"/>
+        <v>490</v>
+      </c>
+      <c r="C11" s="31"/>
       <c r="D11" s="10"/>
       <c r="E11" s="6"/>
     </row>
@@ -8278,7 +8855,7 @@
       <c r="A12" s="10"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="6"/>
@@ -8286,7 +8863,7 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="43"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
     </row>
@@ -8296,7 +8873,7 @@
         <f t="array" ref="B14:B19">{"abc";"acb";"bac";"bca";"cab";"cba"}</f>
         <v>abc</v>
       </c>
-      <c r="C14" s="31" t="str" cm="1">
+      <c r="C14" s="30" t="str" cm="1">
         <f t="array" ref="C14:C15">function.filter(_xlfn.LAMBDA(_xlpm.x, str.endswith(_xlpm.x, "a")),_xlfn.ANCHORARRAY(
 B14))</f>
         <v>bca</v>
@@ -8360,122 +8937,230 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="18"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="18" t="s">
+        <v>625</v>
+      </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="4" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="18" cm="1">
+        <f t="array" ref="B23:B25">{11;0;33}</f>
+        <v>11</v>
+      </c>
+      <c r="C23" s="20" cm="1">
+        <f t="array" ref="C23:C24">function.filter(_xlfn.LAMBDA(_xlpm.x, _xlpm.x),_xlfn.ANCHORARRAY( B23))</f>
+        <v>11</v>
+      </c>
       <c r="D23" s="10"/>
-      <c r="E23" s="2" t="s">
-        <v>504</v>
-      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
+      <c r="B24" s="18">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13">
+        <v>33</v>
+      </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>503</v>
-      </c>
+      <c r="B25" s="18">
+        <v>33</v>
+      </c>
+      <c r="C25" s="13"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="39"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="35" t="s">
-        <v>513</v>
-      </c>
+      <c r="B27" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C27" s="13"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" t="str" cm="1">
-        <f t="array" ref="B28:B30">{"A";"b";"c"}</f>
-        <v>A</v>
-      </c>
-      <c r="C28" s="13" cm="1">
-        <f t="array" ref="C28:C30">function.map(str.ord,_xlfn.ANCHORARRAY(B28))</f>
-        <v>65</v>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>626</v>
       </c>
       <c r="D28" s="10"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="18" t="str">
+      <c r="B29" s="18" cm="1">
+        <f t="array" ref="B29:B31">{11;0;33}</f>
+        <v>11</v>
+      </c>
+      <c r="C29" s="20" t="e" cm="1">
+        <f t="array" ref="C29">function.filter(_bool,_xlfn.ANCHORARRAY( B29))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="18">
+        <v>0</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="18">
+        <v>33</v>
+      </c>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="34" t="s">
+        <v>493</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" t="str" cm="1">
+        <f t="array" ref="B39:B41">{"A";"b";"c"}</f>
+        <v>A</v>
+      </c>
+      <c r="C39" s="13" cm="1">
+        <f t="array" ref="C39:C41">function.map(str.ord,_xlfn.ANCHORARRAY(B39))</f>
+        <v>65</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="18" t="str">
         <v>b</v>
       </c>
-      <c r="C29">
+      <c r="C40">
         <v>98</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="str">
+      <c r="D40" s="10"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="18" t="str">
         <v>c</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C41" s="13">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="4" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="34" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" t="str" cm="1">
+        <f t="array" ref="C48">function.repr(function.repr)</f>
+        <v>&lt;function&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="34" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="34" t="e" cm="1">
+        <f t="array" ref="C51">_xlfn.LAMBDA(_xlpm.func, "&lt;" &amp; _xlpm.func &amp; "&gt;")(function.repr)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="35" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="35" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C37" t="str" cm="1">
-        <f t="array" ref="C37">function.repr(function.repr)</f>
-        <v>&lt;function&gt;</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="35" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="35" t="e" cm="1">
-        <f t="array" ref="C40">_xlfn.LAMBDA(_xlpm.func, "&lt;" &amp; _xlpm.func &amp; "&gt;")(function.repr)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" t="s">
-        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -8485,7 +9170,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48772323-2A75-4E43-BEC6-FC16F253F8C0}">
-  <dimension ref="B3:E137"/>
+  <dimension ref="B3:E285"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -8501,22 +9186,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C7" s="19"/>
     </row>
@@ -8529,459 +9214,564 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C10" s="19"/>
       <c r="E10" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="19"/>
-      <c r="E11" s="14" t="s">
-        <v>225</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="19"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="19"/>
+      <c r="B13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="13" cm="1">
+        <f t="array" ref="C13">_abs(B13)</f>
+        <v>0</v>
+      </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="19"/>
-      <c r="E14" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="19"/>
-      <c r="E15" s="6" t="s">
-        <v>176</v>
-      </c>
+      <c r="B14" s="11">
+        <v>-10.23</v>
+      </c>
+      <c r="C14" s="13" cm="1">
+        <f t="array" ref="C14">_abs(B14)</f>
+        <v>10.23</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
+        <v>9</v>
+      </c>
+      <c r="C15" s="13" cm="1">
+        <f t="array" ref="C15">_abs(B15)</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="19"/>
-      <c r="E16" s="14"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+      <c r="E16" s="3" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="19"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="13" t="e" cm="1">
+        <f t="array" ref="C17">_abs(B17)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="19"/>
-      <c r="E18" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="6" t="s">
-        <v>175</v>
-      </c>
+      <c r="B18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="13" t="e" cm="1">
+        <f t="array" ref="C18">_abs(B18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" s="13"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="21" cm="1">
+        <f t="array" ref="B21:B22">{4.56;"Abc"}</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C21" s="13" t="e" cm="1">
+        <f t="array" ref="C21">_abs(_xlfn.ANCHORARRAY(B21))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="18" t="str">
+        <v>Abc</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="19"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="19"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="19"/>
+      <c r="E25" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" t="s">
+      <c r="C26" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="21"/>
+      <c r="C27" s="16" t="e" cm="1">
+        <f t="array" ref="C27">_all(B27)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="16" t="b" cm="1">
-        <f t="array" ref="C21">_any(B21)</f>
+      <c r="C28" s="16" t="b" cm="1">
+        <f t="array" ref="C28">_all(B28)</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="21" t="s">
+        <v>575</v>
+      </c>
+      <c r="C29" s="16" t="b" cm="1">
+        <f t="array" ref="C29">_all({1;1})</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="19"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="19"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C32" s="19"/>
+      <c r="E32" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="21"/>
+      <c r="C34" s="16" t="e" cm="1">
+        <f t="array" ref="C34">_any(B34)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="16" t="b" cm="1">
+        <f t="array" ref="C35">_any(B35)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="16" t="b" cm="1">
-        <f t="array" ref="C22">_any(B22)</f>
+      <c r="E35" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="16" t="b" cm="1">
+        <f t="array" ref="C36">_any({0;0})</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
+      <c r="C43" s="13"/>
+      <c r="E43" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="13" t="e" cm="1">
+        <f t="array" ref="C45">_bin(B45)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" s="13" t="str" cm="1">
+        <f t="array" ref="C46">_bin(B46)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="18">
+        <v>123</v>
+      </c>
+      <c r="C47" s="13" t="str" cm="1">
+        <f t="array" ref="C47">_bin(B47)</f>
+        <v>0b1111011</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="18">
+        <v>1.23</v>
+      </c>
+      <c r="C48" s="13" t="e" cm="1">
+        <f t="array" ref="C48">_bin(B48)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="13"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="E51" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B54" s="10"/>
+      <c r="C54" s="13" t="b" cm="1">
+        <f t="array" ref="C54">_bool(B54)</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B55" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13" t="b" cm="1">
+        <f t="array" ref="C55">_bool(B55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B56" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E25" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="4" t="s">
+      <c r="C56" s="13" t="b" cm="1">
+        <f t="array" ref="C56">_bool(B56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B57" s="11">
+        <v>-1.23</v>
+      </c>
+      <c r="C57" s="13" t="b" cm="1">
+        <f t="array" ref="C57">_bool(B57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B58" s="11">
+        <v>0</v>
+      </c>
+      <c r="C58" s="13" t="b" cm="1">
+        <f t="array" ref="C58">_bool(B58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B59" s="11">
+        <v>1.23</v>
+      </c>
+      <c r="C59" s="13" t="b" cm="1">
+        <f t="array" ref="C59">_bool(B59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B60" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="13" t="b" cm="1">
+        <f t="array" ref="C60">_bool(B60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B61" s="18" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="E32" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13" t="b" cm="1">
-        <f t="array" ref="C34">_bool(B34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="11" t="b">
+      <c r="C61" s="13" t="b" cm="1">
+        <f t="array" ref="C61">_bool(B61)</f>
         <v>1</v>
       </c>
-      <c r="C35" s="13" t="b" cm="1">
-        <f t="array" ref="C35">_bool(B35)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="11">
-        <v>-1.23</v>
-      </c>
-      <c r="C36" s="13" t="b" cm="1">
-        <f t="array" ref="C36">_bool(B36)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="11">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13" t="b" cm="1">
-        <f t="array" ref="C37">_bool(B37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="11">
-        <v>1.23</v>
-      </c>
-      <c r="C38" s="13" t="b" cm="1">
-        <f t="array" ref="C38">_bool(B38)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="13" t="b" cm="1">
-        <f t="array" ref="C39">_bool(B39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="13" t="b" cm="1">
-        <f t="array" ref="C40">_bool(B40)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="18" t="e" cm="1" vm="2">
-        <f t="array" ref="B43">_xlfn.SEQUENCE(0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="E43" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" cm="1">
-        <f t="array" ref="B46">{0}</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="13" t="b" cm="1">
-        <f t="array" ref="C46">_bool(B46)</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" s="13"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" cm="1">
-        <f t="array" ref="B49:B50">{0;0}</f>
-        <v>0</v>
-      </c>
-      <c r="C49" s="13" t="e" cm="1">
-        <f t="array" ref="C49">_bool(_xlfn.ANCHORARRAY(B49))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="18">
-        <v>0</v>
-      </c>
-      <c r="C50" s="13"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="C53" s="13"/>
-      <c r="E53" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="13"/>
-      <c r="E54" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B55" s="18"/>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="13"/>
-      <c r="E56" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="13"/>
-      <c r="E57" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="13"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="13"/>
-      <c r="E59" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="13"/>
-      <c r="E60" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="13"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="C62" s="13"/>
-      <c r="E62" s="4" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
+      <c r="B63" s="18" t="s">
+        <v>119</v>
+      </c>
       <c r="C63" s="13"/>
-      <c r="E63" s="3" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="18"/>
+      <c r="B64" s="18" t="e" cm="1" vm="2">
+        <f t="array" ref="B64">_xlfn.SEQUENCE(0)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="C64" s="13"/>
-      <c r="E64" s="3"/>
+      <c r="E64" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="C65" s="13"/>
-      <c r="E65" s="4" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
+      <c r="B66" s="18" t="s">
+        <v>116</v>
+      </c>
       <c r="C66" s="13"/>
-      <c r="E66" s="10" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
-      <c r="C67" s="13"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="18" cm="1">
+        <f t="array" ref="B67">{0}</f>
+        <v>0</v>
+      </c>
+      <c r="C67" s="13" t="b" cm="1">
+        <f t="array" ref="C67">_bool(B67)</f>
+        <v>0</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="18"/>
       <c r="C68" s="13"/>
-      <c r="E68" s="4" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="18"/>
+      <c r="B69" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="C69" s="13"/>
-      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="18"/>
-      <c r="C70" s="13"/>
-      <c r="E70" s="4" t="s">
-        <v>234</v>
+      <c r="B70" s="18" cm="1">
+        <f t="array" ref="B70:B71">{0;0}</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="13" t="e" cm="1">
+        <f t="array" ref="C70">_bool(_xlfn.ANCHORARRAY(B70))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="18"/>
+      <c r="B71" s="18">
+        <v>0</v>
+      </c>
       <c r="C71" s="13"/>
-      <c r="E71" s="3" t="s">
-        <v>524</v>
-      </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="C72" s="13"/>
-      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="C73" s="13"/>
-      <c r="E73" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="13"/>
-      <c r="E74" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="18"/>
-      <c r="C75" s="13"/>
-      <c r="E75" s="6"/>
+      <c r="E74" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
-      <c r="C76" s="13"/>
-      <c r="E76" s="4" t="s">
-        <v>525</v>
-      </c>
+      <c r="C76" s="10"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="18"/>
-      <c r="C77" s="13"/>
-      <c r="E77" s="10" t="s">
-        <v>526</v>
+      <c r="C77" s="13" t="e" cm="1">
+        <f t="array" ref="C77">_chr(B76)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="18"/>
-      <c r="C78" s="13"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="18">
+        <v>123</v>
+      </c>
+      <c r="C78" s="13" t="str" cm="1">
+        <f t="array" ref="C78">_chr(B78)</f>
+        <v>{</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="18"/>
-      <c r="C79" s="13"/>
-      <c r="E79" s="4" t="s">
-        <v>235</v>
+      <c r="B79" s="18">
+        <v>1.23</v>
+      </c>
+      <c r="C79" s="13" t="e" cm="1">
+        <f t="array" ref="C79">_chr(B79)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="C80" s="13"/>
-      <c r="E80" s="3" t="s">
-        <v>523</v>
-      </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="18"/>
-      <c r="C81" s="13"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="20" t="s">
+        <v>588</v>
+      </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="18"/>
-      <c r="C82" s="13"/>
-      <c r="E82" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="C82" s="13" cm="1">
+        <f t="array" ref="C82">str.ord(_chr(TRUE))</f>
+        <v>1</v>
+      </c>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="18"/>
@@ -8991,78 +9781,105 @@
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="18"/>
       <c r="C84" s="13"/>
-      <c r="E84" s="4" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="18"/>
       <c r="C85" s="13"/>
-      <c r="E85" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B86" s="18"/>
-      <c r="C86" s="13"/>
-      <c r="E86" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="B86" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B87" s="18"/>
+      <c r="B87" s="11"/>
       <c r="C87" s="13"/>
-      <c r="E87" s="4" t="s">
-        <v>237</v>
-      </c>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="18"/>
-      <c r="C88" s="13"/>
-      <c r="E88" s="4"/>
+      <c r="B88" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="13" cm="1">
+        <f t="array" ref="C88:D90">str.enumerate(B88)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="10" t="str">
+        <v>a</v>
+      </c>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="18"/>
-      <c r="C89" s="13"/>
-      <c r="E89" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10">
+        <v>1</v>
+      </c>
+      <c r="D89" s="10" t="str">
+        <v>b</v>
+      </c>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
-      <c r="C90" s="13"/>
-      <c r="E90" s="4"/>
+      <c r="C90" s="13">
+        <v>2</v>
+      </c>
+      <c r="D90" s="10" t="str">
+        <v>c</v>
+      </c>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="C91" s="13"/>
-      <c r="E91" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="18"/>
+      <c r="B92" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="C92" s="13"/>
-      <c r="E92" s="3" t="s">
-        <v>521</v>
-      </c>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="18"/>
-      <c r="C93" s="13"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="18" t="str" cm="1">
+        <f t="array" ref="B93:B94">{"abc";"def"}</f>
+        <v>abc</v>
+      </c>
+      <c r="C93" s="13" cm="1">
+        <f t="array" ref="C93:D94">list.enumerate(_xlfn.ANCHORARRAY(B93))</f>
+        <v>0</v>
+      </c>
+      <c r="D93" s="10" t="str">
+        <v>abc</v>
+      </c>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="18"/>
-      <c r="C94" s="13"/>
-      <c r="E94" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="B94" s="11" t="str">
+        <v>def</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1</v>
+      </c>
+      <c r="D94" s="10" t="str">
+        <v>def</v>
+      </c>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="18"/>
       <c r="C95" s="13"/>
-      <c r="E95" s="3" t="s">
-        <v>520</v>
-      </c>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="18"/>
@@ -9073,251 +9890,1391 @@
       <c r="B97" s="18"/>
       <c r="C97" s="13"/>
       <c r="E97" s="4" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="18"/>
       <c r="C98" s="13"/>
-      <c r="E98" s="4" t="s">
-        <v>246</v>
+      <c r="E98" s="10" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="18"/>
       <c r="C99" s="13"/>
-      <c r="E99" s="4" t="s">
-        <v>245</v>
+      <c r="E99" s="10" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="18"/>
       <c r="C100" s="13"/>
-      <c r="E100" s="3" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="18"/>
       <c r="C101" s="13"/>
-      <c r="E101" s="3"/>
+      <c r="E101" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="11"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="4" t="s">
+      <c r="B102" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B103" s="18"/>
+      <c r="C103" s="13"/>
+      <c r="E103" s="14"/>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B104" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="E104" s="14"/>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B105" s="18"/>
+      <c r="C105" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="E105" s="14"/>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B106" s="18" cm="1">
+        <f t="array" ref="B106:B108">{11;0;33}</f>
+        <v>11</v>
+      </c>
+      <c r="C106" s="20" cm="1">
+        <f t="array" ref="C106:C107">function.filter(_xlfn.LAMBDA(_xlpm.x, _xlpm.x),_xlfn.ANCHORARRAY( B106))</f>
+        <v>11</v>
+      </c>
+      <c r="E106" s="14"/>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B107" s="18">
+        <v>0</v>
+      </c>
+      <c r="C107" s="13">
+        <v>33</v>
+      </c>
+      <c r="E107" s="14"/>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B108" s="18">
+        <v>33</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" s="18"/>
+      <c r="C109" s="13"/>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="18"/>
+      <c r="C110" s="13"/>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" s="18"/>
+      <c r="C111" s="13"/>
+      <c r="E111" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="16" t="e" cm="1">
+        <f t="array" ref="C113">_float(B113)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="16" t="e" cm="1">
+        <f t="array" ref="C114">_float(B114)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E114" s="3"/>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B115" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" s="16" cm="1">
+        <f t="array" ref="C115">_float(B115)</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="3"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B116" s="21">
+        <v>-4</v>
+      </c>
+      <c r="C116" s="16" cm="1">
+        <f t="array" ref="C116">_float(B116)</f>
+        <v>-4</v>
+      </c>
+      <c r="E116" s="3"/>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B117" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="C117" s="16" cm="1">
+        <f t="array" ref="C117">_float(B117)</f>
+        <v>-1.23</v>
+      </c>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="C118" s="16" t="e" cm="1">
+        <f t="array" ref="C118">_float(B118)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E118" s="3"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B119" s="21"/>
+      <c r="E119" s="3"/>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B120" s="18"/>
+      <c r="C120" s="13"/>
+      <c r="E120" s="3"/>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B121" s="18"/>
+      <c r="C121" s="13"/>
+      <c r="E121" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="18"/>
+      <c r="C122" s="13"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B123" s="18"/>
+      <c r="C123" s="13"/>
+      <c r="E123" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="18"/>
+      <c r="C125" s="13" t="e" cm="1">
+        <f t="array" ref="C125">_hex(B125)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C126" s="13" t="str" cm="1">
+        <f t="array" ref="C126">_hex(B126)</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="18">
+        <v>123</v>
+      </c>
+      <c r="C127" s="13" t="str" cm="1">
+        <f t="array" ref="C127">_hex(B127)</f>
+        <v>0x7b</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="18">
+        <v>1.23</v>
+      </c>
+      <c r="C128" s="13" t="e" cm="1">
+        <f t="array" ref="C128">_hex(B128)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="18"/>
+      <c r="C129" s="13"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="18"/>
+      <c r="C130" s="13"/>
+      <c r="E130" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C132" s="16" t="e" cm="1">
+        <f t="array" ref="C132">_int(B132)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" s="16" t="e" cm="1">
+        <f t="array" ref="C133">_int(B133)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="C134" s="16" cm="1">
+        <f t="array" ref="C134">_int(B134)</f>
+        <v>0</v>
+      </c>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C135" s="16" cm="1">
+        <f t="array" ref="C135">_int(B135)</f>
+        <v>-123</v>
+      </c>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" s="16" t="e" cm="1">
+        <f t="array" ref="C136">_int(B136)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="C137" s="16" cm="1">
+        <f t="array" ref="C137">_int(B137)</f>
+        <v>1</v>
+      </c>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="21"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C139" s="10"/>
+      <c r="E139" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="18"/>
+      <c r="C140" s="13"/>
+      <c r="E140" s="10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="18"/>
+      <c r="C141" s="13"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="18"/>
+      <c r="C142" s="13"/>
+      <c r="E142" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="18"/>
+      <c r="C144" s="13" cm="1">
+        <f t="array" ref="C144">_isinstance.int(B144)</f>
+        <v>0</v>
+      </c>
+      <c r="E144" s="3"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C145" s="13" t="b" cm="1">
+        <f t="array" ref="C145">_isinstance.int(B145)</f>
+        <v>1</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="18">
+        <v>1</v>
+      </c>
+      <c r="C146" s="13" t="b" cm="1">
+        <f t="array" ref="C146">_isinstance.int(B146)</f>
+        <v>1</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C147" s="13" cm="1">
+        <f t="array" ref="C147">_isinstance.int(B147)</f>
+        <v>0</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="13" cm="1">
+        <f t="array" ref="C148">_isinstance.int(B148)</f>
+        <v>0</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B149" s="18"/>
+      <c r="C149" s="13"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B150" s="18"/>
+      <c r="C150" s="13"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="18"/>
+      <c r="C151" s="13"/>
+      <c r="E151" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B152" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B154" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C154" s="13" t="e" cm="1">
+        <f t="array" ref="C154">_len(B154)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="11">
+        <v>-10.23</v>
+      </c>
+      <c r="C155" s="13" t="e" cm="1">
+        <f t="array" ref="C155">_len(B155)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="11">
+        <v>9</v>
+      </c>
+      <c r="C156" s="13" t="e" cm="1">
+        <f t="array" ref="C156">_len(B156)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="11"/>
+      <c r="C157" s="13"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B158" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C158" s="13" cm="1">
+        <f t="array" ref="C158">_len(B158)</f>
+        <v>3</v>
+      </c>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C159" s="13"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B160" s="21" t="s">
+        <v>556</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="21" cm="1">
+        <f t="array" ref="B161:B162">{4.56;"Abc"}</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C161" s="13" cm="1">
+        <f t="array" ref="C161">_len(_xlfn.ANCHORARRAY(B161))</f>
+        <v>2</v>
+      </c>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="18" t="str">
+        <v>Abc</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="18"/>
+      <c r="C163" s="13"/>
+      <c r="E163" s="3"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="18"/>
+      <c r="C164" s="13"/>
+      <c r="E164" s="3"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="18"/>
+      <c r="C165" s="13"/>
+      <c r="E165" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="166" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="9"/>
+      <c r="C167" s="7"/>
+      <c r="E167" s="3"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="C168" s="16" t="str" cm="1">
+        <f t="array" ref="C168:C169">_list(B168)</f>
+        <v>A</v>
+      </c>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C169" s="16" t="str">
+        <v>a</v>
+      </c>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B170" s="18"/>
+      <c r="C170" s="13"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="18" t="str" cm="1">
+        <f t="array" ref="B172:B173">{"A";"a"}</f>
+        <v>A</v>
+      </c>
+      <c r="C172" s="16" t="str" cm="1">
+        <f t="array" ref="C172:C173">_list(_xlfn.ANCHORARRAY(B172))</f>
+        <v>A</v>
+      </c>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="18" t="str">
+        <v>a</v>
+      </c>
+      <c r="C173" s="13" t="str">
+        <v>a</v>
+      </c>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="18"/>
+      <c r="C174" s="13"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="18">
+        <v>3</v>
+      </c>
+      <c r="C175" s="16" t="e" cm="1">
+        <f t="array" ref="C175">_list(B175)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="18"/>
+      <c r="C176" s="13"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="18"/>
+      <c r="C177" s="13"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="18"/>
+      <c r="C178" s="13"/>
+      <c r="E178" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="18"/>
+      <c r="C179" s="13"/>
+      <c r="E179" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="18"/>
+      <c r="C180" s="13"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="18"/>
+      <c r="C181" s="13"/>
+      <c r="E181" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="18"/>
+      <c r="C182" s="13"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="18"/>
+      <c r="C183" s="13"/>
+      <c r="E183" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="18"/>
+      <c r="C184" s="13"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="18"/>
+      <c r="C185" s="13"/>
+      <c r="E185" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C186" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="18"/>
+      <c r="C187" s="13" t="e" cm="1">
+        <f t="array" ref="C187">_oct(B187)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C188" s="13" t="str" cm="1">
+        <f t="array" ref="C188">_oct(B188)</f>
+        <v>0</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="18">
+        <v>123</v>
+      </c>
+      <c r="C189" s="13" t="str" cm="1">
+        <f t="array" ref="C189">_oct(B189)</f>
+        <v>0o173</v>
+      </c>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="18">
+        <v>1.23</v>
+      </c>
+      <c r="C190" s="13" t="e" cm="1">
+        <f t="array" ref="C190">_oct(B190)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="18"/>
+      <c r="C191" s="13"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="18"/>
+      <c r="C192" s="13"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="18"/>
+      <c r="C193" s="13"/>
+      <c r="E193" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="E194" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" s="13" cm="1">
+        <f t="array" ref="C195">_ord(B195)</f>
+        <v>65</v>
+      </c>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="C196" s="13" t="e" cm="1">
+        <f t="array" ref="C196">_ord(B196)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="18">
+        <v>123</v>
+      </c>
+      <c r="C197" s="13" t="e" cm="1">
+        <f t="array" ref="C197">_ord(B197)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="18"/>
+      <c r="C198" s="13"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B199" s="18"/>
+      <c r="C199" s="13"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B200" s="18"/>
+      <c r="C200" s="13"/>
+      <c r="E200" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B201" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="E202" s="3"/>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C203" s="13" cm="1">
+        <f t="array" ref="C203">_range(B203)</f>
+        <v>0</v>
+      </c>
+      <c r="E203" s="3"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="E204" s="3"/>
+    </row>
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B205" s="18">
+        <v>2</v>
+      </c>
+      <c r="C205" s="13" cm="1">
+        <f t="array" ref="C205:C206">_range(B205)</f>
+        <v>0</v>
+      </c>
+      <c r="E205" s="3"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="18"/>
+      <c r="C206" s="13">
+        <v>1</v>
+      </c>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B207" s="18"/>
+      <c r="C207" s="13"/>
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B208" s="18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C208" s="13" t="e" cm="1" vm="2">
+        <f t="array" ref="C208">_range(B208)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B209" s="18"/>
+      <c r="C209" s="13"/>
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B210" s="18"/>
+      <c r="C210" s="13"/>
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B211" s="18"/>
+      <c r="C211" s="13"/>
+      <c r="E211" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B212" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B213" s="18"/>
+      <c r="C213" s="13"/>
+      <c r="E213" s="4"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B214" s="18">
+        <v>0</v>
+      </c>
+      <c r="C214" s="13" cm="1">
+        <f t="array" ref="C214:C215">_range_stop(0,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B215" s="18">
+        <v>2</v>
+      </c>
+      <c r="C215" s="13">
+        <v>1</v>
+      </c>
+      <c r="E215" s="4"/>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B216" s="18"/>
+      <c r="C216" s="13"/>
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B217" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="C217" s="13" t="e" cm="1" vm="2">
+        <f t="array" ref="C217">_range_stop(-0.4,2.7)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B218" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="C218" s="13"/>
+      <c r="E218" s="4"/>
+    </row>
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B219" s="18"/>
+      <c r="C219" s="13"/>
+      <c r="E219" s="4"/>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="18"/>
+      <c r="C220" s="13"/>
+      <c r="E220" s="4"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B221" s="18"/>
+      <c r="C221" s="13"/>
+      <c r="E221" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="222" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B223" s="18"/>
+      <c r="C223" s="13"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B224" s="15">
+        <v>-2</v>
+      </c>
+      <c r="C224" s="13" cm="1">
+        <f t="array" ref="C224:C226">_range_step(-2,4,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="15">
+        <v>4</v>
+      </c>
+      <c r="C225" s="13">
+        <v>2</v>
+      </c>
+      <c r="E225" s="4"/>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="15">
+        <v>2</v>
+      </c>
+      <c r="C226" s="13">
+        <v>4</v>
+      </c>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="18"/>
+      <c r="C227" s="13"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="15">
+        <v>-0.4</v>
+      </c>
+      <c r="C228" s="13" t="e" cm="1" vm="2">
+        <f t="array" ref="C228">_range_step(-0.4,2.7, 0.9)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E228" s="3"/>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B229" s="15">
+        <v>2.7</v>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="E229" s="3"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B230" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="C230" s="13"/>
+      <c r="E230" s="3"/>
+    </row>
+    <row r="231" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C231" s="13"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C232" s="13"/>
+      <c r="E232" s="3"/>
+    </row>
+    <row r="233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C233" s="13"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="11"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="11"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+    <row r="234" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="11"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="11"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="11"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="11" t="b">
+      <c r="D236" s="3"/>
+      <c r="E236" s="5"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="11"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="11"/>
+      <c r="C238" s="13" t="str" cm="1">
+        <f t="array" ref="C238">_repr(B238)</f>
+        <v>None</v>
+      </c>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C107" s="13" t="str" cm="1">
-        <f t="array" ref="C107">_repr(B107)</f>
+      <c r="C239" s="13" t="str" cm="1">
+        <f t="array" ref="C239">_repr(B239)</f>
         <v>False</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="11">
-        <v>-1.23</v>
-      </c>
-      <c r="C108" s="13" t="str" cm="1">
-        <f t="array" ref="C108">_repr(B108)</f>
-        <v>-1.23</v>
-      </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B109" s="11">
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B240" s="11">
         <v>9</v>
       </c>
-      <c r="C109" s="13" t="str" cm="1">
-        <f t="array" ref="C109">_repr(B109)</f>
+      <c r="C240" s="13" t="str" cm="1">
+        <f t="array" ref="C240">_repr(B240)</f>
         <v>9</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="5" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="11" t="s">
+      <c r="D240" s="3"/>
+      <c r="E240" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B241" s="11">
+        <v>-10.23</v>
+      </c>
+      <c r="C241" s="13" t="str" cm="1">
+        <f t="array" ref="C241">_repr(B241)</f>
+        <v>-10.23</v>
+      </c>
+      <c r="D241" s="3"/>
+      <c r="E241" s="5"/>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B242" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C110" s="13" t="str" cm="1">
-        <f t="array" ref="C110">_repr(B110)</f>
+      <c r="C242" s="13" t="str" cm="1">
+        <f t="array" ref="C242">_repr(B242)</f>
         <v>'\"'</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="11" t="s">
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="13" t="str" cm="1">
-        <f t="array" ref="C111">_repr(B111)</f>
+      <c r="C243" s="13" t="str" cm="1">
+        <f t="array" ref="C243">_repr(B243)</f>
         <v>'abc'</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B112" s="11" t="s">
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="13" t="str" cm="1">
-        <f t="array" ref="C112">_repr(B112)</f>
+      <c r="C244" s="13" t="str" cm="1">
+        <f t="array" ref="C244">_repr(B244)</f>
         <v>'ab\'cd'</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="11" t="s">
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C113" s="13" t="str" cm="1">
-        <f t="array" ref="C113">_repr(B113)</f>
+      <c r="C245" s="13" t="str" cm="1">
+        <f t="array" ref="C245">_repr(B245)</f>
         <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="21" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="21" t="b" cm="1">
-        <f t="array" ref="B116:B119">{TRUE;1;2.34;"Abc"}</f>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B247" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="21" t="b" cm="1">
+        <f t="array" ref="B248:B251">{TRUE;1;2.34;"Abc"}</f>
         <v>1</v>
       </c>
-      <c r="C116" s="11" t="str" cm="1">
-        <f t="array" ref="C116">_repr(_xlfn.ANCHORARRAY(B116))</f>
+      <c r="C248" s="11" t="str" cm="1">
+        <f t="array" ref="C248">_repr(_xlfn.ANCHORARRAY(B248))</f>
         <v>[True, 1, 2.34, 'Abc']</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="15">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="15">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="15">
         <v>2.34</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="15" t="str">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="15" t="str">
         <v>Abc</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="21" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="21" t="str" cm="1">
-        <f t="array" ref="B122">_repr(_repr)</f>
+    <row r="253" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C253" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C254" s="21" t="str" cm="1">
+        <f t="array" ref="C254">_repr(_repr)</f>
         <v>&lt;function&gt;</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="21"/>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="21"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E126" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E127" s="22"/>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E128" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E129" s="22" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E130" s="22"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E131" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E132" s="22" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E133" s="22"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E134" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="135" spans="5:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="E135" s="6" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E137" s="4" t="s">
-        <v>252</v>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="21"/>
+    </row>
+    <row r="256" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B256" s="21"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E257" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E258" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E259" s="22"/>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E260" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E261" s="22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E262" s="22"/>
+    </row>
+    <row r="263" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E263" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E264" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E266" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="B267" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="E267" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="11"/>
+      <c r="C268" s="13"/>
+      <c r="E268" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B269" s="11"/>
+      <c r="C269" s="13" t="str" cm="1">
+        <f t="array" ref="C269">_str(B269)</f>
+        <v>None</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C270" s="13" t="str" cm="1">
+        <f t="array" ref="C270">_str(B270)</f>
+        <v>False</v>
+      </c>
+      <c r="E270" s="6"/>
+    </row>
+    <row r="271" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B271" s="11">
+        <v>9</v>
+      </c>
+      <c r="C271" s="13" t="str" cm="1">
+        <f t="array" ref="C271">_str(B271)</f>
+        <v>9</v>
+      </c>
+      <c r="E271" s="6"/>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B272" s="11">
+        <v>-10.23</v>
+      </c>
+      <c r="C272" s="13" t="str" cm="1">
+        <f t="array" ref="C272">_str(B272)</f>
+        <v>-10.23</v>
+      </c>
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B273" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" s="13" t="str" cm="1">
+        <f t="array" ref="C273">_str(B273)</f>
+        <v>ab'cd</v>
+      </c>
+      <c r="E273" s="6"/>
+    </row>
+    <row r="274" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E274" s="6"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B275" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="E275" s="6"/>
+    </row>
+    <row r="276" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B276" s="21" t="b" cm="1">
+        <f t="array" ref="B276:B279">{TRUE;1;2.34;"Abc"}</f>
+        <v>1</v>
+      </c>
+      <c r="C276" s="11" t="str" cm="1">
+        <f t="array" ref="C276">_str(_xlfn.ANCHORARRAY(B276))</f>
+        <v>[True, 1, 2.34, 'Abc']</v>
+      </c>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="15">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B279" s="15" t="str">
+        <v>Abc</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C281" s="21" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C282" s="21" t="str" cm="1">
+        <f t="array" ref="C282">_str(_str)</f>
+        <v>&lt;function&gt;</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E283" s="22"/>
+    </row>
+    <row r="285" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E285" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -9327,7 +11284,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D3CC38D-1A04-5A44-816A-B71E8DC635D6}">
-  <dimension ref="B3:C35"/>
+  <dimension ref="B3:C36"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -9340,7 +11297,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -9372,7 +11329,12 @@
       <c r="C9" s="28"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="29"/>
+      <c r="B10" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
@@ -9390,132 +11352,140 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>572</v>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>482</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>9</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>480</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF32B10-197E-7C4D-8095-4D8AFE8C7F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E18C194-E6B2-744F-9689-966A858DFFF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-7900" yWindow="-22000" windowWidth="34040" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="579">
   <si>
     <t>bit</t>
   </si>
@@ -2304,6 +2304,9 @@
   </si>
   <si>
     <t>def random.sample(items)</t>
+  </si>
+  <si>
+    <t>Excel Source of Error Instance</t>
   </si>
 </sst>
 </file>
@@ -2411,7 +2414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2514,6 +2517,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3498,7 +3502,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355B7662-A6AF-4E4B-A8A9-10FF81599954}">
-  <dimension ref="A3:G80"/>
+  <dimension ref="A3:H80"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -3507,26 +3511,26 @@
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>258</v>
       </c>
@@ -3541,8 +3545,11 @@
       <c r="G9" s="9" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="44" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
@@ -3550,7 +3557,7 @@
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="33">
         <v>0</v>
       </c>
@@ -3567,7 +3574,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="33">
         <f>1.00000001</f>
         <v>1.0000000099999999</v>
@@ -3585,7 +3592,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
@@ -3593,7 +3600,7 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="34" t="s">
         <v>279</v>
       </c>
@@ -3603,7 +3610,7 @@
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="33">
         <f>1.000000001</f>
         <v>1.0000000010000001</v>
@@ -3621,7 +3628,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>

--- a/like-py.xlsx
+++ b/like-py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/plavarre/Public/like-py-xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E33E278-C812-234A-998B-09A800A8563E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055E853-9725-524E-B9CB-1EE2AB6B6DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8280" yWindow="-22000" windowWidth="34040" windowHeight="18000" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
+    <workbookView xWindow="-8280" yWindow="-21920" windowWidth="36160" windowHeight="20360" xr2:uid="{995B5C66-FA72-074C-87BA-100299560140}"/>
   </bookViews>
   <sheets>
     <sheet name="0 Welcome" sheetId="13" r:id="rId1"/>
@@ -83,6 +83,10 @@
     <definedName name="list.repr">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.ignore_empty_eq_false, FALSE,          "[" &amp; _xlfn.TEXTJOIN(              ", ",              _xlpm.ignore_empty_eq_false,              list.repr.map(_xlpm.items)) &amp; "]"  ))</definedName>
     <definedName name="list.repr.item">_xlfn.LAMBDA(_xlpm.obj,          _xlfn.SWITCH(TYPE(_xlpm.obj),              1, int.repr(_xlpm.obj),              2, str.repr(_xlpm.obj),              4, bool.repr(_xlpm.obj),              128, function.repr(_xlpm.obj),              "&lt;" &amp; _xlpm.obj &amp; "&gt;"  ))</definedName>
     <definedName name="list.repr.map">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.head, INDEX(_xlpm.items, 1, 1),          _xlpm.stops, _xlfn.SEQUENCE(ROWS(_xlpm.items)),          IF(_xlpm.stops = 1,              list.repr.item(_xlpm.head),              _xlfn.LET(                  _xlpm.tail_stops, 1 + _xlfn.SEQUENCE(ROWS(_xlpm.items) - 1),                  _xlpm.tails, INDEX(_xlpm.items, _xlpm.tail_stops),                  _xlpm.tail_reprs, list.repr.map(_xlpm.tails),                  INDEX(_xlpm.tail_reprs, _xlpm.stops - 1)  ))))</definedName>
+    <definedName name="list.reversed">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.stops, 1 + ROWS(_xlpm.items) - _xlfn.SEQUENCE(ROWS(_xlpm.items)),          _xlpm.picks, INDEX(_xlpm.items, _xlpm.stops),          _xlpm.picks  ))</definedName>
+    <definedName name="list.set">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.picks, INDEX(_xlpm.items, _xlfn.SEQUENCE(ROWS(_xlpm.items)), 1),          _xlpm.uniques, _xlfn.UNIQUE(_xlpm.picks),          _xlpm.shuffled, list.set.shuffled(_xlpm.uniques),          _xlpm.shuffled  ))</definedName>
+    <definedName name="list.set.shuffled">_xlfn.LAMBDA(_xlpm.items,      _xlfn.LET(          _xlpm.picks, INDEX(_xlpm.items, _xlfn.SEQUENCE(ROWS(_xlpm.items)), 1),          _xlpm.weights, _xlfn.RANDARRAY(ROWS(_xlpm.items)),          _xlpm.weighted, CHOOSE({1,2}, _xlpm.weights, _xlpm.picks),          _xlpm.spread, _xlfn._xlws.SORT(_xlpm.weighted),          _xlpm.shuffled, INDEX(_xlpm.spread, 0, 2),          _xlpm.shuffled  ))</definedName>
+    <definedName name="list.sorted">_xlfn.LAMBDA(_xlpm.items, _xlfn._xlws.SORT(_xlpm.items))</definedName>
     <definedName name="str.any">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.bool">_xlfn.LAMBDA(_xlpm.chars, IF(LEN(_xlpm.chars), TRUE))</definedName>
     <definedName name="str.endswith">_xlfn.LAMBDA(_xlpm.chars,_xlpm.suffix,      IF(LEN(_xlpm.suffix) &lt;= LEN(_xlpm.chars),          MID(_xlpm.chars, LEN(_xlpm.chars) - LEN(_xlpm.suffix) + 1, LEN(_xlpm.suffix)) = _xlpm.suffix,          FALSE))</definedName>
@@ -92,13 +96,33 @@
     <definedName name="str.int">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.IFS(          LEN(_xlpm.chars) = 0,              #NUM!,          LEFT(_xlpm.chars, 1) = "+",              _xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          LEFT(_xlpm.chars, 1) = "-",              -_xlfn.DECIMAL(MID(_xlpm.chars, 2, LEN(_xlpm.chars)), 10),          TRUE,              _xlfn.DECIMAL(_xlpm.chars, 10)  ))</definedName>
     <definedName name="str.int_base">_xlfn.LAMBDA(_xlpm.chars,_xlpm.base,      _xlfn.LET(          _xlpm.ch, LEFT(_xlpm.chars, 1),          _xlpm.signed, IF(_xlpm.ch = "-", TRUE, IF(_xlpm.ch = "+", TRUE)),          _xlpm.digits, IF(_xlpm.signed,              MID(_xlpm.chars, 2, LEN(_xlpm.chars)),              _xlpm.chars),          _xlpm.eval1, IF(_xlpm.base &lt;&gt; 0,              _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),              _xlfn.LET(                  _xlpm.lows, LOWER(_xlpm.digits),                  _xlfn.IFS(                      MID(_xlpm.lows, 1, 2) = "0b",                          BIN2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0o",                          OCT2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      MID(_xlpm.lows, 1, 2) = "0x",                          HEX2DEC(MID(_xlpm.digits, 3, LEN(_xlpm.digits))),                      TRUE,                          _xlfn.DECIMAL(_xlpm.digits, 10)              ))),          _xlpm.sign, IF(_xlpm.ch = "-", -1, 1),          _xlpm.eval2, _xlpm.sign * _xlpm.eval1,          _xlpm.eval2  ))</definedName>
     <definedName name="str.int_base_2">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.head, LEFT(_xlpm.chars, 1),          _xlpm.signed, OR(_xlpm.head = "-", _xlpm.head = "+"),          _xlpm.unsigned, RIGHT(_xlpm.chars, LEN(_xlpm.chars) - 1),          _xlpm.tail, IF(_xlpm.signed, _xlpm.unsigned, _xlpm.chars),          _xlpm.based, LEFT(_xlpm.tail, 2) = "0b",          _xlpm.unbased, RIGHT(_xlpm.tail, LEN(_xlpm.tail) - 2),          _xlpm.digits, IF(_xlpm.based, _xlpm.unbased, _xlpm.tail),          _xlpm.sign, IF(_xlpm.head = "-", -1, 1),          _xlpm.base, IF(_xlpm.head = "", 0, 2),          _xlpm.evalled, _xlpm.sign * _xlfn.DECIMAL(_xlpm.digits, _xlpm.base),          _xlpm.evalled  ))</definedName>
+    <definedName name="str.join">_xlfn.LAMBDA(_xlpm.sep,_xlpm.items,      _xlfn.LET(          _xlpm.ignore_empty_false, FALSE,          _xlfn.TEXTJOIN(_xlpm.sep, _xlpm.ignore_empty_false, _xlpm.items)  ))</definedName>
     <definedName name="str.len">_xlfn.LAMBDA(_xlpm.chars, LEN(_xlpm.chars))</definedName>
     <definedName name="str.list">_xlfn.LAMBDA(_xlpm.chars, MID(_xlpm.chars, _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1))</definedName>
     <definedName name="str.lower">_xlfn.LAMBDA(_xlpm.chars, LOWER(_xlpm.chars))</definedName>
+    <definedName name="str.lstrip">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.sep, " ",          _xlpm.washed, str.replace.wash(_xlpm.chars),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.washed))),          _xlpm.picks, MID(_xlpm.washed, _xlpm.stops, 1),          _xlpm.exact, 0,          _xlpm.first, _xlfn.XMATCH(TRUE, _xlpm.picks &lt;&gt; _xlpm.sep, _xlpm.exact),          _xlpm.lstripped, IFERROR(MID(_xlpm.chars, _xlpm.first, LEN(_xlpm.chars)), _xlpm.chars),          _xlpm.lstripped  ))</definedName>
+    <definedName name="str.lstrip_seps">_xlfn.LAMBDA(_xlpm.chars,_xlpm.seps,      _xlfn.LET(          _xlpm.sep, LEFT(_xlpm.seps, 1),          _xlpm.washed, str.replace.wash_sep(_xlpm.chars, _xlpm.seps, _xlpm.sep),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.washed))),          _xlpm.picks, MID(_xlpm.washed, _xlpm.stops, 1),          _xlpm.exact, 0,          _xlpm.first, _xlfn.XMATCH(TRUE, _xlpm.picks &lt;&gt; _xlpm.sep, _xlpm.exact),          _xlpm.lstripped, IFERROR(MID(_xlpm.chars, _xlpm.first, LEN(_xlpm.chars)), _xlpm.chars),          _xlpm.lstripped  ))</definedName>
     <definedName name="str.ord">_xlfn.LAMBDA(_xlpm.chars, _xlfn.UNICODE(_xlpm.chars))</definedName>
     <definedName name="str.partition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
+    <definedName name="str.replace">_xlfn.LAMBDA(_xlpm.chars,_xlpm.old,_xlpm.new, SUBSTITUTE(_xlpm.chars, _xlpm.old, _xlpm.new))</definedName>
+    <definedName name="str.replace.wash">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.sep,  " ",          _xlpm.tab, _xlfn.UNICHAR(9),          _xlpm.lf, _xlfn.UNICHAR(10),          _xlpm.cr, _xlfn.UNICHAR(13),          _xlpm.sepped_tab, SUBSTITUTE(_xlpm.chars, _xlpm.tab, _xlpm.sep),          _xlpm.sepped_lf, SUBSTITUTE(_xlpm.sepped_tab, _xlpm.lf, _xlpm.sep),          _xlpm.sepped_cr, SUBSTITUTE(_xlpm.sepped_lf, _xlpm.cr, _xlpm.sep),          _xlpm.sepped_cr  ))</definedName>
+    <definedName name="str.replace.wash_sep">_xlfn.LAMBDA(_xlpm.chars,_xlpm.seps,_xlpm.sep,      IF(LEN(_xlpm.seps) = 0,          _xlpm.chars,          _xlfn.LET(              _xlpm.head, LEFT(_xlpm.seps, 1),              _xlpm.tails, MID(_xlpm.seps, 2, LEN(_xlpm.seps)),              _xlpm.sepped, SUBSTITUTE(_xlpm.chars, _xlpm.head, _xlpm.sep),              str.replace.wash_sep(_xlpm.sepped, _xlpm.tails, _xlpm.sep)  )))</definedName>
     <definedName name="str.repr">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, 1),          _xlpm.slashes, IF(_xlpm.picks = "\", "\\", _xlpm.picks),          _xlpm.ticks, IF(_xlpm.picks = "'", "\'", _xlpm.slashes),          _xlpm.doubles, IF(_xlpm.picks = """", "\""", _xlpm.ticks),          _xlpm.ignore_empty_eq_true, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty_eq_true, _xlpm.doubles),          _xlpm.quoted, "'" &amp; _xlpm.joined &amp; "'",          _xlpm.quoted  ))</definedName>
+    <definedName name="str.reversed">_xlfn.LAMBDA(_xlpm.chars,      MID(_xlpm.chars, 1 + LEN(_xlpm.chars) - _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1)  )</definedName>
     <definedName name="str.rpartition">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.chars))),          _xlpm.picks, MID(_xlpm.chars, _xlpm.stops, LEN(_xlpm.sep)),          _xlpm.exact, 0,          _xlpm.reverse, -1,          _xlpm.last, _xlfn.XMATCH(TRUE, _xlpm.picks = _xlpm.sep, _xlpm.exact, _xlpm.reverse),          CHOOSE(              {1;2;3},              IFERROR(MID(_xlpm.chars, 1, _xlpm.last - 1), _xlpm.chars),              IFERROR(MID(_xlpm.chars, _xlpm.last, LEN(_xlpm.sep)), ""),              IFERROR(MID(_xlpm.chars, _xlpm.last + LEN(_xlpm.sep), LEN(_xlpm.chars)), "")  )))</definedName>
+    <definedName name="str.rstrip">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.sep, " ",          _xlpm.washed, str.replace.wash(_xlpm.chars),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.washed))),          _xlpm.picks, MID(_xlpm.washed, _xlpm.stops, 1),          _xlpm.exact, 0,          _xlpm.reverse, -1,          _xlpm.last, _xlfn.XMATCH(              TRUE, _xlpm.picks &lt;&gt; _xlpm.sep, _xlpm.exact, _xlpm.reverse          ),          _xlpm.rstripped, IFERROR(LEFT(_xlpm.chars, _xlpm.last), _xlpm.chars),          _xlpm.rstripped  ))</definedName>
+    <definedName name="str.rstrip_seps">_xlfn.LAMBDA(_xlpm.chars,_xlpm.seps,      _xlfn.LET(          _xlpm.sep, LEFT(_xlpm.seps, 1),          _xlpm.washed, str.replace.wash_sep(_xlpm.chars, _xlpm.seps, _xlpm.sep),          _xlpm.stops, _xlfn.SEQUENCE(MAX(1, LEN(_xlpm.washed))),          _xlpm.picks, MID(_xlpm.washed, _xlpm.stops, 1),          _xlpm.exact, 0,          _xlpm.reverse, -1,          _xlpm.last, _xlfn.XMATCH(              TRUE, _xlpm.picks &lt;&gt; _xlpm.sep, _xlpm.exact, _xlpm.reverse          ),          _xlpm.rstripped, IFERROR(LEFT(_xlpm.chars, _xlpm.last), _xlpm.chars),          _xlpm.rstripped  ))</definedName>
+    <definedName name="str.set">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.picks, MID(_xlpm.chars, _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1),          _xlpm.uniques, _xlfn.UNIQUE(_xlpm.picks),          _xlpm.shuffled, str.set.shuffled(_xlpm.uniques),          _xlpm.shuffled  ))</definedName>
+    <definedName name="str.set.shuffled">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.picks, MID(_xlpm.chars, _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1),          _xlpm.weights, _xlfn.RANDARRAY(LEN(_xlpm.chars)),          _xlpm.weighted, CHOOSE({1,2}, _xlpm.weights, _xlpm.picks),          _xlpm.spread, _xlfn._xlws.SORT(_xlpm.weighted),          _xlpm.shuffled, INDEX(_xlpm.spread, 0, 2),          _xlpm.shuffled  ))</definedName>
+    <definedName name="str.sorted">_xlfn.LAMBDA(_xlpm.chars, _xlfn._xlws.SORT(MID(_xlpm.chars, _xlfn.SEQUENCE(LEN(_xlpm.chars)), 1)))</definedName>
+    <definedName name="str.split">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.sep, " ",          _xlpm.washed, str.replace.wash(_xlpm.chars),          _xlpm.squashed, str.split.squash(_xlpm.washed, _xlpm.sep),          _xlpm.chopped, SUBSTITUTE(_xlpm.squashed, _xlpm.sep, ""),          _xlpm.len_shards, 1 + LEN(_xlpm.squashed) - LEN(_xlpm.chopped),          _xlpm.shards, str.split.which(_xlpm.squashed, _xlpm.sep, _xlfn.SEQUENCE(_xlpm.len_shards) - 1),          IF(LEN(_xlpm.chopped), _xlpm.shards, _xlfn.SEQUENCE(0))  ))</definedName>
+    <definedName name="str.split_sep">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.chopped, SUBSTITUTE(_xlpm.chars, _xlpm.sep, ""),          _xlpm.len_shards, 1 + LEN(_xlpm.chars) - LEN(_xlpm.chopped),          _xlpm.shards, str.split.which(_xlpm.chars, _xlpm.sep, _xlfn.SEQUENCE(_xlpm.len_shards) - 1),          IF(LEN(_xlpm.chopped), _xlpm.shards, _xlfn.SEQUENCE(0))  ))</definedName>
+    <definedName name="str.split.squash">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,      _xlfn.LET(          _xlpm.more, _xlpm.sep &amp; _xlpm.chars &amp; _xlpm.sep,          _xlpm.stops, _xlfn.SEQUENCE(LEN(_xlpm.more)),          _xlpm.picks, MID(_xlpm.more, _xlpm.stops, 1),          _xlpm.pairs, MID(_xlpm.more, _xlpm.stops, 2),          _xlpm.patches, IF(_xlpm.pairs = (_xlpm.sep &amp; _xlpm.sep), "", _xlpm.picks),          _xlpm.ignore_empty_eq_true, TRUE,          _xlpm.joined, _xlfn.TEXTJOIN("", _xlpm.ignore_empty_eq_true, _xlpm.patches),          _xlpm.wrapped, IF(LEN(_xlpm.joined) &lt; 2, _xlpm.sep &amp; _xlpm.sep, _xlpm.joined),          _xlpm.unwrapped, MID(_xlpm.wrapped, 2, LEN(_xlpm.wrapped) - 2),          _xlpm.unwrapped  ))</definedName>
+    <definedName name="str.split.wash">_xlfn.LAMBDA(_xlpm.x, _xlpm.x*_xlpm.x)</definedName>
+    <definedName name="str.split.which">_xlfn.LAMBDA(_xlpm.chars,_xlpm.sep,_xlpm.which,      _xlfn.LET(          _xlpm.pads, REPT(_xlpm.sep, LEN(_xlpm.chars)),          _xlpm.padded, SUBSTITUTE(_xlpm.chars, _xlpm.sep, _xlpm.pads),          _xlpm.skipping, _xlpm.which * LEN(_xlpm.chars),          _xlpm.picked, MID(_xlpm.padded, 1 + _xlpm.skipping, LEN(_xlpm.chars)),          _xlpm.stripped, SUBSTITUTE(_xlpm.picked, _xlpm.sep, ""),          _xlpm.stripped  ))</definedName>
+    <definedName name="str.splitlines">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.lf, _xlfn.UNICHAR(10),          _xlpm.cr, _xlfn.UNICHAR(13),          _xlpm.chars_crlf, SUBSTITUTE(_xlpm.chars, _xlpm.cr &amp; _xlpm.lf, _xlpm.lf),          _xlpm.chars_cr, SUBSTITUTE(_xlpm.chars, _xlpm.cr, _xlpm.lf),          _xlpm.shards, str.split_sep(_xlpm.chars_cr, _xlpm.lf),          _xlpm.shards  ))</definedName>
+    <definedName name="str.strip">_xlfn.LAMBDA(_xlpm.chars,      _xlfn.LET(          _xlpm.rstripped, str.rstrip(_xlpm.chars),          _xlpm.lrstripped, str.lstrip(_xlpm.rstripped),          _xlpm.lrstripped  ))</definedName>
+    <definedName name="str.strip_seps">_xlfn.LAMBDA(_xlpm.chars,_xlpm.seps,      _xlfn.LET(          _xlpm.rstripped, str.rstrip_seps(_xlpm.chars, _xlpm.seps),          _xlpm.lrstripped, str.lstrip_seps(_xlpm.rstripped, _xlpm.seps),          _xlpm.lrstripped  ))</definedName>
     <definedName name="str.upper">_xlfn.LAMBDA(_xlpm.chars, UPPER(_xlpm.chars))</definedName>
     <definedName name="str.word">_xlfn.LAMBDA(_xlpm.chars,      LEFT(_xlpm.chars, FIND(" ",_xlpm.chars) - 1)  )</definedName>
   </definedNames>
@@ -189,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="743">
   <si>
     <t>bit</t>
   </si>
@@ -948,13 +972,7 @@
     <t>def _set(obj)</t>
   </si>
   <si>
-    <t>=sort uniq of items or chars</t>
-  </si>
-  <si>
     <t>def _zip(lists)</t>
-  </si>
-  <si>
-    <t>reversed chars</t>
   </si>
   <si>
     <t>def str.sorted(chars)</t>
@@ -2087,12 +2105,6 @@
     <t># Excel takes code 0 to mean talk of whole rows or whole columns</t>
   </si>
   <si>
-    <t>=UNIQUE(MID("Abracadabra", SEQUENCE(LEN("Abracadabra")), 1))</t>
-  </si>
-  <si>
-    <t>="A"="a"</t>
-  </si>
-  <si>
     <t>def list.repr.map(items)</t>
   </si>
   <si>
@@ -2212,9 +2224,6 @@
     <t>=shuffled sort uniq of items or chars</t>
   </si>
   <si>
-    <t>def random.sample(items)</t>
-  </si>
-  <si>
     <t>_len(obj)</t>
   </si>
   <si>
@@ -2622,12 +2631,458 @@
   <si>
     <t>=_str(_str)</t>
   </si>
+  <si>
+    <t>def str.split(chars)</t>
+  </si>
+  <si>
+    <t>def str.split_sep(chars, sep)</t>
+  </si>
+  <si>
+    <t>def str.split_maxsplit(chars, sep, maxsplit)</t>
+  </si>
+  <si>
+    <t>def str.split.squash(chars, sep)</t>
+  </si>
+  <si>
+    <t>def str.split.which(chars, sep, which)</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.split.squash(" b  c d  e   ", " ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.split(" bbb  cc ddd  e   ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>def str.splitlines(chars)</t>
+  </si>
+  <si>
+    <t>=str.split("abc def
+                    ghi")</t>
+  </si>
+  <si>
+    <t>=list.item(str.split(" bbb  cc ddd  e   "), 2)</t>
+  </si>
+  <si>
+    <t>=str.split("")</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, sep,
+    LET(
+        more, sep &amp; chars &amp; sep,
+        stops, SEQUENCE(LEN(more)),
+        picks, MID(more, stops, 1),
+        pairs, MID(more, stops, 2),
+        patches, IF(pairs = (sep &amp; sep), "", picks),
+        ignore_empty_eq_true, TRUE,
+        joined, TEXTJOIN("", ignore_empty_eq_true, patches),
+        wrapped, IF(LEN(joined) &lt; 2, sep &amp; sep, joined),
+        unwrapped, MID(wrapped, 2, LEN(wrapped) - 2),
+        unwrapped
+))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.split.squash("", " ") &amp; "'"</t>
+  </si>
+  <si>
+    <t># Excel raises CalcError in place of an Empty List</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, sep,
+    LET(
+        chopped, SUBSTITUTE(chars, sep, ""),
+        len_shards, 1 + LEN(chars) - LEN(chopped),
+        shards, str.split.which(chars, sep, SEQUENCE(len_shards) - 1),
+        IF(LEN(chopped), shards, SEQUENCE(0))
+))</t>
+  </si>
+  <si>
+    <t>def str.splitlines_keepends(chars, keepends)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        lf, UNICHAR(10),
+        cr, UNICHAR(13),
+        chars_crlf, SUBSTITUTE(chars, cr &amp; lf, lf),
+        chars_cr, SUBSTITUTE(chars, cr, lf),
+        shards, str.split_sep(chars_cr, lf),
+        shards
+))</t>
+  </si>
+  <si>
+    <t>=str.splitlines("abc def
+                          ghi")</t>
+  </si>
+  <si>
+    <t>def str.strip(chars)</t>
+  </si>
+  <si>
+    <t>def str.strip_seps(chars, seps)</t>
+  </si>
+  <si>
+    <t>def str.lstrip(chars)</t>
+  </si>
+  <si>
+    <t>def str.rstrip(chars)</t>
+  </si>
+  <si>
+    <t># Excel Trim is Python Str-Split-Squash but only for Sep = " " Space</t>
+  </si>
+  <si>
+    <t>def str.rstrip_seps(chars, seps)</t>
+  </si>
+  <si>
+    <t>def str.lstrip_seps(chars, seps)</t>
+  </si>
+  <si>
+    <t># TODO: test with Sep of more than 1 char, &amp; with Sep of 0 chars</t>
+  </si>
+  <si>
+    <t># TODO: code for str.split_maxsplit</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.rstrip("  a  b  ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        sep,  " ",
+        tab, UNICHAR(9),
+        lf, UNICHAR(10),
+        cr, UNICHAR(13),
+        sepped_tab, SUBSTITUTE(chars, tab, sep),
+        sepped_lf, SUBSTITUTE(sepped_tab, lf, sep),
+        sepped_cr, SUBSTITUTE(sepped_lf, cr, sep),
+        sepped_cr
+))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.rstrip("  a  b  z") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.rstrip("") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.lstrip("  a  b  ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.lstrip("z  a  b  ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.lstrip("") &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(sep,items,
+    LET(
+        ignore_empty_false, FALSE,
+        TEXTJOIN(sep, ignore_empty_false, items)
+))</t>
+  </si>
+  <si>
+    <t>=str.split_sep("a..b.c", ".")</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,sep,which,
+    LET(
+        pads, REPT(sep, LEN(chars)),
+        padded, SUBSTITUTE(chars, sep, pads),
+        skipping, which * LEN(chars),
+        picked, MID(padded, 1 + skipping, LEN(chars)),
+        stripped, SUBSTITUTE(picked, sep, ""),
+        stripped
+))</t>
+  </si>
+  <si>
+    <t>=str.join("-", str.split_sep("..a...b.c", "."))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.split_sep(".a..b.c..", ".") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.split.which(".bbb..cc.ddd..e...", ".", 4) &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        rstripped, str.rstrip(chars),
+        lrstripped, str.lstrip(rstripped),
+        lrstripped
+))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.strip("  a  b  ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.strip("z  a  b  z") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.strip("") &amp; "'"</t>
+  </si>
+  <si>
+    <t>def str.replace.wash(chars)</t>
+  </si>
+  <si>
+    <t>def str.replace(chars, old, new)</t>
+  </si>
+  <si>
+    <t>def str.replace_count(chars, old, new, count)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    MID(chars, 1 + LEN(CHARS) - SEQUENCE(LEN(chars)), 1)
+)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,old,new, SUBSTITUTE(chars, old, new))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.replace.wash(" ") &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        sep, " ",
+        washed, str.replace.wash(chars),
+        stops, SEQUENCE(MAX(1, LEN(washed))),
+        picks, MID(washed, stops, 1),
+        exact, 0,
+        reverse, -1,
+        last, XMATCH(
+            TRUE, picks &lt;&gt; sep, exact, reverse
+        ),
+        rstripped, IFERROR(LEFT(chars, last), chars),
+        rstripped
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        sep, " ",
+        washed, str.replace.wash(chars),
+        squashed, str.split.squash(washed, sep),
+        chopped, SUBSTITUTE(squashed, sep, ""),
+        len_shards, 1 + LEN(squashed) - LEN(chopped),
+        shards, str.split.which(squashed, sep, SEQUENCE(len_shards) - 1),
+        IF(LEN(chopped), shards, SEQUENCE(0))
+))</t>
+  </si>
+  <si>
+    <t># TODO: lets me spell "str.replace.wash" as "str.split.wash"</t>
+  </si>
+  <si>
+    <t># TODO: some kind of slow broken leftover garbage collection</t>
+  </si>
+  <si>
+    <t>def str.replace.wash_sep(chars, seps, sep)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, seps, sep,
+    IF(LEN(seps) = 0,
+        chars,
+        LET(
+            head, LEFT(seps, 1),
+            tails, MID(seps, 2, LEN(seps)),
+            sepped, SUBSTITUTE(chars, head, sep),
+            str.replace.wash_sep(sepped, tails, sep)
+)))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.replace.wash_sep("+-*/", "+-*/", ".") &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, seps,
+    LET(
+        sep, LEFT(seps, 1),
+        washed, str.replace.wash_sep(chars, seps, sep),
+        stops, SEQUENCE(MAX(1, LEN(washed))),
+        picks, MID(washed, stops, 1),
+        exact, 0,
+        reverse, -1,
+        last, XMATCH(
+            TRUE, picks &lt;&gt; sep, exact, reverse
+        ),
+        rstripped, IFERROR(LEFT(chars, last), chars),
+        rstripped
+))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.rstrip_seps("-+a-+b-+", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.rstrip_seps("", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, seps,
+    LET(
+        sep, LEFT(seps, 1),
+        washed, str.replace.wash_sep(chars, seps, sep),
+        stops, SEQUENCE(MAX(1, LEN(washed))),
+        picks, MID(washed, stops, 1),
+        exact, 0,
+        first, XMATCH(TRUE, picks &lt;&gt; sep, exact),
+        lstripped, IFERROR(MID(chars, first, LEN(chars)), chars),
+        lstripped
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        sep, " ",
+        washed, str.replace.wash(chars),
+        stops, SEQUENCE(MAX(1, LEN(washed))),
+        picks, MID(washed, stops, 1),
+        exact, 0,
+        first, XMATCH(TRUE, picks &lt;&gt; sep, exact),
+        lstripped, IFERROR(MID(chars, first, LEN(chars)), chars),
+        lstripped
+))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.lstrip_seps("-+a-+b-+", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.lstrip_seps("", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.rstrip_seps("-+a-+b-+z", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.lstrip_seps("z-+a-+b-+", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>=str.join("", str.sorted("Abracadabra"))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, SORT(MID(chars, SEQUENCE(LEN(chars)), 1)))</t>
+  </si>
+  <si>
+    <t>=str.join("", str.reversed("Abracadabra"))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars, seps,
+    LET(
+        rstripped, str.rstrip_seps(chars, seps),
+        lrstripped, str.lstrip_seps(rstripped, seps),
+        lrstripped
+))</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.strip_seps("-+a-+b-+", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.strip_seps("z-+a-+b-+z", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.strip_seps("", "+-") &amp; "'"</t>
+  </si>
+  <si>
+    <t># Python "str.strip" can layer on "str.strip_seps"</t>
+  </si>
+  <si>
+    <t># TODO: compare to the set of line seps in Python</t>
+  </si>
+  <si>
+    <t># TODO: compare to the set of word seps in Python</t>
+  </si>
+  <si>
+    <t># Python "str.rstrip" can layer on "str.rstrip_seps"</t>
+  </si>
+  <si>
+    <t># Python "str.lstrip" can layer on "str.lstrip_seps"</t>
+  </si>
+  <si>
+    <t>def list.sorted(items)</t>
+  </si>
+  <si>
+    <t>=str.join("", list.sorted(str.list("Abracadabra")))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items, SORT(items))</t>
+  </si>
+  <si>
+    <t>=str.join("", list.reversed(str.list("Abracadabra")))</t>
+  </si>
+  <si>
+    <t>def list.reversed(items)</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items,
+    LET(
+        stops, 1 + ROWS(items) - SEQUENCE(ROWS(items)),
+        picks, INDEX(items, stops),
+        picks
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        picks, MID(chars, SEQUENCE(LEN(chars)), 1),
+        weights, RANDARRAY(LEN(chars)),
+        weighted, CHOOSE({1,2}, weights, picks),
+        spread, SORT(weighted),
+        shuffled, INDEX(spread, 0, 2),
+        shuffled
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items,
+    LET(
+        picks, INDEX(items, SEQUENCE(ROWS(items)), 1),
+        weights, RANDARRAY(ROWS(items)),
+        weighted, CHOOSE({1,2}, weights, picks),
+        spread, SORT(weighted),
+        shuffled, INDEX(spread, 0, 2),
+        shuffled
+))</t>
+  </si>
+  <si>
+    <t>def str.set.shuffled(chars)</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.join("", str.set.shuffled("Abracadabra")) &amp; "'"</t>
+  </si>
+  <si>
+    <t>def list.set(items)</t>
+  </si>
+  <si>
+    <t>="'" &amp; str.join("", str.set("Abracadabra")) &amp; "'"</t>
+  </si>
+  <si>
+    <t>=LAMBDA(chars,
+    LET(
+        picks, MID(chars, SEQUENCE(LEN(chars)), 1),
+        uniques, UNIQUE(picks),
+        shuffled, str.set.shuffled(uniques),
+        shuffled
+))</t>
+  </si>
+  <si>
+    <t>=LAMBDA(items,
+    LET(
+        picks, INDEX(items, SEQUENCE(ROWS(items)), 1),
+        uniques, UNIQUE(picks),
+        shuffled, list.set.shuffled(uniques),
+        shuffled
+))</t>
+  </si>
+  <si>
+    <t>=list.set.shuffled(SEQUENCE(5))</t>
+  </si>
+  <si>
+    <t>def list.set.shuffled(items)</t>
+  </si>
+  <si>
+    <t>=list.set({1;1;2;1;2;3;1;2;3;4;5})</t>
+  </si>
+  <si>
+    <t># TODO: case-respecting Str Sets in Excel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2683,12 +3138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="12"/>
@@ -2728,7 +3177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -2768,9 +3217,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2797,7 +3243,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2815,7 +3261,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2833,6 +3279,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3247,159 +3697,159 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="36"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G11" s="35"/>
+        <v>294</v>
+      </c>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G12" s="35"/>
+        <v>295</v>
+      </c>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G13" s="35"/>
+        <v>296</v>
+      </c>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="35"/>
+        <v>297</v>
+      </c>
+      <c r="G14" s="34"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G15" s="35"/>
+        <v>298</v>
+      </c>
+      <c r="G15" s="34"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G16" s="35"/>
+        <v>299</v>
+      </c>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G17" s="35"/>
+        <v>300</v>
+      </c>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="G18" s="35"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D28" s="34" t="s">
-        <v>331</v>
+      <c r="D28" s="33" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D31" s="34" t="s">
-        <v>332</v>
+      <c r="D31" s="33" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.2">
@@ -3407,37 +3857,37 @@
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C57" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D57" s="10"/>
     </row>
@@ -3446,8 +3896,8 @@
       <c r="D58" s="10"/>
     </row>
     <row r="59" spans="2:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E59" s="37" t="s">
-        <v>440</v>
+      <c r="E59" s="36" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3463,8 +3913,8 @@
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E62" s="37" t="s">
-        <v>441</v>
+      <c r="E62" s="36" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3488,27 +3938,27 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E72" s="37" t="s">
-        <v>442</v>
+      <c r="E72" s="36" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -3523,22 +3973,22 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="3:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="E81" s="37" t="s">
-        <v>443</v>
+      <c r="E81" s="36" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.2">
@@ -3552,144 +4002,144 @@
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E83" s="22"/>
+      <c r="E83" s="21"/>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D85" s="35"/>
+      <c r="C85" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="D85" s="34"/>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C86" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="D86" s="35"/>
+      <c r="C86" s="34" t="s">
+        <v>430</v>
+      </c>
+      <c r="D86" s="34"/>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C87" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="D87" s="35"/>
+      <c r="C87" s="34" t="s">
+        <v>431</v>
+      </c>
+      <c r="D87" s="34"/>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D91" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E93" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="E97" s="37" t="s">
-        <v>444</v>
+      <c r="E97" s="36" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E101" s="27" t="s">
-        <v>445</v>
+      <c r="E101" s="26" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E102" s="27" t="str" cm="1">
+      <c r="E102" s="26" t="str" cm="1">
         <f t="array" ref="E102" xml:space="preserve"> "'" &amp; str.word("Hello Xlsx Like Py") &amp; "'"</f>
         <v>'Hello'</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D106" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D107" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D108" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="113" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="121" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E126" s="26" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="126" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E126" s="27" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="127" spans="3:5" x14ac:dyDescent="0.2">
@@ -3700,110 +4150,110 @@
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="34" t="s">
-        <v>350</v>
+      <c r="C135" s="33" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="34"/>
+      <c r="C136" s="33"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D137" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D138" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D139" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3828,12 +4278,12 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -3842,336 +4292,336 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="9" t="s">
-        <v>244</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="32">
+      <c r="B11" s="31">
         <v>0</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <f>TYPE(B11)</f>
         <v>1</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32" t="s">
-        <v>262</v>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="32">
+      <c r="B12" s="31">
         <f>1.00000001</f>
         <v>1.0000000099999999</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <f>TYPE(B12)</f>
         <v>1</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="32">
+      <c r="B15" s="31">
         <f>1.000000001</f>
         <v>1.0000000010000001</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="31">
         <f>TYPE(B15)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32" t="s">
-        <v>261</v>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="33"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="33" cm="1">
+      <c r="B18" s="32" cm="1">
         <f t="array" ref="B18">{0}</f>
         <v>0</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="31">
         <f>TYPE(B18)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="33">
+      <c r="D18" s="32">
         <f>TYPE({0})</f>
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C20" s="32">
+      <c r="B20" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="31">
         <f>TYPE(B20)</f>
         <v>2</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32" t="s">
-        <v>248</v>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="33"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="32" t="b">
+      <c r="B22" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <f>TYPE(B22)</f>
         <v>4</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32" t="s">
-        <v>250</v>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>247</v>
+      </c>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="32" t="e">
+      <c r="B24" s="31" t="e">
         <f>SUM(A1 A2)</f>
         <v>#NULL!</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="31">
         <f t="shared" ref="C24:C29" si="0">TYPE(B24)</f>
         <v>16</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <f t="shared" ref="D24:D29" si="1">ERROR.TYPE(B24)</f>
         <v>1</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34" t="s">
-        <v>596</v>
+      <c r="E24" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="33" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="32" t="e">
+      <c r="B25" s="31" t="e">
         <f>1/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C25" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="34" t="s">
-        <v>597</v>
+      <c r="E25" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="33" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="32" t="e" cm="1">
+      <c r="B26" s="31" t="e" cm="1">
         <f t="array" ref="B26">_xlfn.SEQUENCE(-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="32">
+      <c r="C26" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="34" t="s">
-        <v>598</v>
+      <c r="E26" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="33" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="32" t="e">
+      <c r="B27" s="31" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="34" t="s">
-        <v>599</v>
+      <c r="E27" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="33" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="32" t="e" cm="1">
+      <c r="B28" s="31" t="e" cm="1">
         <f t="array" ref="B28">TYPES</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="34" t="s">
-        <v>600</v>
+      <c r="E28" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="33" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="32" t="e">
+      <c r="B29" s="31" t="e">
         <f>SQRT(-1)</f>
         <v>#NUM!</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="31">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="34" t="s">
-        <v>601</v>
+      <c r="E29" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="33" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
@@ -4185,217 +4635,217 @@
       <c r="D30" s="11">
         <v>7</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34" t="s">
-        <v>602</v>
+      <c r="E30" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="33" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32">
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31">
         <v>8</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="32" t="e" cm="1" vm="3">
+      <c r="B32" s="31" t="e" cm="1" vm="3">
         <f t="array" aca="1" ref="B32" ca="1">_xlfn.SEQUENCE(999)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C32" s="31">
         <f ca="1">TYPE(B32)</f>
         <v>16</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <f ca="1">ERROR.TYPE(B32)</f>
         <v>9</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>644</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="34" t="s">
-        <v>603</v>
+      <c r="E32" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="33" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31">
         <v>10</v>
       </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32">
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31">
         <v>11</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32">
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31">
         <v>12</v>
       </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="32" t="e" cm="1" vm="4">
+      <c r="B36" s="31" t="e" cm="1" vm="4">
         <f t="array" ref="B36">_FV(#REF!,"Attribute")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="31">
         <f>TYPE(B36)</f>
         <v>16</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <f>ERROR.TYPE(B36)</f>
         <v>13</v>
       </c>
-      <c r="E36" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>643</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="34" t="s">
-        <v>604</v>
+      <c r="E36" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="33" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="32" t="e" cm="1" vm="2">
+      <c r="B37" s="31" t="e" cm="1" vm="2">
         <f t="array" ref="B37">_xlfn.SEQUENCE(0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="31">
         <f>TYPE(B37)</f>
         <v>16</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <f>ERROR.TYPE(B37)</f>
         <v>14</v>
       </c>
-      <c r="E37" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="34" t="s">
+      <c r="G37" s="31"/>
+      <c r="H37" s="33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="32">
+      <c r="B38" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="31">
         <v>16</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="34" t="s">
-        <v>606</v>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="33" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="32" cm="1">
+      <c r="B40" s="31" cm="1">
         <f t="array" ref="B40:B42">_xlfn.SEQUENCE(3)</f>
         <v>1</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="31">
         <f>TYPE(_xlfn.ANCHORARRAY(B40))</f>
         <v>64</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32" t="s">
-        <v>254</v>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="32">
+      <c r="B41" s="31">
         <v>2</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <v>3</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="C44" s="32" cm="1">
+      <c r="B44" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="C44" s="31" cm="1">
         <f t="array" ref="C44">TYPE(int.hex)</f>
         <v>128</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31" t="s">
+        <v>500</v>
+      </c>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31" t="s">
         <v>502</v>
-      </c>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
@@ -4403,7 +4853,7 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -4411,109 +4861,109 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>279</v>
+        <v>265</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>277</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -4524,7 +4974,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -4535,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -4543,7 +4993,7 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -4551,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -4567,7 +5017,7 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4599,7 +5049,7 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -4607,7 +5057,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -4615,7 +5065,7 @@
         <v>11</v>
       </c>
       <c r="B78" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +5073,7 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -4631,20 +5081,20 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="33" t="s">
         <v>140</v>
       </c>
       <c r="D83" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
@@ -4653,7 +5103,7 @@
         <v>123</v>
       </c>
       <c r="D84" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -4663,57 +5113,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D852BB-57DF-6140-815D-350948B01B5D}">
-  <dimension ref="B3:C14"/>
+  <dimension ref="B3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="34" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="34" t="str" cm="1">
-        <f t="array" ref="C7:C11">_xlfn.UNIQUE(MID("Abracadabra", _xlfn.SEQUENCE(LEN("Abracadabra")), 1))</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="str">
-        <v>b</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="str">
-        <v>r</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="str">
-        <v>c</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C11" t="str">
-        <v>d</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="34" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="b">
-        <f>"A"="a"</f>
-        <v>1</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -4739,26 +5147,26 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>398</v>
+      <c r="B7" s="20" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="10"/>
@@ -4788,7 +5196,7 @@
         <v>False</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -4801,7 +5209,7 @@
         <v>True</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -4835,7 +5243,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -5001,7 +5409,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
@@ -5009,28 +5417,28 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
-        <v>400</v>
+      <c r="B7" s="20" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5038,10 +5446,10 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -5053,7 +5461,7 @@
         <v>-123</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -5065,7 +5473,7 @@
         <v>-1</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
@@ -5087,7 +5495,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>123</v>
       </c>
       <c r="C16" s="16" t="str" cm="1">
@@ -5096,10 +5504,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="21"/>
+      <c r="B17" s="20"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>123.456</v>
       </c>
       <c r="C18" s="16" t="str" cm="1">
@@ -5107,7 +5515,7 @@
         <v>123.456</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
@@ -5129,12 +5537,12 @@
       <c r="C22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="22"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="15">
@@ -5165,12 +5573,12 @@
         <f t="array" ref="C26">int.bin(B26)</f>
         <v>0b1111111111</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="15">
@@ -5180,8 +5588,8 @@
         <f t="array" ref="C28">int.bin(B28)</f>
         <v>0b1111111111</v>
       </c>
-      <c r="E28" s="22" t="s">
-        <v>365</v>
+      <c r="E28" s="21" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -5192,10 +5600,10 @@
         <f t="array" ref="C29">int.bin(B29)</f>
         <v>0b10</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="15">
@@ -5218,7 +5626,7 @@
         <f t="array" ref="C32">int.bin(B32)</f>
         <v>0b1000000000</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5230,7 +5638,7 @@
         <f t="array" ref="C33">int.bin(B33)</f>
         <v>0b111111111</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="21" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5248,7 +5656,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="22"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E37" s="1" t="s">
@@ -5262,7 +5670,7 @@
       <c r="C38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>191</v>
       </c>
     </row>
@@ -5270,19 +5678,19 @@
       <c r="B39" s="15">
         <v>-256</v>
       </c>
-      <c r="C39" s="22" cm="1">
+      <c r="C39" s="21" cm="1">
         <f t="array" ref="C39">int.bit_length(B39)</f>
         <v>9</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>390</v>
+      <c r="E39" s="21" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="15">
         <v>-128</v>
       </c>
-      <c r="C40" s="22" cm="1">
+      <c r="C40" s="21" cm="1">
         <f t="array" ref="C40">int.bit_length(B40)</f>
         <v>8</v>
       </c>
@@ -5294,64 +5702,64 @@
       <c r="B41" s="15">
         <v>-1</v>
       </c>
-      <c r="C41" s="22" cm="1">
+      <c r="C41" s="21" cm="1">
         <f t="array" ref="C41">int.bit_length(B41)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="15">
         <v>0</v>
       </c>
-      <c r="C42" s="22" cm="1">
+      <c r="C42" s="21" cm="1">
         <f t="array" ref="C42">int.bit_length(B42)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="15">
         <v>1</v>
       </c>
-      <c r="C43" s="22" cm="1">
+      <c r="C43" s="21" cm="1">
         <f t="array" ref="C43">int.bit_length(B43)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="22"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="15">
         <v>127</v>
       </c>
-      <c r="C44" s="22" cm="1">
+      <c r="C44" s="21" cm="1">
         <f t="array" ref="C44">int.bit_length(B44)</f>
         <v>7</v>
       </c>
-      <c r="E44" s="22"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="15">
         <v>255</v>
       </c>
-      <c r="C45" s="22" cm="1">
+      <c r="C45" s="21" cm="1">
         <f t="array" ref="C45">int.bit_length(B45)</f>
         <v>8</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="C46" s="21"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="C47" s="21"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C48" s="22"/>
+      <c r="C48" s="21"/>
       <c r="E48" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -5359,10 +5767,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -5374,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -5400,17 +5808,17 @@
       <c r="C55" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
       <c r="C56" s="7"/>
-      <c r="E56" s="22"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="21">
+      <c r="B57" s="20">
         <v>65</v>
       </c>
       <c r="C57" s="16" t="str" cm="1">
@@ -5443,7 +5851,7 @@
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="E63" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
@@ -5451,10 +5859,10 @@
         <v>23</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E64" s="22" t="s">
-        <v>395</v>
+        <v>392</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
@@ -5464,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
@@ -5475,12 +5883,12 @@
         <f t="array" ref="C66">int.float(B66)</f>
         <v>123</v>
       </c>
-      <c r="E66" s="22" t="s">
-        <v>396</v>
+      <c r="E66" s="21" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E67" s="22"/>
+      <c r="E67" s="21"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
@@ -5497,15 +5905,15 @@
       <c r="C70" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E70" s="22" t="s">
-        <v>566</v>
+      <c r="E70" s="21" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="22"/>
+      <c r="E71" s="21"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="23">
+      <c r="B72" s="22">
         <v>0</v>
       </c>
       <c r="C72" s="16" t="str" cm="1">
@@ -5515,7 +5923,7 @@
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="23">
+      <c r="B73" s="22">
         <v>90</v>
       </c>
       <c r="C73" s="16" t="str" cm="1">
@@ -5525,20 +5933,20 @@
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="23">
+      <c r="B74" s="22">
         <v>-1</v>
       </c>
       <c r="C74" s="16" t="str" cm="1">
         <f t="array" ref="C74">int.hex(B74)</f>
         <v>0xffffffffff</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="21" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="23"/>
-      <c r="E75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="E75" s="21"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B76" s="15">
@@ -5548,8 +5956,8 @@
         <f t="array" ref="C76">int.hex(B76)</f>
         <v>0xffffffffff</v>
       </c>
-      <c r="E76" s="22" t="s">
-        <v>365</v>
+      <c r="E76" s="21" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
@@ -5560,13 +5968,13 @@
         <f t="array" ref="C77">int.hex(B77)</f>
         <v>0x10</v>
       </c>
-      <c r="E77" s="22"/>
+      <c r="E77" s="21"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="23">
+      <c r="B79" s="22">
         <f>B80-1</f>
         <v>-549755813889</v>
       </c>
@@ -5579,7 +5987,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="23">
+      <c r="B80" s="22">
         <f>HEX2DEC("8000000000")</f>
         <v>-549755813888</v>
       </c>
@@ -5587,12 +5995,12 @@
         <f t="array" ref="C80">int.hex(B80)</f>
         <v>0x8000000000</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="23">
+      <c r="B81" s="22">
         <f>HEX2DEC("7FFFFFFFFF")</f>
         <v>549755813887</v>
       </c>
@@ -5600,12 +6008,12 @@
         <f t="array" ref="C81">int.hex(B81)</f>
         <v>0x7fffffffff</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="23">
+      <c r="B82" s="22">
         <f>B81+1</f>
         <v>549755813888</v>
       </c>
@@ -5618,10 +6026,10 @@
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="23"/>
+      <c r="B83" s="22"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="23"/>
+      <c r="B84" s="22"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E85" s="1" t="s">
@@ -5635,48 +6043,48 @@
       <c r="C86" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E86" s="22" t="s">
-        <v>594</v>
+      <c r="E86" s="21" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E87" s="22"/>
+      <c r="E87" s="21"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="23">
+      <c r="B88" s="22">
         <v>0</v>
       </c>
       <c r="C88" s="16" t="str" cm="1">
         <f t="array" ref="C88">int.oct(B88)</f>
         <v>0o0</v>
       </c>
-      <c r="E88" s="22"/>
+      <c r="E88" s="21"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="23">
+      <c r="B89" s="22">
         <v>90</v>
       </c>
       <c r="C89" s="16" t="str" cm="1">
         <f t="array" ref="C89">int.oct(B89)</f>
         <v>0o132</v>
       </c>
-      <c r="E89" s="22"/>
+      <c r="E89" s="21"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="23">
+      <c r="B90" s="22">
         <v>-1</v>
       </c>
       <c r="C90" s="16" t="str" cm="1">
         <f t="array" ref="C90">int.oct(B90)</f>
         <v>0o7777777777</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="21" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="23"/>
-      <c r="E91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="E91" s="21"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="15">
@@ -5687,7 +6095,7 @@
         <v>0o7777777777</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
@@ -5698,13 +6106,13 @@
         <f t="array" ref="C93">int.oct(B93)</f>
         <v>0o10</v>
       </c>
-      <c r="E93" s="22"/>
+      <c r="E93" s="21"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E94" s="22"/>
+      <c r="E94" s="21"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="23">
+      <c r="B95" s="22">
         <f>B96-1</f>
         <v>-536870913</v>
       </c>
@@ -5724,7 +6132,7 @@
         <f t="array" ref="C96">int.oct(B96)</f>
         <v>0o4000000000</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E96" s="21" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5736,7 +6144,7 @@
         <f t="array" ref="C97">int.oct(B97)</f>
         <v>0o3777777777</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E97" s="21" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5821,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
@@ -5845,7 +6253,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
@@ -5857,7 +6265,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
@@ -5869,7 +6277,7 @@
       <c r="B119" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>202</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -5943,7 +6351,7 @@
         <v>-0.4</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
@@ -5968,7 +6376,7 @@
       <c r="B138" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C138" s="25" t="s">
+      <c r="C138" s="24" t="s">
         <v>207</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -6037,7 +6445,7 @@
         <v>0.5</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
@@ -6058,7 +6466,7 @@
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E153" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="154" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -6066,10 +6474,10 @@
         <v>40</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
@@ -6083,12 +6491,12 @@
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E158" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="159" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E159" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -6096,7 +6504,7 @@
         <v>40</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
@@ -6110,17 +6518,17 @@
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E164" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E165" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E166" s="10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -6146,22 +6554,22 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
@@ -6195,7 +6603,7 @@
         <v>82</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
@@ -6207,7 +6615,7 @@
         <v>-123.0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -6219,7 +6627,7 @@
         <v>-1.23</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -6324,7 +6732,7 @@
         <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
@@ -6334,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -6346,7 +6754,7 @@
         <v>-1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="17" x14ac:dyDescent="0.2">
@@ -6358,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -6383,7 +6791,7 @@
         <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -6402,7 +6810,7 @@
     </row>
     <row r="46" spans="2:5" ht="17" x14ac:dyDescent="0.2">
       <c r="E46" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
@@ -6429,7 +6837,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E11CDF-3AD4-2A4F-915A-FBF9AA82D6D4}">
-  <dimension ref="B3:E194"/>
+  <dimension ref="B3:E346"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -6445,17 +6853,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -6479,12 +6887,12 @@
       <c r="C11" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="16" t="b" cm="1">
@@ -6492,11 +6900,11 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C13" s="16" t="b" cm="1">
@@ -6504,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -6523,12 +6931,12 @@
       <c r="C17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="16" t="b" cm="1">
@@ -6536,11 +6944,11 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>174</v>
       </c>
       <c r="C19" s="16" t="b" cm="1">
@@ -6549,7 +6957,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="21"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="10"/>
@@ -6562,7 +6970,7 @@
       <c r="B23" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>180</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -6570,14 +6978,14 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="26"/>
+      <c r="C24" s="25"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="26" t="b" cm="1">
+      <c r="C25" s="25" t="b" cm="1">
         <f t="array" ref="C25">str.endswith(B25,B26)</f>
         <v>1</v>
       </c>
@@ -6586,22 +6994,22 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="25"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="25"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="26" t="b" cm="1">
+      <c r="C28" s="25" t="b" cm="1">
         <f t="array" ref="C28">str.endswith(B28,B29)</f>
         <v>0</v>
       </c>
@@ -6610,21 +7018,21 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>183</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="21"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="25"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="26" t="b" cm="1">
+      <c r="C31" s="25" t="b" cm="1">
         <f t="array" ref="C31">str.endswith(B31,B32)</f>
         <v>1</v>
       </c>
@@ -6633,55 +7041,55 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="21"/>
-      <c r="E33" s="24"/>
+      <c r="B33" s="20"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="26" t="b" cm="1">
+      <c r="C34" s="25" t="b" cm="1">
         <f t="array" ref="C34">str.endswith(B34,B35)</f>
         <v>1</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="21"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="21"/>
+      <c r="B37" s="20"/>
       <c r="E37" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
@@ -6690,7 +7098,7 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="13" cm="1">
@@ -6745,16 +7153,16 @@
         <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E47" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="20" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="16" t="str" cm="1">
@@ -6762,11 +7170,11 @@
         <v/>
       </c>
       <c r="E48" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="16" t="str" cm="1">
@@ -6784,7 +7192,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="16" t="str" cm="1">
@@ -6793,7 +7201,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C52" s="16" t="str" cm="1">
@@ -6802,7 +7210,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="16" t="str" cm="1">
@@ -6811,7 +7219,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B54" s="21"/>
+      <c r="B54" s="20"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
@@ -6822,11 +7230,11 @@
         <v>ab'cd</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C57" s="16" t="str" cm="1">
@@ -6838,7 +7246,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="20" t="s">
         <v>176</v>
       </c>
       <c r="C58" s="16" t="e" cm="1">
@@ -6846,12 +7254,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E61" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -6859,10 +7267,10 @@
         <v>27</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="E62" s="22" t="s">
-        <v>630</v>
+        <v>623</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
@@ -6871,11 +7279,11 @@
         <v>0</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C64" s="16" t="e" cm="1">
@@ -6885,7 +7293,7 @@
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="21">
+      <c r="B65" s="20">
         <v>-4</v>
       </c>
       <c r="C65" s="16" cm="1">
@@ -6895,8 +7303,8 @@
       <c r="E65" s="1"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="21" t="s">
-        <v>631</v>
+      <c r="B66" s="20" t="s">
+        <v>626</v>
       </c>
       <c r="C66" s="16" cm="1">
         <f t="array" ref="C66">str.float(B66)</f>
@@ -6905,11 +7313,11 @@
       <c r="E66" s="1"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="21"/>
+      <c r="B67" s="20"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="21"/>
+      <c r="B68" s="20"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
@@ -6932,7 +7340,7 @@
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C72" s="16" cm="1">
@@ -6946,7 +7354,7 @@
       <c r="E72" s="1"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C73" s="16" cm="1">
@@ -6960,7 +7368,7 @@
       <c r="E73" s="1"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C74" s="16" cm="1">
@@ -6974,7 +7382,7 @@
       <c r="E74" s="1"/>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C75" s="16" cm="1">
@@ -6988,11 +7396,11 @@
       <c r="E75" s="1"/>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="21"/>
+      <c r="B76" s="20"/>
       <c r="E76" s="1"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C77" s="16" t="e" cm="1">
@@ -7000,11 +7408,11 @@
         <v>#NUM!</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="20" t="s">
         <v>161</v>
       </c>
       <c r="C78" s="16" t="e" cm="1">
@@ -7012,7 +7420,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -7021,24 +7429,24 @@
         <v>#NUM!</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E80" s="10" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="E81" s="10" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E82" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
@@ -7076,7 +7484,7 @@
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="21" t="s">
+      <c r="B94" s="20" t="s">
         <v>142</v>
       </c>
       <c r="C94" s="16" cm="1">
@@ -7086,7 +7494,7 @@
       <c r="E94" s="1"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="21" t="s">
+      <c r="B95" s="20" t="s">
         <v>150</v>
       </c>
       <c r="C95" s="16" cm="1">
@@ -7096,11 +7504,11 @@
       <c r="E95" s="1"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="21"/>
+      <c r="B96" s="20"/>
       <c r="E96" s="1"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="21" t="s">
+      <c r="B97" s="20" t="s">
         <v>152</v>
       </c>
       <c r="C97" s="16" cm="1">
@@ -7108,11 +7516,11 @@
         <v>15</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="20" t="s">
         <v>149</v>
       </c>
       <c r="C98" s="16" cm="1">
@@ -7122,7 +7530,7 @@
       <c r="E98" s="1"/>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="20" t="s">
         <v>148</v>
       </c>
       <c r="C99" s="16" cm="1">
@@ -7132,7 +7540,7 @@
       <c r="E99" s="1"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C100" s="16" cm="1">
@@ -7142,17 +7550,17 @@
       <c r="E100" s="1"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="21"/>
+      <c r="B101" s="20"/>
       <c r="E101" s="1"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="21" t="s">
+      <c r="B102" s="20" t="s">
         <v>159</v>
       </c>
       <c r="E102" s="1"/>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="21" t="str">
+      <c r="B103" s="20" t="str">
         <f>"0b10"&amp;"0000"&amp;"0000"</f>
         <v>0b1000000000</v>
       </c>
@@ -7161,15 +7569,15 @@
         <v>512</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="21"/>
+      <c r="B104" s="20"/>
       <c r="E104" s="1"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="21" t="s">
+      <c r="B105" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C105" s="16" t="e" cm="1">
@@ -7177,7 +7585,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -7186,7 +7594,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -7196,7 +7604,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E110" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.2">
@@ -7206,22 +7614,22 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E113" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E115" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E116" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>141</v>
@@ -7229,7 +7637,7 @@
     </row>
     <row r="119" spans="2:5" ht="136" x14ac:dyDescent="0.2">
       <c r="E119" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
@@ -7240,414 +7648,1279 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E122" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="B123" s="41" t="s">
+        <v>684</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B124" s="41" t="str" cm="1">
+        <f t="array" ref="B124">str.join("-", str.split_sep("..a...b.c", "."))</f>
+        <v>--a---b-c</v>
+      </c>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="41" t="s">
+        <v>682</v>
+      </c>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B126" s="41" t="str" cm="1">
+        <f t="array" ref="B126:B129">str.split_sep("a..b.c", ".")</f>
+        <v>a</v>
+      </c>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B127" s="41" t="str">
+        <v/>
+      </c>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B128" s="41" t="str">
+        <v>b</v>
+      </c>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="41" t="str">
+        <v>c</v>
+      </c>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="41"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="20"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E132" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C134" s="16" cm="1">
+        <f t="array" ref="C134">str.len(B134)</f>
+        <v>2</v>
+      </c>
+      <c r="E134" s="21"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E135" s="21"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C137" s="10"/>
+      <c r="E137" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="E138" s="21" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="9" t="s">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="9"/>
+      <c r="C139" s="7"/>
+      <c r="E139" s="21"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C140" s="16" t="str" cm="1">
+        <f t="array" ref="C140:C141">str.list(B140)</f>
+        <v>A</v>
+      </c>
+      <c r="E140" s="21"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C141" s="16" t="str">
+        <v>a</v>
+      </c>
+      <c r="E141" s="21"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E142" s="21"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E143" s="21"/>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B145" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E123" s="22" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="C124" s="16" cm="1">
-        <f t="array" ref="C124">str.len(B124)</f>
-        <v>2</v>
-      </c>
-      <c r="E124" s="22"/>
-    </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E125" s="22"/>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C127" s="10"/>
-      <c r="E127" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="9" t="s">
+      <c r="C145" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B146" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C146" s="16" t="str" cm="1">
+        <f t="array" ref="C146">str.lower(B146)</f>
+        <v>abcdefghij</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E147" s="21"/>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E149" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B150" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="41" t="str" cm="1">
+        <f t="array" ref="B151">"'" &amp; str.lstrip("  a  b  ") &amp; "'"</f>
+        <v>'a  b  '</v>
+      </c>
+      <c r="E151" s="44" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B152" s="20"/>
+      <c r="E152" s="2"/>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B153" s="41" t="s">
+        <v>679</v>
+      </c>
+      <c r="E153" s="2"/>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B154" s="20" t="str" cm="1">
+        <f t="array" ref="B154">"'" &amp; str.lstrip("z  a  b  ") &amp; "'"</f>
+        <v>'z  a  b  '</v>
+      </c>
+      <c r="E154" s="2"/>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B155" s="20"/>
+      <c r="E155" s="2"/>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="41" t="s">
+        <v>680</v>
+      </c>
+      <c r="E156" s="2"/>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B157" s="20" t="str" cm="1">
+        <f t="array" ref="B157">"'" &amp; str.lstrip("") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E157" s="2"/>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E159" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="41" t="s">
+        <v>709</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B161" s="20" t="str" cm="1">
+        <f t="array" ref="B161">"'" &amp; str.lstrip_seps("-+a-+b-+", "+-") &amp; "'"</f>
+        <v>'a-+b-+'</v>
+      </c>
+      <c r="E161" s="2"/>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B162" s="20"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B163" s="41" t="s">
+        <v>712</v>
+      </c>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="20" t="str" cm="1">
+        <f t="array" ref="B164">"'" &amp; str.lstrip_seps("z-+a-+b-+", "+-") &amp; "'"</f>
+        <v>'z-+a-+b-+'</v>
+      </c>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="20"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="20" t="str" cm="1">
+        <f t="array" ref="B167">"'" &amp; str.lstrip_seps("", "+-") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E170" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E171" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E172" s="21"/>
+    </row>
+    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E173" s="21"/>
+    </row>
+    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C174" s="16" cm="1">
+        <f t="array" ref="C174">str.ord(B174)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C175" s="16" cm="1">
+        <f t="array" ref="C175">str.ord(B175)</f>
+        <v>8984</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B177" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C177" s="16" cm="1">
+        <f t="array" ref="C177">str.ord(B177)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="20"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E180" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E182" s="2"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="21" t="str" cm="1">
+        <f t="array" ref="B184:B186">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
+        <v>C:</v>
+      </c>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B185" s="15" t="str">
+        <v>\</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B186" s="21" t="str">
+        <v>My Documents\like-py.xlsx</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="20"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="20"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E189" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="E128" s="22" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="9"/>
-      <c r="C129" s="7"/>
-      <c r="E129" s="22"/>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="C130" s="16" t="str" cm="1">
-        <f t="array" ref="C130:C131">str.list(B130)</f>
-        <v>A</v>
-      </c>
-      <c r="E130" s="22"/>
-    </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C131" s="16" t="str">
-        <v>a</v>
-      </c>
-      <c r="E131" s="22"/>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E132" s="22"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E133" s="22"/>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="10"/>
-      <c r="C134" s="10"/>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="C136" s="16" t="str" cm="1">
-        <f t="array" ref="C136">str.lower(B136)</f>
-        <v>abcdefghij</v>
-      </c>
-      <c r="E136" s="22" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="10"/>
-      <c r="C138" s="10"/>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E139" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E140" s="22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="E141" s="22"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E142" s="22"/>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C143" s="16" cm="1">
-        <f t="array" ref="C143">str.ord(B143)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C144" s="16" cm="1">
-        <f t="array" ref="C144">str.ord(B144)</f>
-        <v>8984</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="C146" s="16" cm="1">
-        <f t="array" ref="C146">str.ord(B146)</f>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="21"/>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="21"/>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="21"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="21"/>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E152" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E153" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E154" s="2"/>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B156" s="22" t="str" cm="1">
-        <f t="array" ref="B156:B158">str.partition("C:\My Documents\like-py.xlsx", "\")</f>
-        <v>C:</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="15" t="str">
-        <v>\</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="22" t="str">
-        <v>My Documents\like-py.xlsx</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="21"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="21"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E161" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="162" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E162" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C163" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E163" s="2"/>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E164" s="2"/>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="21" t="s">
+      <c r="E191" s="2"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E192" s="2"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B193" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C165" s="16" t="str" cm="1">
-        <f t="array" ref="C165">str.repr(B165)</f>
+      <c r="C193" s="16" t="str" cm="1">
+        <f t="array" ref="C193">str.repr(B193)</f>
         <v>''</v>
       </c>
-      <c r="E165" s="10" t="s">
+      <c r="E193" s="10" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C166" s="16" t="str" cm="1">
-        <f t="array" ref="C166">str.repr(B166)</f>
-        <v>'abc'</v>
-      </c>
-    </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C167" s="16" t="str" cm="1">
-        <f t="array" ref="C167">str.repr(B167)</f>
-        <v>'ab\\cd'</v>
-      </c>
-    </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C168" s="16" t="str" cm="1">
-        <f t="array" ref="C168">str.repr(B168)</f>
-        <v>'ab\'cd'</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C169" s="16" t="str" cm="1">
-        <f t="array" ref="C169">str.repr(B169)</f>
-        <v>'ab\"cd'</v>
-      </c>
-    </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C170" s="16" t="str" cm="1">
-        <f t="array" ref="C170">str.repr(B170)</f>
-        <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
-      </c>
-    </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="17"/>
-    </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E172" s="22"/>
-    </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E173" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E174" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E175" s="22"/>
-    </row>
-    <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E176" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="177" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E177" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="39" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="22" t="str" cm="1">
-        <f t="array" ref="B180:B182">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
-        <v>C:\My Documents</v>
-      </c>
-    </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="15" t="str">
-        <v>\</v>
-      </c>
-    </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="22" t="str">
-        <v>like-py.xlsx</v>
-      </c>
-    </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E183" s="22"/>
-    </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E184" s="22"/>
-    </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E185" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E186" s="22" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E187" s="22"/>
-    </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E188" s="22"/>
-    </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E189" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E190" s="22" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="15" t="s">
-        <v>478</v>
+        <v>30</v>
       </c>
       <c r="C194" s="16" t="str" cm="1">
-        <f t="array" ref="C194">str.upper(B194)</f>
+        <f t="array" ref="C194">str.repr(B194)</f>
+        <v>'abc'</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B195" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C195" s="16" t="str" cm="1">
+        <f t="array" ref="C195">str.repr(B195)</f>
+        <v>'ab\\cd'</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B196" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C196" s="16" t="str" cm="1">
+        <f t="array" ref="C196">str.repr(B196)</f>
+        <v>'ab\'cd'</v>
+      </c>
+      <c r="E196" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B197" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C197" s="16" t="str" cm="1">
+        <f t="array" ref="C197">str.repr(B197)</f>
+        <v>'ab\"cd'</v>
+      </c>
+    </row>
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B198" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" s="16" t="str" cm="1">
+        <f t="array" ref="C198">str.repr(B198)</f>
+        <v>'⌃⌥⇧⌘⎋⇥⋮'</v>
+      </c>
+    </row>
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B201" s="21"/>
+      <c r="E201" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="202" spans="2:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B202" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B203" s="21" t="str" cm="1">
+        <f t="array" ref="B203">"'" &amp; str.replace.wash(" ") &amp; "'"</f>
+        <v>' '</v>
+      </c>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B204" s="38"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B206" s="21"/>
+      <c r="E206" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="207" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="E207" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="208" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B208" s="21" t="str" cm="1">
+        <f t="array" ref="B208">"'" &amp; str.replace.wash_sep("+-*/", "+-*/", ".") &amp; "'"</f>
+        <v>'....'</v>
+      </c>
+      <c r="E208" s="6" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E211" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B212" s="15" t="str" cm="1">
+        <f t="array" ref="B212">str.replace("Abracadabra", "a", "Z")</f>
+        <v>AbrZcZdZbrZ</v>
+      </c>
+      <c r="E212" s="14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E213" s="14"/>
+    </row>
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E214" s="4"/>
+    </row>
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E215" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E216" s="4"/>
+    </row>
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E217" s="4"/>
+    </row>
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E218" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="2:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B219" s="41" t="s">
+        <v>715</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B220" s="20" t="str" cm="1">
+        <f t="array" ref="B220">str.join("", str.reversed("Abracadabra"))</f>
+        <v>arbadacarbA</v>
+      </c>
+      <c r="E220" s="21"/>
+    </row>
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E221" s="21"/>
+    </row>
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E222" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="223" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E224" s="2"/>
+    </row>
+    <row r="225" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B225" s="38" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="226" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B226" s="21" t="str" cm="1">
+        <f t="array" ref="B226:B228">str.rpartition("C:\My Documents\like-py.xlsx", "\")</f>
+        <v>C:\My Documents</v>
+      </c>
+    </row>
+    <row r="227" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B227" s="15" t="str">
+        <v>\</v>
+      </c>
+    </row>
+    <row r="228" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B228" s="21" t="str">
+        <v>like-py.xlsx</v>
+      </c>
+    </row>
+    <row r="229" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E229" s="21"/>
+    </row>
+    <row r="230" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E230" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="231" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="41" t="s">
+        <v>674</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="232" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B232" s="41" t="str" cm="1">
+        <f t="array" ref="B232">"'" &amp; str.rstrip("  a  b  ") &amp; "'"</f>
+        <v>'  a  b'</v>
+      </c>
+      <c r="E232" s="44" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="233" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B233" s="20"/>
+      <c r="E233" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="234" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B234" s="41" t="s">
+        <v>676</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B235" s="20" t="str" cm="1">
+        <f t="array" ref="B235">"'" &amp; str.rstrip("  a  b  z") &amp; "'"</f>
+        <v>'  a  b  z'</v>
+      </c>
+    </row>
+    <row r="236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B236" s="20"/>
+    </row>
+    <row r="237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B237" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B238" s="20" t="str" cm="1">
+        <f t="array" ref="B238">"'" &amp; str.rstrip("") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B239" s="20"/>
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E241" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B243" s="20" t="str" cm="1">
+        <f t="array" ref="B243">"'" &amp; str.rstrip_seps("-+a-+b-+", "+-") &amp; "'"</f>
+        <v>'-+a-+b'</v>
+      </c>
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B244" s="20"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B245" s="41" t="s">
+        <v>711</v>
+      </c>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B246" s="20" t="str" cm="1">
+        <f t="array" ref="B246">"'" &amp; str.rstrip_seps("-+a-+b-+z", "+-") &amp; "'"</f>
+        <v>'-+a-+b-+z'</v>
+      </c>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B247" s="20"/>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B248" s="41" t="s">
+        <v>706</v>
+      </c>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B249" s="20" t="str" cm="1">
+        <f t="array" ref="B249">"'" &amp; str.rstrip_seps("", "+-") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B250" s="41"/>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+    </row>
+    <row r="252" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B252" s="10"/>
+      <c r="C252" s="10"/>
+      <c r="E252" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="41" t="s">
+        <v>734</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B254" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="B254" ca="1">"'" &amp; str.join("", str.set.shuffled("Abracadabra")) &amp; "'"</f>
+        <v>'rbracAbadaa'</v>
+      </c>
+      <c r="E254" s="2"/>
+    </row>
+    <row r="255" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B255" s="41"/>
+      <c r="E255" s="2"/>
+    </row>
+    <row r="257" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E257" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="41" t="s">
+        <v>736</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B259" s="41" t="str" cm="1">
+        <f t="array" aca="1" ref="B259" ca="1">"'" &amp; str.join("", str.set("Abracadabra")) &amp; "'"</f>
+        <v>'rcbdA'</v>
+      </c>
+      <c r="E259" s="21" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B260" s="41"/>
+      <c r="E260" s="21"/>
+    </row>
+    <row r="261" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E261" s="21"/>
+    </row>
+    <row r="262" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E262" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B264" s="38" t="str" cm="1">
+        <f t="array" ref="B264">"'" &amp; str.split.squash(" b  c d  e   ", " ") &amp; "'"</f>
+        <v>'b c d e'</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B265" s="38"/>
+      <c r="E265" s="6"/>
+    </row>
+    <row r="266" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B266" s="38"/>
+      <c r="C266" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B267" s="21"/>
+      <c r="C267" s="21" t="str" cm="1">
+        <f t="array" ref="C267">"'" &amp; str.split.squash("", " ") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="268" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B268" s="21"/>
+      <c r="C268" s="21"/>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="269" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B269" s="21"/>
+      <c r="E269" s="21"/>
+    </row>
+    <row r="270" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B270" s="21"/>
+      <c r="E270" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="38" t="s">
+        <v>686</v>
+      </c>
+      <c r="E271" s="6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B272" s="38" t="str" cm="1">
+        <f t="array" ref="B272">"'" &amp; str.split.which(".bbb..cc.ddd..e...", ".", 4) &amp; "'"</f>
+        <v>'ddd'</v>
+      </c>
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B273" s="21"/>
+      <c r="E273" s="6"/>
+    </row>
+    <row r="275" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B275" s="21"/>
+      <c r="E275" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B277" s="21" t="str" cm="1">
+        <f t="array" ref="B277:B280">"'" &amp; str.split(" bbb  cc ddd  e   ") &amp; "'"</f>
+        <v>'bbb'</v>
+      </c>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B278" s="21" t="str">
+        <v>'cc'</v>
+      </c>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B279" s="21" t="str">
+        <v>'ddd'</v>
+      </c>
+      <c r="E279" s="21"/>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B280" s="21" t="str">
+        <v>'e'</v>
+      </c>
+      <c r="E280" s="21"/>
+    </row>
+    <row r="281" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B281" s="21"/>
+      <c r="E281" s="21"/>
+    </row>
+    <row r="282" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B282" s="38" t="s">
+        <v>656</v>
+      </c>
+      <c r="E282" s="21"/>
+    </row>
+    <row r="283" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B283" s="21" t="str" cm="1">
+        <f t="array" ref="B283">list.item(str.split(" bbb  cc ddd  e   "), 2)</f>
+        <v>ddd</v>
+      </c>
+      <c r="E283" s="21"/>
+    </row>
+    <row r="284" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B284" s="21"/>
+      <c r="E284" s="21"/>
+    </row>
+    <row r="285" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B285" s="10"/>
+      <c r="C285" s="43" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B286" s="21"/>
+      <c r="C286" s="29" t="str" cm="1">
+        <f t="array" ref="C286:C288">str.split("abc def
+                    ghi")</f>
+        <v>abc</v>
+      </c>
+      <c r="E286" s="21"/>
+    </row>
+    <row r="287" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B287" s="21"/>
+      <c r="C287" s="16" t="str">
+        <v>def</v>
+      </c>
+      <c r="E287" s="2"/>
+    </row>
+    <row r="288" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B288" s="21"/>
+      <c r="C288" s="16" t="str">
+        <v>ghi</v>
+      </c>
+      <c r="E288" s="2"/>
+    </row>
+    <row r="289" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B289" s="21"/>
+      <c r="E289" s="2"/>
+    </row>
+    <row r="290" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B290" s="21"/>
+      <c r="C290" s="43" t="s">
+        <v>657</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="291" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B291" s="21"/>
+      <c r="C291" s="2" t="e" cm="1" vm="2">
+        <f t="array" ref="C291">str.split("")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E291" s="2"/>
+    </row>
+    <row r="292" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B292" s="21"/>
+      <c r="C292" s="2"/>
+      <c r="E292" s="21"/>
+    </row>
+    <row r="293" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B293" s="21"/>
+      <c r="C293" s="2"/>
+      <c r="E293" s="21"/>
+    </row>
+    <row r="294" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E294" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="38" t="s">
+        <v>685</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="296" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B296" s="21" t="str" cm="1">
+        <f t="array" ref="B296:B302">"'" &amp; str.split_sep(" a  b c  ", " ") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="297" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B297" s="15" t="str">
+        <v>'a'</v>
+      </c>
+    </row>
+    <row r="298" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B298" s="15" t="str">
+        <v>''</v>
+      </c>
+      <c r="E298" s="6"/>
+    </row>
+    <row r="299" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B299" s="15" t="str">
+        <v>'b'</v>
+      </c>
+      <c r="E299" s="6"/>
+    </row>
+    <row r="300" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B300" s="15" t="str">
+        <v>'c'</v>
+      </c>
+      <c r="E300" s="6"/>
+    </row>
+    <row r="301" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B301" s="15" t="str">
+        <v>''</v>
+      </c>
+      <c r="E301" s="6"/>
+    </row>
+    <row r="302" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B302" s="15" t="str">
+        <v>''</v>
+      </c>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="303" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E303" s="6"/>
+    </row>
+    <row r="304" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E304" s="6"/>
+    </row>
+    <row r="305" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E305" s="4" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E306" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E307" s="3"/>
+    </row>
+    <row r="308" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E309" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C310" s="43" t="s">
+        <v>664</v>
+      </c>
+      <c r="E310" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="311" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C311" s="2" t="str" cm="1">
+        <f t="array" ref="C311:C312">str.splitlines("abc def
+                          ghi")</f>
+        <v>abc def</v>
+      </c>
+      <c r="E311" s="6" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C312" s="16" t="str">
+        <v xml:space="preserve">                          ghi</v>
+      </c>
+      <c r="E312" s="6"/>
+    </row>
+    <row r="313" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E313" s="6"/>
+    </row>
+    <row r="314" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E315" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E316" s="4"/>
+    </row>
+    <row r="317" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E317" s="21"/>
+    </row>
+    <row r="318" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E318" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B319" s="41" t="s">
+        <v>713</v>
+      </c>
+      <c r="E319" s="21" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B320" s="20" t="str" cm="1">
+        <f t="array" ref="B320">str.join("", str.sorted("Abracadabra"))</f>
+        <v>Aaaaabbcdrr</v>
+      </c>
+    </row>
+    <row r="321" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B321" s="20"/>
+    </row>
+    <row r="323" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E323" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="324" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="41" t="s">
+        <v>688</v>
+      </c>
+      <c r="E324" s="6" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="325" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B325" s="20" t="str" cm="1">
+        <f t="array" ref="B325">"'" &amp; str.strip("  a  b  ") &amp; "'"</f>
+        <v>'a  b'</v>
+      </c>
+      <c r="E325" s="44" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="326" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B326" s="20"/>
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B327" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="E327" s="4"/>
+    </row>
+    <row r="328" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B328" s="20" t="str" cm="1">
+        <f t="array" ref="B328">"'" &amp; str.strip("z  a  b  z") &amp; "'"</f>
+        <v>'z  a  b  z'</v>
+      </c>
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B329" s="20"/>
+    </row>
+    <row r="330" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B330" s="41" t="s">
+        <v>690</v>
+      </c>
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B331" s="20" t="str" cm="1">
+        <f t="array" ref="B331">"'" &amp; str.strip("") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B332" s="20"/>
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B333" s="20"/>
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B334" s="20"/>
+      <c r="E334" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="41" t="s">
+        <v>717</v>
+      </c>
+      <c r="E335" s="6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B336" s="20" t="str" cm="1">
+        <f t="array" ref="B336">"'" &amp; str.strip_seps("-+a-+b-+", "+-") &amp; "'"</f>
+        <v>'a-+b'</v>
+      </c>
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B337" s="20"/>
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B338" s="41" t="s">
+        <v>718</v>
+      </c>
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B339" s="20" t="str" cm="1">
+        <f t="array" ref="B339">"'" &amp; str.strip_seps("z-+a-+b-+z", "+-") &amp; "'"</f>
+        <v>'z-+a-+b-+z'</v>
+      </c>
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B340" s="20"/>
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B341" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="E341" s="4"/>
+    </row>
+    <row r="342" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B342" s="20" t="str" cm="1">
+        <f t="array" ref="B342">"'" &amp; str.strip_seps("", "+-") &amp; "'"</f>
+        <v>''</v>
+      </c>
+      <c r="E342" s="4"/>
+    </row>
+    <row r="343" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B343" s="20"/>
+      <c r="E343" s="4"/>
+    </row>
+    <row r="344" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B344" s="20"/>
+      <c r="E344" s="4"/>
+    </row>
+    <row r="345" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B345" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B346" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C346" s="16" t="str" cm="1">
+        <f t="array" ref="C346">str.upper(B346)</f>
         <v>ABCDEFGHIJ</v>
       </c>
-      <c r="E194" s="22" t="s">
-        <v>475</v>
+      <c r="E346" s="21" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -7658,7 +8931,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9AEAAA-FB17-324F-AABB-3625663F090B}">
-  <dimension ref="A3:E165"/>
+  <dimension ref="A3:E192"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
@@ -7674,17 +8947,17 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
@@ -7702,18 +8975,18 @@
       <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="22"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="15" cm="1">
@@ -7724,18 +8997,18 @@
         <f t="array" ref="C13">list.all(_xlfn.ANCHORARRAY(B13))</f>
         <v>0</v>
       </c>
-      <c r="E13" s="22"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="22"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="21" cm="1">
+      <c r="B16" s="20" cm="1">
         <f t="array" ref="B16:B18">{-1;0;1}</f>
         <v>-1</v>
       </c>
@@ -7755,12 +9028,12 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" cm="1">
+      <c r="B21" s="20" cm="1">
         <f t="array" ref="B21:B23">{1.23;TRUE;"abc"}</f>
         <v>1.23</v>
       </c>
@@ -7791,18 +9064,18 @@
       <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="15" cm="1">
@@ -7813,18 +9086,18 @@
         <f t="array" ref="C30">list.any(_xlfn.ANCHORARRAY(B30))</f>
         <v>1</v>
       </c>
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="21" cm="1">
+      <c r="B33" s="20" cm="1">
         <f t="array" ref="B33:B35">{0;1;0}</f>
         <v>0</v>
       </c>
@@ -7844,12 +9117,12 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="21" cm="1">
+      <c r="B38" s="20" cm="1">
         <f t="array" ref="B38:B40">{0;0;0}</f>
         <v>0</v>
       </c>
@@ -7877,7 +9150,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="12" t="s">
@@ -7895,7 +9168,7 @@
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>132</v>
       </c>
       <c r="C46" s="13" t="e" cm="1">
@@ -7908,14 +9181,14 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" cm="1">
+      <c r="B47" s="17" cm="1">
         <f t="array" ref="B47:B48">{0;1}</f>
         <v>0</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="3"/>
       <c r="E47" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
@@ -7933,7 +9206,7 @@
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C50" s="13"/>
@@ -7956,10 +9229,10 @@
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C53" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="3"/>
@@ -7985,11 +9258,11 @@
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B56" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>259</v>
+      <c r="B56" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -8012,17 +9285,17 @@
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="18" cm="1">
+      <c r="B60" s="17" cm="1">
         <f t="array" ref="B60">{0}</f>
         <v>0</v>
       </c>
@@ -8033,30 +9306,30 @@
       <c r="D60" s="3"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="13"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="13"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="13"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="11"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="13">
         <f>TYPE({0})</f>
         <v>64</v>
@@ -8065,12 +9338,12 @@
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="13"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="13"/>
       <c r="D67" s="3"/>
     </row>
@@ -8080,7 +9353,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C69" s="12" t="s">
@@ -8096,14 +9369,14 @@
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C71" s="13"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="18" t="str" cm="1">
+      <c r="B72" s="17" t="str" cm="1">
         <f t="array" ref="B72:B73">{"abc";"def"}</f>
         <v>abc</v>
       </c>
@@ -8142,31 +9415,31 @@
       <c r="B76" s="11"/>
       <c r="C76" s="13"/>
       <c r="E76" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B77" s="11"/>
       <c r="C77" s="13"/>
       <c r="E77" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="29" t="s">
+      <c r="B78" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C78" s="12"/>
       <c r="E78" s="6"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="29"/>
+      <c r="B79" s="28"/>
       <c r="C79" s="12"/>
       <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="18" t="s">
-        <v>514</v>
+      <c r="B80" s="17" t="s">
+        <v>512</v>
       </c>
       <c r="C80" s="10"/>
       <c r="E80" s="6"/>
@@ -8176,8 +9449,8 @@
         <f t="array" ref="B81:B83">{11;22;33}</f>
         <v>11</v>
       </c>
-      <c r="C81" s="20" t="s">
-        <v>513</v>
+      <c r="C81" s="19" t="s">
+        <v>511</v>
       </c>
       <c r="E81" s="6"/>
     </row>
@@ -8200,8 +9473,8 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="11"/>
-      <c r="C84" s="20" t="s">
-        <v>511</v>
+      <c r="C84" s="19" t="s">
+        <v>509</v>
       </c>
       <c r="E84" s="6"/>
     </row>
@@ -8220,8 +9493,8 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="11"/>
-      <c r="C87" s="20" t="s">
-        <v>512</v>
+      <c r="C87" s="19" t="s">
+        <v>510</v>
       </c>
       <c r="E87" s="6"/>
     </row>
@@ -8240,8 +9513,8 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="11"/>
-      <c r="C90" s="20" t="s">
-        <v>509</v>
+      <c r="C90" s="19" t="s">
+        <v>507</v>
       </c>
       <c r="E90" s="6"/>
     </row>
@@ -8260,14 +9533,14 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E93" s="40" t="s">
         <v>515</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="E93" s="41" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -8313,32 +9586,32 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E99" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="29" t="s">
+      <c r="B100" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C100" s="40" t="s">
-        <v>491</v>
+      <c r="C100" s="39" t="s">
+        <v>489</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="29"/>
+      <c r="B101" s="28"/>
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C102" s="10"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="18" t="str" cm="1">
+      <c r="B103" s="17" t="str" cm="1">
         <f t="array" ref="B103:B104">{"abc";"def"}</f>
         <v>abc</v>
       </c>
@@ -8401,25 +9674,25 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E110" s="4" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
       <c r="E112" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -8431,15 +9704,15 @@
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="21" t="s">
-        <v>526</v>
+      <c r="B115" s="20" t="s">
+        <v>522</v>
       </c>
       <c r="C115" s="16" t="str" cm="1">
         <f t="array" ref="C115">list.repr.item(B115)</f>
@@ -8448,17 +9721,17 @@
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="21"/>
+      <c r="B116" s="20"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="18" t="s">
-        <v>496</v>
+      <c r="B117" s="17" t="s">
+        <v>494</v>
       </c>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="18" cm="1">
+      <c r="B118" s="17" cm="1">
         <f t="array" ref="B118:B121">_xlfn.SEQUENCE(4)</f>
         <v>1</v>
       </c>
@@ -8469,7 +9742,7 @@
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="18">
+      <c r="B119" s="17">
         <v>2</v>
       </c>
       <c r="C119" s="16" t="str">
@@ -8478,7 +9751,7 @@
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="18">
+      <c r="B120" s="17">
         <v>3</v>
       </c>
       <c r="C120" s="16" t="str">
@@ -8500,18 +9773,18 @@
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E124" s="4" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="2:5" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
@@ -8519,13 +9792,13 @@
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="18" t="s">
-        <v>496</v>
+      <c r="B127" s="17" t="s">
+        <v>494</v>
       </c>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="18" cm="1">
+      <c r="B128" s="17" cm="1">
         <f t="array" ref="B128:B131">_xlfn.SEQUENCE(4)</f>
         <v>1</v>
       </c>
@@ -8566,13 +9839,13 @@
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="21" t="s">
-        <v>497</v>
+      <c r="B133" s="20" t="s">
+        <v>495</v>
       </c>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="21" t="str" cm="1">
+      <c r="B134" s="20" t="str" cm="1">
         <f t="array" ref="B134:B137">{"aa";"bb";"cc";"dd"}</f>
         <v>aa</v>
       </c>
@@ -8626,7 +9899,7 @@
       </c>
     </row>
     <row r="141" spans="2:5" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="29" t="s">
+      <c r="B141" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C141" s="12" t="s">
@@ -8634,7 +9907,7 @@
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -8642,12 +9915,12 @@
       <c r="E142" s="5"/>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="18" t="s">
-        <v>498</v>
+      <c r="B143" s="17" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="18" cm="1">
+      <c r="B144" s="17" cm="1">
         <f t="array" ref="B144:B146">_xlfn.SEQUENCE(3)</f>
         <v>1</v>
       </c>
@@ -8667,8 +9940,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="21" t="s">
-        <v>494</v>
+      <c r="B148" s="20" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -8692,12 +9965,12 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="21" t="s">
-        <v>495</v>
+      <c r="B153" s="20" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="21" t="b" cm="1">
+      <c r="B154" s="20" t="b" cm="1">
         <f t="array" ref="B154:B157">{TRUE;1;2.34;"Abc"}</f>
         <v>1</v>
       </c>
@@ -8707,7 +9980,7 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B155" s="21">
+      <c r="B155" s="20">
         <v>1</v>
       </c>
     </row>
@@ -8723,12 +9996,12 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B159" s="21" t="s">
-        <v>515</v>
+      <c r="B159" s="20" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="21" cm="1">
+      <c r="A160" s="20" cm="1">
         <f t="array" ref="A160:B162">_xlfn.SEQUENCE(3, 2)</f>
         <v>1</v>
       </c>
@@ -8740,7 +10013,7 @@
         <v>#REF!</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -8759,10 +10032,189 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E165" s="4" t="s">
-        <v>551</v>
-      </c>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="15"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E164" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B165" s="38" t="s">
+        <v>728</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B166" s="21" t="str" cm="1">
+        <f t="array" ref="B166">str.join("", list.reversed(str.list("Abracadabra")))</f>
+        <v>arbadacarbA</v>
+      </c>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B167" s="38"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B168" s="38"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="4" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="42" t="s">
+        <v>739</v>
+      </c>
+      <c r="C170" s="28"/>
+      <c r="D170" s="28"/>
+      <c r="E170" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B171" s="17" cm="1">
+        <f t="array" aca="1" ref="B171:B175" ca="1">list.set.shuffled(_xlfn.SEQUENCE(5))</f>
+        <v>1</v>
+      </c>
+      <c r="C171" s="13"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="5"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B172" s="11">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="C172" s="13"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B173" s="11">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="C173" s="13"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B174" s="11">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B175" s="15">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B176" s="38"/>
+      <c r="E176" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="177" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="42" t="s">
+        <v>741</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="178" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B178" s="17" cm="1">
+        <f t="array" aca="1" ref="B178:B182" ca="1">list.set({1;1;2;1;2;3;1;2;3;4;5})</f>
+        <v>1</v>
+      </c>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B179" s="17">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B180" s="17">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B181" s="17">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B182" s="17">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B183" s="17"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B184" s="17"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E185" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E186" s="21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B187" s="38" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B188" s="10" t="str" cm="1">
+        <f t="array" ref="B188">str.join("", list.sorted(str.list("Abracadabra")))</f>
+        <v>Aaaaabbcdrr</v>
+      </c>
+    </row>
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B189" s="10"/>
+    </row>
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+    </row>
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8792,7 +10244,7 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -8802,7 +10254,7 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -8819,16 +10271,16 @@
       <c r="C8" s="16"/>
       <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>534</v>
+      <c r="C9" s="28" t="s">
+        <v>530</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="6" t="s">
@@ -8838,32 +10290,32 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="31"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="10"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
-      <c r="B11" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="C11" s="31"/>
+      <c r="B11" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C11" s="30"/>
       <c r="D11" s="10"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21" t="s">
-        <v>533</v>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>529</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="10"/>
       <c r="E13" s="6"/>
     </row>
@@ -8873,7 +10325,7 @@
         <f t="array" ref="B14:B19">{"abc";"acb";"bac";"bca";"cab";"cba"}</f>
         <v>abc</v>
       </c>
-      <c r="C14" s="30" t="str" cm="1">
+      <c r="C14" s="29" t="str" cm="1">
         <f t="array" ref="C14:C15">function.filter(_xlfn.LAMBDA(_xlpm.x, str.endswith(_xlpm.x, "a")),_xlfn.ANCHORARRAY(
 B14))</f>
         <v>bca</v>
@@ -8937,8 +10389,8 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="18" t="s">
-        <v>624</v>
+      <c r="B21" s="17" t="s">
+        <v>619</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="10"/>
@@ -8946,20 +10398,20 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18" t="s">
-        <v>625</v>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17" t="s">
+        <v>620</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="18" cm="1">
+      <c r="B23" s="17" cm="1">
         <f t="array" ref="B23:B25">{11;0;33}</f>
         <v>11</v>
       </c>
-      <c r="C23" s="20" cm="1">
+      <c r="C23" s="19" cm="1">
         <f t="array" ref="C23:C24">function.filter(_xlfn.LAMBDA(_xlpm.x, _xlpm.x),_xlfn.ANCHORARRAY( B23))</f>
         <v>11</v>
       </c>
@@ -8968,7 +10420,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>0</v>
       </c>
       <c r="C24" s="13">
@@ -8979,7 +10431,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>33</v>
       </c>
       <c r="C25" s="13"/>
@@ -8988,15 +10440,15 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="13"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
-      <c r="B27" s="18" t="s">
-        <v>624</v>
+      <c r="B27" s="17" t="s">
+        <v>619</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="10"/>
@@ -9004,31 +10456,31 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18" t="s">
-        <v>626</v>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17" t="s">
+        <v>621</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
-      <c r="B29" s="18" cm="1">
+      <c r="B29" s="17" cm="1">
         <f t="array" ref="B29:B31">{11;0;33}</f>
         <v>11</v>
       </c>
-      <c r="C29" s="20" t="e" cm="1">
+      <c r="C29" s="19" t="e" cm="1">
         <f t="array" ref="C29">function.filter(_bool,_xlfn.ANCHORARRAY( B29))</f>
         <v>#VALUE!</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="3" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>0</v>
       </c>
       <c r="C30" s="13"/>
@@ -9037,32 +10489,32 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
-      <c r="B31" s="18">
+      <c r="B31" s="17">
         <v>33</v>
       </c>
       <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="13"/>
       <c r="D33" s="10"/>
       <c r="E33" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="176" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -9075,23 +10527,23 @@
       <c r="B36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="29" t="s">
-        <v>486</v>
+      <c r="C36" s="28" t="s">
+        <v>484</v>
       </c>
       <c r="D36" s="10"/>
-      <c r="E36" s="38"/>
+      <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="10"/>
       <c r="B37" s="15"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
-      <c r="B38" s="34" t="s">
-        <v>493</v>
+      <c r="B38" s="33" t="s">
+        <v>491</v>
       </c>
       <c r="D38" s="10"/>
       <c r="E38" s="4"/>
@@ -9111,7 +10563,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
-      <c r="B40" s="18" t="str">
+      <c r="B40" s="17" t="str">
         <v>b</v>
       </c>
       <c r="C40">
@@ -9121,7 +10573,7 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="18" t="str">
+      <c r="B41" s="17" t="str">
         <v>c</v>
       </c>
       <c r="C41" s="13">
@@ -9130,17 +10582,17 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E44" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="33" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="33" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="34" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C47" s="34" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -9150,17 +10602,17 @@
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C50" s="34" t="s">
-        <v>530</v>
+      <c r="C50" s="33" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C51" s="34" t="e" cm="1">
+      <c r="C51" s="33" t="e" cm="1">
         <f t="array" ref="C51">_xlfn.LAMBDA(_xlpm.func, "&lt;" &amp; _xlpm.func &amp; "&gt;")(function.repr)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E51" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -9186,46 +10638,46 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" s="19"/>
+        <v>454</v>
+      </c>
+      <c r="C7" s="18"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="19"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="19"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="19"/>
+      <c r="C10" s="18"/>
       <c r="E10" s="4" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
@@ -9267,7 +10719,7 @@
       <c r="B16" s="11"/>
       <c r="C16" s="13"/>
       <c r="E16" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
@@ -9277,7 +10729,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -9295,14 +10747,14 @@
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="21" t="s">
-        <v>556</v>
+      <c r="B20" s="20" t="s">
+        <v>551</v>
       </c>
       <c r="C20" s="13"/>
       <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="21" cm="1">
+      <c r="B21" s="20" cm="1">
         <f t="array" ref="B21:B22">{4.56;"Abc"}</f>
         <v>4.5599999999999996</v>
       </c>
@@ -9313,49 +10765,49 @@
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="18" t="str">
+      <c r="B22" s="17" t="str">
         <v>Abc</v>
       </c>
       <c r="C22" s="13"/>
       <c r="E22" s="14"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="19"/>
+      <c r="C23" s="18"/>
       <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" s="19"/>
+      <c r="C24" s="18"/>
       <c r="E24" s="14"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="19"/>
+      <c r="C25" s="18"/>
       <c r="E25" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="21"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="16" t="e" cm="1">
         <f t="array" ref="C27">_all(B27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="16" t="b" cm="1">
@@ -9363,12 +10815,12 @@
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="21" t="s">
-        <v>575</v>
+      <c r="B29" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="C29" s="16" t="b" cm="1">
         <f t="array" ref="C29">_all({1;1})</f>
@@ -9377,42 +10829,42 @@
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="19"/>
+      <c r="C30" s="18"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C31" s="19"/>
+      <c r="C31" s="18"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="19"/>
+      <c r="C32" s="18"/>
       <c r="E32" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="21"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="16" t="e" cm="1">
         <f t="array" ref="C34">_any(B34)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="16" t="b" cm="1">
@@ -9420,11 +10872,11 @@
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="16" t="b" cm="1">
@@ -9448,7 +10900,7 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E40" s="3" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -9458,35 +10910,35 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="18"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="13"/>
       <c r="E43" s="4" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="13" t="e" cm="1">
         <f t="array" ref="C45">_bin(B45)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="b">
+      <c r="B46" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C46" s="13" t="str" cm="1">
@@ -9494,11 +10946,11 @@
         <v>0</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="18">
+      <c r="B47" s="17">
         <v>123</v>
       </c>
       <c r="C47" s="13" t="str" cm="1">
@@ -9507,7 +10959,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="18">
+      <c r="B48" s="17">
         <v>1.23</v>
       </c>
       <c r="C48" s="13" t="e" cm="1">
@@ -9517,7 +10969,7 @@
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="13"/>
       <c r="E49" s="3"/>
     </row>
@@ -9534,7 +10986,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C52" s="12" t="s">
@@ -9555,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
@@ -9604,7 +11056,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="13" t="b" cm="1">
@@ -9613,7 +11065,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="17" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="13" t="b" cm="1">
@@ -9622,17 +11074,17 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="13"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="17" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="13"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B64" s="18" t="e" cm="1" vm="2">
+      <c r="B64" s="17" t="e" cm="1" vm="2">
         <f t="array" ref="B64">_xlfn.SEQUENCE(0)</f>
         <v>#VALUE!</v>
       </c>
@@ -9642,17 +11094,17 @@
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="13"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C66" s="13"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B67" s="18" cm="1">
+      <c r="B67" s="17" cm="1">
         <f t="array" ref="B67">{0}</f>
         <v>0</v>
       </c>
@@ -9665,17 +11117,17 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B68" s="18"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="17" t="s">
         <v>117</v>
       </c>
       <c r="C69" s="13"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="18" cm="1">
+      <c r="B70" s="17" cm="1">
         <f t="array" ref="B70:B71">{0;0}</f>
         <v>0</v>
       </c>
@@ -9688,53 +11140,53 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B71" s="18">
+      <c r="B71" s="17">
         <v>0</v>
       </c>
       <c r="C71" s="13"/>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="13"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="18"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="13"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="18"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="13"/>
       <c r="E74" s="4" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="18"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="10"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="13" t="e" cm="1">
         <f t="array" ref="C77">_chr(B76)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="18">
+      <c r="B78" s="17">
         <v>123</v>
       </c>
       <c r="C78" s="13" t="str" cm="1">
@@ -9742,11 +11194,11 @@
         <v>{</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="18">
+      <c r="B79" s="17">
         <v>1.23</v>
       </c>
       <c r="C79" s="13" t="e" cm="1">
@@ -9755,18 +11207,18 @@
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="18"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="13"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
-      <c r="C81" s="20" t="s">
-        <v>588</v>
+      <c r="C81" s="19" t="s">
+        <v>583</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="18"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="13" cm="1">
         <f t="array" ref="C82">str.ord(_chr(TRUE))</f>
         <v>1</v>
@@ -9774,30 +11226,30 @@
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="18"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="13"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B84" s="18"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="13"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B85" s="18"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="13"/>
       <c r="E85" s="4" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
@@ -9806,7 +11258,7 @@
       <c r="E87" s="6"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="17" t="s">
         <v>30</v>
       </c>
       <c r="C88" s="13" cm="1">
@@ -9829,7 +11281,7 @@
       <c r="E89" s="6"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B90" s="18"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="13">
         <v>2</v>
       </c>
@@ -9839,19 +11291,19 @@
       <c r="E90" s="6"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="18"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="13"/>
       <c r="E91" s="6"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C92" s="13"/>
       <c r="E92" s="6"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="18" t="str" cm="1">
+      <c r="B93" s="17" t="str" cm="1">
         <f t="array" ref="B93:B94">{"abc";"def"}</f>
         <v>abc</v>
       </c>
@@ -9877,90 +11329,90 @@
       <c r="E94" s="6"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="18"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="13"/>
       <c r="E95" s="6"/>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="18"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="13"/>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B97" s="18"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="13"/>
       <c r="E97" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B98" s="18"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="13"/>
       <c r="E98" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B99" s="18"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="13"/>
       <c r="E99" s="10" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B100" s="18"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="13"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="13"/>
       <c r="E101" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B102" s="29" t="s">
+      <c r="B102" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B103" s="18"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="13"/>
       <c r="E103" s="14"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B104" s="18" t="s">
-        <v>624</v>
+      <c r="B104" s="17" t="s">
+        <v>619</v>
       </c>
       <c r="C104" s="13"/>
       <c r="E104" s="14"/>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B105" s="18"/>
-      <c r="C105" s="18" t="s">
-        <v>625</v>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17" t="s">
+        <v>620</v>
       </c>
       <c r="E105" s="14"/>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B106" s="18" cm="1">
+      <c r="B106" s="17" cm="1">
         <f t="array" ref="B106:B108">{11;0;33}</f>
         <v>11</v>
       </c>
-      <c r="C106" s="20" cm="1">
+      <c r="C106" s="19" cm="1">
         <f t="array" ref="C106:C107">function.filter(_xlfn.LAMBDA(_xlpm.x, _xlpm.x),_xlfn.ANCHORARRAY( B106))</f>
         <v>11</v>
       </c>
       <c r="E106" s="14"/>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B107" s="18">
+      <c r="B107" s="17">
         <v>0</v>
       </c>
       <c r="C107" s="13">
@@ -9969,24 +11421,24 @@
       <c r="E107" s="14"/>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B108" s="18">
+      <c r="B108" s="17">
         <v>33</v>
       </c>
       <c r="C108" s="13"/>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B109" s="18"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="13"/>
       <c r="E109" s="3"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B110" s="18"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="13"/>
       <c r="E110" s="3"/>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="13"/>
       <c r="E111" s="4" t="s">
         <v>164</v>
@@ -9997,10 +11449,10 @@
         <v>45</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
@@ -10011,7 +11463,7 @@
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="21" t="s">
+      <c r="B114" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="16" t="e" cm="1">
@@ -10021,7 +11473,7 @@
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="21" t="b">
+      <c r="B115" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C115" s="16" cm="1">
@@ -10031,7 +11483,7 @@
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="21">
+      <c r="B116" s="20">
         <v>-4</v>
       </c>
       <c r="C116" s="16" cm="1">
@@ -10041,8 +11493,8 @@
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="21" t="s">
-        <v>631</v>
+      <c r="B117" s="20" t="s">
+        <v>626</v>
       </c>
       <c r="C117" s="16" cm="1">
         <f t="array" ref="C117">_float(B117)</f>
@@ -10051,8 +11503,8 @@
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="21" t="s">
-        <v>634</v>
+      <c r="B118" s="20" t="s">
+        <v>629</v>
       </c>
       <c r="C118" s="16" t="e" cm="1">
         <f t="array" ref="C118">_float(B118)</f>
@@ -10061,56 +11513,56 @@
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="21"/>
+      <c r="B119" s="20"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="18"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="13"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="13"/>
       <c r="E121" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="13"/>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="13"/>
       <c r="E123" s="4" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="124" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="43" t="s">
+      <c r="B124" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="13" t="e" cm="1">
         <f t="array" ref="C125">_hex(B125)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="18" t="b">
+      <c r="B126" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C126" s="13" t="str" cm="1">
@@ -10118,11 +11570,11 @@
         <v>0</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="18">
+      <c r="B127" s="17">
         <v>123</v>
       </c>
       <c r="C127" s="13" t="str" cm="1">
@@ -10131,7 +11583,7 @@
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B128" s="18">
+      <c r="B128" s="17">
         <v>1.23</v>
       </c>
       <c r="C128" s="13" t="e" cm="1">
@@ -10141,12 +11593,12 @@
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="18"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="13"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="13"/>
       <c r="E130" s="4" t="s">
         <v>163</v>
@@ -10157,10 +11609,10 @@
         <v>45</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
@@ -10171,7 +11623,7 @@
       <c r="E132" s="6"/>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="21" t="s">
+      <c r="B133" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C133" s="16" t="e" cm="1">
@@ -10181,7 +11633,7 @@
       <c r="E133" s="6"/>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="21" t="b">
+      <c r="B134" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C134" s="16" cm="1">
@@ -10191,7 +11643,7 @@
       <c r="E134" s="6"/>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="21" t="s">
+      <c r="B135" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C135" s="16" cm="1">
@@ -10201,7 +11653,7 @@
       <c r="E135" s="6"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="21" t="s">
+      <c r="B136" s="20" t="s">
         <v>162</v>
       </c>
       <c r="C136" s="16" t="e" cm="1">
@@ -10221,46 +11673,46 @@
       <c r="E137" s="6"/>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="21"/>
+      <c r="B138" s="20"/>
       <c r="E138" s="6"/>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C139" s="10"/>
       <c r="E139" s="4" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="18"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="13"/>
       <c r="E140" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="18"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="13"/>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="18"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="13"/>
       <c r="E142" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="143" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="43" t="s">
+      <c r="B143" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="18"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="13" cm="1">
         <f t="array" ref="C144">_isinstance.int(B144)</f>
         <v>0</v>
@@ -10268,7 +11720,7 @@
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="18" t="b">
+      <c r="B145" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C145" s="13" t="b" cm="1">
@@ -10276,11 +11728,11 @@
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="18">
+      <c r="B146" s="17">
         <v>1</v>
       </c>
       <c r="C146" s="13" t="b" cm="1">
@@ -10290,7 +11742,7 @@
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="18">
+      <c r="B147" s="17">
         <v>2.2999999999999998</v>
       </c>
       <c r="C147" s="13" cm="1">
@@ -10300,7 +11752,7 @@
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>140</v>
       </c>
       <c r="C148" s="13" cm="1">
@@ -10308,35 +11760,35 @@
         <v>0</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="18"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="13"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="18"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="13"/>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="18"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="13"/>
       <c r="E151" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="152" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="43" t="s">
+      <c r="B152" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
@@ -10353,7 +11805,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
@@ -10396,14 +11848,14 @@
       <c r="E159" s="6"/>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="21" t="s">
-        <v>556</v>
+      <c r="B160" s="20" t="s">
+        <v>551</v>
       </c>
       <c r="C160" s="13"/>
       <c r="E160" s="6"/>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="21" cm="1">
+      <c r="B161" s="20" cm="1">
         <f t="array" ref="B161:B162">{4.56;"Abc"}</f>
         <v>4.5599999999999996</v>
       </c>
@@ -10414,24 +11866,24 @@
       <c r="E161" s="6"/>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="18" t="str">
+      <c r="B162" s="17" t="str">
         <v>Abc</v>
       </c>
       <c r="C162" s="13"/>
       <c r="E162" s="6"/>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B163" s="18"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="13"/>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="18"/>
+      <c r="B164" s="17"/>
       <c r="C164" s="13"/>
       <c r="E164" s="3"/>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="18"/>
+      <c r="B165" s="17"/>
       <c r="C165" s="13"/>
       <c r="E165" s="4" t="s">
         <v>220</v>
@@ -10442,10 +11894,10 @@
         <v>54</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
@@ -10455,7 +11907,7 @@
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B168" s="15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C168" s="16" t="str" cm="1">
         <f t="array" ref="C168:C169">_list(B168)</f>
@@ -10470,19 +11922,19 @@
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="18"/>
+      <c r="B170" s="17"/>
       <c r="C170" s="13"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="18" t="s">
-        <v>561</v>
+      <c r="B171" s="17" t="s">
+        <v>556</v>
       </c>
       <c r="C171" s="13"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B172" s="18" t="str" cm="1">
+      <c r="B172" s="17" t="str" cm="1">
         <f t="array" ref="B172:B173">{"A";"a"}</f>
         <v>A</v>
       </c>
@@ -10493,7 +11945,7 @@
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B173" s="18" t="str">
+      <c r="B173" s="17" t="str">
         <v>a</v>
       </c>
       <c r="C173" s="13" t="str">
@@ -10502,12 +11954,12 @@
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="18"/>
+      <c r="B174" s="17"/>
       <c r="C174" s="13"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="18">
+      <c r="B175" s="17">
         <v>3</v>
       </c>
       <c r="C175" s="16" t="e" cm="1">
@@ -10517,88 +11969,88 @@
       <c r="E175" s="4"/>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B176" s="18"/>
+      <c r="B176" s="17"/>
       <c r="C176" s="13"/>
       <c r="E176" s="4"/>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B177" s="18"/>
+      <c r="B177" s="17"/>
       <c r="C177" s="13"/>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B178" s="18"/>
+      <c r="B178" s="17"/>
       <c r="C178" s="13"/>
       <c r="E178" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B179" s="18"/>
+      <c r="B179" s="17"/>
       <c r="C179" s="13"/>
       <c r="E179" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B180" s="18"/>
+      <c r="B180" s="17"/>
       <c r="C180" s="13"/>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B181" s="18"/>
+      <c r="B181" s="17"/>
       <c r="C181" s="13"/>
       <c r="E181" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B182" s="18"/>
+      <c r="B182" s="17"/>
       <c r="C182" s="13"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B183" s="18"/>
+      <c r="B183" s="17"/>
       <c r="C183" s="13"/>
       <c r="E183" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B184" s="18"/>
+      <c r="B184" s="17"/>
       <c r="C184" s="13"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B185" s="18"/>
+      <c r="B185" s="17"/>
       <c r="C185" s="13"/>
       <c r="E185" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="186" spans="2:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="43" t="s">
+      <c r="B186" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B187" s="18"/>
+      <c r="B187" s="17"/>
       <c r="C187" s="13" t="e" cm="1">
         <f t="array" ref="C187">_oct(B187)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B188" s="18" t="b">
+      <c r="B188" s="17" t="b">
         <v>0</v>
       </c>
       <c r="C188" s="13" t="str" cm="1">
@@ -10606,11 +12058,11 @@
         <v>0</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B189" s="18">
+      <c r="B189" s="17">
         <v>123</v>
       </c>
       <c r="C189" s="13" t="str" cm="1">
@@ -10620,7 +12072,7 @@
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B190" s="18">
+      <c r="B190" s="17">
         <v>1.23</v>
       </c>
       <c r="C190" s="13" t="e" cm="1">
@@ -10630,35 +12082,35 @@
       <c r="E190" s="4"/>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B191" s="18"/>
+      <c r="B191" s="17"/>
       <c r="C191" s="13"/>
       <c r="E191" s="4"/>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B192" s="18"/>
+      <c r="B192" s="17"/>
       <c r="C192" s="13"/>
       <c r="E192" s="4"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="18"/>
+      <c r="B193" s="17"/>
       <c r="C193" s="13"/>
       <c r="E193" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="194" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="43" t="s">
+      <c r="B194" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B195" s="18" t="s">
+      <c r="B195" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C195" s="13" cm="1">
@@ -10668,8 +12120,8 @@
       <c r="E195" s="6"/>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B196" s="18" t="s">
-        <v>526</v>
+      <c r="B196" s="17" t="s">
+        <v>522</v>
       </c>
       <c r="C196" s="13" t="e" cm="1">
         <f t="array" ref="C196">_ord(B196)</f>
@@ -10678,7 +12130,7 @@
       <c r="E196" s="6"/>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B197" s="18">
+      <c r="B197" s="17">
         <v>123</v>
       </c>
       <c r="C197" s="13" t="e" cm="1">
@@ -10688,31 +12140,31 @@
       <c r="E197" s="6"/>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B198" s="18"/>
+      <c r="B198" s="17"/>
       <c r="C198" s="13"/>
       <c r="E198" s="6"/>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B199" s="18"/>
+      <c r="B199" s="17"/>
       <c r="C199" s="13"/>
       <c r="E199" s="6"/>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B200" s="18"/>
+      <c r="B200" s="17"/>
       <c r="C200" s="13"/>
       <c r="E200" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="201" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="43" t="s">
+      <c r="B201" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.2">
@@ -10721,7 +12173,7 @@
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B203" s="18" t="b">
+      <c r="B203" s="17" t="b">
         <v>1</v>
       </c>
       <c r="C203" s="13" cm="1">
@@ -10736,7 +12188,7 @@
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B205" s="18">
+      <c r="B205" s="17">
         <v>2</v>
       </c>
       <c r="C205" s="13" cm="1">
@@ -10746,19 +12198,19 @@
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B206" s="18"/>
+      <c r="B206" s="17"/>
       <c r="C206" s="13">
         <v>1</v>
       </c>
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B207" s="18"/>
+      <c r="B207" s="17"/>
       <c r="C207" s="13"/>
       <c r="E207" s="4"/>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B208" s="18">
+      <c r="B208" s="17">
         <v>2.2999999999999998</v>
       </c>
       <c r="C208" s="13" t="e" cm="1" vm="2">
@@ -10768,40 +12220,40 @@
       <c r="E208" s="4"/>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B209" s="18"/>
+      <c r="B209" s="17"/>
       <c r="C209" s="13"/>
       <c r="E209" s="4"/>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B210" s="18"/>
+      <c r="B210" s="17"/>
       <c r="C210" s="13"/>
       <c r="E210" s="4"/>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B211" s="18"/>
+      <c r="B211" s="17"/>
       <c r="C211" s="13"/>
       <c r="E211" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="212" spans="2:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="43" t="s">
-        <v>612</v>
+      <c r="B212" s="42" t="s">
+        <v>607</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B213" s="18"/>
+      <c r="B213" s="17"/>
       <c r="C213" s="13"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B214" s="18">
+      <c r="B214" s="17">
         <v>0</v>
       </c>
       <c r="C214" s="13" cm="1">
@@ -10811,7 +12263,7 @@
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B215" s="18">
+      <c r="B215" s="17">
         <v>2</v>
       </c>
       <c r="C215" s="13">
@@ -10820,7 +12272,7 @@
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B216" s="18"/>
+      <c r="B216" s="17"/>
       <c r="C216" s="13"/>
       <c r="E216" s="4"/>
     </row>
@@ -10842,35 +12294,35 @@
       <c r="E218" s="4"/>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B219" s="18"/>
+      <c r="B219" s="17"/>
       <c r="C219" s="13"/>
       <c r="E219" s="4"/>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B220" s="18"/>
+      <c r="B220" s="17"/>
       <c r="C220" s="13"/>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B221" s="18"/>
+      <c r="B221" s="17"/>
       <c r="C221" s="13"/>
       <c r="E221" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="222" spans="2:5" ht="112" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B222" s="43" t="s">
-        <v>612</v>
+      <c r="B222" s="42" t="s">
+        <v>607</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B223" s="18"/>
+      <c r="B223" s="17"/>
       <c r="C223" s="13"/>
       <c r="E223" s="4"/>
     </row>
@@ -10903,7 +12355,7 @@
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B227" s="18"/>
+      <c r="B227" s="17"/>
       <c r="C227" s="13"/>
       <c r="E227" s="4"/>
     </row>
@@ -10951,7 +12403,7 @@
       <c r="C234" s="13"/>
       <c r="D234" s="3"/>
       <c r="E234" s="6" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.2">
@@ -10961,7 +12413,7 @@
       <c r="E235" s="6"/>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B236" s="29" t="s">
+      <c r="B236" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C236" s="12" t="s">
@@ -10975,7 +12427,7 @@
       <c r="C237" s="13"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.2">
@@ -10986,7 +12438,7 @@
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.2">
@@ -11009,7 +12461,7 @@
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="5" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.2">
@@ -11068,12 +12520,12 @@
       <c r="E245" s="3"/>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B247" s="21" t="s">
-        <v>495</v>
+      <c r="B247" s="20" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B248" s="21" t="b" cm="1">
+      <c r="B248" s="20" t="b" cm="1">
         <f t="array" ref="B248:B251">{TRUE;1;2.34;"Abc"}</f>
         <v>1</v>
       </c>
@@ -11098,21 +12550,21 @@
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C253" s="21" t="s">
-        <v>505</v>
+      <c r="C253" s="20" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C254" s="21" t="str" cm="1">
+      <c r="C254" s="20" t="str" cm="1">
         <f t="array" ref="C254">_repr(_repr)</f>
         <v>&lt;function&gt;</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B255" s="21"/>
+      <c r="B255" s="20"/>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B256" s="21"/>
+      <c r="B256" s="20"/>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E257" s="4" t="s">
@@ -11120,12 +12572,12 @@
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E258" s="22" t="s">
+      <c r="E258" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E259" s="22"/>
+      <c r="E259" s="21"/>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E260" s="4" t="s">
@@ -11133,12 +12585,12 @@
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E261" s="22" t="s">
-        <v>550</v>
+      <c r="E261" s="21" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E262" s="22"/>
+      <c r="E262" s="21"/>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E263" s="4" t="s">
@@ -11146,7 +12598,7 @@
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E264" s="22" t="s">
+      <c r="E264" s="21" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11156,21 +12608,21 @@
       </c>
     </row>
     <row r="267" spans="2:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="B267" s="29" t="s">
+      <c r="B267" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E267" s="6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B268" s="11"/>
       <c r="C268" s="13"/>
       <c r="E268" s="3" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.2">
@@ -11180,7 +12632,7 @@
         <v>None</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.2">
@@ -11227,13 +12679,13 @@
       <c r="E274" s="6"/>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B275" s="21" t="s">
-        <v>495</v>
+      <c r="B275" s="20" t="s">
+        <v>493</v>
       </c>
       <c r="E275" s="6"/>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B276" s="21" t="b" cm="1">
+      <c r="B276" s="20" t="b" cm="1">
         <f t="array" ref="B276:B279">{TRUE;1;2.34;"Abc"}</f>
         <v>1</v>
       </c>
@@ -11259,22 +12711,22 @@
       </c>
     </row>
     <row r="281" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C281" s="21" t="s">
-        <v>651</v>
+      <c r="C281" s="20" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="282" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C282" s="21" t="str" cm="1">
+      <c r="C282" s="20" t="str" cm="1">
         <f t="array" ref="C282">_str(_str)</f>
         <v>&lt;function&gt;</v>
       </c>
     </row>
     <row r="283" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E283" s="22"/>
+      <c r="E283" s="21"/>
     </row>
     <row r="285" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E285" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -11297,7 +12749,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -11317,23 +12769,23 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -11354,58 +12806,58 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -11466,26 +12918,26 @@
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
